--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,39 +60,39 @@
     <t>substance</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>nicotine</t>
+  </si>
+  <si>
+    <t>1-phenyl-1-propanamine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>nicotine</t>
-  </si>
-  <si>
-    <t>1-phenyl-1-propanamine</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
     <t>menthol</t>
   </si>
   <si>
+    <t>xylazine</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
     <t>procaine</t>
   </si>
   <si>
@@ -105,30 +105,30 @@
     <t>p-fluorofentanyl</t>
   </si>
   <si>
+    <t>levamisole</t>
+  </si>
+  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
     <t>quinine</t>
   </si>
   <si>
-    <t>levamisole</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
+    <t>benzoic acid</t>
+  </si>
+  <si>
     <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
-    <t>benzoic acid</t>
+    <t>ketamine</t>
   </si>
   <si>
     <t>lysergic acid diethylamide (LSD)</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>caffeine</t>
   </si>
   <si>
@@ -147,39 +147,39 @@
     <t>cas</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>54-11-5</t>
+  </si>
+  <si>
+    <t>2941-20-0</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>54-11-5</t>
-  </si>
-  <si>
-    <t>2941-20-0</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
     <t>1490-04-6</t>
   </si>
   <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
     <t>561-27-3</t>
   </si>
   <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
     <t>59-46-1</t>
   </si>
   <si>
@@ -189,30 +189,30 @@
     <t>90736-23-5</t>
   </si>
   <si>
+    <t>14769-73-4</t>
+  </si>
+  <si>
     <t>43021-26-7</t>
   </si>
   <si>
     <t>72402-53-0</t>
   </si>
   <si>
-    <t>14769-73-4</t>
-  </si>
-  <si>
     <t>62-44-2</t>
   </si>
   <si>
+    <t>65-85-0</t>
+  </si>
+  <si>
     <t>519-09-5</t>
   </si>
   <si>
-    <t>65-85-0</t>
+    <t>6740-88-1</t>
   </si>
   <si>
     <t>50-37-3</t>
   </si>
   <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
     <t>58-08-2</t>
   </si>
   <si>
@@ -228,30 +228,30 @@
     <t>unii</t>
   </si>
   <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>6M3C89ZY6R</t>
   </si>
   <si>
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>6M3C89ZY6R</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
+    <t>2KFG9TP5V8</t>
   </si>
   <si>
     <t>70D95007SX</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
     <t>4Z8Y51M438</t>
   </si>
   <si>
@@ -261,28 +261,28 @@
     <t>I45R05QM0Z</t>
   </si>
   <si>
+    <t>2880D3468G</t>
+  </si>
+  <si>
     <t>58C337KP3E</t>
   </si>
   <si>
     <t>A7V27PHC7A</t>
   </si>
   <si>
-    <t>2880D3468G</t>
-  </si>
-  <si>
     <t>ER0CTH01H9</t>
   </si>
   <si>
+    <t>8SKN0B0MIM</t>
+  </si>
+  <si>
     <t>5353I8I6YS</t>
   </si>
   <si>
-    <t>8SKN0B0MIM</t>
+    <t>690G0D6V8H</t>
   </si>
   <si>
     <t>8NA5SWF92O</t>
-  </si>
-  <si>
-    <t>690G0D6V8H</t>
   </si>
   <si>
     <t>3G6A5W338E</t>
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -784,7 +784,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
         <v>95</v>
@@ -922,16 +922,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -943,10 +943,10 @@
         <v>365</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="1">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>3345</v>
+        <v>66924</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1103,10 +1103,10 @@
         <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
         <v>95</v>
@@ -1360,7 +1360,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
         <v>95</v>
@@ -1498,16 +1498,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1519,10 +1519,10 @@
         <v>365</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1535,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1642,16 +1642,16 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>66924</v>
+        <v>165365057</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
         <v>97</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
         <v>95</v>
@@ -1930,16 +1930,16 @@
         <v>17</v>
       </c>
       <c r="C11" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -1988,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="1">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -2074,16 +2074,16 @@
         <v>21</v>
       </c>
       <c r="C12" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2111,10 +2111,10 @@
         <v>1</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2255,16 +2255,16 @@
         <v>1</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14" s="1">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="1">
-        <v>5707</v>
+        <v>5462328</v>
       </c>
       <c r="D15" t="s">
         <v>54</v>
@@ -2515,7 +2515,7 @@
         <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2549,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="R15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2659,7 +2659,7 @@
         <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
-        <v>4914</v>
+        <v>156346345</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="1">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="1">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1">
-        <v>165365057</v>
+        <v>10836</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3134,10 +3134,10 @@
         <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="1">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="P20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1">
-        <v>10836</v>
+        <v>62300</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3391,10 +3391,10 @@
         <v>400</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3422,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="1">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1">
-        <v>62300</v>
+        <v>4914</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3535,10 +3535,10 @@
         <v>400</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22" s="1">
         <v>0</v>
@@ -3655,19 +3655,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3695,10 +3695,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="1">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="1">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
-        <v>5462328</v>
+        <v>26879</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="1">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" s="1">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s">
         <v>97</v>
@@ -3967,10 +3967,10 @@
         <v>401</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -4004,10 +4004,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="1">
         <v>0</v>
@@ -4087,16 +4087,16 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1">
         <v>3345</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s">
         <v>95</v>
@@ -4234,7 +4234,7 @@
         <v>31</v>
       </c>
       <c r="C27" s="1">
-        <v>3034034</v>
+        <v>119478</v>
       </c>
       <c r="D27" t="s">
         <v>59</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="1">
         <v>0</v>
@@ -4378,7 +4378,7 @@
         <v>32</v>
       </c>
       <c r="C28" s="1">
-        <v>26879</v>
+        <v>3034034</v>
       </c>
       <c r="D28" t="s">
         <v>60</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="1">
         <v>0</v>
@@ -4519,19 +4519,19 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G29" t="s">
         <v>97</v>
@@ -4543,10 +4543,10 @@
         <v>401</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -4580,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -4663,19 +4663,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1">
-        <v>4754</v>
+        <v>446220</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4684,7 +4684,7 @@
         <v>44845</v>
       </c>
       <c r="I30" s="1">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="1">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="1">
         <v>0</v>
@@ -4807,19 +4807,19 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1">
-        <v>446220</v>
+        <v>4754</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4828,7 +4828,7 @@
         <v>44845</v>
       </c>
       <c r="I31" s="1">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -4868,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="W31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="1">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ31" s="1">
         <v>0</v>
@@ -4951,19 +4951,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s">
         <v>97</v>
@@ -4972,13 +4972,13 @@
         <v>44886</v>
       </c>
       <c r="I32" s="1">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -4991,10 +4991,10 @@
         <v>1</v>
       </c>
       <c r="P32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="1">
         <v>0</v>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="1">
         <v>0</v>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="1">
         <v>0</v>
@@ -5095,16 +5095,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C33" s="1">
-        <v>66924</v>
+        <v>5707</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s">
         <v>95</v>
@@ -5116,7 +5116,7 @@
         <v>44886</v>
       </c>
       <c r="I33" s="1">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -5144,10 +5144,10 @@
         <v>0</v>
       </c>
       <c r="S33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="1">
         <v>0</v>
@@ -5239,19 +5239,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1">
-        <v>448223</v>
+        <v>4754</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G34" t="s">
         <v>97</v>
@@ -5260,13 +5260,13 @@
         <v>44886</v>
       </c>
       <c r="I34" s="1">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ34" s="1">
         <v>0</v>
@@ -5383,16 +5383,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1">
-        <v>5462328</v>
+        <v>66924</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s">
         <v>95</v>
@@ -5404,7 +5404,7 @@
         <v>44886</v>
       </c>
       <c r="I35" s="1">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -5527,19 +5527,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C36" s="1">
-        <v>165365057</v>
+        <v>446220</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -5548,7 +5548,7 @@
         <v>44886</v>
       </c>
       <c r="I36" s="1">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -5588,10 +5588,10 @@
         <v>0</v>
       </c>
       <c r="W36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="1">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="AS36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="1">
         <v>0</v>
@@ -5671,16 +5671,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C37" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E37" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
         <v>95</v>
@@ -5692,7 +5692,7 @@
         <v>44886</v>
       </c>
       <c r="I37" s="1">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J37" s="1">
         <v>0</v>
@@ -5720,10 +5720,10 @@
         <v>0</v>
       </c>
       <c r="S37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="1">
         <v>0</v>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -5815,19 +5815,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -5836,13 +5836,13 @@
         <v>44886</v>
       </c>
       <c r="I38" s="1">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -5855,10 +5855,10 @@
         <v>1</v>
       </c>
       <c r="P38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="1">
         <v>0</v>
@@ -5959,19 +5959,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C39" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -5980,13 +5980,13 @@
         <v>44886</v>
       </c>
       <c r="I39" s="1">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6020,10 +6020,10 @@
         <v>0</v>
       </c>
       <c r="W39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="1">
         <v>0</v>
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6103,16 +6103,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C40" s="1">
-        <v>446220</v>
+        <v>243</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
         <v>95</v>
@@ -6124,7 +6124,7 @@
         <v>44886</v>
       </c>
       <c r="I40" s="1">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
@@ -6167,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="1">
         <v>0</v>
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C41" s="1">
-        <v>4754</v>
+        <v>165365057</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6268,13 +6268,13 @@
         <v>44886</v>
       </c>
       <c r="I41" s="1">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="1">
         <v>0</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="AS41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT41" s="1">
         <v>0</v>
@@ -6391,19 +6391,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C42" s="1">
-        <v>243</v>
+        <v>119478</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6412,13 +6412,13 @@
         <v>44886</v>
       </c>
       <c r="I42" s="1">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6535,19 +6535,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C43" s="1">
-        <v>119478</v>
+        <v>448223</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s">
         <v>97</v>
@@ -6556,7 +6556,7 @@
         <v>44886</v>
       </c>
       <c r="I43" s="1">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -6682,7 +6682,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="1">
-        <v>5761</v>
+        <v>3821</v>
       </c>
       <c r="D44" t="s">
         <v>64</v>
@@ -6691,7 +6691,7 @@
         <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6700,7 +6700,7 @@
         <v>44897</v>
       </c>
       <c r="I44" s="1">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH44" s="1">
         <v>0</v>
@@ -6823,19 +6823,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1">
-        <v>4754</v>
+        <v>5761</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6844,13 +6844,13 @@
         <v>44897</v>
       </c>
       <c r="I45" s="1">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="AP45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ45" s="1">
         <v>0</v>
@@ -6967,19 +6967,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C46" s="1">
-        <v>3821</v>
+        <v>4754</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -6988,13 +6988,13 @@
         <v>44897</v>
       </c>
       <c r="I46" s="1">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7055,10 +7055,10 @@
         <v>0</v>
       </c>
       <c r="AF46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH46" s="1">
         <v>0</v>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="AP46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ46" s="1">
         <v>0</v>
@@ -7123,7 +7123,7 @@
         <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7132,7 +7132,7 @@
         <v>44894</v>
       </c>
       <c r="I47" s="1">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -7255,19 +7255,19 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C48" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G48" t="s">
         <v>97</v>
@@ -7276,13 +7276,13 @@
         <v>44896</v>
       </c>
       <c r="I48" s="1">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -7298,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="1">
         <v>0</v>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="AP48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ48" s="1">
         <v>0</v>
@@ -7399,19 +7399,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C49" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D49" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7420,13 +7420,13 @@
         <v>44896</v>
       </c>
       <c r="I49" s="1">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49" s="1">
         <v>0</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ49" s="1">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="AS49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="1">
         <v>0</v>
@@ -7543,19 +7543,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C50" s="1">
-        <v>10836</v>
+        <v>4754</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E50" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7564,7 +7564,7 @@
         <v>44896</v>
       </c>
       <c r="I50" s="1">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -7598,10 +7598,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ50" s="1">
         <v>0</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C51" s="1">
-        <v>4754</v>
+        <v>88890</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E51" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7708,13 +7708,13 @@
         <v>44896</v>
       </c>
       <c r="I51" s="1">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="AP51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ51" s="1">
         <v>0</v>
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT51" s="1">
         <v>0</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C52" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E52" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7852,13 +7852,13 @@
         <v>44896</v>
       </c>
       <c r="I52" s="1">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
@@ -7886,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="U52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W52" s="1">
         <v>0</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C53" s="1">
         <v>5462328</v>
       </c>
       <c r="D53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -7996,7 +7996,7 @@
         <v>44886</v>
       </c>
       <c r="I53" s="1">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C54" s="1">
-        <v>5462507</v>
+        <v>12107</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E54" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8140,7 +8140,7 @@
         <v>44886</v>
       </c>
       <c r="I54" s="1">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT54" s="1">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C55" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E55" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8284,7 +8284,7 @@
         <v>44886</v>
       </c>
       <c r="I55" s="1">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -8303,10 +8303,10 @@
         <v>1</v>
       </c>
       <c r="P55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="1">
         <v>0</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
@@ -8390,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="AS55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C56" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E56" t="s">
         <v>73</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8428,13 +8428,13 @@
         <v>44886</v>
       </c>
       <c r="I56" s="1">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -8447,10 +8447,10 @@
         <v>1</v>
       </c>
       <c r="P56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" s="1">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56" s="1">
         <v>0</v>
@@ -8510,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" s="1">
         <v>0</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C57" s="1">
-        <v>5486550</v>
+        <v>88890</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E57" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8572,7 +8572,7 @@
         <v>44886</v>
       </c>
       <c r="I57" s="1">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -8654,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="1">
         <v>0</v>
@@ -8672,13 +8672,13 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR57" s="1">
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C58" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D58" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E58" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8716,7 +8716,7 @@
         <v>44886</v>
       </c>
       <c r="I58" s="1">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J58" s="1">
         <v>1</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8839,19 +8839,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C59" s="1">
-        <v>446220</v>
+        <v>5486550</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E59" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F59" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8860,13 +8860,13 @@
         <v>44886</v>
       </c>
       <c r="I59" s="1">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="1">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR59" s="1">
         <v>0</v>
@@ -8983,19 +8983,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C60" s="1">
         <v>88890</v>
       </c>
       <c r="D60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9004,7 +9004,7 @@
         <v>44886</v>
       </c>
       <c r="I60" s="1">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="J60" s="1">
         <v>1</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C61" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E61" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F61" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9148,7 +9148,7 @@
         <v>44886</v>
       </c>
       <c r="I61" s="1">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -9167,10 +9167,10 @@
         <v>1</v>
       </c>
       <c r="P61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="1">
         <v>0</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="AP61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ61" s="1">
         <v>0</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C62" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D62" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9292,7 +9292,7 @@
         <v>44886</v>
       </c>
       <c r="I62" s="1">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -9311,10 +9311,10 @@
         <v>1</v>
       </c>
       <c r="P62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z62" s="1">
         <v>0</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9389,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="AP62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ62" s="1">
         <v>0</v>
@@ -9415,19 +9415,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C63" s="1">
-        <v>21812144</v>
+        <v>5462328</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E63" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s">
         <v>97</v>
@@ -9436,7 +9436,7 @@
         <v>44886</v>
       </c>
       <c r="I63" s="1">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
@@ -9545,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU63" s="1">
         <v>0</v>
@@ -9559,19 +9559,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64" s="1">
-        <v>12107</v>
+        <v>88890</v>
       </c>
       <c r="D64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E64" t="s">
         <v>71</v>
       </c>
       <c r="F64" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s">
         <v>97</v>
@@ -9580,13 +9580,13 @@
         <v>44886</v>
       </c>
       <c r="I64" s="1">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -9703,19 +9703,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C65" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D65" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E65" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F65" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
@@ -9724,13 +9724,13 @@
         <v>44886</v>
       </c>
       <c r="I65" s="1">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -9749,10 +9749,10 @@
         <v>0</v>
       </c>
       <c r="R65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" s="1">
         <v>0</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9847,19 +9847,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C66" s="1">
-        <v>88890</v>
+        <v>4914</v>
       </c>
       <c r="D66" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E66" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G66" t="s">
         <v>97</v>
@@ -9868,13 +9868,13 @@
         <v>44886</v>
       </c>
       <c r="I66" s="1">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="AP66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ66" s="1">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="AS66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT66" s="1">
         <v>0</v>
@@ -9991,16 +9991,16 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C67" s="1">
         <v>446220</v>
       </c>
       <c r="D67" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E67" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F67" t="s">
         <v>95</v>
@@ -10012,7 +10012,7 @@
         <v>44886</v>
       </c>
       <c r="I67" s="1">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
@@ -10135,16 +10135,16 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C68" s="1">
-        <v>5462507</v>
+        <v>12107</v>
       </c>
       <c r="D68" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E68" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F68" t="s">
         <v>95</v>
@@ -10156,7 +10156,7 @@
         <v>44886</v>
       </c>
       <c r="I68" s="1">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -10262,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT68" s="1">
         <v>0</v>
@@ -10279,19 +10279,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C69" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F69" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -10300,13 +10300,13 @@
         <v>44886</v>
       </c>
       <c r="I69" s="1">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10423,19 +10423,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C70" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D70" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E70" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G70" t="s">
         <v>97</v>
@@ -10444,13 +10444,13 @@
         <v>44886</v>
       </c>
       <c r="I70" s="1">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -10463,10 +10463,10 @@
         <v>1</v>
       </c>
       <c r="P70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" s="1">
         <v>0</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C71" s="1">
-        <v>5486550</v>
+        <v>3345</v>
       </c>
       <c r="D71" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E71" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10588,13 +10588,13 @@
         <v>44886</v>
       </c>
       <c r="I71" s="1">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -10607,10 +10607,10 @@
         <v>1</v>
       </c>
       <c r="P71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" s="1">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="AQ71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR71" s="1">
         <v>0</v>
@@ -10711,19 +10711,19 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C72" s="1">
-        <v>4914</v>
+        <v>21812144</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E72" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="G72" t="s">
         <v>97</v>
@@ -10732,13 +10732,13 @@
         <v>44886</v>
       </c>
       <c r="I72" s="1">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="AP72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ72" s="1">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="AT72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU72" s="1">
         <v>0</v>
@@ -10855,19 +10855,19 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C73" s="1">
-        <v>5707</v>
+        <v>5486550</v>
       </c>
       <c r="D73" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E73" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F73" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G73" t="s">
         <v>97</v>
@@ -10876,13 +10876,13 @@
         <v>44886</v>
       </c>
       <c r="I73" s="1">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -10901,10 +10901,10 @@
         <v>0</v>
       </c>
       <c r="R73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T73" s="1">
         <v>0</v>
@@ -10958,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL73" s="1">
         <v>0</v>
@@ -10976,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="AQ73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR73" s="1">
         <v>0</v>
@@ -11002,16 +11002,16 @@
         <v>15</v>
       </c>
       <c r="C74" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D74" t="s">
         <v>44</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
@@ -11020,7 +11020,7 @@
         <v>44886</v>
       </c>
       <c r="I74" s="1">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="J74" s="1">
         <v>1</v>
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C75" s="1">
-        <v>156346345</v>
+        <v>165365057</v>
       </c>
       <c r="D75" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F75" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11164,13 +11164,13 @@
         <v>44886</v>
       </c>
       <c r="I75" s="1">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="J75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
@@ -11287,16 +11287,16 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C76" s="1">
         <v>446220</v>
       </c>
       <c r="D76" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E76" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F76" t="s">
         <v>95</v>
@@ -11308,7 +11308,7 @@
         <v>44886</v>
       </c>
       <c r="I76" s="1">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="J76" s="1">
         <v>0</v>
@@ -11431,19 +11431,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C77" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D77" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E77" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11452,7 +11452,7 @@
         <v>44886</v>
       </c>
       <c r="I77" s="1">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="J77" s="1">
         <v>1</v>
@@ -11471,10 +11471,10 @@
         <v>1</v>
       </c>
       <c r="P77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" s="1">
         <v>0</v>
@@ -11534,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="AK77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL77" s="1">
         <v>0</v>
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="AS77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT77" s="1">
         <v>0</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C78" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D78" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E78" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F78" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -11596,13 +11596,13 @@
         <v>44886</v>
       </c>
       <c r="I78" s="1">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="J78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
@@ -11615,10 +11615,10 @@
         <v>1</v>
       </c>
       <c r="P78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78" s="1">
         <v>0</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="AK78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL78" s="1">
         <v>0</v>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="AS78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT78" s="1">
         <v>0</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,60 +60,60 @@
     <t>substance</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>1-phenyl-1-propanamine</t>
+  </si>
+  <si>
+    <t>nicotine</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
+    <t>phenethyl 4-ANPP</t>
   </si>
   <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>nicotine</t>
-  </si>
-  <si>
-    <t>1-phenyl-1-propanamine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
     <t>menthol</t>
   </si>
   <si>
+    <t>procaine</t>
+  </si>
+  <si>
     <t>xylazine</t>
   </si>
   <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>procaine</t>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
+    <t>quinine</t>
   </si>
   <si>
     <t>levamisole</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
-    <t>quinine</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
@@ -123,21 +123,21 @@
     <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
+    <t>lysergic acid diethylamide (LSD)</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>lysergic acid diethylamide (LSD)</t>
-  </si>
-  <si>
     <t>caffeine</t>
   </si>
   <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -147,57 +147,57 @@
     <t>cas</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>2941-20-0</t>
+  </si>
+  <si>
+    <t>54-11-5</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t>620-71-3</t>
+    <t/>
   </si>
   <si>
     <t>50-36-2</t>
   </si>
   <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>54-11-5</t>
-  </si>
-  <si>
-    <t>2941-20-0</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>1490-04-6</t>
   </si>
   <si>
+    <t>59-46-1</t>
+  </si>
+  <si>
     <t>7361-61-7</t>
   </si>
   <si>
     <t>561-27-3</t>
   </si>
   <si>
-    <t>59-46-1</t>
+    <t>90736-23-5</t>
   </si>
   <si>
     <t>537-46-2</t>
   </si>
   <si>
-    <t>90736-23-5</t>
+    <t>43021-26-7</t>
+  </si>
+  <si>
+    <t>72402-53-0</t>
   </si>
   <si>
     <t>14769-73-4</t>
   </si>
   <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
-    <t>72402-53-0</t>
-  </si>
-  <si>
     <t>62-44-2</t>
   </si>
   <si>
@@ -207,43 +207,46 @@
     <t>519-09-5</t>
   </si>
   <si>
+    <t>50-37-3</t>
+  </si>
+  <si>
     <t>6740-88-1</t>
   </si>
   <si>
-    <t>50-37-3</t>
-  </si>
-  <si>
     <t>58-08-2</t>
   </si>
   <si>
+    <t>6703-27-1</t>
+  </si>
+  <si>
     <t>2784-73-8</t>
   </si>
   <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
     <t>unii</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>6M3C89ZY6R</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>6M3C89ZY6R</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
+    <t>4Z8Y51M438</t>
   </si>
   <si>
     <t>2KFG9TP5V8</t>
@@ -252,24 +255,21 @@
     <t>70D95007SX</t>
   </si>
   <si>
-    <t>4Z8Y51M438</t>
+    <t>I45R05QM0Z</t>
   </si>
   <si>
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
+    <t>58C337KP3E</t>
+  </si>
+  <si>
+    <t>A7V27PHC7A</t>
   </si>
   <si>
     <t>2880D3468G</t>
   </si>
   <si>
-    <t>58C337KP3E</t>
-  </si>
-  <si>
-    <t>A7V27PHC7A</t>
-  </si>
-  <si>
     <t>ER0CTH01H9</t>
   </si>
   <si>
@@ -279,19 +279,19 @@
     <t>5353I8I6YS</t>
   </si>
   <si>
+    <t>8NA5SWF92O</t>
+  </si>
+  <si>
     <t>690G0D6V8H</t>
   </si>
   <si>
-    <t>8NA5SWF92O</t>
-  </si>
-  <si>
     <t>3G6A5W338E</t>
   </si>
   <si>
+    <t>U59401ETXH</t>
+  </si>
+  <si>
     <t>M5E47P1ZCH</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -634,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -643,7 +643,7 @@
         <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -671,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2" s="1">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>12107</v>
+        <v>18054</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>95</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -922,13 +922,13 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>446220</v>
+        <v>89594</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
         <v>95</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="1">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1210,13 +1210,13 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>89594</v>
+        <v>12107</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
         <v>95</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>18054</v>
+        <v>88890</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1375,10 +1375,10 @@
         <v>365</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1498,16 +1498,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1535,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -1642,16 +1642,16 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>165365057</v>
+        <v>446220</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
         <v>97</v>
@@ -1663,10 +1663,10 @@
         <v>365</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
         <v>95</v>
@@ -1927,19 +1927,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
-        <v>446220</v>
+        <v>4914</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -1988,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="AP11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ11" s="1">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
         <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2111,10 +2111,10 @@
         <v>1</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
         <v>5707</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>0</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2564,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2647,19 +2647,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>4914</v>
+        <v>3345</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2687,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="1">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
-        <v>165365057</v>
+        <v>4914</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="AP17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ17" s="1">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
-        <v>156346345</v>
+        <v>165365057</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -3079,10 +3079,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1">
-        <v>10836</v>
+        <v>62300</v>
       </c>
       <c r="D19" t="s">
         <v>56</v>
@@ -3091,7 +3091,7 @@
         <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3103,10 +3103,10 @@
         <v>400</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3134,10 +3134,10 @@
         <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="1">
         <v>0</v>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
         <v>50</v>
-      </c>
-      <c r="E20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" t="s">
-        <v>51</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="P20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -3278,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="1">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3391,10 +3391,10 @@
         <v>400</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="1">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1">
-        <v>4914</v>
+        <v>3345</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3551,10 +3551,10 @@
         <v>1</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="1">
         <v>0</v>
@@ -3655,19 +3655,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3802,7 +3802,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="1">
-        <v>26879</v>
+        <v>119478</v>
       </c>
       <c r="D24" t="s">
         <v>58</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="1">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="1">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1">
         <v>446220</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s">
         <v>97</v>
@@ -4087,16 +4087,16 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1">
-        <v>3345</v>
+        <v>3034034</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F26" t="s">
         <v>95</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="1">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26" s="1">
         <v>0</v>
@@ -4231,16 +4231,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1">
-        <v>119478</v>
+        <v>5462328</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
         <v>95</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -4375,16 +4375,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C28" s="1">
-        <v>3034034</v>
+        <v>3345</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="1">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="AP28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="1">
         <v>0</v>
@@ -4519,16 +4519,16 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>5462328</v>
+        <v>26879</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
         <v>95</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="1">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4663,19 +4663,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C30" s="1">
         <v>446220</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4819,7 +4819,7 @@
         <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4951,16 +4951,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C32" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s">
         <v>95</v>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="1">
         <v>0</v>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL32" s="1">
         <v>0</v>
@@ -5095,19 +5095,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
-        <v>5707</v>
+        <v>119478</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s">
         <v>97</v>
@@ -5119,10 +5119,10 @@
         <v>478</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5144,10 +5144,10 @@
         <v>0</v>
       </c>
       <c r="S33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="1">
         <v>0</v>
@@ -5239,16 +5239,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1">
-        <v>4754</v>
+        <v>66924</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s">
         <v>95</v>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="1">
         <v>0</v>
@@ -5383,16 +5383,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1">
-        <v>66924</v>
+        <v>5707</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s">
         <v>95</v>
@@ -5432,10 +5432,10 @@
         <v>0</v>
       </c>
       <c r="S35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" s="1">
         <v>0</v>
@@ -5527,19 +5527,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C36" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="F36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -5588,10 +5588,10 @@
         <v>0</v>
       </c>
       <c r="W36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="1">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="AS36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT36" s="1">
         <v>0</v>
@@ -5671,16 +5671,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C37" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s">
         <v>95</v>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -5815,19 +5815,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C38" s="1">
-        <v>3345</v>
+        <v>4754</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -5839,10 +5839,10 @@
         <v>478</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -5855,10 +5855,10 @@
         <v>1</v>
       </c>
       <c r="P38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ38" s="1">
         <v>0</v>
@@ -5959,19 +5959,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C39" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -5983,10 +5983,10 @@
         <v>478</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -5999,10 +5999,10 @@
         <v>1</v>
       </c>
       <c r="P39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1">
-        <v>165365057</v>
+        <v>448223</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="AS41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT41" s="1">
         <v>0</v>
@@ -6391,19 +6391,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C42" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6452,10 +6452,10 @@
         <v>0</v>
       </c>
       <c r="W42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" s="1">
         <v>0</v>
@@ -6535,19 +6535,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C43" s="1">
-        <v>448223</v>
+        <v>88890</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="G43" t="s">
         <v>97</v>
@@ -6559,10 +6559,10 @@
         <v>478</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT43" s="1">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="1">
-        <v>3821</v>
+        <v>5761</v>
       </c>
       <c r="D44" t="s">
         <v>64</v>
@@ -6691,7 +6691,7 @@
         <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="1">
         <v>0</v>
@@ -6826,7 +6826,7 @@
         <v>37</v>
       </c>
       <c r="C45" s="1">
-        <v>5761</v>
+        <v>3821</v>
       </c>
       <c r="D45" t="s">
         <v>65</v>
@@ -6835,7 +6835,7 @@
         <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6911,10 +6911,10 @@
         <v>0</v>
       </c>
       <c r="AF45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH45" s="1">
         <v>0</v>
@@ -7117,13 +7117,13 @@
         <v>10836</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7255,16 +7255,16 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C48" s="1">
         <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F48" t="s">
         <v>95</v>
@@ -7411,7 +7411,7 @@
         <v>90</v>
       </c>
       <c r="F49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7543,19 +7543,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C50" s="1">
-        <v>4754</v>
+        <v>88890</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F50" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7567,10 +7567,10 @@
         <v>502</v>
       </c>
       <c r="J50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ50" s="1">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="AS50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT50" s="1">
         <v>0</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C51" s="1">
-        <v>88890</v>
+        <v>4754</v>
       </c>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E51" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F51" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7711,10 +7711,10 @@
         <v>502</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="AP51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ51" s="1">
         <v>0</v>
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="1">
         <v>0</v>
@@ -7837,13 +7837,13 @@
         <v>10836</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C53" s="1">
-        <v>5462328</v>
+        <v>5486550</v>
       </c>
       <c r="D53" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E53" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="AQ53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR53" s="1">
         <v>0</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8159,10 +8159,10 @@
         <v>1</v>
       </c>
       <c r="P54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="1">
         <v>0</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT54" s="1">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C55" s="1">
-        <v>3345</v>
+        <v>5462507</v>
       </c>
       <c r="D55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" t="s">
         <v>50</v>
-      </c>
-      <c r="E55" t="s">
-        <v>76</v>
-      </c>
-      <c r="F55" t="s">
-        <v>51</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8303,10 +8303,10 @@
         <v>1</v>
       </c>
       <c r="P55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C56" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D56" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8431,10 +8431,10 @@
         <v>512</v>
       </c>
       <c r="J56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="1">
         <v>0</v>
@@ -8510,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL56" s="1">
         <v>0</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C57" s="1">
         <v>88890</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E57" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C58" s="1">
-        <v>5462507</v>
+        <v>12107</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8839,19 +8839,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C59" s="1">
-        <v>5486550</v>
+        <v>446220</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E59" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F59" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8863,10 +8863,10 @@
         <v>512</v>
       </c>
       <c r="J59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y59" s="1">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR59" s="1">
         <v>0</v>
@@ -8986,7 +8986,7 @@
         <v>15</v>
       </c>
       <c r="C60" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D60" t="s">
         <v>44</v>
@@ -8995,7 +8995,7 @@
         <v>71</v>
       </c>
       <c r="F60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9023,10 +9023,10 @@
         <v>1</v>
       </c>
       <c r="P60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="1">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F61" t="s">
         <v>50</v>
-      </c>
-      <c r="E61" t="s">
-        <v>76</v>
-      </c>
-      <c r="F61" t="s">
-        <v>51</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9167,10 +9167,10 @@
         <v>1</v>
       </c>
       <c r="P61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9283,7 +9283,7 @@
         <v>90</v>
       </c>
       <c r="F62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9415,19 +9415,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C63" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E63" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G63" t="s">
         <v>97</v>
@@ -9455,10 +9455,10 @@
         <v>1</v>
       </c>
       <c r="P63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="1">
         <v>0</v>
@@ -9559,19 +9559,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C64" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D64" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E64" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s">
         <v>97</v>
@@ -9662,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64" s="1">
         <v>0</v>
@@ -9686,7 +9686,7 @@
         <v>0</v>
       </c>
       <c r="AS64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT64" s="1">
         <v>0</v>
@@ -9703,19 +9703,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C65" s="1">
-        <v>5707</v>
+        <v>5486550</v>
       </c>
       <c r="D65" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E65" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F65" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
@@ -9727,10 +9727,10 @@
         <v>520</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -9749,10 +9749,10 @@
         <v>0</v>
       </c>
       <c r="R65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T65" s="1">
         <v>0</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR65" s="1">
         <v>0</v>
@@ -9847,19 +9847,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C66" s="1">
-        <v>4914</v>
+        <v>5707</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F66" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G66" t="s">
         <v>97</v>
@@ -9871,10 +9871,10 @@
         <v>520</v>
       </c>
       <c r="J66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="R66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66" s="1">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="AP66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ66" s="1">
         <v>0</v>
@@ -9991,19 +9991,19 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C67" s="1">
-        <v>446220</v>
+        <v>21812144</v>
       </c>
       <c r="D67" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E67" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="F67" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G67" t="s">
         <v>97</v>
@@ -10015,10 +10015,10 @@
         <v>520</v>
       </c>
       <c r="J67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y67" s="1">
         <v>0</v>
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="AT67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU67" s="1">
         <v>0</v>
@@ -10135,16 +10135,16 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C68" s="1">
-        <v>12107</v>
+        <v>446220</v>
       </c>
       <c r="D68" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E68" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F68" t="s">
         <v>95</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="X68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y68" s="1">
         <v>0</v>
@@ -10262,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="1">
         <v>0</v>
@@ -10279,16 +10279,16 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C69" s="1">
         <v>5462507</v>
       </c>
       <c r="D69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F69" t="s">
         <v>95</v>
@@ -10423,16 +10423,16 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C70" s="1">
-        <v>62300</v>
+        <v>12107</v>
       </c>
       <c r="D70" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F70" t="s">
         <v>95</v>
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -10550,7 +10550,7 @@
         <v>0</v>
       </c>
       <c r="AS70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT70" s="1">
         <v>0</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C71" s="1">
-        <v>3345</v>
+        <v>4914</v>
       </c>
       <c r="D71" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10591,10 +10591,10 @@
         <v>520</v>
       </c>
       <c r="J71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -10607,10 +10607,10 @@
         <v>1</v>
       </c>
       <c r="P71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" s="1">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="AP71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ71" s="1">
         <v>0</v>
@@ -10711,19 +10711,19 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C72" s="1">
-        <v>21812144</v>
+        <v>88890</v>
       </c>
       <c r="D72" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E72" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G72" t="s">
         <v>97</v>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="AS72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU72" s="1">
         <v>0</v>
@@ -10855,16 +10855,16 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C73" s="1">
-        <v>5486550</v>
+        <v>62300</v>
       </c>
       <c r="D73" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E73" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F73" t="s">
         <v>95</v>
@@ -10976,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="AQ73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR73" s="1">
         <v>0</v>
@@ -10999,19 +10999,19 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C74" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D74" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E74" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F74" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
@@ -11023,10 +11023,10 @@
         <v>521</v>
       </c>
       <c r="J74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C75" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D75" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E75" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11287,16 +11287,16 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C76" s="1">
         <v>446220</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E76" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F76" t="s">
         <v>95</v>
@@ -11434,16 +11434,16 @@
         <v>21</v>
       </c>
       <c r="C77" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D77" t="s">
         <v>50</v>
       </c>
       <c r="E77" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="F77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11471,10 +11471,10 @@
         <v>1</v>
       </c>
       <c r="P77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77" s="1">
         <v>0</v>
@@ -11534,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="AK77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL77" s="1">
         <v>0</v>
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="AS77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT77" s="1">
         <v>0</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C78" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D78" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E78" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F78" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -11599,10 +11599,10 @@
         <v>521</v>
       </c>
       <c r="J78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
@@ -11615,10 +11615,10 @@
         <v>1</v>
       </c>
       <c r="P78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" s="1">
         <v>0</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="AK78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL78" s="1">
         <v>0</v>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="AS78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT78" s="1">
         <v>0</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,40 +60,43 @@
     <t>substance</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
+    <t>nicotine</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>menthol</t>
+  </si>
+  <si>
     <t>1-phenyl-1-propanamine</t>
   </si>
   <si>
-    <t>nicotine</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>menthol</t>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>heroin</t>
   </si>
   <si>
     <t>procaine</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>heroin</t>
+    <t>ethyl-4-ANPP</t>
   </si>
   <si>
     <t>p-fluorofentanyl</t>
@@ -102,42 +105,39 @@
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
+    <t>levamisole</t>
+  </si>
+  <si>
     <t>quinine</t>
   </si>
   <si>
-    <t>levamisole</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
+    <t>benzoylecgonine (BZ)</t>
+  </si>
+  <si>
     <t>benzoic acid</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
+    <t>ketamine</t>
   </si>
   <si>
     <t>lysergic acid diethylamide (LSD)</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>caffeine</t>
   </si>
   <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -147,42 +147,42 @@
     <t>cas</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
+    <t>54-11-5</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>1490-04-6</t>
+  </si>
+  <si>
     <t>2941-20-0</t>
   </si>
   <si>
-    <t>54-11-5</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>1490-04-6</t>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>561-27-3</t>
   </si>
   <si>
     <t>59-46-1</t>
   </si>
   <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
     <t>90736-23-5</t>
   </si>
   <si>
@@ -192,69 +192,69 @@
     <t>43021-26-7</t>
   </si>
   <si>
+    <t>14769-73-4</t>
+  </si>
+  <si>
     <t>72402-53-0</t>
   </si>
   <si>
-    <t>14769-73-4</t>
-  </si>
-  <si>
     <t>62-44-2</t>
   </si>
   <si>
+    <t>519-09-5</t>
+  </si>
+  <si>
     <t>65-85-0</t>
   </si>
   <si>
-    <t>519-09-5</t>
+    <t>6740-88-1</t>
   </si>
   <si>
     <t>50-37-3</t>
   </si>
   <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
     <t>58-08-2</t>
   </si>
   <si>
+    <t>2784-73-8</t>
+  </si>
+  <si>
     <t>6703-27-1</t>
   </si>
   <si>
-    <t>2784-73-8</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
     <t>unii</t>
   </si>
   <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
     <t>6M3C89ZY6R</t>
   </si>
   <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
   </si>
   <si>
     <t>4Z8Y51M438</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
@@ -264,34 +264,34 @@
     <t>58C337KP3E</t>
   </si>
   <si>
+    <t>2880D3468G</t>
+  </si>
+  <si>
     <t>A7V27PHC7A</t>
   </si>
   <si>
-    <t>2880D3468G</t>
-  </si>
-  <si>
     <t>ER0CTH01H9</t>
   </si>
   <si>
+    <t>5353I8I6YS</t>
+  </si>
+  <si>
     <t>8SKN0B0MIM</t>
   </si>
   <si>
-    <t>5353I8I6YS</t>
+    <t>690G0D6V8H</t>
   </si>
   <si>
     <t>8NA5SWF92O</t>
   </si>
   <si>
-    <t>690G0D6V8H</t>
-  </si>
-  <si>
     <t>3G6A5W338E</t>
   </si>
   <si>
+    <t>M5E47P1ZCH</t>
+  </si>
+  <si>
     <t>U59401ETXH</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -634,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -643,7 +643,7 @@
         <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -671,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="P2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="1">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -778,16 +778,16 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>18054</v>
+        <v>165365057</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>97</v>
@@ -799,10 +799,10 @@
         <v>365</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>89594</v>
+        <v>3345</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
@@ -931,7 +931,7 @@
         <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -943,10 +943,10 @@
         <v>365</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -959,10 +959,10 @@
         <v>1</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>66924</v>
+        <v>89594</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
@@ -1075,7 +1075,7 @@
         <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1087,10 +1087,10 @@
         <v>365</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1210,7 +1210,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>12107</v>
+        <v>446220</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="1">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>88890</v>
+        <v>66924</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
@@ -1363,7 +1363,7 @@
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1498,16 +1498,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>165365057</v>
+        <v>1254</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1519,10 +1519,10 @@
         <v>365</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -1642,13 +1642,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>446220</v>
+        <v>18054</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
@@ -1786,13 +1786,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>1254</v>
+        <v>12107</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
         <v>95</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -1930,7 +1930,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="1">
-        <v>4914</v>
+        <v>5707</v>
       </c>
       <c r="D11" t="s">
         <v>53</v>
@@ -1939,7 +1939,7 @@
         <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="AP11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="1">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2261,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2399,10 +2399,10 @@
         <v>1</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1">
-        <v>446220</v>
+        <v>4914</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2564,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="W15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="AP15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15" s="1">
         <v>0</v>
@@ -2647,19 +2647,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2687,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -2708,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="1">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>4914</v>
+        <v>3345</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2831,10 +2831,10 @@
         <v>1</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="1">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="AP17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="1">
         <v>0</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <v>165365057</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3103,10 +3103,10 @@
         <v>400</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1">
-        <v>10836</v>
+        <v>156346345</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3278,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="1">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1">
-        <v>88890</v>
+        <v>62300</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3391,10 +3391,10 @@
         <v>400</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="1">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3551,10 +3551,10 @@
         <v>1</v>
       </c>
       <c r="P22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="1">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -3655,19 +3655,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
-        <v>156346345</v>
+        <v>4914</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="AP23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ23" s="1">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G25" t="s">
         <v>97</v>
@@ -3967,10 +3967,10 @@
         <v>401</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="1">
         <v>0</v>
@@ -4004,10 +4004,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="1">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4087,16 +4087,16 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1">
-        <v>3034034</v>
+        <v>5462328</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s">
         <v>95</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="1">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="1">
         <v>0</v>
@@ -4231,16 +4231,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1">
-        <v>5462328</v>
+        <v>26879</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
         <v>95</v>
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27" s="1">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ27" s="1">
         <v>0</v>
@@ -4375,16 +4375,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1">
-        <v>3345</v>
+        <v>3034034</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="1">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="AP28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28" s="1">
         <v>0</v>
@@ -4519,19 +4519,19 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1">
-        <v>26879</v>
+        <v>446220</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s">
         <v>97</v>
@@ -4543,10 +4543,10 @@
         <v>401</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -4580,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="1">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="1">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4663,19 +4663,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1">
-        <v>446220</v>
+        <v>4754</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="1">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30" s="1">
         <v>0</v>
@@ -4807,19 +4807,19 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C31" s="1">
-        <v>4754</v>
+        <v>446220</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4868,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="W31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="1">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="1">
         <v>0</v>
@@ -4951,16 +4951,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C32" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F32" t="s">
         <v>95</v>
@@ -4972,7 +4972,7 @@
         <v>44886</v>
       </c>
       <c r="I32" s="1">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="1">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32" s="1">
         <v>0</v>
@@ -5095,19 +5095,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1">
-        <v>119478</v>
+        <v>66924</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G33" t="s">
         <v>97</v>
@@ -5116,13 +5116,13 @@
         <v>44886</v>
       </c>
       <c r="I33" s="1">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5239,19 +5239,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
-        <v>66924</v>
+        <v>448223</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
         <v>97</v>
@@ -5260,13 +5260,13 @@
         <v>44886</v>
       </c>
       <c r="I34" s="1">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5383,19 +5383,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -5404,13 +5404,13 @@
         <v>44886</v>
       </c>
       <c r="I35" s="1">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5423,19 +5423,19 @@
         <v>1</v>
       </c>
       <c r="P35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
       </c>
       <c r="S35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="1">
         <v>0</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -5527,19 +5527,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C36" s="1">
-        <v>165365057</v>
+        <v>119478</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -5548,7 +5548,7 @@
         <v>44886</v>
       </c>
       <c r="I36" s="1">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -5654,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="AS36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="1">
         <v>0</v>
@@ -5671,19 +5671,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C37" s="1">
         <v>446220</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -5692,13 +5692,13 @@
         <v>44886</v>
       </c>
       <c r="I37" s="1">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" s="1">
         <v>1</v>
@@ -5815,16 +5815,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C38" s="1">
-        <v>4754</v>
+        <v>5707</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s">
         <v>95</v>
@@ -5836,7 +5836,7 @@
         <v>44886</v>
       </c>
       <c r="I38" s="1">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -5864,10 +5864,10 @@
         <v>0</v>
       </c>
       <c r="S38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="1">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="1">
         <v>0</v>
@@ -5959,19 +5959,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C39" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -5980,13 +5980,13 @@
         <v>44886</v>
       </c>
       <c r="I39" s="1">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -5999,10 +5999,10 @@
         <v>1</v>
       </c>
       <c r="P39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" s="1">
         <v>0</v>
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6103,16 +6103,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C40" s="1">
-        <v>243</v>
+        <v>5462328</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s">
         <v>95</v>
@@ -6124,7 +6124,7 @@
         <v>44886</v>
       </c>
       <c r="I40" s="1">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL40" s="1">
         <v>0</v>
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1">
-        <v>448223</v>
+        <v>4754</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6268,13 +6268,13 @@
         <v>44886</v>
       </c>
       <c r="I41" s="1">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ41" s="1">
         <v>0</v>
@@ -6391,19 +6391,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1">
-        <v>446220</v>
+        <v>243</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E42" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6412,13 +6412,13 @@
         <v>44886</v>
       </c>
       <c r="I42" s="1">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6452,10 +6452,10 @@
         <v>0</v>
       </c>
       <c r="W42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="1">
         <v>0</v>
@@ -6535,19 +6535,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C43" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G43" t="s">
         <v>97</v>
@@ -6556,13 +6556,13 @@
         <v>44886</v>
       </c>
       <c r="I43" s="1">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -6682,7 +6682,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="1">
-        <v>5761</v>
+        <v>3821</v>
       </c>
       <c r="D44" t="s">
         <v>64</v>
@@ -6691,7 +6691,7 @@
         <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6700,7 +6700,7 @@
         <v>44897</v>
       </c>
       <c r="I44" s="1">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH44" s="1">
         <v>0</v>
@@ -6823,19 +6823,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C45" s="1">
-        <v>3821</v>
+        <v>4754</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6844,13 +6844,13 @@
         <v>44897</v>
       </c>
       <c r="I45" s="1">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -6911,10 +6911,10 @@
         <v>0</v>
       </c>
       <c r="AF45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH45" s="1">
         <v>0</v>
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="AP45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ45" s="1">
         <v>0</v>
@@ -6967,19 +6967,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1">
-        <v>4754</v>
+        <v>5761</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -6988,13 +6988,13 @@
         <v>44897</v>
       </c>
       <c r="I46" s="1">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="AP46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ46" s="1">
         <v>0</v>
@@ -7111,7 +7111,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C47" s="1">
         <v>10836</v>
@@ -7123,7 +7123,7 @@
         <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7132,7 +7132,7 @@
         <v>44894</v>
       </c>
       <c r="I47" s="1">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -7255,16 +7255,16 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C48" s="1">
         <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F48" t="s">
         <v>95</v>
@@ -7276,7 +7276,7 @@
         <v>44896</v>
       </c>
       <c r="I48" s="1">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J48" s="1">
         <v>0</v>
@@ -7399,19 +7399,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C49" s="1">
-        <v>2519</v>
+        <v>10836</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7420,7 +7420,7 @@
         <v>44896</v>
       </c>
       <c r="I49" s="1">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -7454,10 +7454,10 @@
         <v>0</v>
       </c>
       <c r="U49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W49" s="1">
         <v>0</v>
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="1">
         <v>0</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ49" s="1">
         <v>0</v>
@@ -7543,19 +7543,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C50" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E50" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F50" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7564,13 +7564,13 @@
         <v>44896</v>
       </c>
       <c r="I50" s="1">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z50" s="1">
         <v>0</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ50" s="1">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="AS50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT50" s="1">
         <v>0</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C51" s="1">
-        <v>4754</v>
+        <v>88890</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E51" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7708,13 +7708,13 @@
         <v>44896</v>
       </c>
       <c r="I51" s="1">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="AP51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ51" s="1">
         <v>0</v>
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT51" s="1">
         <v>0</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C52" s="1">
-        <v>10836</v>
+        <v>4754</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E52" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7852,7 +7852,7 @@
         <v>44896</v>
       </c>
       <c r="I52" s="1">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -7886,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="U52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52" s="1">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ52" s="1">
         <v>0</v>
@@ -7978,7 +7978,7 @@
         <v>39</v>
       </c>
       <c r="C53" s="1">
-        <v>5486550</v>
+        <v>5462507</v>
       </c>
       <c r="D53" t="s">
         <v>67</v>
@@ -7987,7 +7987,7 @@
         <v>91</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -7996,7 +7996,7 @@
         <v>44886</v>
       </c>
       <c r="I53" s="1">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="AQ53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR53" s="1">
         <v>0</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C54" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D54" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8140,7 +8140,7 @@
         <v>44886</v>
       </c>
       <c r="I54" s="1">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -8159,10 +8159,10 @@
         <v>1</v>
       </c>
       <c r="P54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54" s="1">
         <v>0</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT54" s="1">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1">
-        <v>5462507</v>
+        <v>3345</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F55" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8284,7 +8284,7 @@
         <v>44886</v>
       </c>
       <c r="I55" s="1">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -8303,10 +8303,10 @@
         <v>1</v>
       </c>
       <c r="P55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C56" s="1">
-        <v>5462328</v>
+        <v>5486550</v>
       </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E56" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8428,7 +8428,7 @@
         <v>44886</v>
       </c>
       <c r="I56" s="1">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="AQ56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR56" s="1">
         <v>0</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C57" s="1">
         <v>88890</v>
       </c>
       <c r="D57" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E57" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8572,7 +8572,7 @@
         <v>44886</v>
       </c>
       <c r="I57" s="1">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -8698,7 +8698,7 @@
         <v>19</v>
       </c>
       <c r="C58" s="1">
-        <v>12107</v>
+        <v>446220</v>
       </c>
       <c r="D58" t="s">
         <v>48</v>
@@ -8707,7 +8707,7 @@
         <v>74</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8716,13 +8716,13 @@
         <v>44886</v>
       </c>
       <c r="I58" s="1">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="J58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -8759,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y58" s="1">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8839,19 +8839,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C59" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D59" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E59" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F59" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8860,13 +8860,13 @@
         <v>44886</v>
       </c>
       <c r="I59" s="1">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="J59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="1">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -8983,19 +8983,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C60" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D60" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F60" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9004,7 +9004,7 @@
         <v>44886</v>
       </c>
       <c r="I60" s="1">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="J60" s="1">
         <v>1</v>
@@ -9023,10 +9023,10 @@
         <v>1</v>
       </c>
       <c r="P60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" s="1">
         <v>0</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z60" s="1">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ60" s="1">
         <v>0</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C61" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F61" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9148,7 +9148,7 @@
         <v>44886</v>
       </c>
       <c r="I61" s="1">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -9167,10 +9167,10 @@
         <v>1</v>
       </c>
       <c r="P61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C62" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E62" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F62" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9292,7 +9292,7 @@
         <v>44886</v>
       </c>
       <c r="I62" s="1">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="1">
         <v>0</v>
@@ -9389,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="AP62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ62" s="1">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -9415,19 +9415,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C63" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D63" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F63" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G63" t="s">
         <v>97</v>
@@ -9436,13 +9436,13 @@
         <v>44886</v>
       </c>
       <c r="I63" s="1">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -9455,10 +9455,10 @@
         <v>1</v>
       </c>
       <c r="P63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" s="1">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y63" s="1">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="1">
         <v>0</v>
@@ -9559,19 +9559,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C64" s="1">
-        <v>5462328</v>
+        <v>21812144</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E64" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F64" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G64" t="s">
         <v>97</v>
@@ -9580,7 +9580,7 @@
         <v>44886</v>
       </c>
       <c r="I64" s="1">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J64" s="1">
         <v>1</v>
@@ -9689,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="AT64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU64" s="1">
         <v>0</v>
@@ -9703,16 +9703,16 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C65" s="1">
-        <v>5486550</v>
+        <v>62300</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E65" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F65" t="s">
         <v>95</v>
@@ -9724,7 +9724,7 @@
         <v>44886</v>
       </c>
       <c r="I65" s="1">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J65" s="1">
         <v>0</v>
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR65" s="1">
         <v>0</v>
@@ -9847,19 +9847,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C66" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D66" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E66" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G66" t="s">
         <v>97</v>
@@ -9868,7 +9868,7 @@
         <v>44886</v>
       </c>
       <c r="I66" s="1">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J66" s="1">
         <v>1</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="R66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66" s="1">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="AS66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT66" s="1">
         <v>0</v>
@@ -9991,19 +9991,19 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C67" s="1">
-        <v>21812144</v>
+        <v>12107</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E67" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="F67" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G67" t="s">
         <v>97</v>
@@ -10012,13 +10012,13 @@
         <v>44886</v>
       </c>
       <c r="I67" s="1">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>0</v>
       </c>
       <c r="AS67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU67" s="1">
         <v>0</v>
@@ -10135,19 +10135,19 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C68" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D68" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F68" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G68" t="s">
         <v>97</v>
@@ -10156,13 +10156,13 @@
         <v>44886</v>
       </c>
       <c r="I68" s="1">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
@@ -10181,10 +10181,10 @@
         <v>0</v>
       </c>
       <c r="R68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68" s="1">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="X68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y68" s="1">
         <v>0</v>
@@ -10279,19 +10279,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C69" s="1">
-        <v>5462507</v>
+        <v>5462328</v>
       </c>
       <c r="D69" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E69" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F69" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -10300,13 +10300,13 @@
         <v>44886</v>
       </c>
       <c r="I69" s="1">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10423,16 +10423,16 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C70" s="1">
-        <v>12107</v>
+        <v>5486550</v>
       </c>
       <c r="D70" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E70" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F70" t="s">
         <v>95</v>
@@ -10444,7 +10444,7 @@
         <v>44886</v>
       </c>
       <c r="I70" s="1">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J70" s="1">
         <v>0</v>
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -10544,13 +10544,13 @@
         <v>0</v>
       </c>
       <c r="AQ70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR70" s="1">
         <v>0</v>
       </c>
       <c r="AS70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT70" s="1">
         <v>0</v>
@@ -10567,16 +10567,16 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C71" s="1">
-        <v>4914</v>
+        <v>5462507</v>
       </c>
       <c r="D71" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E71" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F71" t="s">
         <v>95</v>
@@ -10588,7 +10588,7 @@
         <v>44886</v>
       </c>
       <c r="I71" s="1">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J71" s="1">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="AP71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ71" s="1">
         <v>0</v>
@@ -10711,19 +10711,19 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C72" s="1">
-        <v>88890</v>
+        <v>4914</v>
       </c>
       <c r="D72" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E72" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F72" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G72" t="s">
         <v>97</v>
@@ -10732,13 +10732,13 @@
         <v>44886</v>
       </c>
       <c r="I72" s="1">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="AP72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ72" s="1">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="AS72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT72" s="1">
         <v>0</v>
@@ -10855,19 +10855,19 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C73" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D73" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E73" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G73" t="s">
         <v>97</v>
@@ -10876,13 +10876,13 @@
         <v>44886</v>
       </c>
       <c r="I73" s="1">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -10895,10 +10895,10 @@
         <v>1</v>
       </c>
       <c r="P73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" s="1">
         <v>0</v>
@@ -10999,16 +10999,16 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C74" s="1">
-        <v>156346345</v>
+        <v>446220</v>
       </c>
       <c r="D74" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F74" t="s">
         <v>95</v>
@@ -11020,7 +11020,7 @@
         <v>44886</v>
       </c>
       <c r="I74" s="1">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="J74" s="1">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y74" s="1">
         <v>0</v>
@@ -11126,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="AS74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT74" s="1">
         <v>0</v>
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C75" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D75" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E75" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11164,7 +11164,7 @@
         <v>44886</v>
       </c>
       <c r="I75" s="1">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="J75" s="1">
         <v>1</v>
@@ -11287,16 +11287,16 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C76" s="1">
-        <v>446220</v>
+        <v>156346345</v>
       </c>
       <c r="D76" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E76" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
         <v>95</v>
@@ -11308,7 +11308,7 @@
         <v>44886</v>
       </c>
       <c r="I76" s="1">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="J76" s="1">
         <v>0</v>
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y76" s="1">
         <v>0</v>
@@ -11414,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="AS76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT76" s="1">
         <v>0</v>
@@ -11431,19 +11431,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C77" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D77" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E77" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="F77" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11452,7 +11452,7 @@
         <v>44886</v>
       </c>
       <c r="I77" s="1">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="J77" s="1">
         <v>1</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C78" s="1">
         <v>3345</v>
       </c>
       <c r="D78" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E78" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F78" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -11596,7 +11596,7 @@
         <v>44886</v>
       </c>
       <c r="I78" s="1">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="J78" s="1">
         <v>1</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,69 +60,69 @@
     <t>substance</t>
   </si>
   <si>
+    <t>1-phenyl-1-propanamine</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>nicotine</t>
+  </si>
+  <si>
+    <t>menthol</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>nicotine</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>menthol</t>
-  </si>
-  <si>
-    <t>1-phenyl-1-propanamine</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
     <t>xylazine</t>
   </si>
   <si>
+    <t>procaine</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>procaine</t>
+    <t>p-fluorofentanyl</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>quinine</t>
+  </si>
+  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
     <t>levamisole</t>
   </si>
   <si>
-    <t>quinine</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
+    <t>benzoic acid</t>
+  </si>
+  <si>
     <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
-    <t>benzoic acid</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
@@ -147,66 +147,66 @@
     <t>cas</t>
   </si>
   <si>
+    <t>2941-20-0</t>
+  </si>
+  <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>54-11-5</t>
+  </si>
+  <si>
+    <t>1490-04-6</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>54-11-5</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>1490-04-6</t>
-  </si>
-  <si>
-    <t>2941-20-0</t>
-  </si>
-  <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
     <t>7361-61-7</t>
   </si>
   <si>
+    <t>59-46-1</t>
+  </si>
+  <si>
     <t>561-27-3</t>
   </si>
   <si>
-    <t>59-46-1</t>
-  </si>
-  <si>
     <t>90736-23-5</t>
   </si>
   <si>
     <t>537-46-2</t>
   </si>
   <si>
+    <t>72402-53-0</t>
+  </si>
+  <si>
     <t>43021-26-7</t>
   </si>
   <si>
     <t>14769-73-4</t>
   </si>
   <si>
-    <t>72402-53-0</t>
-  </si>
-  <si>
     <t>62-44-2</t>
   </si>
   <si>
+    <t>65-85-0</t>
+  </si>
+  <si>
     <t>519-09-5</t>
   </si>
   <si>
-    <t>65-85-0</t>
-  </si>
-  <si>
     <t>6740-88-1</t>
   </si>
   <si>
@@ -228,55 +228,55 @@
     <t>unii</t>
   </si>
   <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>6M3C89ZY6R</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>6M3C89ZY6R</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
     <t>2KFG9TP5V8</t>
   </si>
   <si>
+    <t>4Z8Y51M438</t>
+  </si>
+  <si>
     <t>70D95007SX</t>
   </si>
   <si>
-    <t>4Z8Y51M438</t>
-  </si>
-  <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
     <t>44RAL3456C</t>
   </si>
   <si>
+    <t>A7V27PHC7A</t>
+  </si>
+  <si>
     <t>58C337KP3E</t>
   </si>
   <si>
     <t>2880D3468G</t>
   </si>
   <si>
-    <t>A7V27PHC7A</t>
-  </si>
-  <si>
     <t>ER0CTH01H9</t>
   </si>
   <si>
+    <t>8SKN0B0MIM</t>
+  </si>
+  <si>
     <t>5353I8I6YS</t>
-  </si>
-  <si>
-    <t>8SKN0B0MIM</t>
   </si>
   <si>
     <t>690G0D6V8H</t>
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>88890</v>
+        <v>18054</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -655,10 +655,10 @@
         <v>365</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -778,16 +778,16 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>165365057</v>
+        <v>12107</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
         <v>97</v>
@@ -799,10 +799,10 @@
         <v>365</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -922,16 +922,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -959,10 +959,10 @@
         <v>1</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>89594</v>
+        <v>3345</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1087,10 +1087,10 @@
         <v>365</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1103,10 +1103,10 @@
         <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
         <v>95</v>
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>66924</v>
+        <v>89594</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1375,10 +1375,10 @@
         <v>365</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1504,7 +1504,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
         <v>95</v>
@@ -1642,16 +1642,16 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>18054</v>
+        <v>66924</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
         <v>97</v>
@@ -1663,10 +1663,10 @@
         <v>365</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1786,7 +1786,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>12107</v>
+        <v>88890</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
@@ -1795,7 +1795,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
         <v>97</v>
@@ -1807,10 +1807,10 @@
         <v>365</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1939,7 +1939,7 @@
         <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="1">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>88890</v>
+        <v>4914</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13" s="1">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
         <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2399,10 +2399,10 @@
         <v>1</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14" s="1">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="1">
-        <v>4914</v>
+        <v>5462328</v>
       </c>
       <c r="D15" t="s">
         <v>55</v>
@@ -2515,7 +2515,7 @@
         <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="AP15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="1">
         <v>0</v>
@@ -2647,19 +2647,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2687,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -2708,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="1">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1">
-        <v>3345</v>
+        <v>4914</v>
       </c>
       <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" t="s">
         <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" t="s">
-        <v>45</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2831,10 +2831,10 @@
         <v>1</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="1">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="AP17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ17" s="1">
         <v>0</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1">
-        <v>88890</v>
+        <v>62300</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3103,10 +3103,10 @@
         <v>400</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
         <v>156346345</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1">
-        <v>62300</v>
+        <v>10836</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3391,10 +3391,10 @@
         <v>400</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3422,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="1">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3551,10 +3551,10 @@
         <v>1</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="1">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -3655,19 +3655,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1">
-        <v>4914</v>
+        <v>165365057</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="AP23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="1">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="1">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1">
-        <v>119478</v>
+        <v>3345</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="1">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
-        <v>3345</v>
+        <v>3034034</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
         <v>95</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="1">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="AP25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ25" s="1">
         <v>0</v>
@@ -4087,19 +4087,19 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
         <v>97</v>
@@ -4111,10 +4111,10 @@
         <v>401</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="1">
         <v>0</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="1">
         <v>0</v>
@@ -4231,16 +4231,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1">
-        <v>26879</v>
+        <v>5462328</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
         <v>95</v>
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="1">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="1">
         <v>0</v>
@@ -4375,16 +4375,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1">
-        <v>3034034</v>
+        <v>119478</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="AP28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="1">
         <v>0</v>
@@ -4519,19 +4519,19 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>446220</v>
+        <v>26879</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G29" t="s">
         <v>97</v>
@@ -4543,10 +4543,10 @@
         <v>401</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -4580,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="1">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4663,19 +4663,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C30" s="1">
-        <v>4754</v>
+        <v>446220</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="1">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="1">
         <v>0</v>
@@ -4807,19 +4807,19 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1">
-        <v>446220</v>
+        <v>4754</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4868,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="W31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="1">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ31" s="1">
         <v>0</v>
@@ -4951,19 +4951,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s">
         <v>97</v>
@@ -4975,10 +4975,10 @@
         <v>480</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5095,16 +5095,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="1">
-        <v>66924</v>
+        <v>446220</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s">
         <v>95</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" s="1">
         <v>0</v>
@@ -5239,19 +5239,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C34" s="1">
-        <v>448223</v>
+        <v>5462328</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G34" t="s">
         <v>97</v>
@@ -5263,10 +5263,10 @@
         <v>480</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="1">
         <v>0</v>
@@ -5383,19 +5383,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1">
-        <v>3345</v>
+        <v>119478</v>
       </c>
       <c r="D35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" t="s">
         <v>46</v>
-      </c>
-      <c r="E35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" t="s">
-        <v>45</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -5423,10 +5423,10 @@
         <v>1</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -5527,19 +5527,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1">
-        <v>119478</v>
+        <v>88890</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -5551,10 +5551,10 @@
         <v>480</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -5654,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="AS36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT36" s="1">
         <v>0</v>
@@ -5671,19 +5671,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C37" s="1">
-        <v>446220</v>
+        <v>4754</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -5695,10 +5695,10 @@
         <v>480</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -5732,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="AP37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ37" s="1">
         <v>0</v>
@@ -5815,19 +5815,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C38" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -5839,10 +5839,10 @@
         <v>480</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -5864,10 +5864,10 @@
         <v>0</v>
       </c>
       <c r="S38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="1">
         <v>0</v>
@@ -5876,10 +5876,10 @@
         <v>0</v>
       </c>
       <c r="W38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" s="1">
         <v>0</v>
@@ -5959,16 +5959,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C39" s="1">
-        <v>446220</v>
+        <v>243</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s">
         <v>95</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="1">
         <v>0</v>
@@ -6103,19 +6103,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -6127,10 +6127,10 @@
         <v>480</v>
       </c>
       <c r="J40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
@@ -6143,10 +6143,10 @@
         <v>1</v>
       </c>
       <c r="P40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1">
-        <v>4754</v>
+        <v>448223</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6271,10 +6271,10 @@
         <v>480</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="1">
         <v>0</v>
@@ -6391,16 +6391,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C42" s="1">
-        <v>243</v>
+        <v>5707</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
         <v>95</v>
@@ -6440,10 +6440,10 @@
         <v>0</v>
       </c>
       <c r="S42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" s="1">
         <v>0</v>
@@ -6535,19 +6535,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C43" s="1">
-        <v>165365057</v>
+        <v>66924</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G43" t="s">
         <v>97</v>
@@ -6559,10 +6559,10 @@
         <v>480</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="1">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6700,7 +6700,7 @@
         <v>44897</v>
       </c>
       <c r="I44" s="1">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -6823,19 +6823,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1">
-        <v>4754</v>
+        <v>5761</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6844,13 +6844,13 @@
         <v>44897</v>
       </c>
       <c r="I45" s="1">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="AP45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ45" s="1">
         <v>0</v>
@@ -6967,19 +6967,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C46" s="1">
-        <v>5761</v>
+        <v>4754</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -6988,13 +6988,13 @@
         <v>44897</v>
       </c>
       <c r="I46" s="1">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="AP46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ46" s="1">
         <v>0</v>
@@ -7123,7 +7123,7 @@
         <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7132,7 +7132,7 @@
         <v>44894</v>
       </c>
       <c r="I47" s="1">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -7255,16 +7255,16 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C48" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D48" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F48" t="s">
         <v>95</v>
@@ -7276,7 +7276,7 @@
         <v>44896</v>
       </c>
       <c r="I48" s="1">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J48" s="1">
         <v>0</v>
@@ -7298,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="AS48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT48" s="1">
         <v>0</v>
@@ -7399,19 +7399,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C49" s="1">
-        <v>10836</v>
+        <v>2519</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7420,7 +7420,7 @@
         <v>44896</v>
       </c>
       <c r="I49" s="1">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -7454,10 +7454,10 @@
         <v>0</v>
       </c>
       <c r="U49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49" s="1">
         <v>0</v>
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49" s="1">
         <v>0</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ49" s="1">
         <v>0</v>
@@ -7543,19 +7543,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C50" s="1">
-        <v>2519</v>
+        <v>4754</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E50" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7564,7 +7564,7 @@
         <v>44896</v>
       </c>
       <c r="I50" s="1">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="1">
         <v>0</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C51" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E51" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F51" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7708,13 +7708,13 @@
         <v>44896</v>
       </c>
       <c r="I51" s="1">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -7742,10 +7742,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="1">
         <v>0</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C52" s="1">
-        <v>4754</v>
+        <v>3345</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7852,13 +7852,13 @@
         <v>44896</v>
       </c>
       <c r="I52" s="1">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ52" s="1">
         <v>0</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C53" s="1">
-        <v>5462507</v>
+        <v>3345</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -7996,7 +7996,7 @@
         <v>44886</v>
       </c>
       <c r="I53" s="1">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -8015,10 +8015,10 @@
         <v>1</v>
       </c>
       <c r="P53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="1">
         <v>0</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C54" s="1">
-        <v>12107</v>
+        <v>5462507</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E54" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8140,7 +8140,7 @@
         <v>44886</v>
       </c>
       <c r="I54" s="1">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT54" s="1">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C55" s="1">
-        <v>3345</v>
+        <v>5486550</v>
       </c>
       <c r="D55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" t="s">
         <v>46</v>
-      </c>
-      <c r="E55" t="s">
-        <v>72</v>
-      </c>
-      <c r="F55" t="s">
-        <v>45</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8284,7 +8284,7 @@
         <v>44886</v>
       </c>
       <c r="I55" s="1">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -8303,10 +8303,10 @@
         <v>1</v>
       </c>
       <c r="P55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="1">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C56" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D56" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8428,7 +8428,7 @@
         <v>44886</v>
       </c>
       <c r="I56" s="1">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="AQ56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR56" s="1">
         <v>0</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C57" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E57" t="s">
         <v>71</v>
       </c>
       <c r="F57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8572,7 +8572,7 @@
         <v>44886</v>
       </c>
       <c r="I57" s="1">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -8704,7 +8704,7 @@
         <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F58" t="s">
         <v>95</v>
@@ -8716,7 +8716,7 @@
         <v>44886</v>
       </c>
       <c r="I58" s="1">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J58" s="1">
         <v>0</v>
@@ -8839,19 +8839,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C59" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D59" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8860,7 +8860,7 @@
         <v>44886</v>
       </c>
       <c r="I59" s="1">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT59" s="1">
         <v>0</v>
@@ -8983,19 +8983,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C60" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9004,7 +9004,7 @@
         <v>44886</v>
       </c>
       <c r="I60" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J60" s="1">
         <v>1</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="1">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ60" s="1">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C61" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D61" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" t="s">
+        <v>90</v>
+      </c>
+      <c r="F61" t="s">
         <v>46</v>
-      </c>
-      <c r="E61" t="s">
-        <v>72</v>
-      </c>
-      <c r="F61" t="s">
-        <v>45</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9148,7 +9148,7 @@
         <v>44886</v>
       </c>
       <c r="I61" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -9167,10 +9167,10 @@
         <v>1</v>
       </c>
       <c r="P61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z61" s="1">
         <v>0</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="AP61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ61" s="1">
         <v>0</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C62" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D62" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9292,7 +9292,7 @@
         <v>44886</v>
       </c>
       <c r="I62" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -9311,10 +9311,10 @@
         <v>1</v>
       </c>
       <c r="P62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>48</v>
       </c>
       <c r="E63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F63" t="s">
         <v>95</v>
@@ -9436,7 +9436,7 @@
         <v>44886</v>
       </c>
       <c r="I63" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J63" s="1">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>93</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G64" t="s">
         <v>97</v>
@@ -9580,7 +9580,7 @@
         <v>44886</v>
       </c>
       <c r="I64" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J64" s="1">
         <v>1</v>
@@ -9703,7 +9703,7 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C65" s="1">
         <v>62300</v>
@@ -9724,7 +9724,7 @@
         <v>44886</v>
       </c>
       <c r="I65" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J65" s="1">
         <v>0</v>
@@ -9847,19 +9847,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C66" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D66" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G66" t="s">
         <v>97</v>
@@ -9868,13 +9868,13 @@
         <v>44886</v>
       </c>
       <c r="I66" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL66" s="1">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="AS66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT66" s="1">
         <v>0</v>
@@ -9991,16 +9991,16 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C67" s="1">
         <v>12107</v>
       </c>
       <c r="D67" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E67" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F67" t="s">
         <v>95</v>
@@ -10012,7 +10012,7 @@
         <v>44886</v>
       </c>
       <c r="I67" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
@@ -10135,19 +10135,19 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C68" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D68" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G68" t="s">
         <v>97</v>
@@ -10156,7 +10156,7 @@
         <v>44886</v>
       </c>
       <c r="I68" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J68" s="1">
         <v>1</v>
@@ -10175,16 +10175,16 @@
         <v>1</v>
       </c>
       <c r="P68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T68" s="1">
         <v>0</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -10282,7 +10282,7 @@
         <v>25</v>
       </c>
       <c r="C69" s="1">
-        <v>5462328</v>
+        <v>4914</v>
       </c>
       <c r="D69" t="s">
         <v>54</v>
@@ -10291,7 +10291,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -10300,13 +10300,13 @@
         <v>44886</v>
       </c>
       <c r="I69" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="AK69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -10397,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="AP69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ69" s="1">
         <v>0</v>
@@ -10423,19 +10423,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C70" s="1">
-        <v>5486550</v>
+        <v>5707</v>
       </c>
       <c r="D70" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E70" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G70" t="s">
         <v>97</v>
@@ -10444,13 +10444,13 @@
         <v>44886</v>
       </c>
       <c r="I70" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -10469,10 +10469,10 @@
         <v>0</v>
       </c>
       <c r="R70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" s="1">
         <v>0</v>
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -10544,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="AQ70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR70" s="1">
         <v>0</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C71" s="1">
-        <v>5462507</v>
+        <v>5462328</v>
       </c>
       <c r="D71" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E71" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10588,13 +10588,13 @@
         <v>44886</v>
       </c>
       <c r="I71" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -10711,16 +10711,16 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C72" s="1">
-        <v>4914</v>
+        <v>5486550</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E72" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F72" t="s">
         <v>95</v>
@@ -10732,7 +10732,7 @@
         <v>44886</v>
       </c>
       <c r="I72" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J72" s="1">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>0</v>
       </c>
       <c r="AP72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR72" s="1">
         <v>0</v>
@@ -10855,19 +10855,19 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C73" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D73" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" t="s">
+        <v>76</v>
+      </c>
+      <c r="F73" t="s">
         <v>46</v>
-      </c>
-      <c r="E73" t="s">
-        <v>72</v>
-      </c>
-      <c r="F73" t="s">
-        <v>45</v>
       </c>
       <c r="G73" t="s">
         <v>97</v>
@@ -10876,7 +10876,7 @@
         <v>44886</v>
       </c>
       <c r="I73" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J73" s="1">
         <v>1</v>
@@ -10895,10 +10895,10 @@
         <v>1</v>
       </c>
       <c r="P73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73" s="1">
         <v>0</v>
@@ -10958,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73" s="1">
         <v>0</v>
@@ -10982,7 +10982,7 @@
         <v>0</v>
       </c>
       <c r="AS73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT73" s="1">
         <v>0</v>
@@ -10999,19 +10999,19 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C74" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F74" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
@@ -11020,13 +11020,13 @@
         <v>44886</v>
       </c>
       <c r="I74" s="1">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -11039,10 +11039,10 @@
         <v>1</v>
       </c>
       <c r="P74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="1">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y74" s="1">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="AK74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL74" s="1">
         <v>0</v>
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C75" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D75" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11164,7 +11164,7 @@
         <v>44886</v>
       </c>
       <c r="I75" s="1">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J75" s="1">
         <v>1</v>
@@ -11287,19 +11287,19 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C76" s="1">
-        <v>156346345</v>
+        <v>165365057</v>
       </c>
       <c r="D76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -11308,13 +11308,13 @@
         <v>44886</v>
       </c>
       <c r="I76" s="1">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -11431,19 +11431,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C77" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D77" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11452,13 +11452,13 @@
         <v>44886</v>
       </c>
       <c r="I77" s="1">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y77" s="1">
         <v>0</v>
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="AS77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT77" s="1">
         <v>0</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C78" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D78" t="s">
         <v>46</v>
       </c>
       <c r="E78" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -11596,13 +11596,13 @@
         <v>44886</v>
       </c>
       <c r="I78" s="1">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
@@ -11615,10 +11615,10 @@
         <v>1</v>
       </c>
       <c r="P78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78" s="1">
         <v>0</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="AK78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL78" s="1">
         <v>0</v>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="AS78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT78" s="1">
         <v>0</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,16 +60,22 @@
     <t>substance</t>
   </si>
   <si>
+    <t>menthol</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>1-phenyl-1-propanamine</t>
   </si>
   <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
+    <t>4-ANPP</t>
   </si>
   <si>
     <t>cocaine</t>
@@ -78,33 +84,27 @@
     <t>nicotine</t>
   </si>
   <si>
-    <t>menthol</t>
-  </si>
-  <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>xylazine</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
     <t>procaine</t>
   </si>
   <si>
-    <t>heroin</t>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
   </si>
   <si>
     <t>p-fluorofentanyl</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>quinine</t>
   </si>
   <si>
@@ -117,27 +117,27 @@
     <t>phenacetin</t>
   </si>
   <si>
+    <t>benzoylecgonine (BZ)</t>
+  </si>
+  <si>
     <t>benzoic acid</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
+    <t>lysergic acid diethylamide (LSD)</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>lysergic acid diethylamide (LSD)</t>
-  </si>
-  <si>
     <t>caffeine</t>
   </si>
   <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -147,16 +147,22 @@
     <t>cas</t>
   </si>
   <si>
+    <t>1490-04-6</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>2941-20-0</t>
   </si>
   <si>
     <t>620-71-3</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>437-38-7</t>
+    <t>21409-26-7</t>
   </si>
   <si>
     <t>50-36-2</t>
@@ -165,30 +171,24 @@
     <t>54-11-5</t>
   </si>
   <si>
-    <t>1490-04-6</t>
-  </si>
-  <si>
     <t>105-70-4</t>
   </si>
   <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
     <t>7361-61-7</t>
   </si>
   <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
     <t>59-46-1</t>
   </si>
   <si>
-    <t>561-27-3</t>
+    <t>537-46-2</t>
   </si>
   <si>
     <t>90736-23-5</t>
   </si>
   <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
     <t>72402-53-0</t>
   </si>
   <si>
@@ -201,37 +201,40 @@
     <t>62-44-2</t>
   </si>
   <si>
+    <t>519-09-5</t>
+  </si>
+  <si>
     <t>65-85-0</t>
   </si>
   <si>
-    <t>519-09-5</t>
+    <t>50-37-3</t>
   </si>
   <si>
     <t>6740-88-1</t>
   </si>
   <si>
-    <t>50-37-3</t>
-  </si>
-  <si>
     <t>58-08-2</t>
   </si>
   <si>
+    <t>6703-27-1</t>
+  </si>
+  <si>
     <t>2784-73-8</t>
   </si>
   <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
     <t>unii</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
+    <t>Q88EHD0U8G</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
@@ -243,24 +246,21 @@
     <t>G45CU3Z186</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
     <t>2KFG9TP5V8</t>
   </si>
   <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
     <t>4Z8Y51M438</t>
   </si>
   <si>
-    <t>70D95007SX</t>
+    <t>44RAL3456C</t>
   </si>
   <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
     <t>A7V27PHC7A</t>
   </si>
   <si>
@@ -273,25 +273,25 @@
     <t>ER0CTH01H9</t>
   </si>
   <si>
+    <t>5353I8I6YS</t>
+  </si>
+  <si>
     <t>8SKN0B0MIM</t>
   </si>
   <si>
-    <t>5353I8I6YS</t>
+    <t>8NA5SWF92O</t>
   </si>
   <si>
     <t>690G0D6V8H</t>
   </si>
   <si>
-    <t>8NA5SWF92O</t>
-  </si>
-  <si>
     <t>3G6A5W338E</t>
   </si>
   <si>
+    <t>U59401ETXH</t>
+  </si>
+  <si>
     <t>M5E47P1ZCH</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -634,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>18054</v>
+        <v>1254</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -778,7 +778,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
@@ -787,7 +787,7 @@
         <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
         <v>97</v>
@@ -799,10 +799,10 @@
         <v>365</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -815,10 +815,10 @@
         <v>1</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>3345</v>
+        <v>18054</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1087,10 +1087,10 @@
         <v>365</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1103,10 +1103,10 @@
         <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>446220</v>
+        <v>12107</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
         <v>95</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>89594</v>
+        <v>88890</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1375,10 +1375,10 @@
         <v>365</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1498,13 +1498,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>1254</v>
+        <v>446220</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
         <v>95</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="1">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>66924</v>
+        <v>89594</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
@@ -1651,7 +1651,7 @@
         <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
         <v>97</v>
@@ -1663,10 +1663,10 @@
         <v>365</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1786,7 +1786,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>88890</v>
+        <v>66924</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -2071,16 +2071,16 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1">
         <v>446220</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
         <v>46</v>
@@ -2218,7 +2218,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>4914</v>
+        <v>5462328</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="1">
         <v>0</v>
@@ -2359,16 +2359,16 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <v>88890</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
         <v>46</v>
@@ -2503,16 +2503,16 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
         <v>46</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2647,16 +2647,16 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
-        <v>3345</v>
+        <v>4914</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
         <v>46</v>
@@ -2687,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" s="1">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
-        <v>4914</v>
+        <v>156346345</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
         <v>46</v>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="AP17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="1">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
@@ -2935,16 +2935,16 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <v>88890</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
         <v>46</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
-        <v>62300</v>
+        <v>165365057</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3103,10 +3103,10 @@
         <v>400</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3226,13 +3226,13 @@
         <v>28</v>
       </c>
       <c r="C20" s="1">
-        <v>156346345</v>
+        <v>10836</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
         <v>46</v>
@@ -3278,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="1">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -3370,7 +3370,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="1">
-        <v>10836</v>
+        <v>62300</v>
       </c>
       <c r="D21" t="s">
         <v>57</v>
@@ -3379,7 +3379,7 @@
         <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3391,10 +3391,10 @@
         <v>400</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3422,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="1">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="1">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1">
-        <v>3345</v>
+        <v>4914</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s">
         <v>46</v>
@@ -3551,10 +3551,10 @@
         <v>1</v>
       </c>
       <c r="P22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22" s="1">
         <v>0</v>
@@ -3655,16 +3655,16 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
         <v>46</v>
@@ -3695,10 +3695,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23" s="1">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1">
         <v>3345</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -4087,19 +4087,19 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
         <v>97</v>
@@ -4111,10 +4111,10 @@
         <v>401</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1">
         <v>0</v>
@@ -4231,19 +4231,19 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
         <v>97</v>
@@ -4255,10 +4255,10 @@
         <v>401</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4292,10 +4292,10 @@
         <v>0</v>
       </c>
       <c r="W27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="1">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -4375,16 +4375,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
-        <v>119478</v>
+        <v>5462328</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4663,16 +4663,16 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1">
-        <v>446220</v>
+        <v>4754</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s">
         <v>46</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="1">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30" s="1">
         <v>0</v>
@@ -4807,16 +4807,16 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1">
-        <v>4754</v>
+        <v>446220</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s">
         <v>46</v>
@@ -4868,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="W31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="1">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="1">
         <v>0</v>
@@ -4951,19 +4951,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C32" s="1">
-        <v>165365057</v>
+        <v>5707</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s">
         <v>97</v>
@@ -4975,10 +4975,10 @@
         <v>480</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5000,10 +5000,10 @@
         <v>0</v>
       </c>
       <c r="S32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" s="1">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="1">
         <v>0</v>
@@ -5095,19 +5095,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C33" s="1">
         <v>446220</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
         <v>97</v>
@@ -5119,10 +5119,10 @@
         <v>480</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="1">
         <v>1</v>
@@ -5239,19 +5239,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
-        <v>5462328</v>
+        <v>448223</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
         <v>97</v>
@@ -5263,10 +5263,10 @@
         <v>480</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="1">
         <v>0</v>
@@ -5383,16 +5383,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1">
-        <v>119478</v>
+        <v>165365057</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
         <v>46</v>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT35" s="1">
         <v>0</v>
@@ -5527,16 +5527,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1">
-        <v>88890</v>
+        <v>4754</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>
@@ -5645,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ36" s="1">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="AS36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="1">
         <v>0</v>
@@ -5671,19 +5671,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C37" s="1">
-        <v>4754</v>
+        <v>119478</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -5695,10 +5695,10 @@
         <v>480</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="AP37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="1">
         <v>0</v>
@@ -5815,19 +5815,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C38" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -5839,10 +5839,10 @@
         <v>480</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -5876,10 +5876,10 @@
         <v>0</v>
       </c>
       <c r="W38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="1">
         <v>0</v>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5959,16 +5959,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1">
-        <v>243</v>
+        <v>88890</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
         <v>95</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="AS39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT39" s="1">
         <v>0</v>
@@ -6103,16 +6103,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C40" s="1">
         <v>3345</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F40" t="s">
         <v>46</v>
@@ -6250,7 +6250,7 @@
         <v>35</v>
       </c>
       <c r="C41" s="1">
-        <v>448223</v>
+        <v>243</v>
       </c>
       <c r="D41" t="s">
         <v>63</v>
@@ -6259,7 +6259,7 @@
         <v>87</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6271,10 +6271,10 @@
         <v>480</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -6391,16 +6391,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C42" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F42" t="s">
         <v>95</v>
@@ -6440,10 +6440,10 @@
         <v>0</v>
       </c>
       <c r="S42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" s="1">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" s="1">
         <v>0</v>
@@ -6535,16 +6535,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C43" s="1">
         <v>66924</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s">
         <v>95</v>
@@ -6682,7 +6682,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="1">
-        <v>3821</v>
+        <v>5761</v>
       </c>
       <c r="D44" t="s">
         <v>64</v>
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="1">
         <v>0</v>
@@ -6823,19 +6823,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C45" s="1">
-        <v>5761</v>
+        <v>4754</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6847,10 +6847,10 @@
         <v>486</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="AP45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ45" s="1">
         <v>0</v>
@@ -6967,19 +6967,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1">
-        <v>4754</v>
+        <v>3821</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -6991,10 +6991,10 @@
         <v>486</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7055,10 +7055,10 @@
         <v>0</v>
       </c>
       <c r="AF46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH46" s="1">
         <v>0</v>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="AP46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ46" s="1">
         <v>0</v>
@@ -7111,16 +7111,16 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" s="1">
         <v>10836</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s">
         <v>46</v>
@@ -7255,19 +7255,19 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C48" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s">
         <v>97</v>
@@ -7279,10 +7279,10 @@
         <v>505</v>
       </c>
       <c r="J48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z48" s="1">
         <v>0</v>
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="AP48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ48" s="1">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="AS48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT48" s="1">
         <v>0</v>
@@ -7399,19 +7399,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C49" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7423,10 +7423,10 @@
         <v>505</v>
       </c>
       <c r="J49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -7442,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="1">
         <v>0</v>
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="1">
         <v>0</v>
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL49" s="1">
         <v>0</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ49" s="1">
         <v>0</v>
@@ -7543,19 +7543,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C50" s="1">
-        <v>4754</v>
+        <v>88890</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7567,10 +7567,10 @@
         <v>505</v>
       </c>
       <c r="J50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ50" s="1">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="AS50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT50" s="1">
         <v>0</v>
@@ -7687,16 +7687,16 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C51" s="1">
-        <v>10836</v>
+        <v>4754</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E51" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F51" t="s">
         <v>46</v>
@@ -7742,10 +7742,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="AP51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ51" s="1">
         <v>0</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C52" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E52" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7855,10 +7855,10 @@
         <v>505</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
@@ -7886,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="U52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W52" s="1">
         <v>0</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C53" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E53" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -7999,10 +7999,10 @@
         <v>516</v>
       </c>
       <c r="J53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -8015,10 +8015,10 @@
         <v>1</v>
       </c>
       <c r="P53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" s="1">
         <v>0</v>
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y53" s="1">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="1">
         <v>0</v>
@@ -8122,7 +8122,7 @@
         <v>39</v>
       </c>
       <c r="C54" s="1">
-        <v>5462507</v>
+        <v>5486550</v>
       </c>
       <c r="D54" t="s">
         <v>67</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR54" s="1">
         <v>0</v>
@@ -8263,16 +8263,16 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C55" s="1">
-        <v>5486550</v>
+        <v>12107</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F55" t="s">
         <v>46</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
@@ -8384,13 +8384,13 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="1">
         <v>0</v>
       </c>
       <c r="AS55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT55" s="1">
         <v>0</v>
@@ -8407,16 +8407,16 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C56" s="1">
         <v>5462328</v>
       </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s">
         <v>46</v>
@@ -8554,7 +8554,7 @@
         <v>16</v>
       </c>
       <c r="C57" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D57" t="s">
         <v>45</v>
@@ -8591,10 +8591,10 @@
         <v>1</v>
       </c>
       <c r="P57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="1">
         <v>0</v>
@@ -8654,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57" s="1">
         <v>0</v>
@@ -8678,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C58" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E58" t="s">
         <v>73</v>
       </c>
       <c r="F58" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8719,10 +8719,10 @@
         <v>516</v>
       </c>
       <c r="J58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -8759,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="1">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8839,16 +8839,16 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C59" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D59" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E59" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F59" t="s">
         <v>46</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT59" s="1">
         <v>0</v>
@@ -8983,16 +8983,16 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C60" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F60" t="s">
         <v>46</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z60" s="1">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ60" s="1">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9127,16 +9127,16 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C61" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E61" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F61" t="s">
         <v>46</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="1">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="AP61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ61" s="1">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9271,16 +9271,16 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C62" s="1">
         <v>3345</v>
       </c>
       <c r="D62" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F62" t="s">
         <v>46</v>
@@ -9415,19 +9415,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C63" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D63" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E63" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F63" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G63" t="s">
         <v>97</v>
@@ -9439,10 +9439,10 @@
         <v>524</v>
       </c>
       <c r="J63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -9455,10 +9455,10 @@
         <v>1</v>
       </c>
       <c r="P63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="1">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="1">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL63" s="1">
         <v>0</v>
@@ -9703,19 +9703,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C65" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D65" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E65" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F65" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
@@ -9727,10 +9727,10 @@
         <v>524</v>
       </c>
       <c r="J65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -9749,10 +9749,10 @@
         <v>0</v>
       </c>
       <c r="R65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" s="1">
         <v>0</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9847,16 +9847,16 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C66" s="1">
         <v>5462507</v>
       </c>
       <c r="D66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E66" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F66" t="s">
         <v>95</v>
@@ -9991,16 +9991,16 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C67" s="1">
-        <v>12107</v>
+        <v>62300</v>
       </c>
       <c r="D67" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E67" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F67" t="s">
         <v>95</v>
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="AS67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT67" s="1">
         <v>0</v>
@@ -10135,19 +10135,19 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C68" s="1">
-        <v>3345</v>
+        <v>4914</v>
       </c>
       <c r="D68" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E68" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F68" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G68" t="s">
         <v>97</v>
@@ -10159,10 +10159,10 @@
         <v>524</v>
       </c>
       <c r="J68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
@@ -10175,10 +10175,10 @@
         <v>1</v>
       </c>
       <c r="P68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" s="1">
         <v>0</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -10253,7 +10253,7 @@
         <v>0</v>
       </c>
       <c r="AP68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ68" s="1">
         <v>0</v>
@@ -10282,7 +10282,7 @@
         <v>25</v>
       </c>
       <c r="C69" s="1">
-        <v>4914</v>
+        <v>5462328</v>
       </c>
       <c r="D69" t="s">
         <v>54</v>
@@ -10291,7 +10291,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -10303,10 +10303,10 @@
         <v>524</v>
       </c>
       <c r="J69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="AK69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -10397,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="AP69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ69" s="1">
         <v>0</v>
@@ -10423,16 +10423,16 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C70" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D70" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E70" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F70" t="s">
         <v>46</v>
@@ -10469,10 +10469,10 @@
         <v>0</v>
       </c>
       <c r="R70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T70" s="1">
         <v>0</v>
@@ -10550,7 +10550,7 @@
         <v>0</v>
       </c>
       <c r="AS70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT70" s="1">
         <v>0</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C71" s="1">
-        <v>5462328</v>
+        <v>12107</v>
       </c>
       <c r="D71" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10591,10 +10591,10 @@
         <v>524</v>
       </c>
       <c r="J71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="AS71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT71" s="1">
         <v>0</v>
@@ -10711,16 +10711,16 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C72" s="1">
-        <v>5486550</v>
+        <v>446220</v>
       </c>
       <c r="D72" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E72" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F72" t="s">
         <v>95</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y72" s="1">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="AQ72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR72" s="1">
         <v>0</v>
@@ -10855,19 +10855,19 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C73" s="1">
-        <v>88890</v>
+        <v>5486550</v>
       </c>
       <c r="D73" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E73" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G73" t="s">
         <v>97</v>
@@ -10879,10 +10879,10 @@
         <v>524</v>
       </c>
       <c r="J73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -10958,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL73" s="1">
         <v>0</v>
@@ -10976,13 +10976,13 @@
         <v>0</v>
       </c>
       <c r="AQ73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR73" s="1">
         <v>0</v>
       </c>
       <c r="AS73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT73" s="1">
         <v>0</v>
@@ -10999,16 +10999,16 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C74" s="1">
         <v>3345</v>
       </c>
       <c r="D74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F74" t="s">
         <v>46</v>
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C75" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D75" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E75" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11167,10 +11167,10 @@
         <v>525</v>
       </c>
       <c r="J75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
@@ -11287,16 +11287,16 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C76" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E76" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="F76" t="s">
         <v>46</v>
@@ -11431,19 +11431,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C77" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D77" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E77" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="F77" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11455,10 +11455,10 @@
         <v>525</v>
       </c>
       <c r="J77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y77" s="1">
         <v>0</v>
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="AS77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT77" s="1">
         <v>0</v>
@@ -11575,16 +11575,16 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C78" s="1">
-        <v>156346345</v>
+        <v>446220</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F78" t="s">
         <v>95</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y78" s="1">
         <v>0</v>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="AS78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT78" s="1">
         <v>0</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,60 +60,60 @@
     <t>substance</t>
   </si>
   <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>1-phenyl-1-propanamine</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
     <t>menthol</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>1-phenyl-1-propanamine</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
     <t>nicotine</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>procaine</t>
   </si>
   <si>
     <t>xylazine</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>procaine</t>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
+    <t>levamisole</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
     <t>quinine</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
-    <t>levamisole</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
@@ -123,12 +123,12 @@
     <t>benzoic acid</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>lysergic acid diethylamide (LSD)</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>caffeine</t>
   </si>
   <si>
@@ -147,57 +147,57 @@
     <t>cas</t>
   </si>
   <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>2941-20-0</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
     <t>1490-04-6</t>
   </si>
   <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>2941-20-0</t>
-  </si>
-  <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
     <t>54-11-5</t>
   </si>
   <si>
-    <t>105-70-4</t>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>59-46-1</t>
   </si>
   <si>
     <t>7361-61-7</t>
   </si>
   <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>59-46-1</t>
-  </si>
-  <si>
     <t>537-46-2</t>
   </si>
   <si>
     <t>90736-23-5</t>
   </si>
   <si>
+    <t>14769-73-4</t>
+  </si>
+  <si>
+    <t>43021-26-7</t>
+  </si>
+  <si>
     <t>72402-53-0</t>
   </si>
   <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
-    <t>14769-73-4</t>
-  </si>
-  <si>
     <t>62-44-2</t>
   </si>
   <si>
@@ -207,12 +207,12 @@
     <t>65-85-0</t>
   </si>
   <si>
+    <t>6740-88-1</t>
+  </si>
+  <si>
     <t>50-37-3</t>
   </si>
   <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
     <t>58-08-2</t>
   </si>
   <si>
@@ -228,6 +228,12 @@
     <t>unii</t>
   </si>
   <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
@@ -237,39 +243,33 @@
     <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
     <t>6M3C89ZY6R</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>4Z8Y51M438</t>
   </si>
   <si>
     <t>2KFG9TP5V8</t>
   </si>
   <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>4Z8Y51M438</t>
-  </si>
-  <si>
     <t>44RAL3456C</t>
   </si>
   <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
+    <t>2880D3468G</t>
+  </si>
+  <si>
+    <t>58C337KP3E</t>
+  </si>
+  <si>
     <t>A7V27PHC7A</t>
   </si>
   <si>
-    <t>58C337KP3E</t>
-  </si>
-  <si>
-    <t>2880D3468G</t>
-  </si>
-  <si>
     <t>ER0CTH01H9</t>
   </si>
   <si>
@@ -279,10 +279,10 @@
     <t>8SKN0B0MIM</t>
   </si>
   <si>
+    <t>690G0D6V8H</t>
+  </si>
+  <si>
     <t>8NA5SWF92O</t>
-  </si>
-  <si>
-    <t>690G0D6V8H</t>
   </si>
   <si>
     <t>3G6A5W338E</t>
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>1254</v>
+        <v>66924</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -655,10 +655,10 @@
         <v>365</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1">
@@ -778,16 +778,16 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>3345</v>
+        <v>18054</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
         <v>97</v>
@@ -799,10 +799,10 @@
         <v>365</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -815,10 +815,10 @@
         <v>1</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -922,16 +922,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>165365057</v>
+        <v>446220</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -943,10 +943,10 @@
         <v>365</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="1">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>18054</v>
+        <v>3345</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1087,10 +1087,10 @@
         <v>365</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1103,10 +1103,10 @@
         <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
         <v>95</v>
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>88890</v>
+        <v>1254</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1375,10 +1375,10 @@
         <v>365</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1498,16 +1498,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1519,10 +1519,10 @@
         <v>365</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>89594</v>
+        <v>88890</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
@@ -1651,7 +1651,7 @@
         <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
         <v>97</v>
@@ -1663,10 +1663,10 @@
         <v>365</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>66924</v>
+        <v>89594</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
@@ -1795,7 +1795,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
         <v>97</v>
@@ -1807,10 +1807,10 @@
         <v>365</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1927,19 +1927,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -1988,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="1">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
         <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
         <v>5462328</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
-        <v>88890</v>
+        <v>4914</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14" s="1">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>0</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2543,16 +2543,16 @@
         <v>1</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2647,19 +2647,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
-        <v>4914</v>
+        <v>3345</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2687,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="1">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>27</v>
       </c>
       <c r="C17" s="1">
-        <v>156346345</v>
+        <v>10836</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="1">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1">
-        <v>165365057</v>
+        <v>62300</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3103,10 +3103,10 @@
         <v>400</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3278,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="1">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3391,10 +3391,10 @@
         <v>400</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3407,10 +3407,10 @@
         <v>1</v>
       </c>
       <c r="P21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1">
         <v>4914</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3655,19 +3655,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3695,10 +3695,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="1">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="1">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
-        <v>3345</v>
+        <v>26879</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="1">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="1">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" s="1">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1">
-        <v>3034034</v>
+        <v>3345</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
         <v>95</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="1">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="AP25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="1">
         <v>0</v>
@@ -4231,19 +4231,19 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1">
         <v>446220</v>
       </c>
       <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
         <v>50</v>
-      </c>
-      <c r="E27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" t="s">
-        <v>46</v>
       </c>
       <c r="G27" t="s">
         <v>97</v>
@@ -4375,16 +4375,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1">
         <v>5462328</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
@@ -4522,7 +4522,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>26879</v>
+        <v>3034034</v>
       </c>
       <c r="D29" t="s">
         <v>60</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="1">
         <v>0</v>
@@ -4663,19 +4663,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1">
-        <v>4754</v>
+        <v>446220</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="1">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="1">
         <v>0</v>
@@ -4807,19 +4807,19 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1">
-        <v>446220</v>
+        <v>4754</v>
       </c>
       <c r="D31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" t="s">
         <v>50</v>
-      </c>
-      <c r="E31" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" t="s">
-        <v>46</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4868,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="W31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="1">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ31" s="1">
         <v>0</v>
@@ -4951,19 +4951,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s">
         <v>97</v>
@@ -4975,10 +4975,10 @@
         <v>480</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5000,10 +5000,10 @@
         <v>0</v>
       </c>
       <c r="S32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" s="1">
         <v>0</v>
@@ -5012,10 +5012,10 @@
         <v>0</v>
       </c>
       <c r="W32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="1">
         <v>0</v>
@@ -5095,19 +5095,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G33" t="s">
         <v>97</v>
@@ -5119,10 +5119,10 @@
         <v>480</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5156,10 +5156,10 @@
         <v>0</v>
       </c>
       <c r="W33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="1">
         <v>0</v>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33" s="1">
         <v>0</v>
@@ -5239,19 +5239,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C34" s="1">
-        <v>448223</v>
+        <v>66924</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G34" t="s">
         <v>97</v>
@@ -5263,10 +5263,10 @@
         <v>480</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5383,19 +5383,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1">
-        <v>165365057</v>
+        <v>448223</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="1">
         <v>0</v>
@@ -5527,16 +5527,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1">
-        <v>4754</v>
+        <v>243</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>
@@ -5645,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="1">
         <v>0</v>
@@ -5683,7 +5683,7 @@
         <v>83</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -5815,16 +5815,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" s="1">
-        <v>5462328</v>
+        <v>5707</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s">
         <v>95</v>
@@ -5864,10 +5864,10 @@
         <v>0</v>
       </c>
       <c r="S38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="1">
         <v>0</v>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5959,16 +5959,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C39" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s">
         <v>95</v>
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="AS39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="1">
         <v>0</v>
@@ -6103,19 +6103,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1">
         <v>3345</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C41" s="1">
-        <v>243</v>
+        <v>165365057</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6271,10 +6271,10 @@
         <v>480</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="AS41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT41" s="1">
         <v>0</v>
@@ -6391,16 +6391,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C42" s="1">
         <v>446220</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s">
         <v>95</v>
@@ -6535,16 +6535,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C43" s="1">
-        <v>66924</v>
+        <v>4754</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E43" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F43" t="s">
         <v>95</v>
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="AP43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ43" s="1">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="1">
-        <v>5761</v>
+        <v>3821</v>
       </c>
       <c r="D44" t="s">
         <v>64</v>
@@ -6691,7 +6691,7 @@
         <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH44" s="1">
         <v>0</v>
@@ -6823,19 +6823,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1">
-        <v>4754</v>
+        <v>5761</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6847,10 +6847,10 @@
         <v>486</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="AP45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ45" s="1">
         <v>0</v>
@@ -6967,19 +6967,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C46" s="1">
-        <v>3821</v>
+        <v>4754</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -6991,10 +6991,10 @@
         <v>486</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7055,10 +7055,10 @@
         <v>0</v>
       </c>
       <c r="AF46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH46" s="1">
         <v>0</v>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="AP46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ46" s="1">
         <v>0</v>
@@ -7111,7 +7111,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" s="1">
         <v>10836</v>
@@ -7123,7 +7123,7 @@
         <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7255,19 +7255,19 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C48" s="1">
-        <v>2519</v>
+        <v>4754</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s">
         <v>97</v>
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="1">
         <v>0</v>
@@ -7399,19 +7399,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C49" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D49" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7423,10 +7423,10 @@
         <v>505</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -7442,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" s="1">
         <v>0</v>
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49" s="1">
         <v>0</v>
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49" s="1">
         <v>0</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ49" s="1">
         <v>0</v>
@@ -7543,19 +7543,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C50" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E50" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F50" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7567,10 +7567,10 @@
         <v>505</v>
       </c>
       <c r="J50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -7598,10 +7598,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="AS50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT50" s="1">
         <v>0</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C51" s="1">
-        <v>4754</v>
+        <v>88890</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E51" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7711,10 +7711,10 @@
         <v>505</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="AP51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ51" s="1">
         <v>0</v>
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT51" s="1">
         <v>0</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C52" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7855,10 +7855,10 @@
         <v>505</v>
       </c>
       <c r="J52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
@@ -7886,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="U52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52" s="1">
         <v>0</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C53" s="1">
-        <v>446220</v>
+        <v>5486550</v>
       </c>
       <c r="D53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" t="s">
         <v>50</v>
-      </c>
-      <c r="E53" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" t="s">
-        <v>95</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -7999,10 +7999,10 @@
         <v>516</v>
       </c>
       <c r="J53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="1">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="1">
         <v>0</v>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="AQ53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR53" s="1">
         <v>0</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C54" s="1">
-        <v>5486550</v>
+        <v>446220</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E54" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8143,10 +8143,10 @@
         <v>516</v>
       </c>
       <c r="J54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y54" s="1">
         <v>0</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR54" s="1">
         <v>0</v>
@@ -8272,10 +8272,10 @@
         <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C56" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E56" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C57" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D57" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E57" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8591,10 +8591,10 @@
         <v>1</v>
       </c>
       <c r="P57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" s="1">
         <v>0</v>
@@ -8654,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="1">
         <v>0</v>
@@ -8678,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C58" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E58" t="s">
         <v>73</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8735,10 +8735,10 @@
         <v>1</v>
       </c>
       <c r="P58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8839,19 +8839,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C59" s="1">
-        <v>5462507</v>
+        <v>5462328</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E59" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8995,7 +8995,7 @@
         <v>90</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C61" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E61" t="s">
         <v>73</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9167,10 +9167,10 @@
         <v>1</v>
       </c>
       <c r="P61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C62" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D62" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E62" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F62" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9311,10 +9311,10 @@
         <v>1</v>
       </c>
       <c r="P62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -9415,19 +9415,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C63" s="1">
-        <v>3345</v>
+        <v>4914</v>
       </c>
       <c r="D63" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E63" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G63" t="s">
         <v>97</v>
@@ -9439,10 +9439,10 @@
         <v>524</v>
       </c>
       <c r="J63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -9455,10 +9455,10 @@
         <v>1</v>
       </c>
       <c r="P63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" s="1">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="1">
         <v>0</v>
@@ -9533,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="AP63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ63" s="1">
         <v>0</v>
@@ -9559,19 +9559,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C64" s="1">
-        <v>21812144</v>
+        <v>3345</v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F64" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s">
         <v>97</v>
@@ -9599,10 +9599,10 @@
         <v>1</v>
       </c>
       <c r="P64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" s="1">
         <v>0</v>
@@ -9689,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="AT64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU64" s="1">
         <v>0</v>
@@ -9703,19 +9703,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C65" s="1">
-        <v>5707</v>
+        <v>62300</v>
       </c>
       <c r="D65" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E65" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
@@ -9727,10 +9727,10 @@
         <v>524</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -9749,10 +9749,10 @@
         <v>0</v>
       </c>
       <c r="R65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T65" s="1">
         <v>0</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9847,19 +9847,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C66" s="1">
-        <v>5462507</v>
+        <v>21812144</v>
       </c>
       <c r="D66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F66" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G66" t="s">
         <v>97</v>
@@ -9871,10 +9871,10 @@
         <v>524</v>
       </c>
       <c r="J66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="AT66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU66" s="1">
         <v>0</v>
@@ -9991,16 +9991,16 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C67" s="1">
-        <v>62300</v>
+        <v>5462507</v>
       </c>
       <c r="D67" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F67" t="s">
         <v>95</v>
@@ -10135,16 +10135,16 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C68" s="1">
-        <v>4914</v>
+        <v>12107</v>
       </c>
       <c r="D68" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F68" t="s">
         <v>95</v>
@@ -10253,7 +10253,7 @@
         <v>0</v>
       </c>
       <c r="AP68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ68" s="1">
         <v>0</v>
@@ -10262,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT68" s="1">
         <v>0</v>
@@ -10279,19 +10279,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C69" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D69" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E69" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -10303,10 +10303,10 @@
         <v>524</v>
       </c>
       <c r="J69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="X69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y69" s="1">
         <v>0</v>
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="AK69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -10423,19 +10423,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C70" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D70" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E70" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G70" t="s">
         <v>97</v>
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -10550,7 +10550,7 @@
         <v>0</v>
       </c>
       <c r="AS70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT70" s="1">
         <v>0</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C71" s="1">
-        <v>12107</v>
+        <v>5707</v>
       </c>
       <c r="D71" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E71" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10591,10 +10591,10 @@
         <v>524</v>
       </c>
       <c r="J71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -10613,10 +10613,10 @@
         <v>0</v>
       </c>
       <c r="R71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71" s="1">
         <v>0</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="AS71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT71" s="1">
         <v>0</v>
@@ -10711,16 +10711,16 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C72" s="1">
-        <v>446220</v>
+        <v>5486550</v>
       </c>
       <c r="D72" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E72" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F72" t="s">
         <v>95</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y72" s="1">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="AQ72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR72" s="1">
         <v>0</v>
@@ -10855,19 +10855,19 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C73" s="1">
-        <v>5486550</v>
+        <v>88890</v>
       </c>
       <c r="D73" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E73" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F73" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G73" t="s">
         <v>97</v>
@@ -10879,10 +10879,10 @@
         <v>524</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -10958,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73" s="1">
         <v>0</v>
@@ -10976,13 +10976,13 @@
         <v>0</v>
       </c>
       <c r="AQ73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR73" s="1">
         <v>0</v>
       </c>
       <c r="AS73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT73" s="1">
         <v>0</v>
@@ -10999,19 +10999,19 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C74" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E74" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
@@ -11023,10 +11023,10 @@
         <v>525</v>
       </c>
       <c r="J74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -11039,10 +11039,10 @@
         <v>1</v>
       </c>
       <c r="P74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74" s="1">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y74" s="1">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="AK74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL74" s="1">
         <v>0</v>
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C75" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E75" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="F75" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11167,10 +11167,10 @@
         <v>525</v>
       </c>
       <c r="J75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
@@ -11183,10 +11183,10 @@
         <v>1</v>
       </c>
       <c r="P75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" s="1">
         <v>0</v>
@@ -11246,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="AK75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL75" s="1">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="AS75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT75" s="1">
         <v>0</v>
@@ -11287,19 +11287,19 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C76" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E76" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -11311,10 +11311,10 @@
         <v>525</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -11431,19 +11431,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C77" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D77" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E77" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11578,16 +11578,16 @@
         <v>21</v>
       </c>
       <c r="C78" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D78" t="s">
         <v>50</v>
       </c>
       <c r="E78" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F78" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -11599,10 +11599,10 @@
         <v>525</v>
       </c>
       <c r="J78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y78" s="1">
         <v>0</v>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="AS78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT78" s="1">
         <v>0</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,42 +60,42 @@
     <t>substance</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>menthol</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>nicotine</t>
+  </si>
+  <si>
     <t>1-phenyl-1-propanamine</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>menthol</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>nicotine</t>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>procaine</t>
   </si>
   <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>procaine</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
     <t>methamphetamine</t>
   </si>
   <si>
@@ -105,15 +105,15 @@
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
+    <t>quinine</t>
+  </si>
+  <si>
     <t>levamisole</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
-    <t>quinine</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
@@ -147,57 +147,57 @@
     <t>cas</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>1490-04-6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
     <t>105-70-4</t>
   </si>
   <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
+    <t>54-11-5</t>
+  </si>
+  <si>
     <t>2941-20-0</t>
   </si>
   <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t>1490-04-6</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>54-11-5</t>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>59-46-1</t>
   </si>
   <si>
     <t>561-27-3</t>
   </si>
   <si>
-    <t>59-46-1</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
     <t>537-46-2</t>
   </si>
   <si>
     <t>90736-23-5</t>
   </si>
   <si>
+    <t>43021-26-7</t>
+  </si>
+  <si>
+    <t>72402-53-0</t>
+  </si>
+  <si>
     <t>14769-73-4</t>
   </si>
   <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
-    <t>72402-53-0</t>
-  </si>
-  <si>
     <t>62-44-2</t>
   </si>
   <si>
@@ -228,46 +228,46 @@
     <t>unii</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
     <t>6M3C89ZY6R</t>
   </si>
   <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>4Z8Y51M438</t>
+  </si>
+  <si>
     <t>70D95007SX</t>
   </si>
   <si>
-    <t>4Z8Y51M438</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
     <t>44RAL3456C</t>
   </si>
   <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
+    <t>58C337KP3E</t>
+  </si>
+  <si>
+    <t>A7V27PHC7A</t>
+  </si>
+  <si>
     <t>2880D3468G</t>
-  </si>
-  <si>
-    <t>58C337KP3E</t>
-  </si>
-  <si>
-    <t>A7V27PHC7A</t>
   </si>
   <si>
     <t>ER0CTH01H9</t>
@@ -634,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>66924</v>
+        <v>3345</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -643,7 +643,7 @@
         <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -652,7 +652,7 @@
         <v>44840</v>
       </c>
       <c r="I2" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -671,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2" s="1">
         <v>0</v>
@@ -778,16 +778,16 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>18054</v>
+        <v>88890</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
         <v>97</v>
@@ -796,13 +796,13 @@
         <v>44840</v>
       </c>
       <c r="I3" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -922,13 +922,13 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>446220</v>
+        <v>1254</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
         <v>95</v>
@@ -940,7 +940,7 @@
         <v>44840</v>
       </c>
       <c r="I4" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="1">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1084,7 +1084,7 @@
         <v>44840</v>
       </c>
       <c r="I5" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1103,10 +1103,10 @@
         <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>12107</v>
+        <v>446220</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
         <v>95</v>
@@ -1228,7 +1228,7 @@
         <v>44840</v>
       </c>
       <c r="I6" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="1">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>1254</v>
+        <v>66924</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1372,13 +1372,13 @@
         <v>44840</v>
       </c>
       <c r="I7" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1498,16 +1498,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>165365057</v>
+        <v>12107</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1516,13 +1516,13 @@
         <v>44840</v>
       </c>
       <c r="I8" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1642,16 +1642,16 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>88890</v>
+        <v>89594</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
         <v>97</v>
@@ -1660,13 +1660,13 @@
         <v>44840</v>
       </c>
       <c r="I9" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -1786,13 +1786,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>89594</v>
+        <v>18054</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
         <v>95</v>
@@ -1804,7 +1804,7 @@
         <v>44840</v>
       </c>
       <c r="I10" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1927,19 +1927,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -1948,7 +1948,7 @@
         <v>44840</v>
       </c>
       <c r="I11" s="1">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -1988,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2092,7 +2092,7 @@
         <v>44840</v>
       </c>
       <c r="I12" s="1">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2117,10 +2117,10 @@
         <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>5462328</v>
+        <v>4914</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2236,7 +2236,7 @@
         <v>44840</v>
       </c>
       <c r="I13" s="1">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13" s="1">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
-        <v>4914</v>
+        <v>446220</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2380,7 +2380,7 @@
         <v>44840</v>
       </c>
       <c r="I14" s="1">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -2420,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="1">
         <v>0</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2524,7 +2524,7 @@
         <v>44840</v>
       </c>
       <c r="I15" s="1">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2543,16 +2543,16 @@
         <v>1</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2647,19 +2647,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s">
         <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2668,7 +2668,7 @@
         <v>44840</v>
       </c>
       <c r="I16" s="1">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -2687,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>10836</v>
+        <v>165365057</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2812,7 +2812,7 @@
         <v>44845</v>
       </c>
       <c r="I17" s="1">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="1">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -2956,7 +2956,7 @@
         <v>44845</v>
       </c>
       <c r="I18" s="1">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -2975,10 +2975,10 @@
         <v>1</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="1">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1">
-        <v>62300</v>
+        <v>10836</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3100,13 +3100,13 @@
         <v>44845</v>
       </c>
       <c r="I19" s="1">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3134,10 +3134,10 @@
         <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="1">
         <v>0</v>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
-        <v>88890</v>
+        <v>62300</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3244,13 +3244,13 @@
         <v>44845</v>
       </c>
       <c r="I20" s="1">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1">
-        <v>3345</v>
+        <v>4914</v>
       </c>
       <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
         <v>47</v>
-      </c>
-      <c r="E21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" t="s">
-        <v>50</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3388,7 +3388,7 @@
         <v>44845</v>
       </c>
       <c r="I21" s="1">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
@@ -3407,10 +3407,10 @@
         <v>1</v>
       </c>
       <c r="P21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="1">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
-        <v>4914</v>
+        <v>156346345</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3532,7 +3532,7 @@
         <v>44845</v>
       </c>
       <c r="I22" s="1">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="1">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -3655,19 +3655,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3676,7 +3676,7 @@
         <v>44845</v>
       </c>
       <c r="I23" s="1">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -3799,16 +3799,16 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1">
-        <v>26879</v>
+        <v>5462328</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -3820,7 +3820,7 @@
         <v>44840</v>
       </c>
       <c r="I24" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="1">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="1">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
-        <v>3345</v>
+        <v>119478</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
         <v>95</v>
@@ -3964,7 +3964,7 @@
         <v>44840</v>
       </c>
       <c r="I25" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="1">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4087,16 +4087,16 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1">
-        <v>119478</v>
+        <v>3345</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s">
         <v>95</v>
@@ -4108,7 +4108,7 @@
         <v>44840</v>
       </c>
       <c r="I26" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="1">
         <v>0</v>
@@ -4231,19 +4231,19 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1">
-        <v>446220</v>
+        <v>3034034</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G27" t="s">
         <v>97</v>
@@ -4252,13 +4252,13 @@
         <v>44840</v>
       </c>
       <c r="I27" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4292,10 +4292,10 @@
         <v>0</v>
       </c>
       <c r="W27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="1">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ27" s="1">
         <v>0</v>
@@ -4375,19 +4375,19 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C28" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
         <v>97</v>
@@ -4396,13 +4396,13 @@
         <v>44840</v>
       </c>
       <c r="I28" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
@@ -4436,10 +4436,10 @@
         <v>0</v>
       </c>
       <c r="W28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="1">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>3034034</v>
+        <v>26879</v>
       </c>
       <c r="D29" t="s">
         <v>60</v>
@@ -4540,7 +4540,7 @@
         <v>44840</v>
       </c>
       <c r="I29" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="1">
         <v>0</v>
@@ -4663,19 +4663,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C30" s="1">
         <v>446220</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4684,7 +4684,7 @@
         <v>44845</v>
       </c>
       <c r="I30" s="1">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -4819,7 +4819,7 @@
         <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4828,7 +4828,7 @@
         <v>44845</v>
       </c>
       <c r="I31" s="1">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -4951,19 +4951,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C32" s="1">
         <v>446220</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s">
         <v>97</v>
@@ -4972,7 +4972,7 @@
         <v>44886</v>
       </c>
       <c r="I32" s="1">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -5095,16 +5095,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C33" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s">
         <v>95</v>
@@ -5116,7 +5116,7 @@
         <v>44886</v>
       </c>
       <c r="I33" s="1">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" s="1">
         <v>0</v>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="1">
         <v>0</v>
@@ -5239,19 +5239,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1">
-        <v>66924</v>
+        <v>165365057</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G34" t="s">
         <v>97</v>
@@ -5260,13 +5260,13 @@
         <v>44886</v>
       </c>
       <c r="I34" s="1">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34" s="1">
         <v>0</v>
@@ -5383,19 +5383,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C35" s="1">
-        <v>448223</v>
+        <v>66924</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -5404,13 +5404,13 @@
         <v>44886</v>
       </c>
       <c r="I35" s="1">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5527,19 +5527,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C36" s="1">
-        <v>243</v>
+        <v>3345</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -5548,13 +5548,13 @@
         <v>44886</v>
       </c>
       <c r="I36" s="1">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -5567,10 +5567,10 @@
         <v>1</v>
       </c>
       <c r="P36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36" s="1">
         <v>0</v>
@@ -5671,19 +5671,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C37" s="1">
-        <v>119478</v>
+        <v>5462328</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -5692,13 +5692,13 @@
         <v>44886</v>
       </c>
       <c r="I37" s="1">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -5815,16 +5815,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C38" s="1">
         <v>5707</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s">
         <v>95</v>
@@ -5836,7 +5836,7 @@
         <v>44886</v>
       </c>
       <c r="I38" s="1">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -5959,19 +5959,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C39" s="1">
-        <v>5462328</v>
+        <v>448223</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -5980,13 +5980,13 @@
         <v>44886</v>
       </c>
       <c r="I39" s="1">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6103,19 +6103,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C40" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -6124,13 +6124,13 @@
         <v>44886</v>
       </c>
       <c r="I40" s="1">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
@@ -6143,10 +6143,10 @@
         <v>1</v>
       </c>
       <c r="P40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="1">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT40" s="1">
         <v>0</v>
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1">
-        <v>165365057</v>
+        <v>4754</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6268,13 +6268,13 @@
         <v>44886</v>
       </c>
       <c r="I41" s="1">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ41" s="1">
         <v>0</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="AS41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT41" s="1">
         <v>0</v>
@@ -6391,19 +6391,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C42" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6412,13 +6412,13 @@
         <v>44886</v>
       </c>
       <c r="I42" s="1">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="1">
         <v>0</v>
@@ -6535,16 +6535,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C43" s="1">
-        <v>4754</v>
+        <v>243</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s">
         <v>95</v>
@@ -6556,7 +6556,7 @@
         <v>44886</v>
       </c>
       <c r="I43" s="1">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J43" s="1">
         <v>0</v>
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="AP43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="1">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6700,7 +6700,7 @@
         <v>44897</v>
       </c>
       <c r="I44" s="1">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -6823,19 +6823,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C45" s="1">
-        <v>5761</v>
+        <v>4754</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6844,13 +6844,13 @@
         <v>44897</v>
       </c>
       <c r="I45" s="1">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="AP45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ45" s="1">
         <v>0</v>
@@ -6967,19 +6967,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1">
-        <v>4754</v>
+        <v>5761</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -6988,13 +6988,13 @@
         <v>44897</v>
       </c>
       <c r="I46" s="1">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="AP46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ46" s="1">
         <v>0</v>
@@ -7123,7 +7123,7 @@
         <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7132,7 +7132,7 @@
         <v>44894</v>
       </c>
       <c r="I47" s="1">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -7255,19 +7255,19 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C48" s="1">
-        <v>4754</v>
+        <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G48" t="s">
         <v>97</v>
@@ -7276,13 +7276,13 @@
         <v>44896</v>
       </c>
       <c r="I48" s="1">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -7298,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="AP48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ48" s="1">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>90</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7420,7 +7420,7 @@
         <v>44896</v>
       </c>
       <c r="I49" s="1">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -7543,19 +7543,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C50" s="1">
-        <v>10836</v>
+        <v>4754</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E50" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7564,7 +7564,7 @@
         <v>44896</v>
       </c>
       <c r="I50" s="1">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -7598,10 +7598,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ50" s="1">
         <v>0</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C51" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E51" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7708,13 +7708,13 @@
         <v>44896</v>
       </c>
       <c r="I51" s="1">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -7742,10 +7742,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="1">
         <v>0</v>
@@ -7831,16 +7831,16 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C52" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F52" t="s">
         <v>95</v>
@@ -7852,7 +7852,7 @@
         <v>44896</v>
       </c>
       <c r="I52" s="1">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="J52" s="1">
         <v>0</v>
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7958,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT52" s="1">
         <v>0</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C53" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -7996,7 +7996,7 @@
         <v>44886</v>
       </c>
       <c r="I53" s="1">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="AQ53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR53" s="1">
         <v>0</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C54" s="1">
-        <v>446220</v>
+        <v>12107</v>
       </c>
       <c r="D54" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8140,13 +8140,13 @@
         <v>44886</v>
       </c>
       <c r="I54" s="1">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="J54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="1">
         <v>0</v>
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT54" s="1">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C55" s="1">
-        <v>12107</v>
+        <v>88890</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F55" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8284,7 +8284,7 @@
         <v>44886</v>
       </c>
       <c r="I55" s="1">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C56" s="1">
-        <v>5462507</v>
+        <v>5486550</v>
       </c>
       <c r="D56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8428,7 +8428,7 @@
         <v>44886</v>
       </c>
       <c r="I56" s="1">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="AQ56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR56" s="1">
         <v>0</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C57" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E57" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8572,7 +8572,7 @@
         <v>44886</v>
       </c>
       <c r="I57" s="1">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -8591,10 +8591,10 @@
         <v>1</v>
       </c>
       <c r="P57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="1">
         <v>0</v>
@@ -8654,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57" s="1">
         <v>0</v>
@@ -8678,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C58" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E58" t="s">
         <v>73</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8716,13 +8716,13 @@
         <v>44886</v>
       </c>
       <c r="I58" s="1">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="J58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -8735,10 +8735,10 @@
         <v>1</v>
       </c>
       <c r="P58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -8759,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y58" s="1">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8839,19 +8839,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C59" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D59" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E59" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F59" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8860,7 +8860,7 @@
         <v>44886</v>
       </c>
       <c r="I59" s="1">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -8983,19 +8983,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C60" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9004,7 +9004,7 @@
         <v>44886</v>
       </c>
       <c r="I60" s="1">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="J60" s="1">
         <v>1</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="1">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ60" s="1">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C61" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D61" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" t="s">
+        <v>90</v>
+      </c>
+      <c r="F61" t="s">
         <v>47</v>
-      </c>
-      <c r="E61" t="s">
-        <v>73</v>
-      </c>
-      <c r="F61" t="s">
-        <v>50</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9148,7 +9148,7 @@
         <v>44886</v>
       </c>
       <c r="I61" s="1">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -9167,10 +9167,10 @@
         <v>1</v>
       </c>
       <c r="P61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z61" s="1">
         <v>0</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="AP61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ61" s="1">
         <v>0</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C62" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D62" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E62" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F62" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9292,7 +9292,7 @@
         <v>44886</v>
       </c>
       <c r="I62" s="1">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -9311,10 +9311,10 @@
         <v>1</v>
       </c>
       <c r="P62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C63" s="1">
-        <v>4914</v>
+        <v>5486550</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E63" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F63" t="s">
         <v>95</v>
@@ -9436,7 +9436,7 @@
         <v>44886</v>
       </c>
       <c r="I63" s="1">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J63" s="1">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL63" s="1">
         <v>0</v>
@@ -9533,10 +9533,10 @@
         <v>0</v>
       </c>
       <c r="AP63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR63" s="1">
         <v>0</v>
@@ -9559,19 +9559,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C64" s="1">
         <v>3345</v>
       </c>
       <c r="D64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" t="s">
+        <v>71</v>
+      </c>
+      <c r="F64" t="s">
         <v>47</v>
-      </c>
-      <c r="E64" t="s">
-        <v>73</v>
-      </c>
-      <c r="F64" t="s">
-        <v>50</v>
       </c>
       <c r="G64" t="s">
         <v>97</v>
@@ -9580,7 +9580,7 @@
         <v>44886</v>
       </c>
       <c r="I64" s="1">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J64" s="1">
         <v>1</v>
@@ -9703,19 +9703,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C65" s="1">
-        <v>62300</v>
+        <v>21812144</v>
       </c>
       <c r="D65" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E65" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F65" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
@@ -9724,13 +9724,13 @@
         <v>44886</v>
       </c>
       <c r="I65" s="1">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="AT65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU65" s="1">
         <v>0</v>
@@ -9847,19 +9847,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C66" s="1">
-        <v>21812144</v>
+        <v>5462328</v>
       </c>
       <c r="D66" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E66" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G66" t="s">
         <v>97</v>
@@ -9868,7 +9868,7 @@
         <v>44886</v>
       </c>
       <c r="I66" s="1">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J66" s="1">
         <v>1</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="AT66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU66" s="1">
         <v>0</v>
@@ -10012,7 +10012,7 @@
         <v>44886</v>
       </c>
       <c r="I67" s="1">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
@@ -10135,16 +10135,16 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C68" s="1">
-        <v>12107</v>
+        <v>62300</v>
       </c>
       <c r="D68" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E68" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F68" t="s">
         <v>95</v>
@@ -10156,7 +10156,7 @@
         <v>44886</v>
       </c>
       <c r="I68" s="1">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -10262,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="1">
         <v>0</v>
@@ -10279,16 +10279,16 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C69" s="1">
-        <v>446220</v>
+        <v>4914</v>
       </c>
       <c r="D69" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E69" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F69" t="s">
         <v>95</v>
@@ -10300,7 +10300,7 @@
         <v>44886</v>
       </c>
       <c r="I69" s="1">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J69" s="1">
         <v>0</v>
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="X69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y69" s="1">
         <v>0</v>
@@ -10397,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="AP69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ69" s="1">
         <v>0</v>
@@ -10423,19 +10423,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C70" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D70" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E70" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F70" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G70" t="s">
         <v>97</v>
@@ -10444,7 +10444,7 @@
         <v>44886</v>
       </c>
       <c r="I70" s="1">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J70" s="1">
         <v>1</v>
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -10550,7 +10550,7 @@
         <v>0</v>
       </c>
       <c r="AS70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT70" s="1">
         <v>0</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C71" s="1">
-        <v>5707</v>
+        <v>12107</v>
       </c>
       <c r="D71" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E71" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F71" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10588,13 +10588,13 @@
         <v>44886</v>
       </c>
       <c r="I71" s="1">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -10613,10 +10613,10 @@
         <v>0</v>
       </c>
       <c r="R71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T71" s="1">
         <v>0</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="AS71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT71" s="1">
         <v>0</v>
@@ -10711,19 +10711,19 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C72" s="1">
-        <v>5486550</v>
+        <v>5707</v>
       </c>
       <c r="D72" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E72" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G72" t="s">
         <v>97</v>
@@ -10732,13 +10732,13 @@
         <v>44886</v>
       </c>
       <c r="I72" s="1">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -10757,10 +10757,10 @@
         <v>0</v>
       </c>
       <c r="R72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T72" s="1">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="AQ72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR72" s="1">
         <v>0</v>
@@ -10855,19 +10855,19 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C73" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D73" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F73" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G73" t="s">
         <v>97</v>
@@ -10876,13 +10876,13 @@
         <v>44886</v>
       </c>
       <c r="I73" s="1">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="X73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y73" s="1">
         <v>0</v>
@@ -10982,7 +10982,7 @@
         <v>0</v>
       </c>
       <c r="AS73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT73" s="1">
         <v>0</v>
@@ -10999,16 +10999,16 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C74" s="1">
         <v>446220</v>
       </c>
       <c r="D74" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F74" t="s">
         <v>95</v>
@@ -11020,7 +11020,7 @@
         <v>44886</v>
       </c>
       <c r="I74" s="1">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J74" s="1">
         <v>0</v>
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C75" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D75" t="s">
         <v>47</v>
       </c>
       <c r="E75" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F75" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11164,13 +11164,13 @@
         <v>44886</v>
       </c>
       <c r="I75" s="1">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
@@ -11183,10 +11183,10 @@
         <v>1</v>
       </c>
       <c r="P75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" s="1">
         <v>0</v>
@@ -11246,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="AK75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL75" s="1">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="AS75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT75" s="1">
         <v>0</v>
@@ -11287,19 +11287,19 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C76" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D76" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E76" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -11308,13 +11308,13 @@
         <v>44886</v>
       </c>
       <c r="I76" s="1">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -11327,10 +11327,10 @@
         <v>1</v>
       </c>
       <c r="P76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76" s="1">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AK76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL76" s="1">
         <v>0</v>
@@ -11414,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="AS76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT76" s="1">
         <v>0</v>
@@ -11431,19 +11431,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C77" s="1">
         <v>88890</v>
       </c>
       <c r="D77" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E77" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F77" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11452,7 +11452,7 @@
         <v>44886</v>
       </c>
       <c r="I77" s="1">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J77" s="1">
         <v>1</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C78" s="1">
         <v>165365057</v>
       </c>
       <c r="D78" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E78" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F78" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -11596,7 +11596,7 @@
         <v>44886</v>
       </c>
       <c r="I78" s="1">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J78" s="1">
         <v>1</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,57 +60,57 @@
     <t>substance</t>
   </si>
   <si>
+    <t>1-phenyl-1-propanamine</t>
+  </si>
+  <si>
+    <t>nicotine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
     <t>menthol</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>nicotine</t>
-  </si>
-  <si>
-    <t>1-phenyl-1-propanamine</t>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>procaine</t>
   </si>
   <si>
     <t>xylazine</t>
   </si>
   <si>
-    <t>procaine</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
     <t>p-fluorofentanyl</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
+    <t>quinine</t>
   </si>
   <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>quinine</t>
-  </si>
-  <si>
     <t>levamisole</t>
   </si>
   <si>
@@ -147,54 +147,54 @@
     <t>cas</t>
   </si>
   <si>
+    <t>2941-20-0</t>
+  </si>
+  <si>
+    <t>54-11-5</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
     <t>1490-04-6</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>50-36-2</t>
   </si>
   <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t>54-11-5</t>
-  </si>
-  <si>
-    <t>2941-20-0</t>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>59-46-1</t>
   </si>
   <si>
     <t>7361-61-7</t>
   </si>
   <si>
-    <t>59-46-1</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
     <t>537-46-2</t>
   </si>
   <si>
     <t>90736-23-5</t>
   </si>
   <si>
+    <t>72402-53-0</t>
+  </si>
+  <si>
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>72402-53-0</t>
-  </si>
-  <si>
     <t>14769-73-4</t>
   </si>
   <si>
@@ -228,43 +228,43 @@
     <t>unii</t>
   </si>
   <si>
+    <t>6M3C89ZY6R</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
-    <t>6M3C89ZY6R</t>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>4Z8Y51M438</t>
   </si>
   <si>
     <t>2KFG9TP5V8</t>
   </si>
   <si>
-    <t>4Z8Y51M438</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
     <t>44RAL3456C</t>
   </si>
   <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
+    <t>A7V27PHC7A</t>
+  </si>
+  <si>
     <t>58C337KP3E</t>
-  </si>
-  <si>
-    <t>A7V27PHC7A</t>
   </si>
   <si>
     <t>2880D3468G</t>
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>3345</v>
+        <v>18054</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -655,10 +655,10 @@
         <v>366</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1">
@@ -671,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="P2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="1">
         <v>0</v>
@@ -778,16 +778,16 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>88890</v>
+        <v>89594</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
         <v>97</v>
@@ -799,10 +799,10 @@
         <v>366</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -922,16 +922,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>1254</v>
+        <v>3345</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -943,10 +943,10 @@
         <v>366</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -959,10 +959,10 @@
         <v>1</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>165365057</v>
+        <v>66924</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
         <v>97</v>
@@ -1231,10 +1231,10 @@
         <v>366</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>66924</v>
+        <v>12107</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
@@ -1363,7 +1363,7 @@
         <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1375,10 +1375,10 @@
         <v>366</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>12107</v>
+        <v>88890</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
@@ -1507,7 +1507,7 @@
         <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1519,10 +1519,10 @@
         <v>366</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1642,13 +1642,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>89594</v>
+        <v>1254</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -1786,13 +1786,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>18054</v>
+        <v>446220</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
         <v>95</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -1927,19 +1927,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="1">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2117,10 +2117,10 @@
         <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1">
-        <v>4914</v>
+        <v>88890</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="1">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
-        <v>446220</v>
+        <v>4914</v>
       </c>
       <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
         <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" t="s">
-        <v>47</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2420,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="W14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14" s="1">
         <v>0</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2543,16 +2543,16 @@
         <v>1</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2647,19 +2647,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2687,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
-        <v>165365057</v>
+        <v>10836</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="1">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -2975,10 +2975,10 @@
         <v>1</v>
       </c>
       <c r="P18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="1">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="1">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1">
-        <v>10836</v>
+        <v>4914</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3134,10 +3134,10 @@
         <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="1">
         <v>0</v>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="1">
         <v>0</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>62300</v>
+        <v>165365057</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3247,10 +3247,10 @@
         <v>401</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1">
-        <v>4914</v>
+        <v>3345</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3407,10 +3407,10 @@
         <v>1</v>
       </c>
       <c r="P21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="1">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>29</v>
       </c>
       <c r="C22" s="1">
-        <v>156346345</v>
+        <v>62300</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3535,10 +3535,10 @@
         <v>401</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -3655,19 +3655,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <v>88890</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3799,16 +3799,16 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="1">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
         <v>97</v>
@@ -3967,10 +3967,10 @@
         <v>402</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -4004,10 +4004,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="1">
         <v>0</v>
@@ -4087,16 +4087,16 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
         <v>95</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
@@ -4231,16 +4231,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1">
         <v>3034034</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s">
         <v>95</v>
@@ -4375,19 +4375,19 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G28" t="s">
         <v>97</v>
@@ -4399,10 +4399,10 @@
         <v>402</v>
       </c>
       <c r="J28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
@@ -4436,10 +4436,10 @@
         <v>0</v>
       </c>
       <c r="W28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="1">
         <v>0</v>
@@ -4663,19 +4663,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1">
         <v>446220</v>
       </c>
       <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" t="s">
         <v>48</v>
-      </c>
-      <c r="E30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" t="s">
-        <v>47</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4819,7 +4819,7 @@
         <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4951,19 +4951,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1">
-        <v>446220</v>
+        <v>448223</v>
       </c>
       <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" t="s">
         <v>48</v>
-      </c>
-      <c r="E32" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" t="s">
-        <v>47</v>
       </c>
       <c r="G32" t="s">
         <v>97</v>
@@ -4972,7 +4972,7 @@
         <v>44886</v>
       </c>
       <c r="I32" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -5012,10 +5012,10 @@
         <v>0</v>
       </c>
       <c r="W32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="1">
         <v>0</v>
@@ -5095,16 +5095,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1">
-        <v>446220</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s">
         <v>95</v>
@@ -5116,7 +5116,7 @@
         <v>44886</v>
       </c>
       <c r="I33" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="1">
         <v>0</v>
@@ -5239,19 +5239,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C34" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G34" t="s">
         <v>97</v>
@@ -5260,13 +5260,13 @@
         <v>44886</v>
       </c>
       <c r="I34" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5383,16 +5383,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C35" s="1">
-        <v>66924</v>
+        <v>5462328</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s">
         <v>95</v>
@@ -5404,7 +5404,7 @@
         <v>44886</v>
       </c>
       <c r="I35" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -5527,19 +5527,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -5548,13 +5548,13 @@
         <v>44886</v>
       </c>
       <c r="I36" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -5567,10 +5567,10 @@
         <v>1</v>
       </c>
       <c r="P36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="1">
         <v>0</v>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="1">
         <v>0</v>
@@ -5671,19 +5671,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C37" s="1">
-        <v>5462328</v>
+        <v>119478</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -5692,13 +5692,13 @@
         <v>44886</v>
       </c>
       <c r="I37" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -5815,19 +5815,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -5836,13 +5836,13 @@
         <v>44886</v>
       </c>
       <c r="I38" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -5855,19 +5855,19 @@
         <v>1</v>
       </c>
       <c r="P38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
       </c>
       <c r="S38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="1">
         <v>0</v>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5959,19 +5959,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C39" s="1">
-        <v>448223</v>
+        <v>165365057</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -5980,7 +5980,7 @@
         <v>44886</v>
       </c>
       <c r="I39" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="AS39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT39" s="1">
         <v>0</v>
@@ -6103,16 +6103,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1">
-        <v>88890</v>
+        <v>66924</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s">
         <v>95</v>
@@ -6124,7 +6124,7 @@
         <v>44886</v>
       </c>
       <c r="I40" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="1">
         <v>0</v>
@@ -6268,7 +6268,7 @@
         <v>44886</v>
       </c>
       <c r="I41" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
@@ -6391,19 +6391,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C42" s="1">
-        <v>119478</v>
+        <v>5707</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6412,13 +6412,13 @@
         <v>44886</v>
       </c>
       <c r="I42" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6440,10 +6440,10 @@
         <v>0</v>
       </c>
       <c r="S42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" s="1">
         <v>0</v>
@@ -6535,19 +6535,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C43" s="1">
-        <v>243</v>
+        <v>446220</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="G43" t="s">
         <v>97</v>
@@ -6556,13 +6556,13 @@
         <v>44886</v>
       </c>
       <c r="I43" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -6596,10 +6596,10 @@
         <v>0</v>
       </c>
       <c r="W43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43" s="1">
         <v>0</v>
@@ -6679,19 +6679,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C44" s="1">
-        <v>3821</v>
+        <v>4754</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6700,13 +6700,13 @@
         <v>44897</v>
       </c>
       <c r="I44" s="1">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="1">
         <v>0</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ44" s="1">
         <v>0</v>
@@ -6823,19 +6823,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C45" s="1">
-        <v>4754</v>
+        <v>3821</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6844,13 +6844,13 @@
         <v>44897</v>
       </c>
       <c r="I45" s="1">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -6911,10 +6911,10 @@
         <v>0</v>
       </c>
       <c r="AF45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH45" s="1">
         <v>0</v>
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="AP45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ45" s="1">
         <v>0</v>
@@ -6979,7 +6979,7 @@
         <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -6988,7 +6988,7 @@
         <v>44897</v>
       </c>
       <c r="I46" s="1">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -7123,7 +7123,7 @@
         <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7132,7 +7132,7 @@
         <v>44894</v>
       </c>
       <c r="I47" s="1">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -7255,16 +7255,16 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C48" s="1">
         <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F48" t="s">
         <v>95</v>
@@ -7276,7 +7276,7 @@
         <v>44896</v>
       </c>
       <c r="I48" s="1">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J48" s="1">
         <v>0</v>
@@ -7399,19 +7399,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C49" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7420,13 +7420,13 @@
         <v>44896</v>
       </c>
       <c r="I49" s="1">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="1">
         <v>0</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ49" s="1">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="AS49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT49" s="1">
         <v>0</v>
@@ -7555,7 +7555,7 @@
         <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7564,7 +7564,7 @@
         <v>44896</v>
       </c>
       <c r="I50" s="1">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -7699,7 +7699,7 @@
         <v>80</v>
       </c>
       <c r="F51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7708,7 +7708,7 @@
         <v>44896</v>
       </c>
       <c r="I51" s="1">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C52" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7852,13 +7852,13 @@
         <v>44896</v>
       </c>
       <c r="I52" s="1">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -7898,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z52" s="1">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ52" s="1">
         <v>0</v>
@@ -7958,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT52" s="1">
         <v>0</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C53" s="1">
-        <v>5462328</v>
+        <v>12107</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E53" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -7996,7 +7996,7 @@
         <v>44886</v>
       </c>
       <c r="I53" s="1">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="1">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT53" s="1">
         <v>0</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C54" s="1">
-        <v>12107</v>
+        <v>5462328</v>
       </c>
       <c r="D54" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8140,7 +8140,7 @@
         <v>44886</v>
       </c>
       <c r="I54" s="1">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT54" s="1">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C55" s="1">
         <v>88890</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E55" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8284,7 +8284,7 @@
         <v>44886</v>
       </c>
       <c r="I55" s="1">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C56" s="1">
-        <v>5486550</v>
+        <v>3345</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8428,7 +8428,7 @@
         <v>44886</v>
       </c>
       <c r="I56" s="1">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -8447,10 +8447,10 @@
         <v>1</v>
       </c>
       <c r="P56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="1">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="AQ56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR56" s="1">
         <v>0</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C57" s="1">
-        <v>3345</v>
+        <v>5486550</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E57" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8572,7 +8572,7 @@
         <v>44886</v>
       </c>
       <c r="I57" s="1">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -8591,10 +8591,10 @@
         <v>1</v>
       </c>
       <c r="P57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" s="1">
         <v>0</v>
@@ -8672,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR57" s="1">
         <v>0</v>
@@ -8695,16 +8695,16 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C58" s="1">
         <v>446220</v>
       </c>
       <c r="D58" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F58" t="s">
         <v>95</v>
@@ -8716,7 +8716,7 @@
         <v>44886</v>
       </c>
       <c r="I58" s="1">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J58" s="1">
         <v>0</v>
@@ -8851,7 +8851,7 @@
         <v>92</v>
       </c>
       <c r="F59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8860,7 +8860,7 @@
         <v>44886</v>
       </c>
       <c r="I59" s="1">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -8983,19 +8983,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C60" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D60" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9004,7 +9004,7 @@
         <v>44886</v>
       </c>
       <c r="I60" s="1">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J60" s="1">
         <v>1</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z60" s="1">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ60" s="1">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C61" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E61" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9148,7 +9148,7 @@
         <v>44886</v>
       </c>
       <c r="I61" s="1">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -9167,10 +9167,10 @@
         <v>1</v>
       </c>
       <c r="P61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="1">
         <v>0</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="AP61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ61" s="1">
         <v>0</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C62" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D62" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E62" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9292,7 +9292,7 @@
         <v>44886</v>
       </c>
       <c r="I62" s="1">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -9311,10 +9311,10 @@
         <v>1</v>
       </c>
       <c r="P62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C63" s="1">
-        <v>5486550</v>
+        <v>12107</v>
       </c>
       <c r="D63" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E63" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F63" t="s">
         <v>95</v>
@@ -9436,7 +9436,7 @@
         <v>44886</v>
       </c>
       <c r="I63" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J63" s="1">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="1">
         <v>0</v>
@@ -9536,13 +9536,13 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR63" s="1">
         <v>0</v>
       </c>
       <c r="AS63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT63" s="1">
         <v>0</v>
@@ -9559,19 +9559,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C64" s="1">
-        <v>3345</v>
+        <v>5462507</v>
       </c>
       <c r="D64" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="F64" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G64" t="s">
         <v>97</v>
@@ -9580,13 +9580,13 @@
         <v>44886</v>
       </c>
       <c r="I64" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -9599,10 +9599,10 @@
         <v>1</v>
       </c>
       <c r="P64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R64" s="1">
         <v>0</v>
@@ -9703,19 +9703,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C65" s="1">
-        <v>21812144</v>
+        <v>5707</v>
       </c>
       <c r="D65" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E65" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
@@ -9724,7 +9724,7 @@
         <v>44886</v>
       </c>
       <c r="I65" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J65" s="1">
         <v>1</v>
@@ -9749,10 +9749,10 @@
         <v>0</v>
       </c>
       <c r="R65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" s="1">
         <v>0</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="AT65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU65" s="1">
         <v>0</v>
@@ -9847,19 +9847,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C66" s="1">
-        <v>5462328</v>
+        <v>5486550</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F66" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G66" t="s">
         <v>97</v>
@@ -9868,13 +9868,13 @@
         <v>44886</v>
       </c>
       <c r="I66" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR66" s="1">
         <v>0</v>
@@ -9991,16 +9991,16 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C67" s="1">
-        <v>5462507</v>
+        <v>62300</v>
       </c>
       <c r="D67" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E67" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F67" t="s">
         <v>95</v>
@@ -10012,7 +10012,7 @@
         <v>44886</v>
       </c>
       <c r="I67" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
@@ -10135,16 +10135,16 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C68" s="1">
-        <v>62300</v>
+        <v>446220</v>
       </c>
       <c r="D68" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E68" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F68" t="s">
         <v>95</v>
@@ -10156,7 +10156,7 @@
         <v>44886</v>
       </c>
       <c r="I68" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="X68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y68" s="1">
         <v>0</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -10279,19 +10279,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C69" s="1">
-        <v>4914</v>
+        <v>88890</v>
       </c>
       <c r="D69" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E69" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F69" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -10300,13 +10300,13 @@
         <v>44886</v>
       </c>
       <c r="I69" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10397,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="AP69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ69" s="1">
         <v>0</v>
@@ -10406,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="AS69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT69" s="1">
         <v>0</v>
@@ -10423,19 +10423,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C70" s="1">
-        <v>88890</v>
+        <v>21812144</v>
       </c>
       <c r="D70" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G70" t="s">
         <v>97</v>
@@ -10444,7 +10444,7 @@
         <v>44886</v>
       </c>
       <c r="I70" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J70" s="1">
         <v>1</v>
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -10550,10 +10550,10 @@
         <v>0</v>
       </c>
       <c r="AS70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU70" s="1">
         <v>0</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C71" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D71" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E71" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10588,13 +10588,13 @@
         <v>44886</v>
       </c>
       <c r="I71" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -10607,10 +10607,10 @@
         <v>1</v>
       </c>
       <c r="P71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" s="1">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="AS71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT71" s="1">
         <v>0</v>
@@ -10714,7 +10714,7 @@
         <v>24</v>
       </c>
       <c r="C72" s="1">
-        <v>5707</v>
+        <v>5462328</v>
       </c>
       <c r="D72" t="s">
         <v>53</v>
@@ -10723,7 +10723,7 @@
         <v>77</v>
       </c>
       <c r="F72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G72" t="s">
         <v>97</v>
@@ -10732,7 +10732,7 @@
         <v>44886</v>
       </c>
       <c r="I72" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J72" s="1">
         <v>1</v>
@@ -10757,10 +10757,10 @@
         <v>0</v>
       </c>
       <c r="R72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T72" s="1">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -10855,16 +10855,16 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C73" s="1">
-        <v>446220</v>
+        <v>4914</v>
       </c>
       <c r="D73" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E73" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F73" t="s">
         <v>95</v>
@@ -10876,7 +10876,7 @@
         <v>44886</v>
       </c>
       <c r="I73" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J73" s="1">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="X73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y73" s="1">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>0</v>
       </c>
       <c r="AP73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ73" s="1">
         <v>0</v>
@@ -10999,16 +10999,16 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C74" s="1">
-        <v>446220</v>
+        <v>156346345</v>
       </c>
       <c r="D74" t="s">
         <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="F74" t="s">
         <v>95</v>
@@ -11020,7 +11020,7 @@
         <v>44886</v>
       </c>
       <c r="I74" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J74" s="1">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y74" s="1">
         <v>0</v>
@@ -11126,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="AS74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT74" s="1">
         <v>0</v>
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C75" s="1">
-        <v>156346345</v>
+        <v>165365057</v>
       </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F75" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11164,13 +11164,13 @@
         <v>44886</v>
       </c>
       <c r="I75" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
@@ -11287,19 +11287,19 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C76" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D76" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E76" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F76" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -11308,13 +11308,13 @@
         <v>44886</v>
       </c>
       <c r="I76" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -11327,10 +11327,10 @@
         <v>1</v>
       </c>
       <c r="P76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R76" s="1">
         <v>0</v>
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y76" s="1">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AK76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL76" s="1">
         <v>0</v>
@@ -11431,19 +11431,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C77" s="1">
         <v>88890</v>
       </c>
       <c r="D77" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E77" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11452,7 +11452,7 @@
         <v>44886</v>
       </c>
       <c r="I77" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J77" s="1">
         <v>1</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C78" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E78" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -11596,7 +11596,7 @@
         <v>44886</v>
       </c>
       <c r="I78" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J78" s="1">
         <v>1</v>
@@ -11615,10 +11615,10 @@
         <v>1</v>
       </c>
       <c r="P78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" s="1">
         <v>0</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="AK78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL78" s="1">
         <v>0</v>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="AS78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT78" s="1">
         <v>0</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,31 +60,34 @@
     <t>substance</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>menthol</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>nicotine</t>
+  </si>
+  <si>
     <t>1-phenyl-1-propanamine</t>
   </si>
   <si>
-    <t>nicotine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>menthol</t>
-  </si>
-  <si>
-    <t>cocaine</t>
+    <t>xylazine</t>
   </si>
   <si>
     <t>heroin</t>
@@ -93,16 +96,16 @@
     <t>procaine</t>
   </si>
   <si>
-    <t>xylazine</t>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
   </si>
   <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
+    <t>levamisole</t>
   </si>
   <si>
     <t>quinine</t>
@@ -111,9 +114,6 @@
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>levamisole</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
@@ -147,31 +147,34 @@
     <t>cas</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>1490-04-6</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>54-11-5</t>
+  </si>
+  <si>
     <t>2941-20-0</t>
   </si>
   <si>
-    <t>54-11-5</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>1490-04-6</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
+    <t>7361-61-7</t>
   </si>
   <si>
     <t>561-27-3</t>
@@ -180,13 +183,13 @@
     <t>59-46-1</t>
   </si>
   <si>
-    <t>7361-61-7</t>
+    <t>90736-23-5</t>
   </si>
   <si>
     <t>537-46-2</t>
   </si>
   <si>
-    <t>90736-23-5</t>
+    <t>14769-73-4</t>
   </si>
   <si>
     <t>72402-53-0</t>
@@ -195,9 +198,6 @@
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>14769-73-4</t>
-  </si>
-  <si>
     <t>62-44-2</t>
   </si>
   <si>
@@ -228,22 +228,25 @@
     <t>unii</t>
   </si>
   <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
     <t>6M3C89ZY6R</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
+    <t>2KFG9TP5V8</t>
   </si>
   <si>
     <t>70D95007SX</t>
@@ -252,22 +255,19 @@
     <t>4Z8Y51M438</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
+    <t>I45R05QM0Z</t>
   </si>
   <si>
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
+    <t>2880D3468G</t>
   </si>
   <si>
     <t>A7V27PHC7A</t>
   </si>
   <si>
     <t>58C337KP3E</t>
-  </si>
-  <si>
-    <t>2880D3468G</t>
   </si>
   <si>
     <t>ER0CTH01H9</t>
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>18054</v>
+        <v>165365057</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -655,10 +655,10 @@
         <v>366</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>89594</v>
+        <v>88890</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
@@ -787,7 +787,7 @@
         <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>97</v>
@@ -799,10 +799,10 @@
         <v>366</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -922,16 +922,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>3345</v>
+        <v>1254</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -943,10 +943,10 @@
         <v>366</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -959,10 +959,10 @@
         <v>1</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1210,16 +1210,16 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
         <v>97</v>
@@ -1247,10 +1247,10 @@
         <v>1</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
@@ -1507,7 +1507,7 @@
         <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1519,10 +1519,10 @@
         <v>366</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="1">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -1642,13 +1642,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>1254</v>
+        <v>89594</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -1786,13 +1786,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>446220</v>
+        <v>18054</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
         <v>95</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -1927,19 +1927,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -1967,10 +1967,10 @@
         <v>1</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2117,10 +2117,10 @@
         <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
@@ -2227,7 +2227,7 @@
         <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2276,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="1">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="1">
-        <v>4914</v>
+        <v>5462328</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
@@ -2371,7 +2371,7 @@
         <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="1">
         <v>0</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2549,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="R15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -2647,19 +2647,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
-        <v>3345</v>
+        <v>4914</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2687,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" s="1">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2831,10 +2831,10 @@
         <v>1</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="1">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="1">
         <v>0</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
         <v>156346345</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1">
-        <v>4914</v>
+        <v>62300</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3103,10 +3103,10 @@
         <v>401</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="1">
         <v>0</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
-        <v>3345</v>
+        <v>4914</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3407,10 +3407,10 @@
         <v>1</v>
       </c>
       <c r="P21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="1">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1">
-        <v>62300</v>
+        <v>165365057</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3535,10 +3535,10 @@
         <v>401</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -3655,19 +3655,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3710,10 +3710,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="1">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
-        <v>3345</v>
+        <v>26879</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="1">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="1">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" s="1">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="G25" t="s">
         <v>97</v>
@@ -3967,10 +3967,10 @@
         <v>402</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="1">
         <v>0</v>
@@ -4004,10 +4004,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="1">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4087,16 +4087,16 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1">
-        <v>5462328</v>
+        <v>3034034</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F26" t="s">
         <v>95</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="1">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26" s="1">
         <v>0</v>
@@ -4231,19 +4231,19 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1">
-        <v>3034034</v>
+        <v>446220</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s">
         <v>97</v>
@@ -4255,10 +4255,10 @@
         <v>402</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4292,10 +4292,10 @@
         <v>0</v>
       </c>
       <c r="W27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="1">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="1">
         <v>0</v>
@@ -4375,16 +4375,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
-        <v>119478</v>
+        <v>5462328</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>26879</v>
+        <v>119478</v>
       </c>
       <c r="D29" t="s">
         <v>60</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="1">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4663,19 +4663,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1">
-        <v>446220</v>
+        <v>4754</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="1">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30" s="1">
         <v>0</v>
@@ -4807,19 +4807,19 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1">
-        <v>4754</v>
+        <v>446220</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4868,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="W31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="1">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="1">
         <v>0</v>
@@ -4951,19 +4951,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C32" s="1">
-        <v>448223</v>
+        <v>88890</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s">
         <v>97</v>
@@ -4975,10 +4975,10 @@
         <v>483</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32" s="1">
         <v>0</v>
@@ -5095,19 +5095,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C33" s="1">
-        <v>243</v>
+        <v>446220</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
         <v>97</v>
@@ -5119,10 +5119,10 @@
         <v>483</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5156,10 +5156,10 @@
         <v>0</v>
       </c>
       <c r="W33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" s="1">
         <v>0</v>
@@ -5239,19 +5239,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
-        <v>88890</v>
+        <v>448223</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
         <v>97</v>
@@ -5263,10 +5263,10 @@
         <v>483</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="1">
         <v>0</v>
@@ -5383,19 +5383,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C35" s="1">
-        <v>5462328</v>
+        <v>165365057</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -5407,10 +5407,10 @@
         <v>483</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT35" s="1">
         <v>0</v>
@@ -5527,16 +5527,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C36" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="1">
         <v>0</v>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36" s="1">
         <v>0</v>
@@ -5671,19 +5671,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37" s="1">
         <v>119478</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -5815,19 +5815,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -5839,10 +5839,10 @@
         <v>483</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -5855,10 +5855,10 @@
         <v>1</v>
       </c>
       <c r="P38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" s="1">
         <v>0</v>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5962,16 +5962,16 @@
         <v>19</v>
       </c>
       <c r="C39" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D39" t="s">
         <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -5999,10 +5999,10 @@
         <v>1</v>
       </c>
       <c r="P39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="AS39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="1">
         <v>0</v>
@@ -6103,16 +6103,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1">
-        <v>66924</v>
+        <v>4754</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F40" t="s">
         <v>95</v>
@@ -6221,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ40" s="1">
         <v>0</v>
@@ -6247,16 +6247,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1">
-        <v>4754</v>
+        <v>243</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
         <v>95</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="1">
         <v>0</v>
@@ -6391,16 +6391,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C42" s="1">
         <v>5707</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
         <v>95</v>
@@ -6535,19 +6535,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C43" s="1">
-        <v>446220</v>
+        <v>66924</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="G43" t="s">
         <v>97</v>
@@ -6559,10 +6559,10 @@
         <v>483</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -6596,10 +6596,10 @@
         <v>0</v>
       </c>
       <c r="W43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="1">
         <v>0</v>
@@ -6679,19 +6679,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1">
-        <v>4754</v>
+        <v>3821</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6703,10 +6703,10 @@
         <v>489</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH44" s="1">
         <v>0</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="1">
         <v>0</v>
@@ -6823,19 +6823,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1">
-        <v>3821</v>
+        <v>5761</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6911,10 +6911,10 @@
         <v>0</v>
       </c>
       <c r="AF45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH45" s="1">
         <v>0</v>
@@ -6967,19 +6967,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C46" s="1">
-        <v>5761</v>
+        <v>4754</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -6991,10 +6991,10 @@
         <v>489</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="AP46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ46" s="1">
         <v>0</v>
@@ -7111,19 +7111,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C47" s="1">
         <v>10836</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7255,19 +7255,19 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C48" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D48" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s">
         <v>97</v>
@@ -7279,10 +7279,10 @@
         <v>508</v>
       </c>
       <c r="J48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -7298,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z48" s="1">
         <v>0</v>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="AP48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ48" s="1">
         <v>0</v>
@@ -7399,19 +7399,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C49" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E49" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7423,10 +7423,10 @@
         <v>508</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -7454,10 +7454,10 @@
         <v>0</v>
       </c>
       <c r="U49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W49" s="1">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="AS49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="1">
         <v>0</v>
@@ -7555,7 +7555,7 @@
         <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C51" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D51" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F51" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7711,10 +7711,10 @@
         <v>508</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -7742,10 +7742,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT51" s="1">
         <v>0</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C52" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7855,10 +7855,10 @@
         <v>508</v>
       </c>
       <c r="J52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
@@ -7898,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="1">
         <v>0</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ52" s="1">
         <v>0</v>
@@ -7987,7 +7987,7 @@
         <v>74</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C54" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D54" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8143,10 +8143,10 @@
         <v>519</v>
       </c>
       <c r="J54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y54" s="1">
         <v>0</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C55" s="1">
-        <v>88890</v>
+        <v>5486550</v>
       </c>
       <c r="D55" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E55" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
@@ -8384,13 +8384,13 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR55" s="1">
         <v>0</v>
       </c>
       <c r="AS55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C56" s="1">
         <v>3345</v>
       </c>
       <c r="D56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C57" s="1">
-        <v>5486550</v>
+        <v>88890</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F57" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8654,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="1">
         <v>0</v>
@@ -8672,13 +8672,13 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR57" s="1">
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C58" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F58" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8719,10 +8719,10 @@
         <v>519</v>
       </c>
       <c r="J58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -8759,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="1">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8851,7 +8851,7 @@
         <v>92</v>
       </c>
       <c r="F59" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8983,19 +8983,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C60" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="1">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ60" s="1">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C61" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D61" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F61" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9167,10 +9167,10 @@
         <v>1</v>
       </c>
       <c r="P61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z61" s="1">
         <v>0</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="AP61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ61" s="1">
         <v>0</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C62" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9311,10 +9311,10 @@
         <v>1</v>
       </c>
       <c r="P62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -9559,19 +9559,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C64" s="1">
-        <v>5462507</v>
+        <v>21812144</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E64" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F64" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s">
         <v>97</v>
@@ -9583,10 +9583,10 @@
         <v>527</v>
       </c>
       <c r="J64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -9689,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="AT64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU64" s="1">
         <v>0</v>
@@ -9703,19 +9703,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C65" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E65" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F65" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
@@ -9743,16 +9743,16 @@
         <v>1</v>
       </c>
       <c r="P65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T65" s="1">
         <v>0</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9991,19 +9991,19 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C67" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D67" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E67" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F67" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G67" t="s">
         <v>97</v>
@@ -10015,10 +10015,10 @@
         <v>527</v>
       </c>
       <c r="J67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -10037,10 +10037,10 @@
         <v>0</v>
       </c>
       <c r="R67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67" s="1">
         <v>0</v>
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -10135,16 +10135,16 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C68" s="1">
-        <v>446220</v>
+        <v>5462507</v>
       </c>
       <c r="D68" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E68" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F68" t="s">
         <v>95</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="X68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y68" s="1">
         <v>0</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -10282,7 +10282,7 @@
         <v>21</v>
       </c>
       <c r="C69" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D69" t="s">
         <v>50</v>
@@ -10291,7 +10291,7 @@
         <v>75</v>
       </c>
       <c r="F69" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -10303,10 +10303,10 @@
         <v>527</v>
       </c>
       <c r="J69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="X69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y69" s="1">
         <v>0</v>
@@ -10406,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="AS69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT69" s="1">
         <v>0</v>
@@ -10423,19 +10423,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C70" s="1">
-        <v>21812144</v>
+        <v>4914</v>
       </c>
       <c r="D70" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E70" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="G70" t="s">
         <v>97</v>
@@ -10447,10 +10447,10 @@
         <v>527</v>
       </c>
       <c r="J70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -10541,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="AP70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ70" s="1">
         <v>0</v>
@@ -10553,7 +10553,7 @@
         <v>0</v>
       </c>
       <c r="AT70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU70" s="1">
         <v>0</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C71" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F71" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10607,10 +10607,10 @@
         <v>1</v>
       </c>
       <c r="P71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" s="1">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="AS71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT71" s="1">
         <v>0</v>
@@ -10711,19 +10711,19 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C72" s="1">
         <v>5462328</v>
       </c>
       <c r="D72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F72" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s">
         <v>97</v>
@@ -10855,16 +10855,16 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C73" s="1">
-        <v>4914</v>
+        <v>62300</v>
       </c>
       <c r="D73" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E73" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F73" t="s">
         <v>95</v>
@@ -10958,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL73" s="1">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>0</v>
       </c>
       <c r="AP73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ73" s="1">
         <v>0</v>
@@ -10999,19 +10999,19 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C74" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D74" t="s">
         <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
@@ -11023,10 +11023,10 @@
         <v>528</v>
       </c>
       <c r="J74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -11039,10 +11039,10 @@
         <v>1</v>
       </c>
       <c r="P74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="1">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="AK74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL74" s="1">
         <v>0</v>
@@ -11126,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="AS74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT74" s="1">
         <v>0</v>
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C75" s="1">
         <v>165365057</v>
       </c>
       <c r="D75" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E75" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11287,16 +11287,16 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C76" s="1">
-        <v>446220</v>
+        <v>156346345</v>
       </c>
       <c r="D76" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E76" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
         <v>95</v>
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y76" s="1">
         <v>0</v>
@@ -11414,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="AS76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT76" s="1">
         <v>0</v>
@@ -11431,19 +11431,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C77" s="1">
         <v>88890</v>
       </c>
       <c r="D77" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E77" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F77" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C78" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E78" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F78" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -11599,10 +11599,10 @@
         <v>528</v>
       </c>
       <c r="J78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
@@ -11615,10 +11615,10 @@
         <v>1</v>
       </c>
       <c r="P78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78" s="1">
         <v>0</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y78" s="1">
         <v>0</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="AK78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL78" s="1">
         <v>0</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,33 +60,33 @@
     <t>substance</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>nicotine</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>4-ANPP</t>
+    <t>1-phenyl-1-propanamine</t>
   </si>
   <si>
     <t>menthol</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>nicotine</t>
-  </si>
-  <si>
-    <t>1-phenyl-1-propanamine</t>
-  </si>
-  <si>
     <t>xylazine</t>
   </si>
   <si>
@@ -99,12 +99,12 @@
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>p-fluorofentanyl</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>levamisole</t>
   </si>
   <si>
@@ -117,27 +117,27 @@
     <t>phenacetin</t>
   </si>
   <si>
+    <t>benzoic acid</t>
+  </si>
+  <si>
     <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
-    <t>benzoic acid</t>
+    <t>lysergic acid diethylamide (LSD)</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>lysergic acid diethylamide (LSD)</t>
-  </si>
-  <si>
     <t>caffeine</t>
   </si>
   <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -147,33 +147,33 @@
     <t>cas</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>54-11-5</t>
+  </si>
+  <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>21409-26-7</t>
+    <t>2941-20-0</t>
   </si>
   <si>
     <t>1490-04-6</t>
   </si>
   <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
     <t>437-38-7</t>
   </si>
   <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>54-11-5</t>
-  </si>
-  <si>
-    <t>2941-20-0</t>
-  </si>
-  <si>
     <t>7361-61-7</t>
   </si>
   <si>
@@ -183,12 +183,12 @@
     <t>59-46-1</t>
   </si>
   <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
     <t>90736-23-5</t>
   </si>
   <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
     <t>14769-73-4</t>
   </si>
   <si>
@@ -201,27 +201,27 @@
     <t>62-44-2</t>
   </si>
   <si>
+    <t>65-85-0</t>
+  </si>
+  <si>
     <t>519-09-5</t>
   </si>
   <si>
-    <t>65-85-0</t>
+    <t>50-37-3</t>
   </si>
   <si>
     <t>6740-88-1</t>
   </si>
   <si>
-    <t>50-37-3</t>
-  </si>
-  <si>
     <t>58-08-2</t>
   </si>
   <si>
+    <t>2784-73-8</t>
+  </si>
+  <si>
     <t>6703-27-1</t>
   </si>
   <si>
-    <t>2784-73-8</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
@@ -231,21 +231,21 @@
     <t>Q88EHD0U8G</t>
   </si>
   <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
+    <t>6M3C89ZY6R</t>
+  </si>
+  <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>6M3C89ZY6R</t>
-  </si>
-  <si>
     <t>2KFG9TP5V8</t>
   </si>
   <si>
@@ -255,12 +255,12 @@
     <t>4Z8Y51M438</t>
   </si>
   <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
     <t>2880D3468G</t>
   </si>
   <si>
@@ -273,25 +273,25 @@
     <t>ER0CTH01H9</t>
   </si>
   <si>
+    <t>8SKN0B0MIM</t>
+  </si>
+  <si>
     <t>5353I8I6YS</t>
   </si>
   <si>
-    <t>8SKN0B0MIM</t>
+    <t>8NA5SWF92O</t>
   </si>
   <si>
     <t>690G0D6V8H</t>
   </si>
   <si>
-    <t>8NA5SWF92O</t>
-  </si>
-  <si>
     <t>3G6A5W338E</t>
   </si>
   <si>
+    <t>M5E47P1ZCH</t>
+  </si>
+  <si>
     <t>U59401ETXH</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -652,7 +652,7 @@
         <v>44840</v>
       </c>
       <c r="I2" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -778,16 +778,16 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
         <v>97</v>
@@ -796,13 +796,13 @@
         <v>44840</v>
       </c>
       <c r="I3" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="1">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -922,16 +922,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>1254</v>
+        <v>66924</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -940,13 +940,13 @@
         <v>44840</v>
       </c>
       <c r="I4" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1066,16 +1066,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>66924</v>
+        <v>89594</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1084,13 +1084,13 @@
         <v>44840</v>
       </c>
       <c r="I5" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1210,16 +1210,16 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
         <v>97</v>
@@ -1228,13 +1228,13 @@
         <v>44840</v>
       </c>
       <c r="I6" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1247,10 +1247,10 @@
         <v>1</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>12107</v>
+        <v>165365057</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1372,13 +1372,13 @@
         <v>44840</v>
       </c>
       <c r="I7" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1498,13 +1498,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>446220</v>
+        <v>18054</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
         <v>95</v>
@@ -1516,7 +1516,7 @@
         <v>44840</v>
       </c>
       <c r="I8" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
         <v>0</v>
@@ -1642,13 +1642,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>89594</v>
+        <v>1254</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -1660,7 +1660,7 @@
         <v>44840</v>
       </c>
       <c r="I9" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1786,16 +1786,16 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>18054</v>
+        <v>3345</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
         <v>97</v>
@@ -1804,13 +1804,13 @@
         <v>44840</v>
       </c>
       <c r="I10" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1823,10 +1823,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" s="1">
         <v>0</v>
@@ -1927,19 +1927,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -1948,7 +1948,7 @@
         <v>44840</v>
       </c>
       <c r="I11" s="1">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -1967,16 +1967,16 @@
         <v>1</v>
       </c>
       <c r="P11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="1">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
-        <v>5707</v>
+        <v>5462328</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2092,7 +2092,7 @@
         <v>44840</v>
       </c>
       <c r="I12" s="1">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2117,10 +2117,10 @@
         <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2236,7 +2236,7 @@
         <v>44840</v>
       </c>
       <c r="I13" s="1">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2276,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2380,7 +2380,7 @@
         <v>44840</v>
       </c>
       <c r="I14" s="1">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -2420,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2524,7 +2524,7 @@
         <v>44840</v>
       </c>
       <c r="I15" s="1">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -2659,7 +2659,7 @@
         <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2668,7 +2668,7 @@
         <v>44840</v>
       </c>
       <c r="I16" s="1">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2812,7 +2812,7 @@
         <v>44845</v>
       </c>
       <c r="I17" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -2831,10 +2831,10 @@
         <v>1</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="1">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
-        <v>156346345</v>
+        <v>4914</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -2956,7 +2956,7 @@
         <v>44845</v>
       </c>
       <c r="I18" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" s="1">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3100,13 +3100,13 @@
         <v>44845</v>
       </c>
       <c r="I19" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3244,7 +3244,7 @@
         <v>44845</v>
       </c>
       <c r="I20" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="P20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>4914</v>
+        <v>165365057</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3388,7 +3388,7 @@
         <v>44845</v>
       </c>
       <c r="I21" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1">
-        <v>165365057</v>
+        <v>10836</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3532,7 +3532,7 @@
         <v>44845</v>
       </c>
       <c r="I22" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="1">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>10836</v>
+        <v>62300</v>
       </c>
       <c r="D23" t="s">
         <v>57</v>
@@ -3667,7 +3667,7 @@
         <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3676,13 +3676,13 @@
         <v>44845</v>
       </c>
       <c r="I23" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
@@ -3710,10 +3710,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="1">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23" s="1">
         <v>0</v>
@@ -3799,19 +3799,19 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1">
-        <v>26879</v>
+        <v>446220</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
         <v>97</v>
@@ -3820,13 +3820,13 @@
         <v>44840</v>
       </c>
       <c r="I24" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -3860,10 +3860,10 @@
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="1">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="1">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="1">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
-        <v>3345</v>
+        <v>26879</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
         <v>95</v>
@@ -3964,7 +3964,7 @@
         <v>44840</v>
       </c>
       <c r="I25" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="1">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="1">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="AP25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ25" s="1">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>44840</v>
       </c>
       <c r="I26" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -4231,19 +4231,19 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G27" t="s">
         <v>97</v>
@@ -4252,13 +4252,13 @@
         <v>44840</v>
       </c>
       <c r="I27" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4292,10 +4292,10 @@
         <v>0</v>
       </c>
       <c r="W27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="1">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -4375,16 +4375,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1">
-        <v>5462328</v>
+        <v>119478</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
@@ -4396,7 +4396,7 @@
         <v>44840</v>
       </c>
       <c r="I28" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4519,16 +4519,16 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1">
-        <v>119478</v>
+        <v>3345</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s">
         <v>95</v>
@@ -4540,7 +4540,7 @@
         <v>44840</v>
       </c>
       <c r="I29" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="1">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -4663,19 +4663,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1">
-        <v>4754</v>
+        <v>446220</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4684,7 +4684,7 @@
         <v>44845</v>
       </c>
       <c r="I30" s="1">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="1">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="1">
         <v>0</v>
@@ -4807,19 +4807,19 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1">
-        <v>446220</v>
+        <v>4754</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4828,7 +4828,7 @@
         <v>44845</v>
       </c>
       <c r="I31" s="1">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -4868,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="W31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="1">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ31" s="1">
         <v>0</v>
@@ -4951,13 +4951,13 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="1">
         <v>88890</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E32" t="s">
         <v>71</v>
@@ -4972,7 +4972,7 @@
         <v>44886</v>
       </c>
       <c r="I32" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -5095,19 +5095,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1">
-        <v>446220</v>
+        <v>66924</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G33" t="s">
         <v>97</v>
@@ -5116,13 +5116,13 @@
         <v>44886</v>
       </c>
       <c r="I33" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5156,10 +5156,10 @@
         <v>0</v>
       </c>
       <c r="W33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="1">
         <v>0</v>
@@ -5239,19 +5239,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C34" s="1">
-        <v>448223</v>
+        <v>5707</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E34" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G34" t="s">
         <v>97</v>
@@ -5260,13 +5260,13 @@
         <v>44886</v>
       </c>
       <c r="I34" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5288,10 +5288,10 @@
         <v>0</v>
       </c>
       <c r="S34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="1">
         <v>0</v>
@@ -5383,19 +5383,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1">
-        <v>165365057</v>
+        <v>5462328</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -5404,13 +5404,13 @@
         <v>44886</v>
       </c>
       <c r="I35" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="1">
         <v>0</v>
@@ -5527,16 +5527,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
-        <v>5462328</v>
+        <v>243</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>
@@ -5548,7 +5548,7 @@
         <v>44886</v>
       </c>
       <c r="I36" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="1">
         <v>0</v>
@@ -5671,19 +5671,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C37" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -5692,7 +5692,7 @@
         <v>44886</v>
       </c>
       <c r="I37" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -5732,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -5815,19 +5815,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -5836,13 +5836,13 @@
         <v>44886</v>
       </c>
       <c r="I38" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="1">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT38" s="1">
         <v>0</v>
@@ -5959,19 +5959,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1">
         <v>3345</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -5980,7 +5980,7 @@
         <v>44886</v>
       </c>
       <c r="I39" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -6124,7 +6124,7 @@
         <v>44886</v>
       </c>
       <c r="I40" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C41" s="1">
-        <v>243</v>
+        <v>119478</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6268,13 +6268,13 @@
         <v>44886</v>
       </c>
       <c r="I41" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -6391,19 +6391,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1">
-        <v>5707</v>
+        <v>448223</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6412,13 +6412,13 @@
         <v>44886</v>
       </c>
       <c r="I42" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6440,10 +6440,10 @@
         <v>0</v>
       </c>
       <c r="S42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" s="1">
         <v>0</v>
@@ -6535,13 +6535,13 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C43" s="1">
-        <v>66924</v>
+        <v>446220</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
         <v>72</v>
@@ -6556,7 +6556,7 @@
         <v>44886</v>
       </c>
       <c r="I43" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J43" s="1">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43" s="1">
         <v>0</v>
@@ -6679,19 +6679,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C44" s="1">
-        <v>3821</v>
+        <v>4754</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6700,13 +6700,13 @@
         <v>44897</v>
       </c>
       <c r="I44" s="1">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="1">
         <v>0</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ44" s="1">
         <v>0</v>
@@ -6823,19 +6823,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="1">
         <v>5761</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6844,7 +6844,7 @@
         <v>44897</v>
       </c>
       <c r="I45" s="1">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -6967,19 +6967,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1">
-        <v>4754</v>
+        <v>3821</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -6988,13 +6988,13 @@
         <v>44897</v>
       </c>
       <c r="I46" s="1">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7055,10 +7055,10 @@
         <v>0</v>
       </c>
       <c r="AF46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH46" s="1">
         <v>0</v>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="AP46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ46" s="1">
         <v>0</v>
@@ -7111,19 +7111,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" s="1">
         <v>10836</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7132,7 +7132,7 @@
         <v>44894</v>
       </c>
       <c r="I47" s="1">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -7255,19 +7255,19 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C48" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G48" t="s">
         <v>97</v>
@@ -7276,13 +7276,13 @@
         <v>44896</v>
       </c>
       <c r="I48" s="1">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="1">
         <v>0</v>
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="AP48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ48" s="1">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="AS48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT48" s="1">
         <v>0</v>
@@ -7399,19 +7399,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C49" s="1">
-        <v>10836</v>
+        <v>4754</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E49" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7420,7 +7420,7 @@
         <v>44896</v>
       </c>
       <c r="I49" s="1">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -7454,10 +7454,10 @@
         <v>0</v>
       </c>
       <c r="U49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49" s="1">
         <v>0</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ49" s="1">
         <v>0</v>
@@ -7543,19 +7543,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C50" s="1">
-        <v>4754</v>
+        <v>3345</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7564,13 +7564,13 @@
         <v>44896</v>
       </c>
       <c r="I50" s="1">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="1">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL50" s="1">
         <v>0</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ50" s="1">
         <v>0</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C51" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E51" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F51" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7708,13 +7708,13 @@
         <v>44896</v>
       </c>
       <c r="I51" s="1">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z51" s="1">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="AP51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ51" s="1">
         <v>0</v>
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="1">
         <v>0</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C52" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E52" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7852,13 +7852,13 @@
         <v>44896</v>
       </c>
       <c r="I52" s="1">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
@@ -7886,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="U52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W52" s="1">
         <v>0</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C53" s="1">
-        <v>12107</v>
+        <v>5462507</v>
       </c>
       <c r="D53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" t="s">
         <v>49</v>
-      </c>
-      <c r="E53" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" t="s">
-        <v>44</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -7996,7 +7996,7 @@
         <v>44886</v>
       </c>
       <c r="I53" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="1">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="1">
         <v>0</v>
@@ -8119,16 +8119,16 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C54" s="1">
         <v>446220</v>
       </c>
       <c r="D54" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E54" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F54" t="s">
         <v>95</v>
@@ -8140,7 +8140,7 @@
         <v>44886</v>
       </c>
       <c r="I54" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J54" s="1">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C55" s="1">
         <v>5486550</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8284,7 +8284,7 @@
         <v>44886</v>
       </c>
       <c r="I55" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -8410,16 +8410,16 @@
         <v>19</v>
       </c>
       <c r="C56" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D56" t="s">
         <v>48</v>
       </c>
       <c r="E56" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8428,7 +8428,7 @@
         <v>44886</v>
       </c>
       <c r="I56" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -8447,10 +8447,10 @@
         <v>1</v>
       </c>
       <c r="P56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" s="1">
         <v>0</v>
@@ -8510,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" s="1">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT56" s="1">
         <v>0</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" s="1">
         <v>88890</v>
       </c>
       <c r="D57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E57" t="s">
         <v>71</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8572,7 +8572,7 @@
         <v>44886</v>
       </c>
       <c r="I57" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C58" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8716,7 +8716,7 @@
         <v>44886</v>
       </c>
       <c r="I58" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J58" s="1">
         <v>1</v>
@@ -8735,10 +8735,10 @@
         <v>1</v>
       </c>
       <c r="P58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -8839,19 +8839,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C59" s="1">
-        <v>5462507</v>
+        <v>5462328</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E59" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8860,7 +8860,7 @@
         <v>44886</v>
       </c>
       <c r="I59" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -8983,19 +8983,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C60" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D60" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9004,7 +9004,7 @@
         <v>44886</v>
       </c>
       <c r="I60" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J60" s="1">
         <v>1</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z60" s="1">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ60" s="1">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C61" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E61" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F61" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9148,7 +9148,7 @@
         <v>44886</v>
       </c>
       <c r="I61" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="1">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="AP61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ61" s="1">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C62" s="1">
         <v>3345</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9292,7 +9292,7 @@
         <v>44886</v>
       </c>
       <c r="I62" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -9415,16 +9415,16 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C63" s="1">
         <v>12107</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E63" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F63" t="s">
         <v>95</v>
@@ -9436,7 +9436,7 @@
         <v>44886</v>
       </c>
       <c r="I63" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J63" s="1">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>93</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G64" t="s">
         <v>97</v>
@@ -9580,7 +9580,7 @@
         <v>44886</v>
       </c>
       <c r="I64" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J64" s="1">
         <v>1</v>
@@ -9703,19 +9703,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C65" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D65" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
@@ -9724,7 +9724,7 @@
         <v>44886</v>
       </c>
       <c r="I65" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J65" s="1">
         <v>1</v>
@@ -9743,10 +9743,10 @@
         <v>1</v>
       </c>
       <c r="P65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" s="1">
         <v>0</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="AS65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT65" s="1">
         <v>0</v>
@@ -9847,16 +9847,16 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C66" s="1">
         <v>5486550</v>
       </c>
       <c r="D66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E66" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F66" t="s">
         <v>95</v>
@@ -9868,7 +9868,7 @@
         <v>44886</v>
       </c>
       <c r="I66" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J66" s="1">
         <v>0</v>
@@ -9991,19 +9991,19 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C67" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E67" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F67" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G67" t="s">
         <v>97</v>
@@ -10012,13 +10012,13 @@
         <v>44886</v>
       </c>
       <c r="I67" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -10037,10 +10037,10 @@
         <v>0</v>
       </c>
       <c r="R67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T67" s="1">
         <v>0</v>
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y67" s="1">
         <v>0</v>
@@ -10135,16 +10135,16 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C68" s="1">
-        <v>5462507</v>
+        <v>62300</v>
       </c>
       <c r="D68" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E68" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F68" t="s">
         <v>95</v>
@@ -10156,7 +10156,7 @@
         <v>44886</v>
       </c>
       <c r="I68" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -10279,19 +10279,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C69" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D69" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E69" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F69" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -10300,13 +10300,13 @@
         <v>44886</v>
       </c>
       <c r="I69" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="X69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y69" s="1">
         <v>0</v>
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="AK69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -10423,19 +10423,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C70" s="1">
-        <v>4914</v>
+        <v>5707</v>
       </c>
       <c r="D70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E70" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G70" t="s">
         <v>97</v>
@@ -10444,13 +10444,13 @@
         <v>44886</v>
       </c>
       <c r="I70" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -10469,10 +10469,10 @@
         <v>0</v>
       </c>
       <c r="R70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" s="1">
         <v>0</v>
@@ -10541,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="AP70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ70" s="1">
         <v>0</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C71" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E71" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F71" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10588,13 +10588,13 @@
         <v>44886</v>
       </c>
       <c r="I71" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="AS71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT71" s="1">
         <v>0</v>
@@ -10711,19 +10711,19 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C72" s="1">
-        <v>5462328</v>
+        <v>4914</v>
       </c>
       <c r="D72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F72" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G72" t="s">
         <v>97</v>
@@ -10732,13 +10732,13 @@
         <v>44886</v>
       </c>
       <c r="I72" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="AP72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ72" s="1">
         <v>0</v>
@@ -10855,19 +10855,19 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C73" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D73" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E73" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F73" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G73" t="s">
         <v>97</v>
@@ -10876,13 +10876,13 @@
         <v>44886</v>
       </c>
       <c r="I73" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -10895,10 +10895,10 @@
         <v>1</v>
       </c>
       <c r="P73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" s="1">
         <v>0</v>
@@ -10999,19 +10999,19 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C74" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E74" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
@@ -11020,13 +11020,13 @@
         <v>44886</v>
       </c>
       <c r="I74" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -11039,10 +11039,10 @@
         <v>1</v>
       </c>
       <c r="P74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74" s="1">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="AK74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL74" s="1">
         <v>0</v>
@@ -11126,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="AS74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT74" s="1">
         <v>0</v>
@@ -11146,16 +11146,16 @@
         <v>15</v>
       </c>
       <c r="C75" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D75" t="s">
         <v>44</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F75" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11164,7 +11164,7 @@
         <v>44886</v>
       </c>
       <c r="I75" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J75" s="1">
         <v>1</v>
@@ -11287,19 +11287,19 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C76" s="1">
-        <v>156346345</v>
+        <v>165365057</v>
       </c>
       <c r="D76" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -11308,13 +11308,13 @@
         <v>44886</v>
       </c>
       <c r="I76" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -11434,16 +11434,16 @@
         <v>16</v>
       </c>
       <c r="C77" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D77" t="s">
         <v>45</v>
       </c>
       <c r="E77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F77" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11452,13 +11452,13 @@
         <v>44886</v>
       </c>
       <c r="I77" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y77" s="1">
         <v>0</v>
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="AS77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT77" s="1">
         <v>0</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C78" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D78" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E78" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F78" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -11596,13 +11596,13 @@
         <v>44886</v>
       </c>
       <c r="I78" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
@@ -11615,10 +11615,10 @@
         <v>1</v>
       </c>
       <c r="P78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" s="1">
         <v>0</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y78" s="1">
         <v>0</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="AK78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL78" s="1">
         <v>0</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,33 +60,33 @@
     <t>substance</t>
   </si>
   <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>menthol</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
+    <t>nicotine</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>nicotine</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>1-phenyl-1-propanamine</t>
   </si>
   <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>1-phenyl-1-propanamine</t>
-  </si>
-  <si>
-    <t>menthol</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>xylazine</t>
   </si>
   <si>
@@ -99,12 +99,12 @@
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
     <t>levamisole</t>
   </si>
   <si>
@@ -132,12 +132,12 @@
     <t>caffeine</t>
   </si>
   <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -147,33 +147,33 @@
     <t>cas</t>
   </si>
   <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>1490-04-6</t>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
+    <t>54-11-5</t>
+  </si>
+  <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
     <t>50-36-2</t>
   </si>
   <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>54-11-5</t>
-  </si>
-  <si>
-    <t>620-71-3</t>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>2941-20-0</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2941-20-0</t>
-  </si>
-  <si>
-    <t>1490-04-6</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
     <t>7361-61-7</t>
   </si>
   <si>
@@ -183,12 +183,12 @@
     <t>59-46-1</t>
   </si>
   <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
     <t>537-46-2</t>
   </si>
   <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
     <t>14769-73-4</t>
   </si>
   <si>
@@ -216,33 +216,33 @@
     <t>58-08-2</t>
   </si>
   <si>
+    <t>6703-27-1</t>
+  </si>
+  <si>
     <t>2784-73-8</t>
   </si>
   <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
     <t>unii</t>
   </si>
   <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
+    <t>6M3C89ZY6R</t>
+  </si>
+  <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>6M3C89ZY6R</t>
-  </si>
-  <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
@@ -255,12 +255,12 @@
     <t>4Z8Y51M438</t>
   </si>
   <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
     <t>2880D3468G</t>
   </si>
   <si>
@@ -288,10 +288,10 @@
     <t>3G6A5W338E</t>
   </si>
   <si>
+    <t>U59401ETXH</t>
+  </si>
+  <si>
     <t>M5E47P1ZCH</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -634,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>88890</v>
+        <v>66924</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -643,7 +643,7 @@
         <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>446220</v>
+        <v>1254</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
         <v>95</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="1">
         <v>0</v>
@@ -922,16 +922,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>66924</v>
+        <v>88890</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
         <v>95</v>
@@ -1216,7 +1216,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
         <v>95</v>
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>165365057</v>
+        <v>446220</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1375,10 +1375,10 @@
         <v>367</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1498,16 +1498,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>18054</v>
+        <v>3345</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1519,10 +1519,10 @@
         <v>367</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1535,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1642,13 +1642,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>1254</v>
+        <v>18054</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -1786,16 +1786,16 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
         <v>97</v>
@@ -1823,10 +1823,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="1">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="1">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2399,10 +2399,10 @@
         <v>1</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2420,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="W14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1">
-        <v>3345</v>
+        <v>4914</v>
       </c>
       <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
         <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="AP15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15" s="1">
         <v>0</v>
@@ -2647,19 +2647,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>4914</v>
+        <v>88890</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="1">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="1">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
-        <v>156346345</v>
+        <v>165365057</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>4914</v>
+        <v>88890</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="1">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="1">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3247,10 +3247,10 @@
         <v>402</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="P20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
-        <v>165365057</v>
+        <v>4914</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
         <v>10836</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3655,19 +3655,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3679,10 +3679,10 @@
         <v>402</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
@@ -3695,10 +3695,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
@@ -3799,19 +3799,19 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
-        <v>446220</v>
+        <v>26879</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
         <v>97</v>
@@ -3823,10 +3823,10 @@
         <v>403</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -3860,10 +3860,10 @@
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="1">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="1">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" s="1">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1">
-        <v>26879</v>
+        <v>3034034</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
         <v>95</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="1">
         <v>0</v>
@@ -4087,16 +4087,16 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1">
-        <v>3034034</v>
+        <v>3345</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s">
         <v>95</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="1">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="1">
         <v>0</v>
@@ -4231,19 +4231,19 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
         <v>97</v>
@@ -4255,10 +4255,10 @@
         <v>403</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4292,10 +4292,10 @@
         <v>0</v>
       </c>
       <c r="W27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="1">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -4375,16 +4375,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
-        <v>119478</v>
+        <v>5462328</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4519,16 +4519,16 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>3345</v>
+        <v>119478</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
         <v>95</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="1">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -4663,19 +4663,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1">
         <v>446220</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4684,7 +4684,7 @@
         <v>44845</v>
       </c>
       <c r="I30" s="1">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -4819,7 +4819,7 @@
         <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4828,7 +4828,7 @@
         <v>44845</v>
       </c>
       <c r="I31" s="1">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -4951,16 +4951,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1">
         <v>88890</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
         <v>95</v>
@@ -4972,7 +4972,7 @@
         <v>44886</v>
       </c>
       <c r="I32" s="1">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -5095,16 +5095,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1">
-        <v>66924</v>
+        <v>5462328</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s">
         <v>95</v>
@@ -5116,7 +5116,7 @@
         <v>44886</v>
       </c>
       <c r="I33" s="1">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="1">
         <v>0</v>
@@ -5239,19 +5239,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s">
         <v>97</v>
@@ -5260,13 +5260,13 @@
         <v>44886</v>
       </c>
       <c r="I34" s="1">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5288,10 +5288,10 @@
         <v>0</v>
       </c>
       <c r="S34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="1">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34" s="1">
         <v>0</v>
@@ -5383,19 +5383,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C35" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -5404,13 +5404,13 @@
         <v>44886</v>
       </c>
       <c r="I35" s="1">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5423,10 +5423,10 @@
         <v>1</v>
       </c>
       <c r="P35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -5527,16 +5527,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1">
-        <v>243</v>
+        <v>446220</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>
@@ -5548,7 +5548,7 @@
         <v>44886</v>
       </c>
       <c r="I36" s="1">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="1">
         <v>0</v>
@@ -5671,19 +5671,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
-        <v>446220</v>
+        <v>243</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -5692,13 +5692,13 @@
         <v>44886</v>
       </c>
       <c r="I37" s="1">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -5732,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -5818,16 +5818,16 @@
         <v>20</v>
       </c>
       <c r="C38" s="1">
-        <v>165365057</v>
+        <v>446220</v>
       </c>
       <c r="D38" t="s">
         <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -5836,7 +5836,7 @@
         <v>44886</v>
       </c>
       <c r="I38" s="1">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
@@ -5876,10 +5876,10 @@
         <v>0</v>
       </c>
       <c r="W38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" s="1">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="1">
         <v>0</v>
@@ -5959,19 +5959,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1">
-        <v>3345</v>
+        <v>448223</v>
       </c>
       <c r="D39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" t="s">
         <v>52</v>
-      </c>
-      <c r="E39" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" t="s">
-        <v>49</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -5980,7 +5980,7 @@
         <v>44886</v>
       </c>
       <c r="I39" s="1">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -5999,10 +5999,10 @@
         <v>1</v>
       </c>
       <c r="P39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6103,16 +6103,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C40" s="1">
-        <v>4754</v>
+        <v>66924</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F40" t="s">
         <v>95</v>
@@ -6124,7 +6124,7 @@
         <v>44886</v>
       </c>
       <c r="I40" s="1">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
@@ -6221,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="1">
         <v>0</v>
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1">
-        <v>119478</v>
+        <v>4754</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6268,13 +6268,13 @@
         <v>44886</v>
       </c>
       <c r="I41" s="1">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ41" s="1">
         <v>0</v>
@@ -6391,19 +6391,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C42" s="1">
-        <v>448223</v>
+        <v>5707</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6412,13 +6412,13 @@
         <v>44886</v>
       </c>
       <c r="I42" s="1">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6440,10 +6440,10 @@
         <v>0</v>
       </c>
       <c r="S42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" s="1">
         <v>0</v>
@@ -6535,19 +6535,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C43" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s">
         <v>97</v>
@@ -6556,13 +6556,13 @@
         <v>44886</v>
       </c>
       <c r="I43" s="1">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -6599,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="1">
         <v>0</v>
@@ -6679,19 +6679,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1">
-        <v>4754</v>
+        <v>5761</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6700,13 +6700,13 @@
         <v>44897</v>
       </c>
       <c r="I44" s="1">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="1">
         <v>0</v>
@@ -6823,19 +6823,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1">
-        <v>5761</v>
+        <v>3821</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6844,7 +6844,7 @@
         <v>44897</v>
       </c>
       <c r="I45" s="1">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -6911,10 +6911,10 @@
         <v>0</v>
       </c>
       <c r="AF45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH45" s="1">
         <v>0</v>
@@ -6967,19 +6967,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C46" s="1">
-        <v>3821</v>
+        <v>4754</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -6988,13 +6988,13 @@
         <v>44897</v>
       </c>
       <c r="I46" s="1">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7055,10 +7055,10 @@
         <v>0</v>
       </c>
       <c r="AF46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH46" s="1">
         <v>0</v>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="AP46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ46" s="1">
         <v>0</v>
@@ -7111,19 +7111,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C47" s="1">
         <v>10836</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7132,7 +7132,7 @@
         <v>44894</v>
       </c>
       <c r="I47" s="1">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -7255,19 +7255,19 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C48" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G48" t="s">
         <v>97</v>
@@ -7276,13 +7276,13 @@
         <v>44896</v>
       </c>
       <c r="I48" s="1">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="J48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -7310,10 +7310,10 @@
         <v>0</v>
       </c>
       <c r="U48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W48" s="1">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="AS48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT48" s="1">
         <v>0</v>
@@ -7399,19 +7399,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C49" s="1">
-        <v>4754</v>
+        <v>2519</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7420,7 +7420,7 @@
         <v>44896</v>
       </c>
       <c r="I49" s="1">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49" s="1">
         <v>0</v>
@@ -7543,19 +7543,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C50" s="1">
-        <v>3345</v>
+        <v>4754</v>
       </c>
       <c r="D50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" t="s">
         <v>52</v>
-      </c>
-      <c r="E50" t="s">
-        <v>76</v>
-      </c>
-      <c r="F50" t="s">
-        <v>95</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7564,13 +7564,13 @@
         <v>44896</v>
       </c>
       <c r="I50" s="1">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="J50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" s="1">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="1">
         <v>0</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ50" s="1">
         <v>0</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C51" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F51" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7708,13 +7708,13 @@
         <v>44896</v>
       </c>
       <c r="I51" s="1">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="1">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="AP51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ51" s="1">
         <v>0</v>
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT51" s="1">
         <v>0</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C52" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7852,13 +7852,13 @@
         <v>44896</v>
       </c>
       <c r="I52" s="1">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="J52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
@@ -7886,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="U52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52" s="1">
         <v>0</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C53" s="1">
-        <v>5462507</v>
+        <v>12107</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -7996,7 +7996,7 @@
         <v>44886</v>
       </c>
       <c r="I53" s="1">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="1">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT53" s="1">
         <v>0</v>
@@ -8119,16 +8119,16 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C54" s="1">
         <v>446220</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E54" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s">
         <v>95</v>
@@ -8140,7 +8140,7 @@
         <v>44886</v>
       </c>
       <c r="I54" s="1">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J54" s="1">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C55" s="1">
-        <v>5486550</v>
+        <v>3345</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E55" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8284,7 +8284,7 @@
         <v>44886</v>
       </c>
       <c r="I55" s="1">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -8303,10 +8303,10 @@
         <v>1</v>
       </c>
       <c r="P55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="1">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C56" s="1">
-        <v>12107</v>
+        <v>88890</v>
       </c>
       <c r="D56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F56" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8428,7 +8428,7 @@
         <v>44886</v>
       </c>
       <c r="I56" s="1">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C57" s="1">
-        <v>88890</v>
+        <v>5486550</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E57" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8572,7 +8572,7 @@
         <v>44886</v>
       </c>
       <c r="I57" s="1">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -8654,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57" s="1">
         <v>0</v>
@@ -8672,13 +8672,13 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR57" s="1">
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C58" s="1">
-        <v>3345</v>
+        <v>5462507</v>
       </c>
       <c r="D58" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" t="s">
         <v>52</v>
-      </c>
-      <c r="E58" t="s">
-        <v>76</v>
-      </c>
-      <c r="F58" t="s">
-        <v>49</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8716,7 +8716,7 @@
         <v>44886</v>
       </c>
       <c r="I58" s="1">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J58" s="1">
         <v>1</v>
@@ -8735,10 +8735,10 @@
         <v>1</v>
       </c>
       <c r="P58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -8851,7 +8851,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8860,7 +8860,7 @@
         <v>44886</v>
       </c>
       <c r="I59" s="1">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -8983,19 +8983,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C60" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E60" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F60" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9004,7 +9004,7 @@
         <v>44886</v>
       </c>
       <c r="I60" s="1">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="J60" s="1">
         <v>1</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="1">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ60" s="1">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C61" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D61" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9148,7 +9148,7 @@
         <v>44886</v>
       </c>
       <c r="I61" s="1">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z61" s="1">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="AP61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ61" s="1">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C62" s="1">
         <v>3345</v>
       </c>
       <c r="D62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E62" t="s">
         <v>76</v>
       </c>
       <c r="F62" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9292,7 +9292,7 @@
         <v>44886</v>
       </c>
       <c r="I62" s="1">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -9415,16 +9415,16 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C63" s="1">
-        <v>12107</v>
+        <v>62300</v>
       </c>
       <c r="D63" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E63" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F63" t="s">
         <v>95</v>
@@ -9436,7 +9436,7 @@
         <v>44886</v>
       </c>
       <c r="I63" s="1">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="J63" s="1">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL63" s="1">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="AS63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT63" s="1">
         <v>0</v>
@@ -9559,19 +9559,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C64" s="1">
-        <v>21812144</v>
+        <v>88890</v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E64" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s">
         <v>97</v>
@@ -9580,7 +9580,7 @@
         <v>44886</v>
       </c>
       <c r="I64" s="1">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="J64" s="1">
         <v>1</v>
@@ -9662,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64" s="1">
         <v>0</v>
@@ -9686,10 +9686,10 @@
         <v>0</v>
       </c>
       <c r="AS64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU64" s="1">
         <v>0</v>
@@ -9703,19 +9703,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C65" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D65" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E65" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F65" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
@@ -9724,7 +9724,7 @@
         <v>44886</v>
       </c>
       <c r="I65" s="1">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="J65" s="1">
         <v>1</v>
@@ -9743,10 +9743,10 @@
         <v>1</v>
       </c>
       <c r="P65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" s="1">
         <v>0</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="AS65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT65" s="1">
         <v>0</v>
@@ -9847,16 +9847,16 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C66" s="1">
-        <v>5486550</v>
+        <v>12107</v>
       </c>
       <c r="D66" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E66" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F66" t="s">
         <v>95</v>
@@ -9868,7 +9868,7 @@
         <v>44886</v>
       </c>
       <c r="I66" s="1">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="J66" s="1">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66" s="1">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR66" s="1">
         <v>0</v>
       </c>
       <c r="AS66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT66" s="1">
         <v>0</v>
@@ -9991,16 +9991,16 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C67" s="1">
-        <v>446220</v>
+        <v>4914</v>
       </c>
       <c r="D67" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E67" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F67" t="s">
         <v>95</v>
@@ -10012,7 +10012,7 @@
         <v>44886</v>
       </c>
       <c r="I67" s="1">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y67" s="1">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="AP67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ67" s="1">
         <v>0</v>
@@ -10135,19 +10135,19 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C68" s="1">
-        <v>62300</v>
+        <v>21812144</v>
       </c>
       <c r="D68" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F68" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G68" t="s">
         <v>97</v>
@@ -10156,13 +10156,13 @@
         <v>44886</v>
       </c>
       <c r="I68" s="1">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="J68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="AT68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU68" s="1">
         <v>0</v>
@@ -10279,19 +10279,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C69" s="1">
-        <v>5462328</v>
+        <v>5707</v>
       </c>
       <c r="D69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -10300,7 +10300,7 @@
         <v>44886</v>
       </c>
       <c r="I69" s="1">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="J69" s="1">
         <v>1</v>
@@ -10325,10 +10325,10 @@
         <v>0</v>
       </c>
       <c r="R69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" s="1">
         <v>0</v>
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="AK69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -10423,19 +10423,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C70" s="1">
-        <v>5707</v>
+        <v>5462507</v>
       </c>
       <c r="D70" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E70" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F70" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G70" t="s">
         <v>97</v>
@@ -10444,13 +10444,13 @@
         <v>44886</v>
       </c>
       <c r="I70" s="1">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="J70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -10469,10 +10469,10 @@
         <v>0</v>
       </c>
       <c r="R70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T70" s="1">
         <v>0</v>
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C71" s="1">
-        <v>5462507</v>
+        <v>5462328</v>
       </c>
       <c r="D71" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E71" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10588,13 +10588,13 @@
         <v>44886</v>
       </c>
       <c r="I71" s="1">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="J71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -10711,16 +10711,16 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C72" s="1">
-        <v>4914</v>
+        <v>5486550</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E72" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F72" t="s">
         <v>95</v>
@@ -10732,7 +10732,7 @@
         <v>44886</v>
       </c>
       <c r="I72" s="1">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="J72" s="1">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>0</v>
       </c>
       <c r="AP72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR72" s="1">
         <v>0</v>
@@ -10855,19 +10855,19 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C73" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D73" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F73" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G73" t="s">
         <v>97</v>
@@ -10876,13 +10876,13 @@
         <v>44886</v>
       </c>
       <c r="I73" s="1">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="J73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -10895,10 +10895,10 @@
         <v>1</v>
       </c>
       <c r="P73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73" s="1">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="X73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y73" s="1">
         <v>0</v>
@@ -10958,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73" s="1">
         <v>0</v>
@@ -10999,19 +10999,19 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C74" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E74" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F74" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
@@ -11020,13 +11020,13 @@
         <v>44886</v>
       </c>
       <c r="I74" s="1">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="J74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -11039,10 +11039,10 @@
         <v>1</v>
       </c>
       <c r="P74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="1">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="AK74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL74" s="1">
         <v>0</v>
@@ -11126,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="AS74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT74" s="1">
         <v>0</v>
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C75" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D75" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E75" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F75" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11164,13 +11164,13 @@
         <v>44886</v>
       </c>
       <c r="I75" s="1">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="J75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
@@ -11287,19 +11287,19 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C76" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D76" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F76" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -11308,7 +11308,7 @@
         <v>44886</v>
       </c>
       <c r="I76" s="1">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="J76" s="1">
         <v>1</v>
@@ -11431,16 +11431,16 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C77" s="1">
         <v>446220</v>
       </c>
       <c r="D77" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E77" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F77" t="s">
         <v>95</v>
@@ -11452,7 +11452,7 @@
         <v>44886</v>
       </c>
       <c r="I77" s="1">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="J77" s="1">
         <v>0</v>
@@ -11578,16 +11578,16 @@
         <v>23</v>
       </c>
       <c r="C78" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D78" t="s">
         <v>52</v>
       </c>
       <c r="E78" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F78" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -11596,7 +11596,7 @@
         <v>44886</v>
       </c>
       <c r="I78" s="1">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="J78" s="1">
         <v>1</v>
@@ -11615,10 +11615,10 @@
         <v>1</v>
       </c>
       <c r="P78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78" s="1">
         <v>0</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="AK78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL78" s="1">
         <v>0</v>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="AS78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT78" s="1">
         <v>0</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -63,28 +63,31 @@
     <t>1,3-Diacetin</t>
   </si>
   <si>
+    <t>1-phenyl-1-propanamine</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>menthol</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>nicotine</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>1-phenyl-1-propanamine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
+    <t>procaine</t>
   </si>
   <si>
     <t>xylazine</t>
@@ -93,36 +96,33 @@
     <t>heroin</t>
   </si>
   <si>
-    <t>procaine</t>
-  </si>
-  <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>p-fluorofentanyl</t>
   </si>
   <si>
-    <t>methamphetamine</t>
+    <t>quinine</t>
   </si>
   <si>
     <t>levamisole</t>
   </si>
   <si>
-    <t>quinine</t>
-  </si>
-  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
     <t>phenacetin</t>
   </si>
   <si>
+    <t>benzoylecgonine (BZ)</t>
+  </si>
+  <si>
     <t>benzoic acid</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
-  </si>
-  <si>
     <t>lysergic acid diethylamide (LSD)</t>
   </si>
   <si>
@@ -132,12 +132,12 @@
     <t>caffeine</t>
   </si>
   <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -150,28 +150,31 @@
     <t>105-70-4</t>
   </si>
   <si>
+    <t>2941-20-0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>1490-04-6</t>
   </si>
   <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t>54-11-5</t>
   </si>
   <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>2941-20-0</t>
-  </si>
-  <si>
-    <t/>
+    <t>59-46-1</t>
   </si>
   <si>
     <t>7361-61-7</t>
@@ -180,33 +183,30 @@
     <t>561-27-3</t>
   </si>
   <si>
-    <t>59-46-1</t>
+    <t>537-46-2</t>
   </si>
   <si>
     <t>90736-23-5</t>
   </si>
   <si>
-    <t>537-46-2</t>
+    <t>72402-53-0</t>
   </si>
   <si>
     <t>14769-73-4</t>
   </si>
   <si>
-    <t>72402-53-0</t>
-  </si>
-  <si>
     <t>43021-26-7</t>
   </si>
   <si>
     <t>62-44-2</t>
   </si>
   <si>
+    <t>519-09-5</t>
+  </si>
+  <si>
     <t>65-85-0</t>
   </si>
   <si>
-    <t>519-09-5</t>
-  </si>
-  <si>
     <t>50-37-3</t>
   </si>
   <si>
@@ -216,12 +216,12 @@
     <t>58-08-2</t>
   </si>
   <si>
+    <t>2784-73-8</t>
+  </si>
+  <si>
     <t>6703-27-1</t>
   </si>
   <si>
-    <t>2784-73-8</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
@@ -231,19 +231,22 @@
     <t>G45CU3Z186</t>
   </si>
   <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>6M3C89ZY6R</t>
   </si>
   <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
+    <t>4Z8Y51M438</t>
   </si>
   <si>
     <t>2KFG9TP5V8</t>
@@ -252,33 +255,30 @@
     <t>70D95007SX</t>
   </si>
   <si>
-    <t>4Z8Y51M438</t>
+    <t>44RAL3456C</t>
   </si>
   <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
-    <t>44RAL3456C</t>
+    <t>A7V27PHC7A</t>
   </si>
   <si>
     <t>2880D3468G</t>
   </si>
   <si>
-    <t>A7V27PHC7A</t>
-  </si>
-  <si>
     <t>58C337KP3E</t>
   </si>
   <si>
     <t>ER0CTH01H9</t>
   </si>
   <si>
+    <t>5353I8I6YS</t>
+  </si>
+  <si>
     <t>8SKN0B0MIM</t>
   </si>
   <si>
-    <t>5353I8I6YS</t>
-  </si>
-  <si>
     <t>8NA5SWF92O</t>
   </si>
   <si>
@@ -288,10 +288,10 @@
     <t>3G6A5W338E</t>
   </si>
   <si>
+    <t>M5E47P1ZCH</t>
+  </si>
+  <si>
     <t>U59401ETXH</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -643,7 +643,7 @@
         <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -778,13 +778,13 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>1254</v>
+        <v>18054</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
         <v>95</v>
@@ -922,16 +922,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -1066,13 +1066,13 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>89594</v>
+        <v>1254</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
         <v>95</v>
@@ -1210,13 +1210,13 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>12107</v>
+        <v>446220</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
         <v>95</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="1">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>446220</v>
+        <v>12107</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
         <v>95</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1498,16 +1498,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1535,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -1642,16 +1642,16 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>18054</v>
+        <v>3345</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
         <v>97</v>
@@ -1663,10 +1663,10 @@
         <v>367</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1679,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" s="1">
         <v>0</v>
@@ -1786,16 +1786,16 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>165365057</v>
+        <v>89594</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
         <v>97</v>
@@ -1807,10 +1807,10 @@
         <v>367</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -1927,19 +1927,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -1988,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="1">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2255,10 +2255,10 @@
         <v>1</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
-        <v>3345</v>
+        <v>4914</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2399,10 +2399,10 @@
         <v>1</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14" s="1">
         <v>0</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
-        <v>4914</v>
+        <v>5707</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2549,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="AP15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="1">
         <v>0</v>
@@ -2647,19 +2647,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s">
         <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" t="s">
-        <v>52</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
-        <v>165365057</v>
+        <v>156346345</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
         <v>46</v>
-      </c>
-      <c r="E18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -2975,10 +2975,10 @@
         <v>1</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="1">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
-        <v>156346345</v>
+        <v>165365057</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3247,10 +3247,10 @@
         <v>402</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1">
-        <v>4914</v>
+        <v>10836</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3422,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="1">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
-        <v>10836</v>
+        <v>4914</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="1">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22" s="1">
         <v>0</v>
@@ -3655,19 +3655,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3679,10 +3679,10 @@
         <v>402</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
@@ -3695,10 +3695,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="1">
-        <v>26879</v>
+        <v>3034034</v>
       </c>
       <c r="D24" t="s">
         <v>58</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="1">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="1">
-        <v>3034034</v>
+        <v>26879</v>
       </c>
       <c r="D25" t="s">
         <v>59</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="1">
         <v>0</v>
@@ -4087,16 +4087,16 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s">
         <v>95</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
@@ -4231,19 +4231,19 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1">
         <v>446220</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
         <v>97</v>
@@ -4375,16 +4375,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="1">
         <v>0</v>
@@ -4663,19 +4663,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="1">
         <v>446220</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4819,7 +4819,7 @@
         <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4951,19 +4951,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1">
-        <v>88890</v>
+        <v>448223</v>
       </c>
       <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" t="s">
         <v>46</v>
-      </c>
-      <c r="E32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" t="s">
-        <v>95</v>
       </c>
       <c r="G32" t="s">
         <v>97</v>
@@ -4975,10 +4975,10 @@
         <v>486</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="1">
         <v>0</v>
@@ -5095,16 +5095,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C33" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s">
         <v>95</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="1">
         <v>0</v>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33" s="1">
         <v>0</v>
@@ -5239,19 +5239,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C34" s="1">
         <v>165365057</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
         <v>97</v>
@@ -5383,19 +5383,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
-        <v>3345</v>
+        <v>4754</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -5407,10 +5407,10 @@
         <v>486</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5423,10 +5423,10 @@
         <v>1</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ35" s="1">
         <v>0</v>
@@ -5527,16 +5527,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C36" s="1">
-        <v>446220</v>
+        <v>66924</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="1">
         <v>0</v>
@@ -5671,16 +5671,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C37" s="1">
-        <v>243</v>
+        <v>446220</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s">
         <v>95</v>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -5815,19 +5815,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C38" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -5839,10 +5839,10 @@
         <v>486</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -5864,10 +5864,10 @@
         <v>0</v>
       </c>
       <c r="S38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="1">
         <v>0</v>
@@ -5876,10 +5876,10 @@
         <v>0</v>
       </c>
       <c r="W38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="1">
         <v>0</v>
@@ -5959,19 +5959,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C39" s="1">
-        <v>448223</v>
+        <v>119478</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -6103,16 +6103,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C40" s="1">
-        <v>66924</v>
+        <v>243</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s">
         <v>95</v>
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C41" s="1">
-        <v>4754</v>
+        <v>446220</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6271,10 +6271,10 @@
         <v>486</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -6308,10 +6308,10 @@
         <v>0</v>
       </c>
       <c r="W41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41" s="1">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="1">
         <v>0</v>
@@ -6391,19 +6391,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C42" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6415,10 +6415,10 @@
         <v>486</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6431,19 +6431,19 @@
         <v>1</v>
       </c>
       <c r="P42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="1">
         <v>0</v>
       </c>
       <c r="S42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" s="1">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -6535,19 +6535,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C43" s="1">
-        <v>119478</v>
+        <v>5462328</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G43" t="s">
         <v>97</v>
@@ -6559,10 +6559,10 @@
         <v>486</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6835,7 +6835,7 @@
         <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -7111,19 +7111,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" s="1">
         <v>10836</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7255,19 +7255,19 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C48" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E48" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G48" t="s">
         <v>97</v>
@@ -7279,10 +7279,10 @@
         <v>511</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -7310,10 +7310,10 @@
         <v>0</v>
       </c>
       <c r="U48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W48" s="1">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="AS48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT48" s="1">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>90</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7543,19 +7543,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C50" s="1">
-        <v>4754</v>
+        <v>3345</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7567,10 +7567,10 @@
         <v>511</v>
       </c>
       <c r="J50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="1">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL50" s="1">
         <v>0</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ50" s="1">
         <v>0</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C51" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" t="s">
         <v>46</v>
-      </c>
-      <c r="E51" t="s">
-        <v>72</v>
-      </c>
-      <c r="F51" t="s">
-        <v>95</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7711,10 +7711,10 @@
         <v>511</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -7742,10 +7742,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="1">
         <v>0</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C52" s="1">
-        <v>3345</v>
+        <v>4754</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E52" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7855,10 +7855,10 @@
         <v>511</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ52" s="1">
         <v>0</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C53" s="1">
         <v>12107</v>
       </c>
       <c r="D53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F53" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C54" s="1">
-        <v>446220</v>
+        <v>5462507</v>
       </c>
       <c r="D54" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E54" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F54" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8143,10 +8143,10 @@
         <v>523</v>
       </c>
       <c r="J54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="1">
         <v>0</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C55" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F55" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8287,10 +8287,10 @@
         <v>523</v>
       </c>
       <c r="J55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -8303,10 +8303,10 @@
         <v>1</v>
       </c>
       <c r="P55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="1">
         <v>0</v>
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y55" s="1">
         <v>0</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C56" s="1">
         <v>88890</v>
       </c>
       <c r="D56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" t="s">
         <v>46</v>
-      </c>
-      <c r="E56" t="s">
-        <v>72</v>
-      </c>
-      <c r="F56" t="s">
-        <v>52</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C57" s="1">
         <v>5486550</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E57" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F57" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C58" s="1">
-        <v>5462507</v>
+        <v>5462328</v>
       </c>
       <c r="D58" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E58" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F58" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8839,19 +8839,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C59" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D59" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E59" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F59" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8879,10 +8879,10 @@
         <v>1</v>
       </c>
       <c r="P59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="1">
         <v>0</v>
@@ -8983,19 +8983,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C60" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D60" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" t="s">
         <v>46</v>
-      </c>
-      <c r="E60" t="s">
-        <v>72</v>
-      </c>
-      <c r="F60" t="s">
-        <v>52</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9023,10 +9023,10 @@
         <v>1</v>
       </c>
       <c r="P60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="1">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9139,7 +9139,7 @@
         <v>90</v>
       </c>
       <c r="F61" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9274,16 +9274,16 @@
         <v>21</v>
       </c>
       <c r="C62" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D62" t="s">
         <v>50</v>
       </c>
       <c r="E62" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9311,10 +9311,10 @@
         <v>1</v>
       </c>
       <c r="P62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -9415,19 +9415,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C63" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D63" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E63" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F63" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G63" t="s">
         <v>97</v>
@@ -9439,10 +9439,10 @@
         <v>532</v>
       </c>
       <c r="J63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -9455,10 +9455,10 @@
         <v>1</v>
       </c>
       <c r="P63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="1">
         <v>0</v>
@@ -9559,19 +9559,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C64" s="1">
-        <v>88890</v>
+        <v>5486550</v>
       </c>
       <c r="D64" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F64" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G64" t="s">
         <v>97</v>
@@ -9583,10 +9583,10 @@
         <v>532</v>
       </c>
       <c r="J64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -9662,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64" s="1">
         <v>0</v>
@@ -9680,13 +9680,13 @@
         <v>0</v>
       </c>
       <c r="AQ64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR64" s="1">
         <v>0</v>
       </c>
       <c r="AS64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT64" s="1">
         <v>0</v>
@@ -9703,19 +9703,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C65" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E65" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F65" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
@@ -9727,10 +9727,10 @@
         <v>532</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -9743,10 +9743,10 @@
         <v>1</v>
       </c>
       <c r="P65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" s="1">
         <v>0</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="AS65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT65" s="1">
         <v>0</v>
@@ -9847,16 +9847,16 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C66" s="1">
-        <v>12107</v>
+        <v>4914</v>
       </c>
       <c r="D66" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E66" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F66" t="s">
         <v>95</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="AP66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ66" s="1">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="AS66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT66" s="1">
         <v>0</v>
@@ -9991,16 +9991,16 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C67" s="1">
-        <v>4914</v>
+        <v>62300</v>
       </c>
       <c r="D67" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E67" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F67" t="s">
         <v>95</v>
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="AP67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ67" s="1">
         <v>0</v>
@@ -10147,7 +10147,7 @@
         <v>93</v>
       </c>
       <c r="F68" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G68" t="s">
         <v>97</v>
@@ -10279,19 +10279,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C69" s="1">
-        <v>5707</v>
+        <v>5462507</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F69" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -10303,10 +10303,10 @@
         <v>532</v>
       </c>
       <c r="J69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10325,10 +10325,10 @@
         <v>0</v>
       </c>
       <c r="R69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T69" s="1">
         <v>0</v>
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="AK69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -10423,16 +10423,16 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C70" s="1">
-        <v>5462507</v>
+        <v>446220</v>
       </c>
       <c r="D70" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F70" t="s">
         <v>95</v>
@@ -10487,7 +10487,7 @@
         <v>0</v>
       </c>
       <c r="X70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y70" s="1">
         <v>0</v>
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C71" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D71" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E71" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F71" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="AS71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT71" s="1">
         <v>0</v>
@@ -10711,19 +10711,19 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C72" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D72" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E72" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s">
         <v>97</v>
@@ -10735,10 +10735,10 @@
         <v>532</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="AQ72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR72" s="1">
         <v>0</v>
@@ -10855,19 +10855,19 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C73" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D73" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E73" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F73" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G73" t="s">
         <v>97</v>
@@ -10879,10 +10879,10 @@
         <v>532</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -10901,10 +10901,10 @@
         <v>0</v>
       </c>
       <c r="R73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73" s="1">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="X73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y73" s="1">
         <v>0</v>
@@ -11002,16 +11002,16 @@
         <v>21</v>
       </c>
       <c r="C74" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D74" t="s">
         <v>50</v>
       </c>
       <c r="E74" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F74" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
@@ -11039,10 +11039,10 @@
         <v>1</v>
       </c>
       <c r="P74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74" s="1">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="AK74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL74" s="1">
         <v>0</v>
@@ -11126,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="AS74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT74" s="1">
         <v>0</v>
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C75" s="1">
-        <v>156346345</v>
+        <v>165365057</v>
       </c>
       <c r="D75" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E75" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F75" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11167,10 +11167,10 @@
         <v>533</v>
       </c>
       <c r="J75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
@@ -11287,19 +11287,19 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C76" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E76" t="s">
         <v>72</v>
       </c>
       <c r="F76" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -11311,10 +11311,10 @@
         <v>533</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y76" s="1">
         <v>0</v>
@@ -11414,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="AS76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT76" s="1">
         <v>0</v>
@@ -11431,19 +11431,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C77" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D77" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E77" t="s">
         <v>75</v>
       </c>
       <c r="F77" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11455,10 +11455,10 @@
         <v>533</v>
       </c>
       <c r="J77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
@@ -11471,10 +11471,10 @@
         <v>1</v>
       </c>
       <c r="P77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" s="1">
         <v>0</v>
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y77" s="1">
         <v>0</v>
@@ -11534,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="AK77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL77" s="1">
         <v>0</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C78" s="1">
-        <v>165365057</v>
+        <v>156346345</v>
       </c>
       <c r="D78" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E78" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F78" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -11599,10 +11599,10 @@
         <v>533</v>
       </c>
       <c r="J78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,33 +60,33 @@
     <t>substance</t>
   </si>
   <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>1-phenyl-1-propanamine</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>menthol</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>nicotine</t>
+  </si>
+  <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
-    <t>1-phenyl-1-propanamine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>menthol</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>nicotine</t>
-  </si>
-  <si>
     <t>procaine</t>
   </si>
   <si>
@@ -99,10 +99,13 @@
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>p-fluorofentanyl</t>
+    <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
     <t>quinine</t>
@@ -111,33 +114,30 @@
     <t>levamisole</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
+    <t>benzoic acid</t>
+  </si>
+  <si>
     <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
-    <t>benzoic acid</t>
+    <t>ketamine</t>
   </si>
   <si>
     <t>lysergic acid diethylamide (LSD)</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>caffeine</t>
   </si>
   <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -147,33 +147,33 @@
     <t>cas</t>
   </si>
   <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>2941-20-0</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>1490-04-6</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>54-11-5</t>
+  </si>
+  <si>
     <t>105-70-4</t>
   </si>
   <si>
-    <t>2941-20-0</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1490-04-6</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>54-11-5</t>
-  </si>
-  <si>
     <t>59-46-1</t>
   </si>
   <si>
@@ -183,10 +183,13 @@
     <t>561-27-3</t>
   </si>
   <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
     <t>537-46-2</t>
   </si>
   <si>
-    <t>90736-23-5</t>
+    <t>43021-26-7</t>
   </si>
   <si>
     <t>72402-53-0</t>
@@ -195,57 +198,54 @@
     <t>14769-73-4</t>
   </si>
   <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
     <t>62-44-2</t>
   </si>
   <si>
+    <t>65-85-0</t>
+  </si>
+  <si>
     <t>519-09-5</t>
   </si>
   <si>
-    <t>65-85-0</t>
+    <t>6740-88-1</t>
   </si>
   <si>
     <t>50-37-3</t>
   </si>
   <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
     <t>58-08-2</t>
   </si>
   <si>
+    <t>6703-27-1</t>
+  </si>
+  <si>
     <t>2784-73-8</t>
   </si>
   <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
     <t>unii</t>
   </si>
   <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>6M3C89ZY6R</t>
+  </si>
+  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>6M3C89ZY6R</t>
-  </si>
-  <si>
     <t>4Z8Y51M438</t>
   </si>
   <si>
@@ -255,10 +255,13 @@
     <t>70D95007SX</t>
   </si>
   <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
+    <t>58C337KP3E</t>
   </si>
   <si>
     <t>A7V27PHC7A</t>
@@ -267,31 +270,28 @@
     <t>2880D3468G</t>
   </si>
   <si>
-    <t>58C337KP3E</t>
-  </si>
-  <si>
     <t>ER0CTH01H9</t>
   </si>
   <si>
+    <t>8SKN0B0MIM</t>
+  </si>
+  <si>
     <t>5353I8I6YS</t>
   </si>
   <si>
-    <t>8SKN0B0MIM</t>
+    <t>690G0D6V8H</t>
   </si>
   <si>
     <t>8NA5SWF92O</t>
   </si>
   <si>
-    <t>690G0D6V8H</t>
-  </si>
-  <si>
     <t>3G6A5W338E</t>
   </si>
   <si>
+    <t>U59401ETXH</t>
+  </si>
+  <si>
     <t>M5E47P1ZCH</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -634,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>66924</v>
+        <v>12107</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -643,7 +643,7 @@
         <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -652,13 +652,13 @@
         <v>44840</v>
       </c>
       <c r="I2" s="1">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -778,16 +778,16 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>18054</v>
+        <v>165365057</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>97</v>
@@ -796,13 +796,13 @@
         <v>44840</v>
       </c>
       <c r="I3" s="1">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -922,16 +922,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -940,7 +940,7 @@
         <v>44840</v>
       </c>
       <c r="I4" s="1">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -959,10 +959,10 @@
         <v>1</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>1254</v>
+        <v>18054</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
         <v>95</v>
@@ -1084,7 +1084,7 @@
         <v>44840</v>
       </c>
       <c r="I5" s="1">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
         <v>95</v>
@@ -1228,7 +1228,7 @@
         <v>44840</v>
       </c>
       <c r="I6" s="1">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>12107</v>
+        <v>1254</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
         <v>95</v>
@@ -1372,7 +1372,7 @@
         <v>44840</v>
       </c>
       <c r="I7" s="1">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1516,7 +1516,7 @@
         <v>44840</v>
       </c>
       <c r="I8" s="1">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1642,7 +1642,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>3345</v>
+        <v>89594</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
@@ -1651,7 +1651,7 @@
         <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
         <v>97</v>
@@ -1660,13 +1660,13 @@
         <v>44840</v>
       </c>
       <c r="I9" s="1">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1679,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="1">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>89594</v>
+        <v>66924</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
@@ -1795,7 +1795,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
         <v>97</v>
@@ -1804,13 +1804,13 @@
         <v>44840</v>
       </c>
       <c r="I10" s="1">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1936,10 +1936,10 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -1948,7 +1948,7 @@
         <v>44840</v>
       </c>
       <c r="I11" s="1">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2083,7 +2083,7 @@
         <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2092,7 +2092,7 @@
         <v>44840</v>
       </c>
       <c r="I12" s="1">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
-        <v>3345</v>
+        <v>4914</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2236,7 +2236,7 @@
         <v>44840</v>
       </c>
       <c r="I13" s="1">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2255,10 +2255,10 @@
         <v>1</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13" s="1">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
-        <v>4914</v>
+        <v>5707</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2380,7 +2380,7 @@
         <v>44840</v>
       </c>
       <c r="I14" s="1">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -2405,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="1">
         <v>0</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2524,7 +2524,7 @@
         <v>44840</v>
       </c>
       <c r="I15" s="1">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2543,16 +2543,16 @@
         <v>1</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2659,7 +2659,7 @@
         <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2668,7 +2668,7 @@
         <v>44840</v>
       </c>
       <c r="I16" s="1">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -2797,13 +2797,13 @@
         <v>156346345</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2812,7 +2812,7 @@
         <v>44845</v>
       </c>
       <c r="I17" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -2956,7 +2956,7 @@
         <v>44845</v>
       </c>
       <c r="I18" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -2975,10 +2975,10 @@
         <v>1</v>
       </c>
       <c r="P18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="1">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="1">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1">
-        <v>165365057</v>
+        <v>4914</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3100,7 +3100,7 @@
         <v>44845</v>
       </c>
       <c r="I19" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="1">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3244,7 +3244,7 @@
         <v>44845</v>
       </c>
       <c r="I20" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="P20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3388,7 +3388,7 @@
         <v>44845</v>
       </c>
       <c r="I21" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
@@ -3422,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="1">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1">
-        <v>4914</v>
+        <v>62300</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3532,13 +3532,13 @@
         <v>44845</v>
       </c>
       <c r="I22" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="1">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>62300</v>
+        <v>10836</v>
       </c>
       <c r="D23" t="s">
         <v>57</v>
@@ -3667,7 +3667,7 @@
         <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3676,13 +3676,13 @@
         <v>44845</v>
       </c>
       <c r="I23" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
@@ -3710,10 +3710,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="1">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="1">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="1">
-        <v>3034034</v>
+        <v>119478</v>
       </c>
       <c r="D24" t="s">
         <v>58</v>
@@ -3820,7 +3820,7 @@
         <v>44840</v>
       </c>
       <c r="I24" s="1">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="1">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1">
-        <v>26879</v>
+        <v>5462328</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s">
         <v>95</v>
@@ -3964,7 +3964,7 @@
         <v>44840</v>
       </c>
       <c r="I25" s="1">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="1">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="AP25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="1">
         <v>0</v>
@@ -4087,16 +4087,16 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
         <v>95</v>
@@ -4108,7 +4108,7 @@
         <v>44840</v>
       </c>
       <c r="I26" s="1">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
@@ -4231,19 +4231,19 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1">
-        <v>446220</v>
+        <v>3034034</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G27" t="s">
         <v>97</v>
@@ -4252,13 +4252,13 @@
         <v>44840</v>
       </c>
       <c r="I27" s="1">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4292,10 +4292,10 @@
         <v>0</v>
       </c>
       <c r="W27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="1">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ27" s="1">
         <v>0</v>
@@ -4375,16 +4375,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1">
-        <v>3345</v>
+        <v>26879</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
@@ -4396,7 +4396,7 @@
         <v>44840</v>
       </c>
       <c r="I28" s="1">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="1">
         <v>0</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="1">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="AP28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28" s="1">
         <v>0</v>
@@ -4519,19 +4519,19 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F29" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s">
         <v>97</v>
@@ -4540,13 +4540,13 @@
         <v>44840</v>
       </c>
       <c r="I29" s="1">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -4580,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="1">
         <v>0</v>
@@ -4663,19 +4663,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1">
-        <v>446220</v>
+        <v>4754</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4684,7 +4684,7 @@
         <v>44845</v>
       </c>
       <c r="I30" s="1">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="1">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30" s="1">
         <v>0</v>
@@ -4807,19 +4807,19 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C31" s="1">
-        <v>4754</v>
+        <v>446220</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4828,7 +4828,7 @@
         <v>44845</v>
       </c>
       <c r="I31" s="1">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -4868,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="W31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="1">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="1">
         <v>0</v>
@@ -4951,19 +4951,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C32" s="1">
-        <v>448223</v>
+        <v>88890</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s">
         <v>97</v>
@@ -4972,13 +4972,13 @@
         <v>44886</v>
       </c>
       <c r="I32" s="1">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32" s="1">
         <v>0</v>
@@ -5095,16 +5095,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
-        <v>88890</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
         <v>95</v>
@@ -5116,7 +5116,7 @@
         <v>44886</v>
       </c>
       <c r="I33" s="1">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="1">
         <v>0</v>
@@ -5239,19 +5239,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1">
-        <v>165365057</v>
+        <v>4754</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G34" t="s">
         <v>97</v>
@@ -5260,13 +5260,13 @@
         <v>44886</v>
       </c>
       <c r="I34" s="1">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ34" s="1">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="1">
         <v>0</v>
@@ -5383,16 +5383,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C35" s="1">
-        <v>4754</v>
+        <v>446220</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F35" t="s">
         <v>95</v>
@@ -5404,7 +5404,7 @@
         <v>44886</v>
       </c>
       <c r="I35" s="1">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" s="1">
         <v>0</v>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="1">
         <v>0</v>
@@ -5527,16 +5527,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C36" s="1">
-        <v>66924</v>
+        <v>5707</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>
@@ -5548,7 +5548,7 @@
         <v>44886</v>
       </c>
       <c r="I36" s="1">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -5576,10 +5576,10 @@
         <v>0</v>
       </c>
       <c r="S36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" s="1">
         <v>0</v>
@@ -5671,19 +5671,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C37" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E37" t="s">
         <v>72</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -5692,13 +5692,13 @@
         <v>44886</v>
       </c>
       <c r="I37" s="1">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -5711,10 +5711,10 @@
         <v>1</v>
       </c>
       <c r="P37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="1">
         <v>0</v>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -5815,19 +5815,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1">
-        <v>5707</v>
+        <v>448223</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -5836,13 +5836,13 @@
         <v>44886</v>
       </c>
       <c r="I38" s="1">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -5864,10 +5864,10 @@
         <v>0</v>
       </c>
       <c r="S38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="1">
         <v>0</v>
@@ -5959,19 +5959,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C39" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -5980,7 +5980,7 @@
         <v>44886</v>
       </c>
       <c r="I39" s="1">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -6020,10 +6020,10 @@
         <v>0</v>
       </c>
       <c r="W39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" s="1">
         <v>0</v>
@@ -6103,19 +6103,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C40" s="1">
-        <v>243</v>
+        <v>119478</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -6124,13 +6124,13 @@
         <v>44886</v>
       </c>
       <c r="I40" s="1">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C41" s="1">
-        <v>446220</v>
+        <v>66924</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6268,13 +6268,13 @@
         <v>44886</v>
       </c>
       <c r="I41" s="1">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -6308,10 +6308,10 @@
         <v>0</v>
       </c>
       <c r="W41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="1">
         <v>0</v>
@@ -6391,19 +6391,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C42" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6412,13 +6412,13 @@
         <v>44886</v>
       </c>
       <c r="I42" s="1">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6431,10 +6431,10 @@
         <v>1</v>
       </c>
       <c r="P42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="1">
         <v>0</v>
@@ -6535,19 +6535,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C43" s="1">
-        <v>5462328</v>
+        <v>165365057</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G43" t="s">
         <v>97</v>
@@ -6556,13 +6556,13 @@
         <v>44886</v>
       </c>
       <c r="I43" s="1">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT43" s="1">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="1">
-        <v>5761</v>
+        <v>3821</v>
       </c>
       <c r="D44" t="s">
         <v>64</v>
@@ -6691,7 +6691,7 @@
         <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6700,7 +6700,7 @@
         <v>44897</v>
       </c>
       <c r="I44" s="1">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH44" s="1">
         <v>0</v>
@@ -6823,19 +6823,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C45" s="1">
-        <v>3821</v>
+        <v>4754</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6844,13 +6844,13 @@
         <v>44897</v>
       </c>
       <c r="I45" s="1">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -6911,10 +6911,10 @@
         <v>0</v>
       </c>
       <c r="AF45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH45" s="1">
         <v>0</v>
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="AP45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ45" s="1">
         <v>0</v>
@@ -6967,19 +6967,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1">
-        <v>4754</v>
+        <v>5761</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -6988,13 +6988,13 @@
         <v>44897</v>
       </c>
       <c r="I46" s="1">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="AP46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ46" s="1">
         <v>0</v>
@@ -7111,19 +7111,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C47" s="1">
         <v>10836</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7132,7 +7132,7 @@
         <v>44894</v>
       </c>
       <c r="I47" s="1">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -7255,19 +7255,19 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C48" s="1">
-        <v>88890</v>
+        <v>4754</v>
       </c>
       <c r="D48" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F48" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s">
         <v>97</v>
@@ -7276,13 +7276,13 @@
         <v>44896</v>
       </c>
       <c r="I48" s="1">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="AP48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ48" s="1">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="AS48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT48" s="1">
         <v>0</v>
@@ -7399,19 +7399,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C49" s="1">
-        <v>2519</v>
+        <v>10836</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7420,7 +7420,7 @@
         <v>44896</v>
       </c>
       <c r="I49" s="1">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -7454,10 +7454,10 @@
         <v>0</v>
       </c>
       <c r="U49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W49" s="1">
         <v>0</v>
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="1">
         <v>0</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ49" s="1">
         <v>0</v>
@@ -7543,16 +7543,16 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C50" s="1">
         <v>3345</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F50" t="s">
         <v>95</v>
@@ -7564,7 +7564,7 @@
         <v>44896</v>
       </c>
       <c r="I50" s="1">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J50" s="1">
         <v>0</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C51" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D51" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7708,13 +7708,13 @@
         <v>44896</v>
       </c>
       <c r="I51" s="1">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -7742,10 +7742,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT51" s="1">
         <v>0</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C52" s="1">
-        <v>4754</v>
+        <v>2519</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7852,7 +7852,7 @@
         <v>44896</v>
       </c>
       <c r="I52" s="1">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -7898,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z52" s="1">
         <v>0</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C53" s="1">
-        <v>12107</v>
+        <v>88890</v>
       </c>
       <c r="D53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -7996,7 +7996,7 @@
         <v>44886</v>
       </c>
       <c r="I53" s="1">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -8122,7 +8122,7 @@
         <v>39</v>
       </c>
       <c r="C54" s="1">
-        <v>5462507</v>
+        <v>5486550</v>
       </c>
       <c r="D54" t="s">
         <v>67</v>
@@ -8131,7 +8131,7 @@
         <v>91</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8140,7 +8140,7 @@
         <v>44886</v>
       </c>
       <c r="I54" s="1">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR54" s="1">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E55" t="s">
         <v>72</v>
       </c>
       <c r="F55" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8284,13 +8284,13 @@
         <v>44886</v>
       </c>
       <c r="I55" s="1">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -8303,10 +8303,10 @@
         <v>1</v>
       </c>
       <c r="P55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="1">
         <v>0</v>
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="1">
         <v>0</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C56" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D56" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E56" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8428,7 +8428,7 @@
         <v>44886</v>
       </c>
       <c r="I56" s="1">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C57" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E57" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8572,7 +8572,7 @@
         <v>44886</v>
       </c>
       <c r="I57" s="1">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -8672,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR57" s="1">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C58" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8716,13 +8716,13 @@
         <v>44886</v>
       </c>
       <c r="I58" s="1">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="J58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -8759,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y58" s="1">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8839,19 +8839,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C59" s="1">
-        <v>3345</v>
+        <v>5462507</v>
       </c>
       <c r="D59" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E59" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8860,7 +8860,7 @@
         <v>44886</v>
       </c>
       <c r="I59" s="1">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -8879,10 +8879,10 @@
         <v>1</v>
       </c>
       <c r="P59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" s="1">
         <v>0</v>
@@ -8983,19 +8983,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C60" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D60" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9004,7 +9004,7 @@
         <v>44886</v>
       </c>
       <c r="I60" s="1">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J60" s="1">
         <v>1</v>
@@ -9023,10 +9023,10 @@
         <v>1</v>
       </c>
       <c r="P60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" s="1">
         <v>0</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z60" s="1">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ60" s="1">
         <v>0</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C61" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E61" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9148,7 +9148,7 @@
         <v>44886</v>
       </c>
       <c r="I61" s="1">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="1">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="AP61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ61" s="1">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C62" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D62" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9292,7 +9292,7 @@
         <v>44886</v>
       </c>
       <c r="I62" s="1">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -9311,10 +9311,10 @@
         <v>1</v>
       </c>
       <c r="P62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -9415,19 +9415,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C63" s="1">
-        <v>3345</v>
+        <v>5486550</v>
       </c>
       <c r="D63" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E63" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G63" t="s">
         <v>97</v>
@@ -9436,13 +9436,13 @@
         <v>44886</v>
       </c>
       <c r="I63" s="1">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -9455,10 +9455,10 @@
         <v>1</v>
       </c>
       <c r="P63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" s="1">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR63" s="1">
         <v>0</v>
@@ -9559,16 +9559,16 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C64" s="1">
-        <v>5486550</v>
+        <v>446220</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E64" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F64" t="s">
         <v>95</v>
@@ -9580,7 +9580,7 @@
         <v>44886</v>
       </c>
       <c r="I64" s="1">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J64" s="1">
         <v>0</v>
@@ -9623,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y64" s="1">
         <v>0</v>
@@ -9662,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64" s="1">
         <v>0</v>
@@ -9680,7 +9680,7 @@
         <v>0</v>
       </c>
       <c r="AQ64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR64" s="1">
         <v>0</v>
@@ -9703,19 +9703,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C65" s="1">
-        <v>12107</v>
+        <v>21812144</v>
       </c>
       <c r="D65" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="E65" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="F65" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
@@ -9724,13 +9724,13 @@
         <v>44886</v>
       </c>
       <c r="I65" s="1">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9830,10 +9830,10 @@
         <v>0</v>
       </c>
       <c r="AS65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU65" s="1">
         <v>0</v>
@@ -9847,19 +9847,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C66" s="1">
-        <v>4914</v>
+        <v>5462328</v>
       </c>
       <c r="D66" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E66" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F66" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G66" t="s">
         <v>97</v>
@@ -9868,13 +9868,13 @@
         <v>44886</v>
       </c>
       <c r="I66" s="1">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL66" s="1">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="AP66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ66" s="1">
         <v>0</v>
@@ -9991,19 +9991,19 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C67" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D67" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E67" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F67" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s">
         <v>97</v>
@@ -10012,13 +10012,13 @@
         <v>44886</v>
       </c>
       <c r="I67" s="1">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -10031,10 +10031,10 @@
         <v>1</v>
       </c>
       <c r="P67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" s="1">
         <v>0</v>
@@ -10135,19 +10135,19 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C68" s="1">
-        <v>21812144</v>
+        <v>88890</v>
       </c>
       <c r="D68" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E68" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G68" t="s">
         <v>97</v>
@@ -10156,7 +10156,7 @@
         <v>44886</v>
       </c>
       <c r="I68" s="1">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J68" s="1">
         <v>1</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -10262,10 +10262,10 @@
         <v>0</v>
       </c>
       <c r="AS68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU68" s="1">
         <v>0</v>
@@ -10279,16 +10279,16 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C69" s="1">
-        <v>5462507</v>
+        <v>4914</v>
       </c>
       <c r="D69" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E69" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s">
         <v>95</v>
@@ -10300,7 +10300,7 @@
         <v>44886</v>
       </c>
       <c r="I69" s="1">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J69" s="1">
         <v>0</v>
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="AK69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -10397,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="AP69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ69" s="1">
         <v>0</v>
@@ -10423,19 +10423,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C70" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D70" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E70" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F70" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G70" t="s">
         <v>97</v>
@@ -10444,13 +10444,13 @@
         <v>44886</v>
       </c>
       <c r="I70" s="1">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -10469,10 +10469,10 @@
         <v>0</v>
       </c>
       <c r="R70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" s="1">
         <v>0</v>
@@ -10487,7 +10487,7 @@
         <v>0</v>
       </c>
       <c r="X70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="1">
         <v>0</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C71" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D71" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E71" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10588,13 +10588,13 @@
         <v>44886</v>
       </c>
       <c r="I71" s="1">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -10711,19 +10711,19 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C72" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E72" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G72" t="s">
         <v>97</v>
@@ -10732,13 +10732,13 @@
         <v>44886</v>
       </c>
       <c r="I72" s="1">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -10855,19 +10855,19 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C73" s="1">
-        <v>5707</v>
+        <v>62300</v>
       </c>
       <c r="D73" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E73" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G73" t="s">
         <v>97</v>
@@ -10876,13 +10876,13 @@
         <v>44886</v>
       </c>
       <c r="I73" s="1">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -10901,10 +10901,10 @@
         <v>0</v>
       </c>
       <c r="R73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T73" s="1">
         <v>0</v>
@@ -10958,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL73" s="1">
         <v>0</v>
@@ -11011,7 +11011,7 @@
         <v>74</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
@@ -11020,7 +11020,7 @@
         <v>44886</v>
       </c>
       <c r="I74" s="1">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="J74" s="1">
         <v>1</v>
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C75" s="1">
-        <v>165365057</v>
+        <v>446220</v>
       </c>
       <c r="D75" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11164,13 +11164,13 @@
         <v>44886</v>
       </c>
       <c r="I75" s="1">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="J75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y75" s="1">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="AS75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT75" s="1">
         <v>0</v>
@@ -11287,19 +11287,19 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C76" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D76" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E76" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -11308,13 +11308,13 @@
         <v>44886</v>
       </c>
       <c r="I76" s="1">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="J76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y76" s="1">
         <v>0</v>
@@ -11414,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="AS76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT76" s="1">
         <v>0</v>
@@ -11431,19 +11431,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C77" s="1">
         <v>3345</v>
       </c>
       <c r="D77" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E77" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11452,7 +11452,7 @@
         <v>44886</v>
       </c>
       <c r="I77" s="1">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="J77" s="1">
         <v>1</v>
@@ -11581,10 +11581,10 @@
         <v>156346345</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
         <v>95</v>
@@ -11596,7 +11596,7 @@
         <v>44886</v>
       </c>
       <c r="I78" s="1">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="J78" s="1">
         <v>0</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -63,37 +63,40 @@
     <t>N-phenylpropanamide</t>
   </si>
   <si>
+    <t>1-phenyl-1-propanamine</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>1-phenyl-1-propanamine</t>
-  </si>
-  <si>
-    <t>cocaine</t>
+    <t>nicotine</t>
   </si>
   <si>
     <t>menthol</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>nicotine</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>xylazine</t>
   </si>
   <si>
     <t>procaine</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>heroin</t>
+    <t>methamphetamine</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
@@ -102,18 +105,15 @@
     <t>p-fluorofentanyl</t>
   </si>
   <si>
-    <t>methamphetamine</t>
+    <t>levamisole</t>
+  </si>
+  <si>
+    <t>quinine</t>
   </si>
   <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>quinine</t>
-  </si>
-  <si>
-    <t>levamisole</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
@@ -132,12 +132,12 @@
     <t>caffeine</t>
   </si>
   <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -150,54 +150,54 @@
     <t>620-71-3</t>
   </si>
   <si>
+    <t>2941-20-0</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
-    <t>2941-20-0</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
+    <t>54-11-5</t>
   </si>
   <si>
     <t>1490-04-6</t>
   </si>
   <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>54-11-5</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
   </si>
   <si>
     <t>59-46-1</t>
   </si>
   <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
+    <t>537-46-2</t>
   </si>
   <si>
     <t>90736-23-5</t>
   </si>
   <si>
-    <t>537-46-2</t>
+    <t>14769-73-4</t>
+  </si>
+  <si>
+    <t>72402-53-0</t>
   </si>
   <si>
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>72402-53-0</t>
-  </si>
-  <si>
-    <t>14769-73-4</t>
-  </si>
-  <si>
     <t>62-44-2</t>
   </si>
   <si>
@@ -216,12 +216,12 @@
     <t>58-08-2</t>
   </si>
   <si>
+    <t>2784-73-8</t>
+  </si>
+  <si>
     <t>6703-27-1</t>
   </si>
   <si>
-    <t>2784-73-8</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
@@ -231,45 +231,45 @@
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
     <t>6M3C89ZY6R</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
   </si>
   <si>
     <t>4Z8Y51M438</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
+    <t>44RAL3456C</t>
   </si>
   <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
-    <t>44RAL3456C</t>
+    <t>2880D3468G</t>
+  </si>
+  <si>
+    <t>A7V27PHC7A</t>
   </si>
   <si>
     <t>58C337KP3E</t>
   </si>
   <si>
-    <t>A7V27PHC7A</t>
-  </si>
-  <si>
-    <t>2880D3468G</t>
-  </si>
-  <si>
     <t>ER0CTH01H9</t>
   </si>
   <si>
@@ -288,10 +288,10 @@
     <t>3G6A5W338E</t>
   </si>
   <si>
+    <t>M5E47P1ZCH</t>
+  </si>
+  <si>
     <t>U59401ETXH</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -778,16 +778,16 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>165365057</v>
+        <v>18054</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
         <v>97</v>
@@ -799,10 +799,10 @@
         <v>368</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
@@ -931,7 +931,7 @@
         <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -943,10 +943,10 @@
         <v>368</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -959,10 +959,10 @@
         <v>1</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="1">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>18054</v>
+        <v>165365057</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1087,10 +1087,10 @@
         <v>368</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -1219,7 +1219,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
         <v>97</v>
@@ -1231,10 +1231,10 @@
         <v>368</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>1254</v>
+        <v>66924</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1375,10 +1375,10 @@
         <v>368</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1498,16 +1498,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1535,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -1786,16 +1786,16 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>66924</v>
+        <v>1254</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
         <v>97</v>
@@ -1807,10 +1807,10 @@
         <v>368</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1930,7 +1930,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
@@ -1939,7 +1939,7 @@
         <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -1988,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>4914</v>
+        <v>5707</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2261,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="1">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
-        <v>5707</v>
+        <v>4914</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2405,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="R14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14" s="1">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D15" t="s">
         <v>46</v>
@@ -2515,7 +2515,7 @@
         <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2564,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2647,19 +2647,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2687,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2831,10 +2831,10 @@
         <v>1</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="1">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
         <v>165365057</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>4914</v>
+        <v>88890</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="1">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="P20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -3278,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="1">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1">
-        <v>62300</v>
+        <v>4914</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3535,10 +3535,10 @@
         <v>403</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22" s="1">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>10836</v>
+        <v>62300</v>
       </c>
       <c r="D23" t="s">
         <v>57</v>
@@ -3667,7 +3667,7 @@
         <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3679,10 +3679,10 @@
         <v>403</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
@@ -3710,10 +3710,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="1">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23" s="1">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
-        <v>119478</v>
+        <v>3345</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="1">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
-        <v>5462328</v>
+        <v>26879</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
         <v>95</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="1">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="AP25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ25" s="1">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D26" t="s">
         <v>46</v>
@@ -4099,7 +4099,7 @@
         <v>72</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s">
         <v>97</v>
@@ -4111,10 +4111,10 @@
         <v>404</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="1">
         <v>0</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="1">
         <v>0</v>
@@ -4231,16 +4231,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1">
-        <v>3034034</v>
+        <v>5462328</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s">
         <v>95</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="1">
         <v>0</v>
@@ -4375,16 +4375,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1">
-        <v>26879</v>
+        <v>3034034</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="1">
         <v>0</v>
@@ -4519,19 +4519,19 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G29" t="s">
         <v>97</v>
@@ -4543,10 +4543,10 @@
         <v>404</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -4580,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1">
         <v>0</v>
@@ -4675,7 +4675,7 @@
         <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4807,19 +4807,19 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1">
         <v>446220</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4951,16 +4951,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
         <v>95</v>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="1">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="1">
         <v>0</v>
@@ -5095,16 +5095,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C33" s="1">
-        <v>243</v>
+        <v>88890</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s">
         <v>95</v>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33" s="1">
         <v>0</v>
@@ -5239,19 +5239,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C34" s="1">
-        <v>4754</v>
+        <v>446220</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G34" t="s">
         <v>97</v>
@@ -5263,10 +5263,10 @@
         <v>488</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5300,10 +5300,10 @@
         <v>0</v>
       </c>
       <c r="W34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" s="1">
         <v>0</v>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="1">
         <v>0</v>
@@ -5383,16 +5383,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C35" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s">
         <v>95</v>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="1">
         <v>0</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -5527,19 +5527,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1">
-        <v>5707</v>
+        <v>119478</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -5551,10 +5551,10 @@
         <v>488</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -5576,10 +5576,10 @@
         <v>0</v>
       </c>
       <c r="S36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="1">
         <v>0</v>
@@ -5671,19 +5671,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -5711,10 +5711,10 @@
         <v>1</v>
       </c>
       <c r="P37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="1">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -5815,19 +5815,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1">
-        <v>448223</v>
+        <v>66924</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -5839,10 +5839,10 @@
         <v>488</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -5959,19 +5959,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C39" s="1">
-        <v>446220</v>
+        <v>243</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -5983,10 +5983,10 @@
         <v>488</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6020,10 +6020,10 @@
         <v>0</v>
       </c>
       <c r="W39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="1">
         <v>0</v>
@@ -6103,19 +6103,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C40" s="1">
-        <v>119478</v>
+        <v>448223</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -6247,16 +6247,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C41" s="1">
-        <v>66924</v>
+        <v>5707</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
         <v>95</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="S41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" s="1">
         <v>0</v>
@@ -6391,19 +6391,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C42" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6415,10 +6415,10 @@
         <v>488</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6431,10 +6431,10 @@
         <v>1</v>
       </c>
       <c r="P42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="1">
         <v>0</v>
@@ -6535,19 +6535,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C43" s="1">
-        <v>165365057</v>
+        <v>4754</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G43" t="s">
         <v>97</v>
@@ -6559,10 +6559,10 @@
         <v>488</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="AP43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ43" s="1">
         <v>0</v>
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="1">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6823,19 +6823,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1">
-        <v>4754</v>
+        <v>5761</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6847,10 +6847,10 @@
         <v>494</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="AP45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ45" s="1">
         <v>0</v>
@@ -6967,19 +6967,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C46" s="1">
-        <v>5761</v>
+        <v>4754</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -6991,10 +6991,10 @@
         <v>494</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="AP46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ46" s="1">
         <v>0</v>
@@ -7111,19 +7111,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C47" s="1">
         <v>10836</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7255,19 +7255,19 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C48" s="1">
-        <v>4754</v>
+        <v>2519</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G48" t="s">
         <v>97</v>
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z48" s="1">
         <v>0</v>
@@ -7399,19 +7399,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C49" s="1">
-        <v>10836</v>
+        <v>4754</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E49" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7454,10 +7454,10 @@
         <v>0</v>
       </c>
       <c r="U49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49" s="1">
         <v>0</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ49" s="1">
         <v>0</v>
@@ -7543,19 +7543,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C50" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D50" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E50" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F50" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7567,10 +7567,10 @@
         <v>513</v>
       </c>
       <c r="J50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" s="1">
         <v>0</v>
@@ -7598,10 +7598,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="1">
         <v>0</v>
@@ -7687,16 +7687,16 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C51" s="1">
         <v>88890</v>
       </c>
       <c r="D51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F51" t="s">
         <v>95</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C52" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E52" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7855,10 +7855,10 @@
         <v>513</v>
       </c>
       <c r="J52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
@@ -7898,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="1">
         <v>0</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ52" s="1">
         <v>0</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C53" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D53" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -7999,10 +7999,10 @@
         <v>525</v>
       </c>
       <c r="J53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y53" s="1">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="1">
         <v>0</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C54" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR54" s="1">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C55" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8303,10 +8303,10 @@
         <v>1</v>
       </c>
       <c r="P55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="1">
         <v>0</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
@@ -8390,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="AS55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C56" s="1">
-        <v>12107</v>
+        <v>5462507</v>
       </c>
       <c r="D56" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E56" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8510,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL56" s="1">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT56" s="1">
         <v>0</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C57" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8654,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="1">
         <v>0</v>
@@ -8678,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C58" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E58" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F58" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8719,10 +8719,10 @@
         <v>525</v>
       </c>
       <c r="J58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -8735,10 +8735,10 @@
         <v>1</v>
       </c>
       <c r="P58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -8759,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="1">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8842,7 +8842,7 @@
         <v>40</v>
       </c>
       <c r="C59" s="1">
-        <v>5462507</v>
+        <v>5486550</v>
       </c>
       <c r="D59" t="s">
         <v>68</v>
@@ -8851,7 +8851,7 @@
         <v>92</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR59" s="1">
         <v>0</v>
@@ -8983,19 +8983,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C60" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E60" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="1">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ60" s="1">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9130,16 +9130,16 @@
         <v>21</v>
       </c>
       <c r="C61" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D61" t="s">
         <v>50</v>
       </c>
       <c r="E61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9167,10 +9167,10 @@
         <v>1</v>
       </c>
       <c r="P61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C62" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D62" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9311,10 +9311,10 @@
         <v>1</v>
       </c>
       <c r="P62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z62" s="1">
         <v>0</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9389,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="AP62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ62" s="1">
         <v>0</v>
@@ -9415,19 +9415,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C63" s="1">
-        <v>5486550</v>
+        <v>21812144</v>
       </c>
       <c r="D63" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E63" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F63" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G63" t="s">
         <v>97</v>
@@ -9439,10 +9439,10 @@
         <v>534</v>
       </c>
       <c r="J63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR63" s="1">
         <v>0</v>
@@ -9545,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU63" s="1">
         <v>0</v>
@@ -9559,16 +9559,16 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C64" s="1">
-        <v>446220</v>
+        <v>5486550</v>
       </c>
       <c r="D64" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F64" t="s">
         <v>95</v>
@@ -9623,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="1">
         <v>0</v>
@@ -9662,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64" s="1">
         <v>0</v>
@@ -9680,7 +9680,7 @@
         <v>0</v>
       </c>
       <c r="AQ64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR64" s="1">
         <v>0</v>
@@ -9703,19 +9703,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C65" s="1">
-        <v>21812144</v>
+        <v>5462507</v>
       </c>
       <c r="D65" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
@@ -9727,10 +9727,10 @@
         <v>534</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="AT65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU65" s="1">
         <v>0</v>
@@ -9847,19 +9847,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C66" s="1">
-        <v>5462328</v>
+        <v>5707</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G66" t="s">
         <v>97</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="R66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66" s="1">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66" s="1">
         <v>0</v>
@@ -9991,19 +9991,19 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C67" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D67" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E67" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G67" t="s">
         <v>97</v>
@@ -10031,10 +10031,10 @@
         <v>1</v>
       </c>
       <c r="P67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67" s="1">
         <v>0</v>
@@ -10138,16 +10138,16 @@
         <v>21</v>
       </c>
       <c r="C68" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D68" t="s">
         <v>50</v>
       </c>
       <c r="E68" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G68" t="s">
         <v>97</v>
@@ -10175,10 +10175,10 @@
         <v>1</v>
       </c>
       <c r="P68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" s="1">
         <v>0</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -10262,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="1">
         <v>0</v>
@@ -10279,16 +10279,16 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C69" s="1">
-        <v>4914</v>
+        <v>446220</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E69" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F69" t="s">
         <v>95</v>
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="X69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y69" s="1">
         <v>0</v>
@@ -10397,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="AP69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ69" s="1">
         <v>0</v>
@@ -10423,19 +10423,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C70" s="1">
-        <v>5707</v>
+        <v>4914</v>
       </c>
       <c r="D70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E70" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F70" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G70" t="s">
         <v>97</v>
@@ -10447,10 +10447,10 @@
         <v>534</v>
       </c>
       <c r="J70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -10469,10 +10469,10 @@
         <v>0</v>
       </c>
       <c r="R70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T70" s="1">
         <v>0</v>
@@ -10541,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="AP70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ70" s="1">
         <v>0</v>
@@ -10567,16 +10567,16 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C71" s="1">
-        <v>12107</v>
+        <v>62300</v>
       </c>
       <c r="D71" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E71" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F71" t="s">
         <v>95</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="AS71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT71" s="1">
         <v>0</v>
@@ -10711,19 +10711,19 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C72" s="1">
-        <v>5462507</v>
+        <v>88890</v>
       </c>
       <c r="D72" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G72" t="s">
         <v>97</v>
@@ -10735,10 +10735,10 @@
         <v>534</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="AS72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT72" s="1">
         <v>0</v>
@@ -10855,16 +10855,16 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C73" s="1">
-        <v>62300</v>
+        <v>12107</v>
       </c>
       <c r="D73" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E73" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F73" t="s">
         <v>95</v>
@@ -10958,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73" s="1">
         <v>0</v>
@@ -10982,7 +10982,7 @@
         <v>0</v>
       </c>
       <c r="AS73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT73" s="1">
         <v>0</v>
@@ -11002,16 +11002,16 @@
         <v>21</v>
       </c>
       <c r="C74" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D74" t="s">
         <v>50</v>
       </c>
       <c r="E74" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
@@ -11039,10 +11039,10 @@
         <v>1</v>
       </c>
       <c r="P74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="1">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="AK74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL74" s="1">
         <v>0</v>
@@ -11126,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="AS74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT74" s="1">
         <v>0</v>
@@ -11143,16 +11143,16 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C75" s="1">
         <v>446220</v>
       </c>
       <c r="D75" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F75" t="s">
         <v>95</v>
@@ -11287,19 +11287,19 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C76" s="1">
-        <v>165365057</v>
+        <v>156346345</v>
       </c>
       <c r="D76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F76" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -11311,10 +11311,10 @@
         <v>535</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -11431,19 +11431,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C77" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E77" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11471,10 +11471,10 @@
         <v>1</v>
       </c>
       <c r="P77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77" s="1">
         <v>0</v>
@@ -11534,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="AK77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL77" s="1">
         <v>0</v>
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="AS77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT77" s="1">
         <v>0</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C78" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D78" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="F78" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -11599,10 +11599,10 @@
         <v>535</v>
       </c>
       <c r="J78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,31 +60,34 @@
     <t>substance</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>1-phenyl-1-propanamine</t>
+  </si>
+  <si>
+    <t>menthol</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>1-phenyl-1-propanamine</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
     <t>4-ANPP</t>
   </si>
   <si>
+    <t>nicotine</t>
+  </si>
+  <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>nicotine</t>
-  </si>
-  <si>
-    <t>menthol</t>
+    <t>procaine</t>
   </si>
   <si>
     <t>heroin</t>
@@ -93,16 +96,16 @@
     <t>xylazine</t>
   </si>
   <si>
-    <t>procaine</t>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
   </si>
   <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
+    <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
     <t>levamisole</t>
@@ -111,18 +114,15 @@
     <t>quinine</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
+    <t>benzoylecgonine (BZ)</t>
+  </si>
+  <si>
     <t>benzoic acid</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
@@ -147,31 +147,34 @@
     <t>cas</t>
   </si>
   <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>2941-20-0</t>
+  </si>
+  <si>
+    <t>1490-04-6</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t>620-71-3</t>
   </si>
   <si>
-    <t>2941-20-0</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>21409-26-7</t>
   </si>
   <si>
+    <t>54-11-5</t>
+  </si>
+  <si>
     <t>105-70-4</t>
   </si>
   <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>54-11-5</t>
-  </si>
-  <si>
-    <t>1490-04-6</t>
+    <t>59-46-1</t>
   </si>
   <si>
     <t>561-27-3</t>
@@ -180,13 +183,13 @@
     <t>7361-61-7</t>
   </si>
   <si>
-    <t>59-46-1</t>
+    <t>90736-23-5</t>
   </si>
   <si>
     <t>537-46-2</t>
   </si>
   <si>
-    <t>90736-23-5</t>
+    <t>43021-26-7</t>
   </si>
   <si>
     <t>14769-73-4</t>
@@ -195,18 +198,15 @@
     <t>72402-53-0</t>
   </si>
   <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
     <t>62-44-2</t>
   </si>
   <si>
+    <t>519-09-5</t>
+  </si>
+  <si>
     <t>65-85-0</t>
   </si>
   <si>
-    <t>519-09-5</t>
-  </si>
-  <si>
     <t>6740-88-1</t>
   </si>
   <si>
@@ -228,22 +228,25 @@
     <t>unii</t>
   </si>
   <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
+    <t>6M3C89ZY6R</t>
+  </si>
+  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>6M3C89ZY6R</t>
+    <t>4Z8Y51M438</t>
   </si>
   <si>
     <t>70D95007SX</t>
@@ -252,13 +255,13 @@
     <t>2KFG9TP5V8</t>
   </si>
   <si>
-    <t>4Z8Y51M438</t>
+    <t>I45R05QM0Z</t>
   </si>
   <si>
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
+    <t>58C337KP3E</t>
   </si>
   <si>
     <t>2880D3468G</t>
@@ -267,16 +270,13 @@
     <t>A7V27PHC7A</t>
   </si>
   <si>
-    <t>58C337KP3E</t>
-  </si>
-  <si>
     <t>ER0CTH01H9</t>
   </si>
   <si>
+    <t>5353I8I6YS</t>
+  </si>
+  <si>
     <t>8SKN0B0MIM</t>
-  </si>
-  <si>
-    <t>5353I8I6YS</t>
   </si>
   <si>
     <t>690G0D6V8H</t>
@@ -634,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>12107</v>
+        <v>446220</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
         <v>95</v>
@@ -922,13 +922,13 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>446220</v>
+        <v>1254</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
         <v>95</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="1">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1103,10 +1103,10 @@
         <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -1219,7 +1219,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
         <v>97</v>
@@ -1231,10 +1231,10 @@
         <v>368</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>66924</v>
+        <v>165365057</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1498,16 +1498,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1535,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -1786,16 +1786,16 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>1254</v>
+        <v>66924</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
         <v>97</v>
@@ -1807,10 +1807,10 @@
         <v>368</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1927,19 +1927,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -1988,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="1">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2111,10 +2111,10 @@
         <v>1</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
-        <v>5707</v>
+        <v>4914</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2261,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13" s="1">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
-        <v>4914</v>
+        <v>5462328</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="1">
         <v>0</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2549,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -2564,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="W15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
         <v>0</v>
@@ -2650,16 +2650,16 @@
         <v>21</v>
       </c>
       <c r="C16" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D16" t="s">
         <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2687,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="1">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2831,10 +2831,10 @@
         <v>1</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="1">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
-        <v>165365057</v>
+        <v>156346345</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1">
-        <v>88890</v>
+        <v>4914</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="1">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3223,10 +3223,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
-        <v>10836</v>
+        <v>62300</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
@@ -3235,7 +3235,7 @@
         <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3247,10 +3247,10 @@
         <v>403</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3278,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="1">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
-        <v>4914</v>
+        <v>10836</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="1">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="1">
         <v>0</v>
@@ -3655,19 +3655,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3679,10 +3679,10 @@
         <v>403</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
@@ -3695,10 +3695,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1">
         <v>3345</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -3946,7 +3946,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="1">
-        <v>26879</v>
+        <v>119478</v>
       </c>
       <c r="D25" t="s">
         <v>58</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="AP25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="1">
         <v>0</v>
@@ -4087,19 +4087,19 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1">
         <v>446220</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s">
         <v>97</v>
@@ -4231,16 +4231,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <v>5462328</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s">
         <v>95</v>
@@ -4378,7 +4378,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="1">
-        <v>3034034</v>
+        <v>26879</v>
       </c>
       <c r="D28" t="s">
         <v>59</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="1">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>119478</v>
+        <v>3034034</v>
       </c>
       <c r="D29" t="s">
         <v>60</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4675,7 +4675,7 @@
         <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4807,19 +4807,19 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C31" s="1">
         <v>446220</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4951,19 +4951,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
         <v>97</v>
@@ -4975,10 +4975,10 @@
         <v>488</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="1">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32" s="1">
         <v>0</v>
@@ -5095,19 +5095,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
-        <v>88890</v>
+        <v>448223</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
         <v>97</v>
@@ -5119,10 +5119,10 @@
         <v>488</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="1">
         <v>0</v>
@@ -5239,19 +5239,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C34" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G34" t="s">
         <v>97</v>
@@ -5263,10 +5263,10 @@
         <v>488</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5300,10 +5300,10 @@
         <v>0</v>
       </c>
       <c r="W34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="1">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34" s="1">
         <v>0</v>
@@ -5383,16 +5383,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C35" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F35" t="s">
         <v>95</v>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" s="1">
         <v>0</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -5527,19 +5527,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1">
-        <v>119478</v>
+        <v>4754</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -5551,10 +5551,10 @@
         <v>488</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -5645,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ36" s="1">
         <v>0</v>
@@ -5671,19 +5671,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
-        <v>165365057</v>
+        <v>119478</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -5815,16 +5815,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C38" s="1">
-        <v>66924</v>
+        <v>5462328</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s">
         <v>95</v>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5959,16 +5959,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1">
-        <v>243</v>
+        <v>66924</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s">
         <v>95</v>
@@ -6103,19 +6103,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1">
-        <v>448223</v>
+        <v>3345</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -6143,10 +6143,10 @@
         <v>1</v>
       </c>
       <c r="P40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL40" s="1">
         <v>0</v>
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C41" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6271,10 +6271,10 @@
         <v>488</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="S41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" s="1">
         <v>0</v>
@@ -6308,10 +6308,10 @@
         <v>0</v>
       </c>
       <c r="W41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41" s="1">
         <v>0</v>
@@ -6391,19 +6391,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1">
-        <v>3345</v>
+        <v>243</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6415,10 +6415,10 @@
         <v>488</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6431,10 +6431,10 @@
         <v>1</v>
       </c>
       <c r="P42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="1">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -6535,16 +6535,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C43" s="1">
-        <v>4754</v>
+        <v>5707</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
         <v>95</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="S43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" s="1">
         <v>0</v>
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="AP43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="1">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6835,7 +6835,7 @@
         <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -7111,19 +7111,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C47" s="1">
         <v>10836</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7255,19 +7255,19 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C48" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G48" t="s">
         <v>97</v>
@@ -7279,10 +7279,10 @@
         <v>513</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -7298,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="1">
         <v>0</v>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="AP48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ48" s="1">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>85</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7543,19 +7543,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C50" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E50" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7567,10 +7567,10 @@
         <v>513</v>
       </c>
       <c r="J50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -7598,10 +7598,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="AS50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT50" s="1">
         <v>0</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C51" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E51" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F51" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7711,10 +7711,10 @@
         <v>513</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -7742,10 +7742,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="1">
         <v>0</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C52" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7855,10 +7855,10 @@
         <v>513</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
@@ -7898,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z52" s="1">
         <v>0</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ52" s="1">
         <v>0</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C53" s="1">
-        <v>446220</v>
+        <v>5462507</v>
       </c>
       <c r="D53" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E53" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F53" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -7999,10 +7999,10 @@
         <v>525</v>
       </c>
       <c r="J53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="1">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="1">
         <v>0</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C54" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D54" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E54" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F54" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8143,10 +8143,10 @@
         <v>525</v>
       </c>
       <c r="J54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y54" s="1">
         <v>0</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C55" s="1">
-        <v>12107</v>
+        <v>5486550</v>
       </c>
       <c r="D55" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E55" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="F55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
@@ -8384,13 +8384,13 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR55" s="1">
         <v>0</v>
       </c>
       <c r="AS55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C56" s="1">
-        <v>5462507</v>
+        <v>3345</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8447,10 +8447,10 @@
         <v>1</v>
       </c>
       <c r="P56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="1">
         <v>0</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C57" s="1">
         <v>88890</v>
       </c>
       <c r="D57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F57" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C58" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D58" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E58" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8735,10 +8735,10 @@
         <v>1</v>
       </c>
       <c r="P58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -8839,19 +8839,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C59" s="1">
-        <v>5486550</v>
+        <v>12107</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E59" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -8960,13 +8960,13 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR59" s="1">
         <v>0</v>
       </c>
       <c r="AS59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT59" s="1">
         <v>0</v>
@@ -8983,19 +8983,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C60" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D60" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="F60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z60" s="1">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ60" s="1">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9130,16 +9130,16 @@
         <v>21</v>
       </c>
       <c r="C61" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D61" t="s">
         <v>50</v>
       </c>
       <c r="E61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F61" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9167,10 +9167,10 @@
         <v>1</v>
       </c>
       <c r="P61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C62" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9311,10 +9311,10 @@
         <v>1</v>
       </c>
       <c r="P62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="1">
         <v>0</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9389,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="AP62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ62" s="1">
         <v>0</v>
@@ -9415,19 +9415,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C63" s="1">
-        <v>21812144</v>
+        <v>5462328</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E63" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s">
         <v>97</v>
@@ -9545,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU63" s="1">
         <v>0</v>
@@ -9559,19 +9559,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C64" s="1">
-        <v>5486550</v>
+        <v>88890</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E64" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F64" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G64" t="s">
         <v>97</v>
@@ -9583,10 +9583,10 @@
         <v>534</v>
       </c>
       <c r="J64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -9662,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64" s="1">
         <v>0</v>
@@ -9680,13 +9680,13 @@
         <v>0</v>
       </c>
       <c r="AQ64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR64" s="1">
         <v>0</v>
       </c>
       <c r="AS64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT64" s="1">
         <v>0</v>
@@ -9703,16 +9703,16 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C65" s="1">
-        <v>5462507</v>
+        <v>62300</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E65" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F65" t="s">
         <v>95</v>
@@ -9847,19 +9847,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C66" s="1">
         <v>5707</v>
       </c>
       <c r="D66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F66" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G66" t="s">
         <v>97</v>
@@ -9991,19 +9991,19 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C67" s="1">
-        <v>5462328</v>
+        <v>12107</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E67" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F67" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G67" t="s">
         <v>97</v>
@@ -10015,10 +10015,10 @@
         <v>534</v>
       </c>
       <c r="J67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="AS67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT67" s="1">
         <v>0</v>
@@ -10135,19 +10135,19 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C68" s="1">
         <v>3345</v>
       </c>
       <c r="D68" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G68" t="s">
         <v>97</v>
@@ -10279,16 +10279,16 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C69" s="1">
-        <v>446220</v>
+        <v>5486550</v>
       </c>
       <c r="D69" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F69" t="s">
         <v>95</v>
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="X69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y69" s="1">
         <v>0</v>
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="AK69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -10400,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="AQ69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR69" s="1">
         <v>0</v>
@@ -10423,16 +10423,16 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C70" s="1">
         <v>4914</v>
       </c>
       <c r="D70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E70" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s">
         <v>95</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C71" s="1">
-        <v>62300</v>
+        <v>21812144</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E71" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10591,10 +10591,10 @@
         <v>534</v>
       </c>
       <c r="J71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -10697,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="AT71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU71" s="1">
         <v>0</v>
@@ -10711,19 +10711,19 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C72" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D72" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E72" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F72" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G72" t="s">
         <v>97</v>
@@ -10735,10 +10735,10 @@
         <v>534</v>
       </c>
       <c r="J72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="AS72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT72" s="1">
         <v>0</v>
@@ -10858,7 +10858,7 @@
         <v>15</v>
       </c>
       <c r="C73" s="1">
-        <v>12107</v>
+        <v>446220</v>
       </c>
       <c r="D73" t="s">
         <v>44</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="X73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y73" s="1">
         <v>0</v>
@@ -10982,7 +10982,7 @@
         <v>0</v>
       </c>
       <c r="AS73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT73" s="1">
         <v>0</v>
@@ -10999,19 +10999,19 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C74" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D74" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E74" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
@@ -11023,10 +11023,10 @@
         <v>535</v>
       </c>
       <c r="J74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -11039,10 +11039,10 @@
         <v>1</v>
       </c>
       <c r="P74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74" s="1">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y74" s="1">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="AK74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL74" s="1">
         <v>0</v>
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C75" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D75" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E75" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11167,10 +11167,10 @@
         <v>535</v>
       </c>
       <c r="J75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y75" s="1">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="AS75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT75" s="1">
         <v>0</v>
@@ -11287,19 +11287,19 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C76" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D76" t="s">
         <v>47</v>
       </c>
       <c r="E76" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -11311,10 +11311,10 @@
         <v>535</v>
       </c>
       <c r="J76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -11327,10 +11327,10 @@
         <v>1</v>
       </c>
       <c r="P76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76" s="1">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AK76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL76" s="1">
         <v>0</v>
@@ -11414,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="AS76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT76" s="1">
         <v>0</v>
@@ -11431,19 +11431,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C77" s="1">
         <v>165365057</v>
       </c>
       <c r="D77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C78" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E78" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -11599,10 +11599,10 @@
         <v>535</v>
       </c>
       <c r="J78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,30 +60,30 @@
     <t>substance</t>
   </si>
   <si>
+    <t>nicotine</t>
+  </si>
+  <si>
+    <t>menthol</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>1-phenyl-1-propanamine</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>1-phenyl-1-propanamine</t>
-  </si>
-  <si>
-    <t>menthol</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>nicotine</t>
-  </si>
-  <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
@@ -99,12 +99,12 @@
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>p-fluorofentanyl</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
@@ -117,12 +117,12 @@
     <t>phenacetin</t>
   </si>
   <si>
+    <t>benzoic acid</t>
+  </si>
+  <si>
     <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
-    <t>benzoic acid</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
@@ -147,30 +147,30 @@
     <t>cas</t>
   </si>
   <si>
+    <t>54-11-5</t>
+  </si>
+  <si>
+    <t>1490-04-6</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>2941-20-0</t>
+  </si>
+  <si>
     <t>50-36-2</t>
   </si>
   <si>
-    <t>2941-20-0</t>
-  </si>
-  <si>
-    <t>1490-04-6</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>54-11-5</t>
-  </si>
-  <si>
     <t>105-70-4</t>
   </si>
   <si>
@@ -183,12 +183,12 @@
     <t>7361-61-7</t>
   </si>
   <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
     <t>90736-23-5</t>
   </si>
   <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
     <t>43021-26-7</t>
   </si>
   <si>
@@ -201,12 +201,12 @@
     <t>62-44-2</t>
   </si>
   <si>
+    <t>65-85-0</t>
+  </si>
+  <si>
     <t>519-09-5</t>
   </si>
   <si>
-    <t>65-85-0</t>
-  </si>
-  <si>
     <t>6740-88-1</t>
   </si>
   <si>
@@ -228,21 +228,21 @@
     <t>unii</t>
   </si>
   <si>
+    <t>6M3C89ZY6R</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>6M3C89ZY6R</t>
-  </si>
-  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
@@ -255,12 +255,12 @@
     <t>2KFG9TP5V8</t>
   </si>
   <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
     <t>58C337KP3E</t>
   </si>
   <si>
@@ -273,10 +273,10 @@
     <t>ER0CTH01H9</t>
   </si>
   <si>
+    <t>8SKN0B0MIM</t>
+  </si>
+  <si>
     <t>5353I8I6YS</t>
-  </si>
-  <si>
-    <t>8SKN0B0MIM</t>
   </si>
   <si>
     <t>690G0D6V8H</t>
@@ -634,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>446220</v>
+        <v>89594</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="1">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>18054</v>
+        <v>1254</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
         <v>95</v>
@@ -922,16 +922,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>1254</v>
+        <v>88890</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -943,10 +943,10 @@
         <v>368</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1103,10 +1103,10 @@
         <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1391,10 +1391,10 @@
         <v>1</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1498,16 +1498,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>88890</v>
+        <v>18054</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1519,10 +1519,10 @@
         <v>368</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>89594</v>
+        <v>446220</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
@@ -1795,7 +1795,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
         <v>97</v>
@@ -1927,19 +1927,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
-        <v>446220</v>
+        <v>4914</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -1988,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="AP11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ11" s="1">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
         <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2111,10 +2111,10 @@
         <v>1</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
-        <v>4914</v>
+        <v>88890</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="1">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2399,10 +2399,10 @@
         <v>1</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2647,19 +2647,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2708,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="1">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
-        <v>165365057</v>
+        <v>156346345</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
-        <v>156346345</v>
+        <v>10836</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -2990,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
-        <v>4914</v>
+        <v>88890</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="1">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
-        <v>62300</v>
+        <v>165365057</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3247,10 +3247,10 @@
         <v>403</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
-        <v>88890</v>
+        <v>4914</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3551,10 +3551,10 @@
         <v>1</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="1">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -3655,19 +3655,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3679,10 +3679,10 @@
         <v>403</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
@@ -3695,10 +3695,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
@@ -3799,19 +3799,19 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="E24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" t="s">
-        <v>95</v>
       </c>
       <c r="G24" t="s">
         <v>97</v>
@@ -3823,10 +3823,10 @@
         <v>404</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="1">
         <v>0</v>
@@ -3860,10 +3860,10 @@
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="1">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
-        <v>119478</v>
+        <v>5462328</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
         <v>95</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4087,19 +4087,19 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
         <v>97</v>
@@ -4111,10 +4111,10 @@
         <v>404</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1">
         <v>0</v>
@@ -4231,16 +4231,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
         <v>95</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
@@ -4675,7 +4675,7 @@
         <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4807,19 +4807,19 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C31" s="1">
         <v>446220</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4951,19 +4951,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1">
         <v>165365057</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s">
         <v>97</v>
@@ -5095,19 +5095,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1">
-        <v>448223</v>
+        <v>446220</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s">
         <v>97</v>
@@ -5156,10 +5156,10 @@
         <v>0</v>
       </c>
       <c r="W33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" s="1">
         <v>0</v>
@@ -5239,16 +5239,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C34" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s">
         <v>95</v>
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" s="1">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="1">
         <v>0</v>
@@ -5383,16 +5383,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" t="s">
         <v>95</v>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="1">
         <v>0</v>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT35" s="1">
         <v>0</v>
@@ -5527,16 +5527,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1">
-        <v>4754</v>
+        <v>66924</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>
@@ -5645,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="1">
         <v>0</v>
@@ -5671,19 +5671,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C37" s="1">
-        <v>119478</v>
+        <v>5462328</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -5695,10 +5695,10 @@
         <v>488</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -5815,19 +5815,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -5839,10 +5839,10 @@
         <v>488</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -5855,10 +5855,10 @@
         <v>1</v>
       </c>
       <c r="P38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -5959,19 +5959,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C39" s="1">
-        <v>66924</v>
+        <v>119478</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -5983,10 +5983,10 @@
         <v>488</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6103,19 +6103,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C40" s="1">
-        <v>3345</v>
+        <v>243</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -6127,10 +6127,10 @@
         <v>488</v>
       </c>
       <c r="J40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
@@ -6143,10 +6143,10 @@
         <v>1</v>
       </c>
       <c r="P40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="1">
         <v>0</v>
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1">
-        <v>446220</v>
+        <v>4754</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6271,10 +6271,10 @@
         <v>488</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -6308,10 +6308,10 @@
         <v>0</v>
       </c>
       <c r="W41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="1">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ41" s="1">
         <v>0</v>
@@ -6394,7 +6394,7 @@
         <v>35</v>
       </c>
       <c r="C42" s="1">
-        <v>243</v>
+        <v>448223</v>
       </c>
       <c r="D42" t="s">
         <v>63</v>
@@ -6403,7 +6403,7 @@
         <v>87</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6415,10 +6415,10 @@
         <v>488</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6679,19 +6679,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C44" s="1">
-        <v>3821</v>
+        <v>4754</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6703,10 +6703,10 @@
         <v>494</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="1">
         <v>0</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ44" s="1">
         <v>0</v>
@@ -6823,19 +6823,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="1">
-        <v>5761</v>
+        <v>3821</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6911,10 +6911,10 @@
         <v>0</v>
       </c>
       <c r="AF45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH45" s="1">
         <v>0</v>
@@ -6967,19 +6967,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1">
-        <v>4754</v>
+        <v>5761</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -6991,10 +6991,10 @@
         <v>494</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="AP46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ46" s="1">
         <v>0</v>
@@ -7111,19 +7111,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" s="1">
         <v>10836</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7255,16 +7255,16 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C48" s="1">
         <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F48" t="s">
         <v>95</v>
@@ -7399,19 +7399,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C49" s="1">
-        <v>4754</v>
+        <v>88890</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7423,10 +7423,10 @@
         <v>513</v>
       </c>
       <c r="J49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ49" s="1">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="AS49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT49" s="1">
         <v>0</v>
@@ -7543,19 +7543,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C50" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D50" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E50" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F50" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7567,10 +7567,10 @@
         <v>513</v>
       </c>
       <c r="J50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -7598,10 +7598,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="AS50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT50" s="1">
         <v>0</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C51" s="1">
-        <v>10836</v>
+        <v>4754</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E51" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7742,10 +7742,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="AP51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ51" s="1">
         <v>0</v>
@@ -7843,7 +7843,7 @@
         <v>90</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C53" s="1">
-        <v>5462507</v>
+        <v>446220</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -7999,10 +7999,10 @@
         <v>525</v>
       </c>
       <c r="J53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y53" s="1">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="1">
         <v>0</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C54" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F54" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8143,10 +8143,10 @@
         <v>525</v>
       </c>
       <c r="J54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="1">
         <v>0</v>
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT54" s="1">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C55" s="1">
-        <v>5486550</v>
+        <v>5462507</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C56" s="1">
         <v>3345</v>
       </c>
       <c r="D56" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" t="s">
         <v>47</v>
-      </c>
-      <c r="E56" t="s">
-        <v>72</v>
-      </c>
-      <c r="F56" t="s">
-        <v>49</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C57" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D57" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E57" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8654,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57" s="1">
         <v>0</v>
@@ -8678,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C58" s="1">
-        <v>5462328</v>
+        <v>12107</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8839,19 +8839,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C59" s="1">
-        <v>12107</v>
+        <v>5486550</v>
       </c>
       <c r="D59" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E59" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -8960,13 +8960,13 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR59" s="1">
         <v>0</v>
       </c>
       <c r="AS59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT59" s="1">
         <v>0</v>
@@ -8995,7 +8995,7 @@
         <v>90</v>
       </c>
       <c r="F60" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E61" t="s">
         <v>74</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9167,10 +9167,10 @@
         <v>1</v>
       </c>
       <c r="P61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C62" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E62" t="s">
         <v>72</v>
       </c>
       <c r="F62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9311,10 +9311,10 @@
         <v>1</v>
       </c>
       <c r="P62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -9415,19 +9415,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C63" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E63" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G63" t="s">
         <v>97</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="1">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="AS63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT63" s="1">
         <v>0</v>
@@ -9559,19 +9559,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C64" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E64" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G64" t="s">
         <v>97</v>
@@ -9605,10 +9605,10 @@
         <v>0</v>
       </c>
       <c r="R64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" s="1">
         <v>0</v>
@@ -9686,7 +9686,7 @@
         <v>0</v>
       </c>
       <c r="AS64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT64" s="1">
         <v>0</v>
@@ -9703,16 +9703,16 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C65" s="1">
-        <v>62300</v>
+        <v>446220</v>
       </c>
       <c r="D65" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E65" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F65" t="s">
         <v>95</v>
@@ -9767,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="X65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y65" s="1">
         <v>0</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9847,19 +9847,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C66" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E66" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G66" t="s">
         <v>97</v>
@@ -9887,16 +9887,16 @@
         <v>1</v>
       </c>
       <c r="P66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66" s="1">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL66" s="1">
         <v>0</v>
@@ -9991,16 +9991,16 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C67" s="1">
-        <v>12107</v>
+        <v>5486550</v>
       </c>
       <c r="D67" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F67" t="s">
         <v>95</v>
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -10112,13 +10112,13 @@
         <v>0</v>
       </c>
       <c r="AQ67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR67" s="1">
         <v>0</v>
       </c>
       <c r="AS67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT67" s="1">
         <v>0</v>
@@ -10135,19 +10135,19 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C68" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D68" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E68" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F68" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G68" t="s">
         <v>97</v>
@@ -10159,10 +10159,10 @@
         <v>534</v>
       </c>
       <c r="J68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
@@ -10175,10 +10175,10 @@
         <v>1</v>
       </c>
       <c r="P68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" s="1">
         <v>0</v>
@@ -10279,19 +10279,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C69" s="1">
-        <v>5486550</v>
+        <v>21812144</v>
       </c>
       <c r="D69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E69" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F69" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -10303,10 +10303,10 @@
         <v>534</v>
       </c>
       <c r="J69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10400,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="AQ69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR69" s="1">
         <v>0</v>
@@ -10409,7 +10409,7 @@
         <v>0</v>
       </c>
       <c r="AT69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU69" s="1">
         <v>0</v>
@@ -10423,19 +10423,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C70" s="1">
-        <v>4914</v>
+        <v>5462328</v>
       </c>
       <c r="D70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F70" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G70" t="s">
         <v>97</v>
@@ -10447,10 +10447,10 @@
         <v>534</v>
       </c>
       <c r="J70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -10541,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="AP70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ70" s="1">
         <v>0</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C71" s="1">
-        <v>21812144</v>
+        <v>5462507</v>
       </c>
       <c r="D71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E71" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F71" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10591,10 +10591,10 @@
         <v>534</v>
       </c>
       <c r="J71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -10697,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="AT71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU71" s="1">
         <v>0</v>
@@ -10711,16 +10711,16 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C72" s="1">
-        <v>5462507</v>
+        <v>12107</v>
       </c>
       <c r="D72" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F72" t="s">
         <v>95</v>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="AS72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT72" s="1">
         <v>0</v>
@@ -10855,16 +10855,16 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C73" s="1">
-        <v>446220</v>
+        <v>4914</v>
       </c>
       <c r="D73" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E73" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F73" t="s">
         <v>95</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="X73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y73" s="1">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>0</v>
       </c>
       <c r="AP73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ73" s="1">
         <v>0</v>
@@ -10999,16 +10999,16 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C74" s="1">
-        <v>446220</v>
+        <v>156346345</v>
       </c>
       <c r="D74" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E74" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F74" t="s">
         <v>95</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y74" s="1">
         <v>0</v>
@@ -11126,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="AS74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT74" s="1">
         <v>0</v>
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C75" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D75" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E75" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="F75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11287,19 +11287,19 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C76" s="1">
         <v>3345</v>
       </c>
       <c r="D76" t="s">
+        <v>49</v>
+      </c>
+      <c r="E76" t="s">
+        <v>74</v>
+      </c>
+      <c r="F76" t="s">
         <v>47</v>
-      </c>
-      <c r="E76" t="s">
-        <v>72</v>
-      </c>
-      <c r="F76" t="s">
-        <v>49</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -11431,19 +11431,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C77" s="1">
-        <v>165365057</v>
+        <v>446220</v>
       </c>
       <c r="D77" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E77" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="F77" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11455,10 +11455,10 @@
         <v>535</v>
       </c>
       <c r="J77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y77" s="1">
         <v>0</v>
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="AS77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT77" s="1">
         <v>0</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C78" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D78" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E78" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F78" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -11599,10 +11599,10 @@
         <v>535</v>
       </c>
       <c r="J78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -63,37 +63,40 @@
     <t>nicotine</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>1-phenyl-1-propanamine</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
     <t>menthol</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>1-phenyl-1-propanamine</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
     <t>procaine</t>
   </si>
   <si>
+    <t>xylazine</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>xylazine</t>
+    <t>p-fluorofentanyl</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
@@ -102,27 +105,24 @@
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>p-fluorofentanyl</t>
+    <t>levamisole</t>
+  </si>
+  <si>
+    <t>quinine</t>
   </si>
   <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>levamisole</t>
-  </si>
-  <si>
-    <t>quinine</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
+    <t>benzoylecgonine (BZ)</t>
+  </si>
+  <si>
     <t>benzoic acid</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
@@ -150,63 +150,63 @@
     <t>54-11-5</t>
   </si>
   <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>2941-20-0</t>
+  </si>
+  <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
     <t>1490-04-6</t>
   </si>
   <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>2941-20-0</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
     <t>59-46-1</t>
   </si>
   <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
     <t>561-27-3</t>
   </si>
   <si>
-    <t>7361-61-7</t>
+    <t>90736-23-5</t>
   </si>
   <si>
     <t>537-46-2</t>
   </si>
   <si>
-    <t>90736-23-5</t>
+    <t>14769-73-4</t>
+  </si>
+  <si>
+    <t>72402-53-0</t>
   </si>
   <si>
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>14769-73-4</t>
-  </si>
-  <si>
-    <t>72402-53-0</t>
-  </si>
-  <si>
     <t>62-44-2</t>
   </si>
   <si>
+    <t>519-09-5</t>
+  </si>
+  <si>
     <t>65-85-0</t>
   </si>
   <si>
-    <t>519-09-5</t>
-  </si>
-  <si>
     <t>6740-88-1</t>
   </si>
   <si>
@@ -231,52 +231,52 @@
     <t>6M3C89ZY6R</t>
   </si>
   <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
     <t>4Z8Y51M438</t>
   </si>
   <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
     <t>70D95007SX</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
+    <t>I45R05QM0Z</t>
   </si>
   <si>
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
+    <t>2880D3468G</t>
+  </si>
+  <si>
+    <t>A7V27PHC7A</t>
   </si>
   <si>
     <t>58C337KP3E</t>
   </si>
   <si>
-    <t>2880D3468G</t>
-  </si>
-  <si>
-    <t>A7V27PHC7A</t>
-  </si>
-  <si>
     <t>ER0CTH01H9</t>
   </si>
   <si>
+    <t>5353I8I6YS</t>
+  </si>
+  <si>
     <t>8SKN0B0MIM</t>
-  </si>
-  <si>
-    <t>5353I8I6YS</t>
   </si>
   <si>
     <t>690G0D6V8H</t>
@@ -778,13 +778,13 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>1254</v>
+        <v>446220</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
         <v>95</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="1">
         <v>0</v>
@@ -922,16 +922,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>88890</v>
+        <v>66924</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1103,10 +1103,10 @@
         <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>12107</v>
+        <v>88890</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
         <v>97</v>
@@ -1231,10 +1231,10 @@
         <v>368</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>3345</v>
+        <v>18054</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1375,10 +1375,10 @@
         <v>368</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1391,10 +1391,10 @@
         <v>1</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="1">
         <v>0</v>
@@ -1498,13 +1498,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>18054</v>
+        <v>12107</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
         <v>95</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -1642,13 +1642,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>446220</v>
+        <v>1254</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
@@ -1786,16 +1786,16 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>66924</v>
+        <v>165365057</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
         <v>97</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -1927,19 +1927,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
-        <v>4914</v>
+        <v>3345</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -1967,10 +1967,10 @@
         <v>1</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="1">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="AP11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="1">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>5462328</v>
+        <v>4914</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="AP12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2261,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2399,10 +2399,10 @@
         <v>1</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2420,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2549,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="R15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -2647,19 +2647,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2708,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="1">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D17" t="s">
         <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2831,10 +2831,10 @@
         <v>1</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="1">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
-        <v>10836</v>
+        <v>4914</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -2990,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" s="1">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1">
-        <v>88890</v>
+        <v>62300</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3103,10 +3103,10 @@
         <v>403</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
-        <v>165365057</v>
+        <v>156346345</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1">
-        <v>4914</v>
+        <v>10836</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3422,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="1">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3551,10 +3551,10 @@
         <v>1</v>
       </c>
       <c r="P22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -3655,19 +3655,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3679,10 +3679,10 @@
         <v>403</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="1">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="1">
         <v>0</v>
@@ -3799,19 +3799,19 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1">
         <v>446220</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s">
         <v>97</v>
@@ -3943,16 +3943,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
-        <v>5462328</v>
+        <v>26879</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
         <v>95</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="1">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="AP25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ25" s="1">
         <v>0</v>
@@ -4087,16 +4087,16 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1">
-        <v>119478</v>
+        <v>3034034</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F26" t="s">
         <v>95</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26" s="1">
         <v>0</v>
@@ -4231,13 +4231,13 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1">
         <v>3345</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
         <v>74</v>
@@ -4375,16 +4375,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1">
-        <v>26879</v>
+        <v>119478</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="1">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="AP28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="1">
         <v>0</v>
@@ -4519,16 +4519,16 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
-        <v>3034034</v>
+        <v>5462328</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s">
         <v>95</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4663,19 +4663,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1">
-        <v>4754</v>
+        <v>446220</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="1">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="1">
         <v>0</v>
@@ -4807,19 +4807,19 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1">
-        <v>446220</v>
+        <v>4754</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4868,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="W31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="1">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ31" s="1">
         <v>0</v>
@@ -4951,19 +4951,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
-        <v>165365057</v>
+        <v>119478</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s">
         <v>97</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="1">
         <v>0</v>
@@ -5095,19 +5095,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1">
-        <v>446220</v>
+        <v>66924</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G33" t="s">
         <v>97</v>
@@ -5119,10 +5119,10 @@
         <v>488</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5156,10 +5156,10 @@
         <v>0</v>
       </c>
       <c r="W33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="1">
         <v>0</v>
@@ -5239,13 +5239,13 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C34" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
         <v>75</v>
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="1">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34" s="1">
         <v>0</v>
@@ -5383,19 +5383,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1">
-        <v>88890</v>
+        <v>448223</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -5407,10 +5407,10 @@
         <v>488</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="1">
         <v>0</v>
@@ -5527,19 +5527,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1">
-        <v>66924</v>
+        <v>3345</v>
       </c>
       <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" t="s">
         <v>52</v>
-      </c>
-      <c r="E36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" t="s">
-        <v>95</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -5551,10 +5551,10 @@
         <v>488</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -5567,10 +5567,10 @@
         <v>1</v>
       </c>
       <c r="P36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36" s="1">
         <v>0</v>
@@ -5671,16 +5671,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
-        <v>5462328</v>
+        <v>243</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s">
         <v>95</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -5815,19 +5815,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -5855,10 +5855,10 @@
         <v>1</v>
       </c>
       <c r="P38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT38" s="1">
         <v>0</v>
@@ -5959,19 +5959,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C39" s="1">
-        <v>119478</v>
+        <v>5462328</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -5983,10 +5983,10 @@
         <v>488</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6103,16 +6103,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1">
-        <v>243</v>
+        <v>4754</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F40" t="s">
         <v>95</v>
@@ -6221,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ40" s="1">
         <v>0</v>
@@ -6247,16 +6247,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C41" s="1">
-        <v>4754</v>
+        <v>5707</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
         <v>95</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="S41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" s="1">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="1">
         <v>0</v>
@@ -6391,19 +6391,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1">
-        <v>448223</v>
+        <v>446220</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6415,10 +6415,10 @@
         <v>488</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" s="1">
         <v>0</v>
@@ -6535,19 +6535,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C43" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s">
         <v>97</v>
@@ -6559,10 +6559,10 @@
         <v>488</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="S43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" s="1">
         <v>0</v>
@@ -6596,10 +6596,10 @@
         <v>0</v>
       </c>
       <c r="W43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43" s="1">
         <v>0</v>
@@ -6679,19 +6679,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1">
-        <v>4754</v>
+        <v>3821</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6703,10 +6703,10 @@
         <v>494</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH44" s="1">
         <v>0</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="1">
         <v>0</v>
@@ -6823,19 +6823,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1">
-        <v>3821</v>
+        <v>5761</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6911,10 +6911,10 @@
         <v>0</v>
       </c>
       <c r="AF45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH45" s="1">
         <v>0</v>
@@ -6967,19 +6967,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C46" s="1">
-        <v>5761</v>
+        <v>4754</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -6991,10 +6991,10 @@
         <v>494</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="AP46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ46" s="1">
         <v>0</v>
@@ -7111,19 +7111,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C47" s="1">
         <v>10836</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7255,13 +7255,13 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C48" s="1">
         <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E48" t="s">
         <v>74</v>
@@ -7399,16 +7399,16 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C49" s="1">
         <v>88890</v>
       </c>
       <c r="D49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s">
         <v>95</v>
@@ -7543,19 +7543,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C50" s="1">
-        <v>10836</v>
+        <v>4754</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E50" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7598,10 +7598,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ50" s="1">
         <v>0</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C51" s="1">
-        <v>4754</v>
+        <v>10836</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E51" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F51" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7742,10 +7742,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="AP51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ51" s="1">
         <v>0</v>
@@ -7843,7 +7843,7 @@
         <v>90</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C53" s="1">
-        <v>446220</v>
+        <v>5462507</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E53" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F53" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -7999,10 +7999,10 @@
         <v>525</v>
       </c>
       <c r="J53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="1">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="1">
         <v>0</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C54" s="1">
         <v>88890</v>
       </c>
       <c r="D54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E54" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C55" s="1">
-        <v>5462507</v>
+        <v>5462328</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E55" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F55" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C56" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F56" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8447,10 +8447,10 @@
         <v>1</v>
       </c>
       <c r="P56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" s="1">
         <v>0</v>
@@ -8510,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" s="1">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT56" s="1">
         <v>0</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C57" s="1">
-        <v>5462328</v>
+        <v>5486550</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E57" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F57" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8672,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR57" s="1">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C58" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F58" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8735,10 +8735,10 @@
         <v>1</v>
       </c>
       <c r="P58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8839,19 +8839,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C59" s="1">
-        <v>5486550</v>
+        <v>446220</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E59" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F59" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8863,10 +8863,10 @@
         <v>525</v>
       </c>
       <c r="J59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y59" s="1">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR59" s="1">
         <v>0</v>
@@ -8983,19 +8983,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C60" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E60" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="1">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ60" s="1">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C61" s="1">
         <v>3345</v>
       </c>
       <c r="D61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E61" t="s">
         <v>74</v>
       </c>
       <c r="F61" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C62" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D62" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F62" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z62" s="1">
         <v>0</v>
@@ -9389,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="AP62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ62" s="1">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -9415,19 +9415,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C63" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D63" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E63" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F63" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G63" t="s">
         <v>97</v>
@@ -9439,10 +9439,10 @@
         <v>534</v>
       </c>
       <c r="J63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -9559,19 +9559,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C64" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E64" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F64" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G64" t="s">
         <v>97</v>
@@ -9583,10 +9583,10 @@
         <v>534</v>
       </c>
       <c r="J64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -9605,10 +9605,10 @@
         <v>0</v>
       </c>
       <c r="R64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64" s="1">
         <v>0</v>
@@ -9623,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y64" s="1">
         <v>0</v>
@@ -9703,19 +9703,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C65" s="1">
-        <v>446220</v>
+        <v>21812144</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E65" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F65" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
@@ -9727,10 +9727,10 @@
         <v>534</v>
       </c>
       <c r="J65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -9767,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="X65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y65" s="1">
         <v>0</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="AT65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU65" s="1">
         <v>0</v>
@@ -9847,19 +9847,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C66" s="1">
-        <v>3345</v>
+        <v>5486550</v>
       </c>
       <c r="D66" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E66" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F66" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G66" t="s">
         <v>97</v>
@@ -9871,10 +9871,10 @@
         <v>534</v>
       </c>
       <c r="J66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -9887,10 +9887,10 @@
         <v>1</v>
       </c>
       <c r="P66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" s="1">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR66" s="1">
         <v>0</v>
@@ -9991,19 +9991,19 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C67" s="1">
-        <v>5486550</v>
+        <v>5707</v>
       </c>
       <c r="D67" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E67" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F67" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G67" t="s">
         <v>97</v>
@@ -10015,10 +10015,10 @@
         <v>534</v>
       </c>
       <c r="J67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -10037,10 +10037,10 @@
         <v>0</v>
       </c>
       <c r="R67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67" s="1">
         <v>0</v>
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="AQ67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR67" s="1">
         <v>0</v>
@@ -10135,19 +10135,19 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C68" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D68" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F68" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G68" t="s">
         <v>97</v>
@@ -10159,10 +10159,10 @@
         <v>534</v>
       </c>
       <c r="J68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
@@ -10175,10 +10175,10 @@
         <v>1</v>
       </c>
       <c r="P68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" s="1">
         <v>0</v>
@@ -10279,19 +10279,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C69" s="1">
-        <v>21812144</v>
+        <v>5462507</v>
       </c>
       <c r="D69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F69" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -10303,10 +10303,10 @@
         <v>534</v>
       </c>
       <c r="J69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10409,7 +10409,7 @@
         <v>0</v>
       </c>
       <c r="AT69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU69" s="1">
         <v>0</v>
@@ -10423,19 +10423,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C70" s="1">
         <v>5462328</v>
       </c>
       <c r="D70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E70" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F70" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G70" t="s">
         <v>97</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C71" s="1">
-        <v>5462507</v>
+        <v>88890</v>
       </c>
       <c r="D71" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10591,10 +10591,10 @@
         <v>534</v>
       </c>
       <c r="J71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="AS71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT71" s="1">
         <v>0</v>
@@ -10711,16 +10711,16 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C72" s="1">
-        <v>12107</v>
+        <v>4914</v>
       </c>
       <c r="D72" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E72" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F72" t="s">
         <v>95</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="AP72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ72" s="1">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="AS72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT72" s="1">
         <v>0</v>
@@ -10855,16 +10855,16 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C73" s="1">
-        <v>4914</v>
+        <v>62300</v>
       </c>
       <c r="D73" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E73" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F73" t="s">
         <v>95</v>
@@ -10958,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL73" s="1">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>0</v>
       </c>
       <c r="AP73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ73" s="1">
         <v>0</v>
@@ -10999,19 +10999,19 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C74" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F74" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
@@ -11023,10 +11023,10 @@
         <v>535</v>
       </c>
       <c r="J74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -11146,16 +11146,16 @@
         <v>18</v>
       </c>
       <c r="C75" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D75" t="s">
         <v>47</v>
       </c>
       <c r="E75" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11183,10 +11183,10 @@
         <v>1</v>
       </c>
       <c r="P75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" s="1">
         <v>0</v>
@@ -11246,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="AK75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL75" s="1">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="AS75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT75" s="1">
         <v>0</v>
@@ -11287,19 +11287,19 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C76" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D76" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E76" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F76" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -11327,10 +11327,10 @@
         <v>1</v>
       </c>
       <c r="P76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R76" s="1">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AK76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL76" s="1">
         <v>0</v>
@@ -11414,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="AS76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT76" s="1">
         <v>0</v>
@@ -11431,16 +11431,16 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C77" s="1">
-        <v>446220</v>
+        <v>156346345</v>
       </c>
       <c r="D77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E77" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F77" t="s">
         <v>95</v>
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y77" s="1">
         <v>0</v>
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="AS77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT77" s="1">
         <v>0</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C78" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E78" t="s">
         <v>72</v>
       </c>
       <c r="F78" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -11599,10 +11599,10 @@
         <v>535</v>
       </c>
       <c r="J78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y78" s="1">
         <v>0</v>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="AS78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT78" s="1">
         <v>0</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,60 +60,60 @@
     <t>substance</t>
   </si>
   <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>menthol</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>nicotine</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>1-phenyl-1-propanamine</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>menthol</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>xylazine</t>
   </si>
   <si>
     <t>procaine</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>heroin</t>
+    <t>ethyl-4-ANPP</t>
   </si>
   <si>
     <t>p-fluorofentanyl</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>quinine</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
     <t>levamisole</t>
   </si>
   <si>
-    <t>quinine</t>
-  </si>
-  <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
@@ -147,57 +147,57 @@
     <t>cas</t>
   </si>
   <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
+    <t>1490-04-6</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t>54-11-5</t>
   </si>
   <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
     <t>2941-20-0</t>
   </si>
   <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t>1490-04-6</t>
-  </si>
-  <si>
-    <t/>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
   </si>
   <si>
     <t>59-46-1</t>
   </si>
   <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
     <t>90736-23-5</t>
   </si>
   <si>
     <t>537-46-2</t>
   </si>
   <si>
+    <t>72402-53-0</t>
+  </si>
+  <si>
+    <t>43021-26-7</t>
+  </si>
+  <si>
     <t>14769-73-4</t>
   </si>
   <si>
-    <t>72402-53-0</t>
-  </si>
-  <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
     <t>62-44-2</t>
   </si>
   <si>
@@ -228,46 +228,46 @@
     <t>unii</t>
   </si>
   <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>6M3C89ZY6R</t>
   </si>
   <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UYP5ZQI00T</t>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
   </si>
   <si>
     <t>4Z8Y51M438</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
     <t>44RAL3456C</t>
   </si>
   <si>
+    <t>A7V27PHC7A</t>
+  </si>
+  <si>
+    <t>58C337KP3E</t>
+  </si>
+  <si>
     <t>2880D3468G</t>
-  </si>
-  <si>
-    <t>A7V27PHC7A</t>
-  </si>
-  <si>
-    <t>58C337KP3E</t>
   </si>
   <si>
     <t>ER0CTH01H9</t>
@@ -634,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>89594</v>
+        <v>12107</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>446220</v>
+        <v>1254</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
         <v>95</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="1">
         <v>0</v>
@@ -928,10 +928,10 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -1066,16 +1066,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1087,10 +1087,10 @@
         <v>368</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1103,10 +1103,10 @@
         <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
         <v>97</v>
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>18054</v>
+        <v>165365057</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1375,10 +1375,10 @@
         <v>368</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1498,16 +1498,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1519,10 +1519,10 @@
         <v>368</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1535,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -1642,13 +1642,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>1254</v>
+        <v>89594</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -1786,16 +1786,16 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>165365057</v>
+        <v>18054</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
         <v>97</v>
@@ -1807,10 +1807,10 @@
         <v>368</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -1927,19 +1927,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -1967,10 +1967,10 @@
         <v>1</v>
       </c>
       <c r="P11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
-        <v>4914</v>
+        <v>5707</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2117,10 +2117,10 @@
         <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="AP12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2261,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2399,10 +2399,10 @@
         <v>1</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2420,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="W14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2564,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="1">
-        <v>5462328</v>
+        <v>4914</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
@@ -2659,7 +2659,7 @@
         <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" s="1">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2831,10 +2831,10 @@
         <v>1</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="1">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
-        <v>4914</v>
+        <v>62300</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -2959,10 +2959,10 @@
         <v>403</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="1">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="1">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1">
-        <v>62300</v>
+        <v>10836</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3103,10 +3103,10 @@
         <v>403</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3134,10 +3134,10 @@
         <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="1">
         <v>0</v>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="P20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
-        <v>10836</v>
+        <v>4914</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3422,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="1">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <v>165365057</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3664,10 +3664,10 @@
         <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3799,19 +3799,19 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1">
         <v>446220</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
         <v>97</v>
@@ -3946,7 +3946,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="1">
-        <v>26879</v>
+        <v>3034034</v>
       </c>
       <c r="D25" t="s">
         <v>58</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="1">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>31</v>
       </c>
       <c r="C26" s="1">
-        <v>3034034</v>
+        <v>119478</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="1">
         <v>0</v>
@@ -4231,16 +4231,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1">
         <v>3345</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
         <v>95</v>
@@ -4375,16 +4375,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1">
-        <v>119478</v>
+        <v>5462328</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4519,16 +4519,16 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>5462328</v>
+        <v>26879</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
         <v>95</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="1">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4663,19 +4663,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C30" s="1">
         <v>446220</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4819,7 +4819,7 @@
         <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4951,19 +4951,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s">
         <v>97</v>
@@ -4975,10 +4975,10 @@
         <v>488</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="1">
         <v>0</v>
@@ -5095,16 +5095,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
-        <v>66924</v>
+        <v>4754</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F33" t="s">
         <v>95</v>
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="AP33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ33" s="1">
         <v>0</v>
@@ -5239,16 +5239,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C34" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s">
         <v>95</v>
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="1">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="1">
         <v>0</v>
@@ -5383,19 +5383,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1">
-        <v>448223</v>
+        <v>446220</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -5444,10 +5444,10 @@
         <v>0</v>
       </c>
       <c r="W35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" s="1">
         <v>0</v>
@@ -5527,19 +5527,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C36" s="1">
         <v>3345</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -5671,19 +5671,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
-        <v>243</v>
+        <v>448223</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -5695,10 +5695,10 @@
         <v>488</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -5815,19 +5815,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C38" s="1">
-        <v>165365057</v>
+        <v>5707</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -5839,10 +5839,10 @@
         <v>488</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -5864,10 +5864,10 @@
         <v>0</v>
       </c>
       <c r="S38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="1">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="1">
         <v>0</v>
@@ -5959,19 +5959,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1">
-        <v>5462328</v>
+        <v>165365057</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -5983,10 +5983,10 @@
         <v>488</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="AS39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT39" s="1">
         <v>0</v>
@@ -6103,16 +6103,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C40" s="1">
-        <v>4754</v>
+        <v>88890</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s">
         <v>95</v>
@@ -6221,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="1">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT40" s="1">
         <v>0</v>
@@ -6247,16 +6247,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1">
-        <v>5707</v>
+        <v>243</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
         <v>95</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="S41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" s="1">
         <v>0</v>
@@ -6391,13 +6391,13 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C42" s="1">
-        <v>446220</v>
+        <v>66924</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s">
         <v>72</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="1">
         <v>0</v>
@@ -6535,19 +6535,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C43" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E43" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G43" t="s">
         <v>97</v>
@@ -6596,10 +6596,10 @@
         <v>0</v>
       </c>
       <c r="W43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="1">
         <v>0</v>
@@ -6679,19 +6679,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C44" s="1">
-        <v>3821</v>
+        <v>4754</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6703,10 +6703,10 @@
         <v>494</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="1">
         <v>0</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ44" s="1">
         <v>0</v>
@@ -6823,19 +6823,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="1">
-        <v>5761</v>
+        <v>3821</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6911,10 +6911,10 @@
         <v>0</v>
       </c>
       <c r="AF45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH45" s="1">
         <v>0</v>
@@ -6967,19 +6967,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1">
-        <v>4754</v>
+        <v>5761</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -6991,10 +6991,10 @@
         <v>494</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="AP46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ46" s="1">
         <v>0</v>
@@ -7123,7 +7123,7 @@
         <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7255,16 +7255,16 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C48" s="1">
         <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s">
         <v>95</v>
@@ -7399,19 +7399,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C49" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7423,10 +7423,10 @@
         <v>513</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49" s="1">
         <v>0</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ49" s="1">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="AS49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="1">
         <v>0</v>
@@ -7555,7 +7555,7 @@
         <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C51" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7711,10 +7711,10 @@
         <v>513</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -7742,10 +7742,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT51" s="1">
         <v>0</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C52" s="1">
-        <v>2519</v>
+        <v>10836</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E52" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7886,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="U52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W52" s="1">
         <v>0</v>
@@ -7898,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="1">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ52" s="1">
         <v>0</v>
@@ -7987,7 +7987,7 @@
         <v>91</v>
       </c>
       <c r="F53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -8128,10 +8128,10 @@
         <v>48</v>
       </c>
       <c r="E54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C55" s="1">
-        <v>5462328</v>
+        <v>5486550</v>
       </c>
       <c r="D55" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E55" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F55" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C56" s="1">
-        <v>12107</v>
+        <v>446220</v>
       </c>
       <c r="D56" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F56" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8431,10 +8431,10 @@
         <v>525</v>
       </c>
       <c r="J56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56" s="1">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT56" s="1">
         <v>0</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C57" s="1">
-        <v>5486550</v>
+        <v>3345</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E57" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F57" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8591,10 +8591,10 @@
         <v>1</v>
       </c>
       <c r="P57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="1">
         <v>0</v>
@@ -8672,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR57" s="1">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C58" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E58" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8735,10 +8735,10 @@
         <v>1</v>
       </c>
       <c r="P58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -8839,19 +8839,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" s="1">
-        <v>446220</v>
+        <v>12107</v>
       </c>
       <c r="D59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F59" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8863,10 +8863,10 @@
         <v>525</v>
       </c>
       <c r="J59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="1">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT59" s="1">
         <v>0</v>
@@ -8983,19 +8983,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C60" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E60" t="s">
         <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9023,10 +9023,10 @@
         <v>1</v>
       </c>
       <c r="P60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="1">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C61" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D61" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F61" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9167,10 +9167,10 @@
         <v>1</v>
       </c>
       <c r="P61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z61" s="1">
         <v>0</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="AP61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ61" s="1">
         <v>0</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C62" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F62" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="1">
         <v>0</v>
@@ -9389,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="AP62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ62" s="1">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C63" s="1">
-        <v>12107</v>
+        <v>62300</v>
       </c>
       <c r="D63" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E63" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F63" t="s">
         <v>95</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL63" s="1">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="AS63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT63" s="1">
         <v>0</v>
@@ -9559,16 +9559,16 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C64" s="1">
         <v>446220</v>
       </c>
       <c r="D64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F64" t="s">
         <v>95</v>
@@ -9703,19 +9703,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C65" s="1">
-        <v>21812144</v>
+        <v>88890</v>
       </c>
       <c r="D65" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E65" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F65" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9830,10 +9830,10 @@
         <v>0</v>
       </c>
       <c r="AS65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU65" s="1">
         <v>0</v>
@@ -9991,19 +9991,19 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C67" s="1">
-        <v>5707</v>
+        <v>21812144</v>
       </c>
       <c r="D67" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E67" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F67" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G67" t="s">
         <v>97</v>
@@ -10037,10 +10037,10 @@
         <v>0</v>
       </c>
       <c r="R67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T67" s="1">
         <v>0</v>
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="AT67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU67" s="1">
         <v>0</v>
@@ -10135,19 +10135,19 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C68" s="1">
         <v>3345</v>
       </c>
       <c r="D68" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E68" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F68" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G68" t="s">
         <v>97</v>
@@ -10423,19 +10423,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C70" s="1">
-        <v>5462328</v>
+        <v>5707</v>
       </c>
       <c r="D70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F70" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G70" t="s">
         <v>97</v>
@@ -10469,10 +10469,10 @@
         <v>0</v>
       </c>
       <c r="R70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" s="1">
         <v>0</v>
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C71" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D71" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E71" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="AS71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT71" s="1">
         <v>0</v>
@@ -10711,16 +10711,16 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C72" s="1">
-        <v>4914</v>
+        <v>12107</v>
       </c>
       <c r="D72" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E72" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F72" t="s">
         <v>95</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="AP72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ72" s="1">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="AS72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT72" s="1">
         <v>0</v>
@@ -10855,16 +10855,16 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C73" s="1">
-        <v>62300</v>
+        <v>4914</v>
       </c>
       <c r="D73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F73" t="s">
         <v>95</v>
@@ -10958,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73" s="1">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>0</v>
       </c>
       <c r="AP73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ73" s="1">
         <v>0</v>
@@ -10999,19 +10999,19 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C74" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D74" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E74" t="s">
         <v>75</v>
       </c>
       <c r="F74" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
@@ -11039,10 +11039,10 @@
         <v>1</v>
       </c>
       <c r="P74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="1">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="AK74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL74" s="1">
         <v>0</v>
@@ -11126,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="AS74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT74" s="1">
         <v>0</v>
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C75" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E75" t="s">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11183,10 +11183,10 @@
         <v>1</v>
       </c>
       <c r="P75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" s="1">
         <v>0</v>
@@ -11246,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="AK75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL75" s="1">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="AS75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT75" s="1">
         <v>0</v>
@@ -11287,19 +11287,19 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C76" s="1">
-        <v>165365057</v>
+        <v>156346345</v>
       </c>
       <c r="D76" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E76" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -11311,10 +11311,10 @@
         <v>535</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -11431,16 +11431,16 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C77" s="1">
-        <v>156346345</v>
+        <v>446220</v>
       </c>
       <c r="D77" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E77" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="F77" t="s">
         <v>95</v>
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y77" s="1">
         <v>0</v>
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="AS77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT77" s="1">
         <v>0</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C78" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D78" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E78" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -11599,10 +11599,10 @@
         <v>535</v>
       </c>
       <c r="J78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y78" s="1">
         <v>0</v>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="AS78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT78" s="1">
         <v>0</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,30 +60,30 @@
     <t>substance</t>
   </si>
   <si>
+    <t>nicotine</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>menthol</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>menthol</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>nicotine</t>
-  </si>
-  <si>
     <t>1-phenyl-1-propanamine</t>
   </si>
   <si>
@@ -96,13 +96,16 @@
     <t>procaine</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
     <t>p-fluorofentanyl</t>
   </si>
   <si>
-    <t>methamphetamine</t>
+    <t>levamisole</t>
   </si>
   <si>
     <t>quinine</t>
@@ -111,33 +114,30 @@
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>levamisole</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
+    <t>benzoic acid</t>
+  </si>
+  <si>
     <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
-    <t>benzoic acid</t>
+    <t>lysergic acid diethylamide (LSD)</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>lysergic acid diethylamide (LSD)</t>
-  </si>
-  <si>
     <t>caffeine</t>
   </si>
   <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -147,30 +147,30 @@
     <t>cas</t>
   </si>
   <si>
+    <t>54-11-5</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>1490-04-6</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>620-71-3</t>
   </si>
   <si>
-    <t>1490-04-6</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>54-11-5</t>
-  </si>
-  <si>
     <t>2941-20-0</t>
   </si>
   <si>
@@ -183,10 +183,13 @@
     <t>59-46-1</t>
   </si>
   <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
     <t>90736-23-5</t>
   </si>
   <si>
-    <t>537-46-2</t>
+    <t>14769-73-4</t>
   </si>
   <si>
     <t>72402-53-0</t>
@@ -195,57 +198,54 @@
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>14769-73-4</t>
-  </si>
-  <si>
     <t>62-44-2</t>
   </si>
   <si>
+    <t>65-85-0</t>
+  </si>
+  <si>
     <t>519-09-5</t>
   </si>
   <si>
-    <t>65-85-0</t>
+    <t>50-37-3</t>
   </si>
   <si>
     <t>6740-88-1</t>
   </si>
   <si>
-    <t>50-37-3</t>
-  </si>
-  <si>
     <t>58-08-2</t>
   </si>
   <si>
+    <t>6703-27-1</t>
+  </si>
+  <si>
     <t>2784-73-8</t>
   </si>
   <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
     <t>unii</t>
   </si>
   <si>
+    <t>6M3C89ZY6R</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>6M3C89ZY6R</t>
-  </si>
-  <si>
     <t>70D95007SX</t>
   </si>
   <si>
@@ -255,10 +255,13 @@
     <t>4Z8Y51M438</t>
   </si>
   <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
-    <t>44RAL3456C</t>
+    <t>2880D3468G</t>
   </si>
   <si>
     <t>A7V27PHC7A</t>
@@ -267,31 +270,28 @@
     <t>58C337KP3E</t>
   </si>
   <si>
-    <t>2880D3468G</t>
-  </si>
-  <si>
     <t>ER0CTH01H9</t>
   </si>
   <si>
+    <t>8SKN0B0MIM</t>
+  </si>
+  <si>
     <t>5353I8I6YS</t>
   </si>
   <si>
-    <t>8SKN0B0MIM</t>
+    <t>8NA5SWF92O</t>
   </si>
   <si>
     <t>690G0D6V8H</t>
   </si>
   <si>
-    <t>8NA5SWF92O</t>
-  </si>
-  <si>
     <t>3G6A5W338E</t>
   </si>
   <si>
+    <t>U59401ETXH</t>
+  </si>
+  <si>
     <t>M5E47P1ZCH</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -634,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>12107</v>
+        <v>89594</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -778,16 +778,16 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>1254</v>
+        <v>66924</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>97</v>
@@ -799,10 +799,10 @@
         <v>368</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -922,16 +922,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>66924</v>
+        <v>1254</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -943,10 +943,10 @@
         <v>368</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1210,7 +1210,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -1219,7 +1219,7 @@
         <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
         <v>97</v>
@@ -1247,10 +1247,10 @@
         <v>1</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1498,16 +1498,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1535,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>89594</v>
+        <v>12107</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
         <v>95</v>
@@ -1939,7 +1939,7 @@
         <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2117,10 +2117,10 @@
         <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <v>88890</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
         <v>50</v>
-      </c>
-      <c r="E14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2399,16 +2399,16 @@
         <v>1</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2564,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="W15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2659,7 +2659,7 @@
         <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D17" t="s">
         <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2935,10 +2935,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
-        <v>62300</v>
+        <v>10836</v>
       </c>
       <c r="D18" t="s">
         <v>56</v>
@@ -2947,7 +2947,7 @@
         <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -2959,10 +2959,10 @@
         <v>403</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -2990,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="1">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1">
-        <v>10836</v>
+        <v>156346345</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3134,10 +3134,10 @@
         <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="1">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3226,16 +3226,16 @@
         <v>21</v>
       </c>
       <c r="C20" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D20" t="s">
         <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="P20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1">
-        <v>4914</v>
+        <v>62300</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3391,10 +3391,10 @@
         <v>403</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="1">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3551,10 +3551,10 @@
         <v>1</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -3655,19 +3655,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
-        <v>88890</v>
+        <v>4914</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="AP23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ23" s="1">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>0</v>
@@ -3799,19 +3799,19 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
-        <v>446220</v>
+        <v>26879</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
         <v>97</v>
@@ -3823,10 +3823,10 @@
         <v>404</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -3860,10 +3860,10 @@
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="1">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="1">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" s="1">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1">
-        <v>3034034</v>
+        <v>5462328</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
         <v>95</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="AP25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="1">
         <v>0</v>
@@ -4087,19 +4087,19 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s">
         <v>97</v>
@@ -4111,10 +4111,10 @@
         <v>404</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="1">
         <v>0</v>
@@ -4231,16 +4231,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1">
         <v>3345</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
         <v>95</v>
@@ -4375,16 +4375,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1">
-        <v>5462328</v>
+        <v>3034034</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="AP28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28" s="1">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>26879</v>
+        <v>119478</v>
       </c>
       <c r="D29" t="s">
         <v>60</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="1">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4663,19 +4663,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1">
-        <v>446220</v>
+        <v>4754</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="1">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30" s="1">
         <v>0</v>
@@ -4807,19 +4807,19 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C31" s="1">
-        <v>4754</v>
+        <v>446220</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4868,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="W31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="1">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="1">
         <v>0</v>
@@ -5095,16 +5095,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
-        <v>4754</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
         <v>95</v>
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="AP33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="1">
         <v>0</v>
@@ -5383,19 +5383,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C35" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -5407,10 +5407,10 @@
         <v>488</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5444,10 +5444,10 @@
         <v>0</v>
       </c>
       <c r="W35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="1">
         <v>0</v>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT35" s="1">
         <v>0</v>
@@ -5527,19 +5527,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1">
-        <v>3345</v>
+        <v>4754</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -5551,10 +5551,10 @@
         <v>488</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -5567,10 +5567,10 @@
         <v>1</v>
       </c>
       <c r="P36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="1">
         <v>0</v>
@@ -5645,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ36" s="1">
         <v>0</v>
@@ -5671,19 +5671,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>448223</v>
+        <v>446220</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -5732,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -5815,19 +5815,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1">
-        <v>5707</v>
+        <v>448223</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -5839,10 +5839,10 @@
         <v>488</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -5864,10 +5864,10 @@
         <v>0</v>
       </c>
       <c r="S38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="1">
         <v>0</v>
@@ -5959,19 +5959,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1">
-        <v>165365057</v>
+        <v>66924</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -5983,10 +5983,10 @@
         <v>488</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="AS39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="1">
         <v>0</v>
@@ -6103,19 +6103,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C40" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -6127,10 +6127,10 @@
         <v>488</v>
       </c>
       <c r="J40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C41" s="1">
-        <v>243</v>
+        <v>119478</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6271,10 +6271,10 @@
         <v>488</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -6391,19 +6391,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C42" s="1">
-        <v>66924</v>
+        <v>3345</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E42" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6415,10 +6415,10 @@
         <v>488</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6431,10 +6431,10 @@
         <v>1</v>
       </c>
       <c r="P42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="1">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -6535,19 +6535,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C43" s="1">
-        <v>119478</v>
+        <v>5707</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G43" t="s">
         <v>97</v>
@@ -6559,10 +6559,10 @@
         <v>488</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="S43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" s="1">
         <v>0</v>
@@ -6826,7 +6826,7 @@
         <v>36</v>
       </c>
       <c r="C45" s="1">
-        <v>3821</v>
+        <v>5761</v>
       </c>
       <c r="D45" t="s">
         <v>64</v>
@@ -6835,7 +6835,7 @@
         <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6911,10 +6911,10 @@
         <v>0</v>
       </c>
       <c r="AF45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH45" s="1">
         <v>0</v>
@@ -6970,7 +6970,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="1">
-        <v>5761</v>
+        <v>3821</v>
       </c>
       <c r="D46" t="s">
         <v>65</v>
@@ -6979,7 +6979,7 @@
         <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -7055,10 +7055,10 @@
         <v>0</v>
       </c>
       <c r="AF46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH46" s="1">
         <v>0</v>
@@ -7111,19 +7111,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C47" s="1">
         <v>10836</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7255,19 +7255,19 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C48" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D48" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>50</v>
-      </c>
-      <c r="E48" t="s">
-        <v>75</v>
-      </c>
-      <c r="F48" t="s">
-        <v>95</v>
       </c>
       <c r="G48" t="s">
         <v>97</v>
@@ -7279,10 +7279,10 @@
         <v>513</v>
       </c>
       <c r="J48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -7298,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z48" s="1">
         <v>0</v>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="AP48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ48" s="1">
         <v>0</v>
@@ -7399,19 +7399,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C49" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7423,10 +7423,10 @@
         <v>513</v>
       </c>
       <c r="J49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="1">
         <v>0</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ49" s="1">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="AS49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT49" s="1">
         <v>0</v>
@@ -7555,7 +7555,7 @@
         <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C51" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E51" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7711,10 +7711,10 @@
         <v>513</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -7742,10 +7742,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="1">
         <v>0</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C52" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7855,10 +7855,10 @@
         <v>513</v>
       </c>
       <c r="J52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
@@ -7886,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="U52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52" s="1">
         <v>0</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C53" s="1">
-        <v>5462507</v>
+        <v>446220</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -7999,10 +7999,10 @@
         <v>525</v>
       </c>
       <c r="J53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y53" s="1">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="1">
         <v>0</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C54" s="1">
-        <v>88890</v>
+        <v>5486550</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E54" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -8240,13 +8240,13 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR54" s="1">
         <v>0</v>
       </c>
       <c r="AS54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT54" s="1">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C55" s="1">
-        <v>5486550</v>
+        <v>12107</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E55" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
@@ -8384,13 +8384,13 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="1">
         <v>0</v>
       </c>
       <c r="AS55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C56" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F56" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8431,10 +8431,10 @@
         <v>525</v>
       </c>
       <c r="J56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -8447,10 +8447,10 @@
         <v>1</v>
       </c>
       <c r="P56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="1">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="1">
         <v>0</v>
@@ -8510,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL56" s="1">
         <v>0</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C57" s="1">
-        <v>3345</v>
+        <v>5462507</v>
       </c>
       <c r="D57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57" t="s">
         <v>50</v>
-      </c>
-      <c r="E57" t="s">
-        <v>75</v>
-      </c>
-      <c r="F57" t="s">
-        <v>49</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8591,10 +8591,10 @@
         <v>1</v>
       </c>
       <c r="P57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" s="1">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>77</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8839,19 +8839,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C59" s="1">
-        <v>12107</v>
+        <v>88890</v>
       </c>
       <c r="D59" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E59" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8983,19 +8983,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C60" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D60" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" t="s">
         <v>50</v>
-      </c>
-      <c r="E60" t="s">
-        <v>75</v>
-      </c>
-      <c r="F60" t="s">
-        <v>49</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9023,10 +9023,10 @@
         <v>1</v>
       </c>
       <c r="P60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" s="1">
         <v>0</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z60" s="1">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ60" s="1">
         <v>0</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C61" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E61" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9167,10 +9167,10 @@
         <v>1</v>
       </c>
       <c r="P61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="1">
         <v>0</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="AP61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ61" s="1">
         <v>0</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C62" s="1">
         <v>88890</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9415,16 +9415,16 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C63" s="1">
         <v>62300</v>
       </c>
       <c r="D63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F63" t="s">
         <v>95</v>
@@ -9559,16 +9559,16 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C64" s="1">
-        <v>446220</v>
+        <v>12107</v>
       </c>
       <c r="D64" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E64" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F64" t="s">
         <v>95</v>
@@ -9623,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="1">
         <v>0</v>
@@ -9686,7 +9686,7 @@
         <v>0</v>
       </c>
       <c r="AS64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT64" s="1">
         <v>0</v>
@@ -9703,19 +9703,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C65" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F65" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
@@ -9727,10 +9727,10 @@
         <v>534</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -9767,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="X65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y65" s="1">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="AS65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT65" s="1">
         <v>0</v>
@@ -9847,19 +9847,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C66" s="1">
-        <v>5486550</v>
+        <v>3345</v>
       </c>
       <c r="D66" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E66" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F66" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G66" t="s">
         <v>97</v>
@@ -9871,10 +9871,10 @@
         <v>534</v>
       </c>
       <c r="J66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -9887,10 +9887,10 @@
         <v>1</v>
       </c>
       <c r="P66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" s="1">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR66" s="1">
         <v>0</v>
@@ -9991,19 +9991,19 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C67" s="1">
-        <v>21812144</v>
+        <v>5462328</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E67" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G67" t="s">
         <v>97</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="AT67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU67" s="1">
         <v>0</v>
@@ -10135,19 +10135,19 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C68" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D68" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" t="s">
         <v>50</v>
-      </c>
-      <c r="E68" t="s">
-        <v>75</v>
-      </c>
-      <c r="F68" t="s">
-        <v>49</v>
       </c>
       <c r="G68" t="s">
         <v>97</v>
@@ -10175,16 +10175,16 @@
         <v>1</v>
       </c>
       <c r="P68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68" s="1">
         <v>0</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -10279,19 +10279,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C69" s="1">
-        <v>5462507</v>
+        <v>88890</v>
       </c>
       <c r="D69" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E69" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F69" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -10303,10 +10303,10 @@
         <v>534</v>
       </c>
       <c r="J69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="AK69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -10406,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="AS69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT69" s="1">
         <v>0</v>
@@ -10423,19 +10423,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C70" s="1">
-        <v>5707</v>
+        <v>5462507</v>
       </c>
       <c r="D70" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E70" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F70" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G70" t="s">
         <v>97</v>
@@ -10447,10 +10447,10 @@
         <v>534</v>
       </c>
       <c r="J70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -10469,10 +10469,10 @@
         <v>0</v>
       </c>
       <c r="R70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T70" s="1">
         <v>0</v>
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C71" s="1">
-        <v>5462328</v>
+        <v>4914</v>
       </c>
       <c r="D71" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E71" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F71" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10591,10 +10591,10 @@
         <v>534</v>
       </c>
       <c r="J71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="AP71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ71" s="1">
         <v>0</v>
@@ -10711,19 +10711,19 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C72" s="1">
-        <v>12107</v>
+        <v>21812144</v>
       </c>
       <c r="D72" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E72" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G72" t="s">
         <v>97</v>
@@ -10735,10 +10735,10 @@
         <v>534</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="AS72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU72" s="1">
         <v>0</v>
@@ -10855,16 +10855,16 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C73" s="1">
-        <v>4914</v>
+        <v>5486550</v>
       </c>
       <c r="D73" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E73" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F73" t="s">
         <v>95</v>
@@ -10958,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL73" s="1">
         <v>0</v>
@@ -10973,10 +10973,10 @@
         <v>0</v>
       </c>
       <c r="AP73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR73" s="1">
         <v>0</v>
@@ -10999,19 +10999,19 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C74" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D74" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E74" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
@@ -11023,10 +11023,10 @@
         <v>535</v>
       </c>
       <c r="J74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -11039,10 +11039,10 @@
         <v>1</v>
       </c>
       <c r="P74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74" s="1">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y74" s="1">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="AK74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL74" s="1">
         <v>0</v>
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C75" s="1">
         <v>88890</v>
       </c>
       <c r="D75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11287,16 +11287,16 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C76" s="1">
         <v>156346345</v>
       </c>
       <c r="D76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F76" t="s">
         <v>95</v>
@@ -11431,19 +11431,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C77" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D77" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E77" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="F77" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11455,10 +11455,10 @@
         <v>535</v>
       </c>
       <c r="J77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y77" s="1">
         <v>0</v>
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="AS77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT77" s="1">
         <v>0</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C78" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -11615,10 +11615,10 @@
         <v>1</v>
       </c>
       <c r="P78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" s="1">
         <v>0</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="AK78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL78" s="1">
         <v>0</v>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="AS78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT78" s="1">
         <v>0</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,84 +60,84 @@
     <t>substance</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>nicotine</t>
   </si>
   <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
+    <t>1-phenyl-1-propanamine</t>
+  </si>
+  <si>
     <t>menthol</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>1-phenyl-1-propanamine</t>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>procaine</t>
   </si>
   <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>procaine</t>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>ethyl-4-ANPP</t>
   </si>
   <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
+    <t>quinine</t>
   </si>
   <si>
     <t>levamisole</t>
   </si>
   <si>
-    <t>quinine</t>
-  </si>
-  <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
+    <t>benzoylecgonine (BZ)</t>
+  </si>
+  <si>
     <t>benzoic acid</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
+    <t>ketamine</t>
   </si>
   <si>
     <t>lysergic acid diethylamide (LSD)</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>caffeine</t>
   </si>
   <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -147,81 +147,81 @@
     <t>cas</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>54-11-5</t>
   </si>
   <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
     <t>105-70-4</t>
   </si>
   <si>
+    <t>2941-20-0</t>
+  </si>
+  <si>
     <t>1490-04-6</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t>50-36-2</t>
   </si>
   <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t>2941-20-0</t>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>59-46-1</t>
   </si>
   <si>
     <t>561-27-3</t>
   </si>
   <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>59-46-1</t>
+    <t>90736-23-5</t>
   </si>
   <si>
     <t>537-46-2</t>
   </si>
   <si>
-    <t>90736-23-5</t>
+    <t>43021-26-7</t>
+  </si>
+  <si>
+    <t>72402-53-0</t>
   </si>
   <si>
     <t>14769-73-4</t>
   </si>
   <si>
-    <t>72402-53-0</t>
-  </si>
-  <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
     <t>62-44-2</t>
   </si>
   <si>
+    <t>519-09-5</t>
+  </si>
+  <si>
     <t>65-85-0</t>
   </si>
   <si>
-    <t>519-09-5</t>
+    <t>6740-88-1</t>
   </si>
   <si>
     <t>50-37-3</t>
   </si>
   <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
     <t>58-08-2</t>
   </si>
   <si>
+    <t>2784-73-8</t>
+  </si>
+  <si>
     <t>6703-27-1</t>
   </si>
   <si>
-    <t>2784-73-8</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
@@ -231,67 +231,67 @@
     <t>6M3C89ZY6R</t>
   </si>
   <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UYP5ZQI00T</t>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>4Z8Y51M438</t>
   </si>
   <si>
     <t>70D95007SX</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>4Z8Y51M438</t>
+    <t>I45R05QM0Z</t>
   </si>
   <si>
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
+    <t>58C337KP3E</t>
+  </si>
+  <si>
+    <t>A7V27PHC7A</t>
   </si>
   <si>
     <t>2880D3468G</t>
   </si>
   <si>
-    <t>A7V27PHC7A</t>
-  </si>
-  <si>
-    <t>58C337KP3E</t>
-  </si>
-  <si>
     <t>ER0CTH01H9</t>
   </si>
   <si>
+    <t>5353I8I6YS</t>
+  </si>
+  <si>
     <t>8SKN0B0MIM</t>
   </si>
   <si>
-    <t>5353I8I6YS</t>
+    <t>690G0D6V8H</t>
   </si>
   <si>
     <t>8NA5SWF92O</t>
   </si>
   <si>
-    <t>690G0D6V8H</t>
-  </si>
-  <si>
     <t>3G6A5W338E</t>
   </si>
   <si>
+    <t>M5E47P1ZCH</t>
+  </si>
+  <si>
     <t>U59401ETXH</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>89594</v>
+        <v>165365057</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -655,10 +655,10 @@
         <v>368</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -778,16 +778,16 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>66924</v>
+        <v>89594</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
         <v>97</v>
@@ -799,10 +799,10 @@
         <v>368</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -922,13 +922,13 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>1254</v>
+        <v>12107</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
         <v>95</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>446220</v>
+        <v>66924</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
@@ -1075,7 +1075,7 @@
         <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1087,10 +1087,10 @@
         <v>368</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>3345</v>
+        <v>18054</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
         <v>97</v>
@@ -1231,10 +1231,10 @@
         <v>368</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1247,10 +1247,10 @@
         <v>1</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>88890</v>
+        <v>1254</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1375,10 +1375,10 @@
         <v>368</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1498,16 +1498,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1535,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -1642,16 +1642,16 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>12107</v>
+        <v>88890</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
         <v>97</v>
@@ -1663,10 +1663,10 @@
         <v>368</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1786,13 +1786,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>18054</v>
+        <v>446220</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
         <v>95</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -1930,7 +1930,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="1">
-        <v>5462328</v>
+        <v>5707</v>
       </c>
       <c r="D11" t="s">
         <v>53</v>
@@ -1939,7 +1939,7 @@
         <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="1">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1">
         <v>446220</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>88890</v>
+        <v>4914</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13" s="1">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2405,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="R14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14" s="1">
         <v>0</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
         <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
         <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2650,7 +2650,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="1">
-        <v>4914</v>
+        <v>5462328</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
@@ -2659,7 +2659,7 @@
         <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="1">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -2975,10 +2975,10 @@
         <v>1</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
@@ -2990,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="1">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1">
-        <v>156346345</v>
+        <v>62300</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3103,10 +3103,10 @@
         <v>403</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1">
-        <v>165365057</v>
+        <v>4914</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" s="1">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1">
-        <v>62300</v>
+        <v>156346345</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3391,10 +3391,10 @@
         <v>403</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="1">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3551,10 +3551,10 @@
         <v>1</v>
       </c>
       <c r="P22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -3655,19 +3655,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>4914</v>
+        <v>10836</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3710,10 +3710,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="1">
         <v>0</v>
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="AP23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="1">
         <v>0</v>
@@ -3799,19 +3799,19 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1">
-        <v>26879</v>
+        <v>446220</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
         <v>97</v>
@@ -3823,10 +3823,10 @@
         <v>404</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -3860,10 +3860,10 @@
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="1">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="1">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="1">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
-        <v>5462328</v>
+        <v>119478</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
         <v>95</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4087,19 +4087,19 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
         <v>97</v>
@@ -4111,10 +4111,10 @@
         <v>404</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1">
         <v>0</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="1">
         <v>0</v>
@@ -4231,16 +4231,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1">
-        <v>3345</v>
+        <v>3034034</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
         <v>95</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ27" s="1">
         <v>0</v>
@@ -4375,16 +4375,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1">
-        <v>3034034</v>
+        <v>26879</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="1">
         <v>0</v>
@@ -4519,16 +4519,16 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
-        <v>119478</v>
+        <v>5462328</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s">
         <v>95</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -4675,7 +4675,7 @@
         <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4684,7 +4684,7 @@
         <v>44845</v>
       </c>
       <c r="I30" s="1">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -4807,19 +4807,19 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C31" s="1">
         <v>446220</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4828,7 +4828,7 @@
         <v>44845</v>
       </c>
       <c r="I31" s="1">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -4951,19 +4951,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1">
         <v>446220</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s">
         <v>97</v>
@@ -4972,13 +4972,13 @@
         <v>44886</v>
       </c>
       <c r="I32" s="1">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" s="1">
         <v>1</v>
@@ -5098,7 +5098,7 @@
         <v>34</v>
       </c>
       <c r="C33" s="1">
-        <v>243</v>
+        <v>448223</v>
       </c>
       <c r="D33" t="s">
         <v>62</v>
@@ -5107,7 +5107,7 @@
         <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
         <v>97</v>
@@ -5116,13 +5116,13 @@
         <v>44886</v>
       </c>
       <c r="I33" s="1">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5239,16 +5239,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s">
         <v>95</v>
@@ -5260,7 +5260,7 @@
         <v>44886</v>
       </c>
       <c r="I34" s="1">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" s="1">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="1">
         <v>0</v>
@@ -5383,19 +5383,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -5404,13 +5404,13 @@
         <v>44886</v>
       </c>
       <c r="I35" s="1">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5423,10 +5423,10 @@
         <v>1</v>
       </c>
       <c r="P35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="1">
         <v>0</v>
@@ -5527,16 +5527,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1">
-        <v>4754</v>
+        <v>243</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>
@@ -5548,7 +5548,7 @@
         <v>44886</v>
       </c>
       <c r="I36" s="1">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -5645,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="1">
         <v>0</v>
@@ -5671,19 +5671,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C37" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -5692,13 +5692,13 @@
         <v>44886</v>
       </c>
       <c r="I37" s="1">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -5732,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -5815,19 +5815,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C38" s="1">
-        <v>448223</v>
+        <v>165365057</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -5836,7 +5836,7 @@
         <v>44886</v>
       </c>
       <c r="I38" s="1">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
@@ -5942,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT38" s="1">
         <v>0</v>
@@ -5959,16 +5959,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C39" s="1">
-        <v>66924</v>
+        <v>5707</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s">
         <v>95</v>
@@ -5980,7 +5980,7 @@
         <v>44886</v>
       </c>
       <c r="I39" s="1">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="J39" s="1">
         <v>0</v>
@@ -6008,10 +6008,10 @@
         <v>0</v>
       </c>
       <c r="S39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" s="1">
         <v>0</v>
@@ -6103,19 +6103,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1">
-        <v>165365057</v>
+        <v>66924</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -6124,13 +6124,13 @@
         <v>44886</v>
       </c>
       <c r="I40" s="1">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="J40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="1">
         <v>0</v>
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1">
         <v>119478</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6268,7 +6268,7 @@
         <v>44886</v>
       </c>
       <c r="I41" s="1">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -6391,19 +6391,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C42" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6412,13 +6412,13 @@
         <v>44886</v>
       </c>
       <c r="I42" s="1">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6431,10 +6431,10 @@
         <v>1</v>
       </c>
       <c r="P42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="1">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="AS42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT42" s="1">
         <v>0</v>
@@ -6535,16 +6535,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C43" s="1">
-        <v>5707</v>
+        <v>4754</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F43" t="s">
         <v>95</v>
@@ -6556,7 +6556,7 @@
         <v>44886</v>
       </c>
       <c r="I43" s="1">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="J43" s="1">
         <v>0</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="S43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" s="1">
         <v>0</v>
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="AP43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ43" s="1">
         <v>0</v>
@@ -6679,19 +6679,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1">
-        <v>4754</v>
+        <v>3821</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6700,13 +6700,13 @@
         <v>44897</v>
       </c>
       <c r="I44" s="1">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH44" s="1">
         <v>0</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="1">
         <v>0</v>
@@ -6823,19 +6823,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1">
         <v>5761</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6844,7 +6844,7 @@
         <v>44897</v>
       </c>
       <c r="I45" s="1">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -6967,19 +6967,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C46" s="1">
-        <v>3821</v>
+        <v>4754</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -6988,13 +6988,13 @@
         <v>44897</v>
       </c>
       <c r="I46" s="1">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7055,10 +7055,10 @@
         <v>0</v>
       </c>
       <c r="AF46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH46" s="1">
         <v>0</v>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="AP46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ46" s="1">
         <v>0</v>
@@ -7111,19 +7111,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C47" s="1">
         <v>10836</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7132,7 +7132,7 @@
         <v>44894</v>
       </c>
       <c r="I47" s="1">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -7255,19 +7255,19 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C48" s="1">
-        <v>2519</v>
+        <v>10836</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s">
         <v>97</v>
@@ -7276,7 +7276,7 @@
         <v>44896</v>
       </c>
       <c r="I48" s="1">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -7310,10 +7310,10 @@
         <v>0</v>
       </c>
       <c r="U48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W48" s="1">
         <v>0</v>
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="1">
         <v>0</v>
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="AP48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ48" s="1">
         <v>0</v>
@@ -7399,13 +7399,13 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C49" s="1">
         <v>88890</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E49" t="s">
         <v>75</v>
@@ -7420,7 +7420,7 @@
         <v>44896</v>
       </c>
       <c r="I49" s="1">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="J49" s="1">
         <v>0</v>
@@ -7543,19 +7543,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C50" s="1">
-        <v>4754</v>
+        <v>2519</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7564,7 +7564,7 @@
         <v>44896</v>
       </c>
       <c r="I50" s="1">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z50" s="1">
         <v>0</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C51" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D51" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7708,13 +7708,13 @@
         <v>44896</v>
       </c>
       <c r="I51" s="1">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="1">
         <v>0</v>
@@ -7742,10 +7742,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -7790,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL51" s="1">
         <v>0</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C52" s="1">
-        <v>3345</v>
+        <v>4754</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E52" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7852,13 +7852,13 @@
         <v>44896</v>
       </c>
       <c r="I52" s="1">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ52" s="1">
         <v>0</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C53" s="1">
-        <v>446220</v>
+        <v>5462507</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E53" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F53" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -7996,13 +7996,13 @@
         <v>44886</v>
       </c>
       <c r="I53" s="1">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="J53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="1">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="1">
         <v>0</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C54" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8140,7 +8140,7 @@
         <v>44886</v>
       </c>
       <c r="I54" s="1">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR54" s="1">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C55" s="1">
-        <v>12107</v>
+        <v>5486550</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E55" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F55" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8284,7 +8284,7 @@
         <v>44886</v>
       </c>
       <c r="I55" s="1">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
@@ -8384,13 +8384,13 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR55" s="1">
         <v>0</v>
       </c>
       <c r="AS55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C56" s="1">
         <v>3345</v>
       </c>
       <c r="D56" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E56" t="s">
         <v>74</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8428,7 +8428,7 @@
         <v>44886</v>
       </c>
       <c r="I56" s="1">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C57" s="1">
-        <v>5462507</v>
+        <v>446220</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8572,13 +8572,13 @@
         <v>44886</v>
       </c>
       <c r="I57" s="1">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="J57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y57" s="1">
         <v>0</v>
@@ -8654,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="1">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C58" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E58" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8716,7 +8716,7 @@
         <v>44886</v>
       </c>
       <c r="I58" s="1">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="J58" s="1">
         <v>1</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8839,19 +8839,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C59" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D59" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F59" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8860,7 +8860,7 @@
         <v>44886</v>
       </c>
       <c r="I59" s="1">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -8995,7 +8995,7 @@
         <v>90</v>
       </c>
       <c r="F60" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9004,7 +9004,7 @@
         <v>44886</v>
       </c>
       <c r="I60" s="1">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="J60" s="1">
         <v>1</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C61" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D61" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9148,7 +9148,7 @@
         <v>44886</v>
       </c>
       <c r="I61" s="1">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -9167,10 +9167,10 @@
         <v>1</v>
       </c>
       <c r="P61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C62" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F62" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9292,7 +9292,7 @@
         <v>44886</v>
       </c>
       <c r="I62" s="1">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -9311,10 +9311,10 @@
         <v>1</v>
       </c>
       <c r="P62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C63" s="1">
-        <v>62300</v>
+        <v>5486550</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E63" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F63" t="s">
         <v>95</v>
@@ -9436,7 +9436,7 @@
         <v>44886</v>
       </c>
       <c r="I63" s="1">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="J63" s="1">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR63" s="1">
         <v>0</v>
@@ -9559,19 +9559,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C64" s="1">
-        <v>12107</v>
+        <v>5707</v>
       </c>
       <c r="D64" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F64" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s">
         <v>97</v>
@@ -9580,13 +9580,13 @@
         <v>44886</v>
       </c>
       <c r="I64" s="1">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="J64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -9605,10 +9605,10 @@
         <v>0</v>
       </c>
       <c r="R64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" s="1">
         <v>0</v>
@@ -9686,7 +9686,7 @@
         <v>0</v>
       </c>
       <c r="AS64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT64" s="1">
         <v>0</v>
@@ -9703,19 +9703,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C65" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E65" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
@@ -9724,13 +9724,13 @@
         <v>44886</v>
       </c>
       <c r="I65" s="1">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="J65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -9767,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="X65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y65" s="1">
         <v>0</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9847,19 +9847,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C66" s="1">
-        <v>3345</v>
+        <v>21812144</v>
       </c>
       <c r="D66" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s">
         <v>97</v>
@@ -9868,7 +9868,7 @@
         <v>44886</v>
       </c>
       <c r="I66" s="1">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="J66" s="1">
         <v>1</v>
@@ -9887,10 +9887,10 @@
         <v>1</v>
       </c>
       <c r="P66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" s="1">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="AT66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU66" s="1">
         <v>0</v>
@@ -9991,19 +9991,19 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C67" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E67" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F67" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G67" t="s">
         <v>97</v>
@@ -10012,13 +10012,13 @@
         <v>44886</v>
       </c>
       <c r="I67" s="1">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="J67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -10135,19 +10135,19 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C68" s="1">
-        <v>5707</v>
+        <v>12107</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E68" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F68" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G68" t="s">
         <v>97</v>
@@ -10156,13 +10156,13 @@
         <v>44886</v>
       </c>
       <c r="I68" s="1">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="J68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
@@ -10181,10 +10181,10 @@
         <v>0</v>
       </c>
       <c r="R68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T68" s="1">
         <v>0</v>
@@ -10262,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT68" s="1">
         <v>0</v>
@@ -10279,19 +10279,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C69" s="1">
-        <v>88890</v>
+        <v>4914</v>
       </c>
       <c r="D69" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E69" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F69" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -10300,13 +10300,13 @@
         <v>44886</v>
       </c>
       <c r="I69" s="1">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="J69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10397,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="AP69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ69" s="1">
         <v>0</v>
@@ -10406,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="AS69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT69" s="1">
         <v>0</v>
@@ -10423,19 +10423,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C70" s="1">
-        <v>5462507</v>
+        <v>88890</v>
       </c>
       <c r="D70" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E70" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F70" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s">
         <v>97</v>
@@ -10444,13 +10444,13 @@
         <v>44886</v>
       </c>
       <c r="I70" s="1">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="J70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -10550,7 +10550,7 @@
         <v>0</v>
       </c>
       <c r="AS70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT70" s="1">
         <v>0</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C71" s="1">
-        <v>4914</v>
+        <v>3345</v>
       </c>
       <c r="D71" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E71" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10588,13 +10588,13 @@
         <v>44886</v>
       </c>
       <c r="I71" s="1">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="J71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -10607,10 +10607,10 @@
         <v>1</v>
       </c>
       <c r="P71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" s="1">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="AP71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ71" s="1">
         <v>0</v>
@@ -10711,19 +10711,19 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C72" s="1">
-        <v>21812144</v>
+        <v>446220</v>
       </c>
       <c r="D72" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="F72" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G72" t="s">
         <v>97</v>
@@ -10732,13 +10732,13 @@
         <v>44886</v>
       </c>
       <c r="I72" s="1">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="J72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y72" s="1">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="AT72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU72" s="1">
         <v>0</v>
@@ -10855,16 +10855,16 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C73" s="1">
-        <v>5486550</v>
+        <v>62300</v>
       </c>
       <c r="D73" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E73" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F73" t="s">
         <v>95</v>
@@ -10876,7 +10876,7 @@
         <v>44886</v>
       </c>
       <c r="I73" s="1">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="J73" s="1">
         <v>0</v>
@@ -10976,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="AQ73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR73" s="1">
         <v>0</v>
@@ -10999,16 +10999,16 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C74" s="1">
-        <v>446220</v>
+        <v>156346345</v>
       </c>
       <c r="D74" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E74" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
         <v>95</v>
@@ -11020,7 +11020,7 @@
         <v>44886</v>
       </c>
       <c r="I74" s="1">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="J74" s="1">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y74" s="1">
         <v>0</v>
@@ -11126,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="AS74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT74" s="1">
         <v>0</v>
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C75" s="1">
         <v>88890</v>
       </c>
       <c r="D75" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E75" t="s">
         <v>75</v>
       </c>
       <c r="F75" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11164,7 +11164,7 @@
         <v>44886</v>
       </c>
       <c r="I75" s="1">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="J75" s="1">
         <v>1</v>
@@ -11287,19 +11287,19 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C76" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D76" t="s">
         <v>50</v>
       </c>
       <c r="E76" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -11308,13 +11308,13 @@
         <v>44886</v>
       </c>
       <c r="I76" s="1">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="J76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -11327,10 +11327,10 @@
         <v>1</v>
       </c>
       <c r="P76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76" s="1">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AK76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL76" s="1">
         <v>0</v>
@@ -11414,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="AS76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT76" s="1">
         <v>0</v>
@@ -11431,19 +11431,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C77" s="1">
-        <v>165365057</v>
+        <v>446220</v>
       </c>
       <c r="D77" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E77" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11452,13 +11452,13 @@
         <v>44886</v>
       </c>
       <c r="I77" s="1">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="J77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y77" s="1">
         <v>0</v>
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="AS77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT77" s="1">
         <v>0</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C78" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D78" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E78" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -11596,7 +11596,7 @@
         <v>44886</v>
       </c>
       <c r="I78" s="1">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="J78" s="1">
         <v>1</v>
@@ -11615,10 +11615,10 @@
         <v>1</v>
       </c>
       <c r="P78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78" s="1">
         <v>0</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="AK78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL78" s="1">
         <v>0</v>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="AS78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT78" s="1">
         <v>0</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,49 +60,52 @@
     <t>substance</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>menthol</t>
+  </si>
+  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
     <t>nicotine</t>
   </si>
   <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>1-phenyl-1-propanamine</t>
+  </si>
+  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>1-phenyl-1-propanamine</t>
-  </si>
-  <si>
-    <t>menthol</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
+    <t>cocaine</t>
   </si>
   <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>cocaine</t>
+    <t>procaine</t>
   </si>
   <si>
     <t>xylazine</t>
   </si>
   <si>
-    <t>procaine</t>
-  </si>
-  <si>
     <t>heroin</t>
   </si>
   <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>p-fluorofentanyl</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
+    <t>levamisole</t>
   </si>
   <si>
     <t>methyl ecgonidine (MED)</t>
@@ -111,33 +114,30 @@
     <t>quinine</t>
   </si>
   <si>
-    <t>levamisole</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
+    <t>benzoic acid</t>
+  </si>
+  <si>
     <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
-    <t>benzoic acid</t>
+    <t>lysergic acid diethylamide (LSD)</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>lysergic acid diethylamide (LSD)</t>
-  </si>
-  <si>
     <t>caffeine</t>
   </si>
   <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -147,46 +147,49 @@
     <t>cas</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>1490-04-6</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t>54-11-5</t>
   </si>
   <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>2941-20-0</t>
+  </si>
+  <si>
     <t>620-71-3</t>
   </si>
   <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>2941-20-0</t>
-  </si>
-  <si>
-    <t>1490-04-6</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
+    <t>50-36-2</t>
   </si>
   <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t>50-36-2</t>
+    <t>59-46-1</t>
   </si>
   <si>
     <t>7361-61-7</t>
   </si>
   <si>
-    <t>59-46-1</t>
-  </si>
-  <si>
     <t>561-27-3</t>
   </si>
   <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
     <t>90736-23-5</t>
   </si>
   <si>
-    <t>537-46-2</t>
+    <t>14769-73-4</t>
   </si>
   <si>
     <t>43021-26-7</t>
@@ -195,70 +198,70 @@
     <t>72402-53-0</t>
   </si>
   <si>
-    <t>14769-73-4</t>
-  </si>
-  <si>
     <t>62-44-2</t>
   </si>
   <si>
+    <t>65-85-0</t>
+  </si>
+  <si>
     <t>519-09-5</t>
   </si>
   <si>
-    <t>65-85-0</t>
+    <t>50-37-3</t>
   </si>
   <si>
     <t>6740-88-1</t>
   </si>
   <si>
-    <t>50-37-3</t>
-  </si>
-  <si>
     <t>58-08-2</t>
   </si>
   <si>
+    <t>6703-27-1</t>
+  </si>
+  <si>
     <t>2784-73-8</t>
   </si>
   <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
     <t>unii</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>6M3C89ZY6R</t>
   </si>
   <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
+    <t>I5Y540LHVR</t>
   </si>
   <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>I5Y540LHVR</t>
+    <t>4Z8Y51M438</t>
   </si>
   <si>
     <t>2KFG9TP5V8</t>
   </si>
   <si>
-    <t>4Z8Y51M438</t>
-  </si>
-  <si>
     <t>70D95007SX</t>
   </si>
   <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
-    <t>44RAL3456C</t>
+    <t>2880D3468G</t>
   </si>
   <si>
     <t>58C337KP3E</t>
@@ -267,31 +270,28 @@
     <t>A7V27PHC7A</t>
   </si>
   <si>
-    <t>2880D3468G</t>
-  </si>
-  <si>
     <t>ER0CTH01H9</t>
   </si>
   <si>
+    <t>8SKN0B0MIM</t>
+  </si>
+  <si>
     <t>5353I8I6YS</t>
   </si>
   <si>
-    <t>8SKN0B0MIM</t>
+    <t>8NA5SWF92O</t>
   </si>
   <si>
     <t>690G0D6V8H</t>
   </si>
   <si>
-    <t>8NA5SWF92O</t>
-  </si>
-  <si>
     <t>3G6A5W338E</t>
   </si>
   <si>
+    <t>U59401ETXH</t>
+  </si>
+  <si>
     <t>M5E47P1ZCH</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -671,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2" s="1">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>89594</v>
+        <v>1254</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
         <v>95</v>
@@ -922,16 +922,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>12107</v>
+        <v>165365057</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -943,10 +943,10 @@
         <v>368</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1066,16 +1066,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>66924</v>
+        <v>89594</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1087,10 +1087,10 @@
         <v>368</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1210,16 +1210,16 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>18054</v>
+        <v>66924</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
         <v>97</v>
@@ -1231,10 +1231,10 @@
         <v>368</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1354,13 +1354,13 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>1254</v>
+        <v>18054</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
         <v>95</v>
@@ -1498,7 +1498,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
@@ -1507,7 +1507,7 @@
         <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1519,10 +1519,10 @@
         <v>368</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1535,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
@@ -1651,7 +1651,7 @@
         <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
         <v>97</v>
@@ -1663,10 +1663,10 @@
         <v>368</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
@@ -1795,7 +1795,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
         <v>97</v>
@@ -1807,10 +1807,10 @@
         <v>368</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -1927,19 +1927,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>446220</v>
+        <v>4914</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
         <v>0</v>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="AP12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ12" s="1">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>4914</v>
+        <v>5707</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -2227,7 +2227,7 @@
         <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2261,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="1">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2399,10 +2399,10 @@
         <v>1</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>0</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2647,19 +2647,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2708,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="1">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
         <v>165365057</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
         <v>3345</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3103,10 +3103,10 @@
         <v>403</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
         <v>4914</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
         <v>156346345</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="1">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>10836</v>
+        <v>62300</v>
       </c>
       <c r="D23" t="s">
         <v>57</v>
@@ -3667,7 +3667,7 @@
         <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3679,10 +3679,10 @@
         <v>403</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
@@ -3710,10 +3710,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="1">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23" s="1">
         <v>0</v>
@@ -3799,19 +3799,19 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
-        <v>446220</v>
+        <v>26879</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
         <v>97</v>
@@ -3823,10 +3823,10 @@
         <v>404</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -3860,10 +3860,10 @@
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="1">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="1">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" s="1">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1">
         <v>119478</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
         <v>95</v>
@@ -4087,16 +4087,16 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1">
         <v>3345</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s">
         <v>95</v>
@@ -4231,16 +4231,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1">
         <v>3034034</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
         <v>95</v>
@@ -4375,19 +4375,19 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
-        <v>26879</v>
+        <v>446220</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
         <v>97</v>
@@ -4399,10 +4399,10 @@
         <v>404</v>
       </c>
       <c r="J28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
@@ -4436,10 +4436,10 @@
         <v>0</v>
       </c>
       <c r="W28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="1">
         <v>0</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="1">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="AP28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="1">
         <v>0</v>
@@ -4675,7 +4675,7 @@
         <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4807,19 +4807,19 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="1">
         <v>446220</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4954,7 +4954,7 @@
         <v>23</v>
       </c>
       <c r="C32" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D32" t="s">
         <v>52</v>
@@ -4963,7 +4963,7 @@
         <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s">
         <v>97</v>
@@ -4975,10 +4975,10 @@
         <v>493</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5012,10 +5012,10 @@
         <v>0</v>
       </c>
       <c r="W32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="1">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32" s="1">
         <v>0</v>
@@ -5098,7 +5098,7 @@
         <v>34</v>
       </c>
       <c r="C33" s="1">
-        <v>448223</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
         <v>62</v>
@@ -5107,7 +5107,7 @@
         <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G33" t="s">
         <v>97</v>
@@ -5119,10 +5119,10 @@
         <v>493</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5239,16 +5239,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C34" s="1">
-        <v>446220</v>
+        <v>66924</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s">
         <v>95</v>
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="1">
         <v>0</v>
@@ -5383,19 +5383,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C35" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -5407,10 +5407,10 @@
         <v>493</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5423,10 +5423,10 @@
         <v>1</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" s="1">
         <v>0</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -5527,16 +5527,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C36" s="1">
-        <v>243</v>
+        <v>5707</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>
@@ -5576,10 +5576,10 @@
         <v>0</v>
       </c>
       <c r="S36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" s="1">
         <v>0</v>
@@ -5671,19 +5671,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C37" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -5695,10 +5695,10 @@
         <v>493</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -5732,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -5815,19 +5815,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C38" s="1">
-        <v>165365057</v>
+        <v>5462328</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -5839,10 +5839,10 @@
         <v>493</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="1">
         <v>0</v>
@@ -5959,16 +5959,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C39" s="1">
-        <v>5707</v>
+        <v>4754</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F39" t="s">
         <v>95</v>
@@ -6008,10 +6008,10 @@
         <v>0</v>
       </c>
       <c r="S39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="1">
         <v>0</v>
@@ -6077,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="AP39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ39" s="1">
         <v>0</v>
@@ -6103,19 +6103,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1">
-        <v>66924</v>
+        <v>165365057</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -6127,10 +6127,10 @@
         <v>493</v>
       </c>
       <c r="J40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT40" s="1">
         <v>0</v>
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1">
-        <v>119478</v>
+        <v>448223</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6391,19 +6391,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C42" s="1">
-        <v>88890</v>
+        <v>119478</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6415,10 +6415,10 @@
         <v>493</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="AS42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="1">
         <v>0</v>
@@ -6535,19 +6535,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C43" s="1">
-        <v>4754</v>
+        <v>3345</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G43" t="s">
         <v>97</v>
@@ -6559,10 +6559,10 @@
         <v>493</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -6575,10 +6575,10 @@
         <v>1</v>
       </c>
       <c r="P43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="1">
         <v>0</v>
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="AP43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="1">
         <v>0</v>
@@ -6679,19 +6679,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C44" s="1">
-        <v>3821</v>
+        <v>4754</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6703,10 +6703,10 @@
         <v>499</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="1">
         <v>0</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ44" s="1">
         <v>0</v>
@@ -6823,19 +6823,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="1">
         <v>5761</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6967,19 +6967,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1">
-        <v>4754</v>
+        <v>3821</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -6991,10 +6991,10 @@
         <v>499</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7055,10 +7055,10 @@
         <v>0</v>
       </c>
       <c r="AF46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH46" s="1">
         <v>0</v>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="AP46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ46" s="1">
         <v>0</v>
@@ -7111,19 +7111,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" s="1">
         <v>10836</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7255,19 +7255,19 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C48" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G48" t="s">
         <v>97</v>
@@ -7279,10 +7279,10 @@
         <v>518</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -7310,10 +7310,10 @@
         <v>0</v>
       </c>
       <c r="U48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W48" s="1">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="AS48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT48" s="1">
         <v>0</v>
@@ -7399,19 +7399,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C49" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7423,10 +7423,10 @@
         <v>518</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49" s="1">
         <v>0</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ49" s="1">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="AS49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="1">
         <v>0</v>
@@ -7543,19 +7543,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C50" s="1">
-        <v>2519</v>
+        <v>4754</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E50" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="1">
         <v>0</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C51" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D51" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E51" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7711,10 +7711,10 @@
         <v>518</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" s="1">
         <v>0</v>
@@ -7742,10 +7742,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -7790,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51" s="1">
         <v>0</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C52" s="1">
-        <v>4754</v>
+        <v>3345</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E52" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7855,10 +7855,10 @@
         <v>518</v>
       </c>
       <c r="J52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ52" s="1">
         <v>0</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C53" s="1">
-        <v>5462507</v>
+        <v>88890</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="1">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT53" s="1">
         <v>0</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C54" s="1">
-        <v>5462328</v>
+        <v>5486550</v>
       </c>
       <c r="D54" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E54" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR54" s="1">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C55" s="1">
-        <v>5486550</v>
+        <v>446220</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E55" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8287,10 +8287,10 @@
         <v>530</v>
       </c>
       <c r="J55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y55" s="1">
         <v>0</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C56" s="1">
         <v>3345</v>
       </c>
       <c r="D56" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E56" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C57" s="1">
-        <v>446220</v>
+        <v>12107</v>
       </c>
       <c r="D57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F57" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8575,10 +8575,10 @@
         <v>530</v>
       </c>
       <c r="J57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="1">
         <v>0</v>
@@ -8678,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C58" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D58" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E58" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8839,19 +8839,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C59" s="1">
-        <v>12107</v>
+        <v>5462328</v>
       </c>
       <c r="D59" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" t="s">
         <v>46</v>
-      </c>
-      <c r="E59" t="s">
-        <v>72</v>
-      </c>
-      <c r="F59" t="s">
-        <v>44</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT59" s="1">
         <v>0</v>
@@ -8983,19 +8983,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C60" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="1">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ60" s="1">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C61" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F61" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z61" s="1">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="AP61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ61" s="1">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C62" s="1">
         <v>3345</v>
       </c>
       <c r="D62" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E62" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9415,19 +9415,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C63" s="1">
-        <v>5486550</v>
+        <v>21812144</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E63" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F63" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G63" t="s">
         <v>97</v>
@@ -9439,10 +9439,10 @@
         <v>539</v>
       </c>
       <c r="J63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR63" s="1">
         <v>0</v>
@@ -9545,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU63" s="1">
         <v>0</v>
@@ -9559,19 +9559,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C64" s="1">
         <v>5707</v>
       </c>
       <c r="D64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G64" t="s">
         <v>97</v>
@@ -9703,19 +9703,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C65" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E65" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
@@ -9727,10 +9727,10 @@
         <v>539</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -9767,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="X65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y65" s="1">
         <v>0</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9847,19 +9847,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C66" s="1">
-        <v>21812144</v>
+        <v>4914</v>
       </c>
       <c r="D66" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E66" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G66" t="s">
         <v>97</v>
@@ -9871,10 +9871,10 @@
         <v>539</v>
       </c>
       <c r="J66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66" s="1">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="AP66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ66" s="1">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="AT66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU66" s="1">
         <v>0</v>
@@ -9991,16 +9991,16 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C67" s="1">
         <v>5462507</v>
       </c>
       <c r="D67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F67" t="s">
         <v>95</v>
@@ -10135,19 +10135,19 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C68" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" t="s">
         <v>46</v>
-      </c>
-      <c r="E68" t="s">
-        <v>72</v>
-      </c>
-      <c r="F68" t="s">
-        <v>95</v>
       </c>
       <c r="G68" t="s">
         <v>97</v>
@@ -10159,10 +10159,10 @@
         <v>539</v>
       </c>
       <c r="J68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
@@ -10175,10 +10175,10 @@
         <v>1</v>
       </c>
       <c r="P68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" s="1">
         <v>0</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -10262,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="1">
         <v>0</v>
@@ -10279,19 +10279,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C69" s="1">
-        <v>4914</v>
+        <v>88890</v>
       </c>
       <c r="D69" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E69" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F69" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -10303,10 +10303,10 @@
         <v>539</v>
       </c>
       <c r="J69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10397,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="AP69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ69" s="1">
         <v>0</v>
@@ -10406,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="AS69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT69" s="1">
         <v>0</v>
@@ -10423,19 +10423,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C70" s="1">
-        <v>88890</v>
+        <v>62300</v>
       </c>
       <c r="D70" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E70" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G70" t="s">
         <v>97</v>
@@ -10447,10 +10447,10 @@
         <v>539</v>
       </c>
       <c r="J70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -10550,7 +10550,7 @@
         <v>0</v>
       </c>
       <c r="AS70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT70" s="1">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>21</v>
       </c>
       <c r="C71" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D71" t="s">
         <v>50</v>
@@ -10579,7 +10579,7 @@
         <v>74</v>
       </c>
       <c r="F71" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10591,10 +10591,10 @@
         <v>539</v>
       </c>
       <c r="J71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -10607,10 +10607,10 @@
         <v>1</v>
       </c>
       <c r="P71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" s="1">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="AS71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT71" s="1">
         <v>0</v>
@@ -10711,16 +10711,16 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C72" s="1">
-        <v>446220</v>
+        <v>5486550</v>
       </c>
       <c r="D72" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E72" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F72" t="s">
         <v>95</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y72" s="1">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="AQ72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR72" s="1">
         <v>0</v>
@@ -10855,19 +10855,19 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C73" s="1">
-        <v>62300</v>
+        <v>5462328</v>
       </c>
       <c r="D73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F73" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G73" t="s">
         <v>97</v>
@@ -10879,10 +10879,10 @@
         <v>539</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -10999,16 +10999,16 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C74" s="1">
         <v>156346345</v>
       </c>
       <c r="D74" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F74" t="s">
         <v>95</v>
@@ -11146,7 +11146,7 @@
         <v>22</v>
       </c>
       <c r="C75" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D75" t="s">
         <v>51</v>
@@ -11155,7 +11155,7 @@
         <v>75</v>
       </c>
       <c r="F75" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11167,10 +11167,10 @@
         <v>540</v>
       </c>
       <c r="J75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y75" s="1">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="AS75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT75" s="1">
         <v>0</v>
@@ -11287,19 +11287,19 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C76" s="1">
         <v>3345</v>
       </c>
       <c r="D76" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E76" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -11434,7 +11434,7 @@
         <v>23</v>
       </c>
       <c r="C77" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D77" t="s">
         <v>52</v>
@@ -11443,7 +11443,7 @@
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11455,10 +11455,10 @@
         <v>540</v>
       </c>
       <c r="J77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y77" s="1">
         <v>0</v>
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="AS77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT77" s="1">
         <v>0</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C78" s="1">
         <v>165365057</v>
       </c>
       <c r="D78" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F78" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,30 +60,30 @@
     <t>substance</t>
   </si>
   <si>
+    <t>1-phenyl-1-propanamine</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>nicotine</t>
+  </si>
+  <si>
     <t>menthol</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>nicotine</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>1-phenyl-1-propanamine</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
     <t>4-ANPP</t>
   </si>
   <si>
@@ -99,36 +99,36 @@
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>p-fluorofentanyl</t>
+    <t>quinine</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
     <t>levamisole</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
-    <t>quinine</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
+    <t>benzoylecgonine (BZ)</t>
+  </si>
+  <si>
     <t>benzoic acid</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
+    <t>ketamine</t>
   </si>
   <si>
     <t>lysergic acid diethylamide (LSD)</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>caffeine</t>
   </si>
   <si>
@@ -147,30 +147,30 @@
     <t>cas</t>
   </si>
   <si>
+    <t>2941-20-0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>54-11-5</t>
+  </si>
+  <si>
     <t>1490-04-6</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>54-11-5</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>2941-20-0</t>
-  </si>
-  <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
     <t>21409-26-7</t>
   </si>
   <si>
@@ -183,36 +183,36 @@
     <t>561-27-3</t>
   </si>
   <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
     <t>537-46-2</t>
   </si>
   <si>
-    <t>90736-23-5</t>
+    <t>72402-53-0</t>
+  </si>
+  <si>
+    <t>43021-26-7</t>
   </si>
   <si>
     <t>14769-73-4</t>
   </si>
   <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
-    <t>72402-53-0</t>
-  </si>
-  <si>
     <t>62-44-2</t>
   </si>
   <si>
+    <t>519-09-5</t>
+  </si>
+  <si>
     <t>65-85-0</t>
   </si>
   <si>
-    <t>519-09-5</t>
+    <t>6740-88-1</t>
   </si>
   <si>
     <t>50-37-3</t>
   </si>
   <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
     <t>58-08-2</t>
   </si>
   <si>
@@ -228,21 +228,21 @@
     <t>unii</t>
   </si>
   <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
     <t>6M3C89ZY6R</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
@@ -255,34 +255,34 @@
     <t>70D95007SX</t>
   </si>
   <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
+    <t>A7V27PHC7A</t>
+  </si>
+  <si>
+    <t>58C337KP3E</t>
   </si>
   <si>
     <t>2880D3468G</t>
   </si>
   <si>
-    <t>58C337KP3E</t>
-  </si>
-  <si>
-    <t>A7V27PHC7A</t>
-  </si>
-  <si>
     <t>ER0CTH01H9</t>
   </si>
   <si>
+    <t>5353I8I6YS</t>
+  </si>
+  <si>
     <t>8SKN0B0MIM</t>
   </si>
   <si>
-    <t>5353I8I6YS</t>
+    <t>690G0D6V8H</t>
   </si>
   <si>
     <t>8NA5SWF92O</t>
-  </si>
-  <si>
-    <t>690G0D6V8H</t>
   </si>
   <si>
     <t>3G6A5W338E</t>
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>3345</v>
+        <v>18054</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -652,13 +652,13 @@
         <v>44840</v>
       </c>
       <c r="I2" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1">
@@ -671,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="P2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="1">
         <v>0</v>
@@ -778,16 +778,16 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>1254</v>
+        <v>165365057</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>97</v>
@@ -796,13 +796,13 @@
         <v>44840</v>
       </c>
       <c r="I3" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -922,16 +922,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>165365057</v>
+        <v>66924</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -940,7 +940,7 @@
         <v>44840</v>
       </c>
       <c r="I4" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>89594</v>
+        <v>3345</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
@@ -1075,7 +1075,7 @@
         <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1084,13 +1084,13 @@
         <v>44840</v>
       </c>
       <c r="I5" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1103,10 +1103,10 @@
         <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>66924</v>
+        <v>12107</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -1219,7 +1219,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
         <v>97</v>
@@ -1228,13 +1228,13 @@
         <v>44840</v>
       </c>
       <c r="I6" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>18054</v>
+        <v>446220</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
         <v>95</v>
@@ -1372,7 +1372,7 @@
         <v>44840</v>
       </c>
       <c r="I7" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -1498,13 +1498,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>12107</v>
+        <v>89594</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
         <v>95</v>
@@ -1516,7 +1516,7 @@
         <v>44840</v>
       </c>
       <c r="I8" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -1642,13 +1642,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>446220</v>
+        <v>1254</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -1660,7 +1660,7 @@
         <v>44840</v>
       </c>
       <c r="I9" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
@@ -1795,7 +1795,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
         <v>97</v>
@@ -1804,7 +1804,7 @@
         <v>44840</v>
       </c>
       <c r="I10" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -1927,19 +1927,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
-        <v>88890</v>
+        <v>4914</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -1948,7 +1948,7 @@
         <v>44840</v>
       </c>
       <c r="I11" s="1">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="AP11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ11" s="1">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>4914</v>
+        <v>446220</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2092,7 +2092,7 @@
         <v>44840</v>
       </c>
       <c r="I12" s="1">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="1">
         <v>0</v>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="AP12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="1">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2236,7 +2236,7 @@
         <v>44840</v>
       </c>
       <c r="I13" s="1">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
         <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2380,7 +2380,7 @@
         <v>44840</v>
       </c>
       <c r="I14" s="1">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2524,7 +2524,7 @@
         <v>44840</v>
       </c>
       <c r="I15" s="1">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -2647,19 +2647,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2668,7 +2668,7 @@
         <v>44840</v>
       </c>
       <c r="I16" s="1">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -2708,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="1">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
-        <v>165365057</v>
+        <v>156346345</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2812,7 +2812,7 @@
         <v>44845</v>
       </c>
       <c r="I17" s="1">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -2956,7 +2956,7 @@
         <v>44845</v>
       </c>
       <c r="I18" s="1">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -2975,10 +2975,10 @@
         <v>1</v>
       </c>
       <c r="P18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="1">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="1">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1">
-        <v>88890</v>
+        <v>62300</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3100,13 +3100,13 @@
         <v>44845</v>
       </c>
       <c r="I19" s="1">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
-        <v>4914</v>
+        <v>3345</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3244,7 +3244,7 @@
         <v>44845</v>
       </c>
       <c r="I20" s="1">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="P20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="1">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1">
-        <v>156346345</v>
+        <v>10836</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3388,7 +3388,7 @@
         <v>44845</v>
       </c>
       <c r="I21" s="1">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
@@ -3422,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="1">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
-        <v>10836</v>
+        <v>4914</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3532,7 +3532,7 @@
         <v>44845</v>
       </c>
       <c r="I22" s="1">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="1">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22" s="1">
         <v>0</v>
@@ -3655,19 +3655,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1">
-        <v>62300</v>
+        <v>165365057</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3676,13 +3676,13 @@
         <v>44845</v>
       </c>
       <c r="I23" s="1">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="1">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="1">
         <v>0</v>
@@ -3799,19 +3799,19 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1">
-        <v>26879</v>
+        <v>446220</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
         <v>97</v>
@@ -3820,13 +3820,13 @@
         <v>44840</v>
       </c>
       <c r="I24" s="1">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -3860,10 +3860,10 @@
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="1">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="1">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="1">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1">
-        <v>119478</v>
+        <v>3345</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
         <v>95</v>
@@ -3964,7 +3964,7 @@
         <v>44840</v>
       </c>
       <c r="I25" s="1">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="1">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4087,16 +4087,16 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1">
-        <v>3345</v>
+        <v>3034034</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
         <v>95</v>
@@ -4108,7 +4108,7 @@
         <v>44840</v>
       </c>
       <c r="I26" s="1">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="1">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26" s="1">
         <v>0</v>
@@ -4231,16 +4231,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1">
-        <v>3034034</v>
+        <v>5462328</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
         <v>95</v>
@@ -4252,7 +4252,7 @@
         <v>44840</v>
       </c>
       <c r="I27" s="1">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="1">
         <v>0</v>
@@ -4375,19 +4375,19 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G28" t="s">
         <v>97</v>
@@ -4396,13 +4396,13 @@
         <v>44840</v>
       </c>
       <c r="I28" s="1">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
@@ -4436,10 +4436,10 @@
         <v>0</v>
       </c>
       <c r="W28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="1">
         <v>0</v>
@@ -4519,16 +4519,16 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>5462328</v>
+        <v>26879</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
         <v>95</v>
@@ -4540,7 +4540,7 @@
         <v>44840</v>
       </c>
       <c r="I29" s="1">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="1">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4663,19 +4663,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1">
-        <v>4754</v>
+        <v>446220</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4684,7 +4684,7 @@
         <v>44845</v>
       </c>
       <c r="I30" s="1">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="1">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="1">
         <v>0</v>
@@ -4807,19 +4807,19 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1">
-        <v>446220</v>
+        <v>4754</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4828,7 +4828,7 @@
         <v>44845</v>
       </c>
       <c r="I31" s="1">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -4868,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="W31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="1">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ31" s="1">
         <v>0</v>
@@ -4951,16 +4951,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1">
-        <v>88890</v>
+        <v>4754</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s">
         <v>95</v>
@@ -4972,7 +4972,7 @@
         <v>44886</v>
       </c>
       <c r="I32" s="1">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -5069,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ32" s="1">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="1">
         <v>0</v>
@@ -5095,16 +5095,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1">
-        <v>243</v>
+        <v>446220</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s">
         <v>95</v>
@@ -5116,7 +5116,7 @@
         <v>44886</v>
       </c>
       <c r="I33" s="1">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" s="1">
         <v>0</v>
@@ -5239,16 +5239,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1">
-        <v>66924</v>
+        <v>5707</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s">
         <v>95</v>
@@ -5260,7 +5260,7 @@
         <v>44886</v>
       </c>
       <c r="I34" s="1">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -5288,10 +5288,10 @@
         <v>0</v>
       </c>
       <c r="S34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="1">
         <v>0</v>
@@ -5383,19 +5383,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C35" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -5404,13 +5404,13 @@
         <v>44886</v>
       </c>
       <c r="I35" s="1">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="1">
         <v>0</v>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT35" s="1">
         <v>0</v>
@@ -5527,16 +5527,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C36" s="1">
-        <v>5707</v>
+        <v>66924</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>
@@ -5548,7 +5548,7 @@
         <v>44886</v>
       </c>
       <c r="I36" s="1">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -5576,10 +5576,10 @@
         <v>0</v>
       </c>
       <c r="S36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="1">
         <v>0</v>
@@ -5671,19 +5671,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -5692,7 +5692,7 @@
         <v>44886</v>
       </c>
       <c r="I37" s="1">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -5711,10 +5711,10 @@
         <v>1</v>
       </c>
       <c r="P37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="1">
         <v>0</v>
@@ -5732,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -5815,19 +5815,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1">
-        <v>5462328</v>
+        <v>448223</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -5836,13 +5836,13 @@
         <v>44886</v>
       </c>
       <c r="I38" s="1">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5959,16 +5959,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C39" s="1">
-        <v>4754</v>
+        <v>5462328</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s">
         <v>95</v>
@@ -5980,7 +5980,7 @@
         <v>44886</v>
       </c>
       <c r="I39" s="1">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J39" s="1">
         <v>0</v>
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6077,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="AP39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="1">
         <v>0</v>
@@ -6103,19 +6103,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C40" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -6124,13 +6124,13 @@
         <v>44886</v>
       </c>
       <c r="I40" s="1">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C41" s="1">
-        <v>448223</v>
+        <v>119478</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6268,7 +6268,7 @@
         <v>44886</v>
       </c>
       <c r="I41" s="1">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -6391,19 +6391,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C42" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6412,7 +6412,7 @@
         <v>44886</v>
       </c>
       <c r="I42" s="1">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -6452,10 +6452,10 @@
         <v>0</v>
       </c>
       <c r="W42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" s="1">
         <v>0</v>
@@ -6535,19 +6535,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C43" s="1">
-        <v>3345</v>
+        <v>243</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G43" t="s">
         <v>97</v>
@@ -6556,13 +6556,13 @@
         <v>44886</v>
       </c>
       <c r="I43" s="1">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -6575,10 +6575,10 @@
         <v>1</v>
       </c>
       <c r="P43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" s="1">
         <v>0</v>
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -6700,7 +6700,7 @@
         <v>44897</v>
       </c>
       <c r="I44" s="1">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="J44" s="1">
         <v>0</v>
@@ -6826,7 +6826,7 @@
         <v>36</v>
       </c>
       <c r="C45" s="1">
-        <v>5761</v>
+        <v>3821</v>
       </c>
       <c r="D45" t="s">
         <v>64</v>
@@ -6835,7 +6835,7 @@
         <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6844,7 +6844,7 @@
         <v>44897</v>
       </c>
       <c r="I45" s="1">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -6911,10 +6911,10 @@
         <v>0</v>
       </c>
       <c r="AF45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH45" s="1">
         <v>0</v>
@@ -6970,7 +6970,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="1">
-        <v>3821</v>
+        <v>5761</v>
       </c>
       <c r="D46" t="s">
         <v>65</v>
@@ -6979,7 +6979,7 @@
         <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -6988,7 +6988,7 @@
         <v>44897</v>
       </c>
       <c r="I46" s="1">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -7055,10 +7055,10 @@
         <v>0</v>
       </c>
       <c r="AF46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH46" s="1">
         <v>0</v>
@@ -7111,19 +7111,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C47" s="1">
         <v>10836</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7132,7 +7132,7 @@
         <v>44894</v>
       </c>
       <c r="I47" s="1">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -7255,19 +7255,19 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C48" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s">
         <v>97</v>
@@ -7276,13 +7276,13 @@
         <v>44896</v>
       </c>
       <c r="I48" s="1">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z48" s="1">
         <v>0</v>
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="AP48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ48" s="1">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="AS48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT48" s="1">
         <v>0</v>
@@ -7399,19 +7399,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C49" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7420,13 +7420,13 @@
         <v>44896</v>
       </c>
       <c r="I49" s="1">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="1">
         <v>0</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ49" s="1">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="AS49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT49" s="1">
         <v>0</v>
@@ -7543,19 +7543,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C50" s="1">
-        <v>4754</v>
+        <v>10836</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7564,7 +7564,7 @@
         <v>44896</v>
       </c>
       <c r="I50" s="1">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -7598,10 +7598,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ50" s="1">
         <v>0</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C51" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D51" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7708,13 +7708,13 @@
         <v>44896</v>
       </c>
       <c r="I51" s="1">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="1">
         <v>0</v>
@@ -7742,10 +7742,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -7790,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL51" s="1">
         <v>0</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C52" s="1">
-        <v>3345</v>
+        <v>4754</v>
       </c>
       <c r="D52" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E52" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7852,13 +7852,13 @@
         <v>44896</v>
       </c>
       <c r="I52" s="1">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="1">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ52" s="1">
         <v>0</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C53" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D53" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E53" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -7996,7 +7996,7 @@
         <v>44886</v>
       </c>
       <c r="I53" s="1">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="1">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="1">
         <v>0</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C54" s="1">
-        <v>5486550</v>
+        <v>446220</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E54" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8140,13 +8140,13 @@
         <v>44886</v>
       </c>
       <c r="I54" s="1">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y54" s="1">
         <v>0</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR54" s="1">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C55" s="1">
-        <v>446220</v>
+        <v>5486550</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E55" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F55" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8284,13 +8284,13 @@
         <v>44886</v>
       </c>
       <c r="I55" s="1">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="1">
         <v>0</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C56" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D56" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8428,7 +8428,7 @@
         <v>44886</v>
       </c>
       <c r="I56" s="1">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -8447,10 +8447,10 @@
         <v>1</v>
       </c>
       <c r="P56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" s="1">
         <v>0</v>
@@ -8510,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" s="1">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT56" s="1">
         <v>0</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C57" s="1">
         <v>12107</v>
       </c>
       <c r="D57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8572,7 +8572,7 @@
         <v>44886</v>
       </c>
       <c r="I57" s="1">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C58" s="1">
-        <v>5462507</v>
+        <v>3345</v>
       </c>
       <c r="D58" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8716,7 +8716,7 @@
         <v>44886</v>
       </c>
       <c r="I58" s="1">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J58" s="1">
         <v>1</v>
@@ -8735,10 +8735,10 @@
         <v>1</v>
       </c>
       <c r="P58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -8839,19 +8839,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C59" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E59" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8860,7 +8860,7 @@
         <v>44886</v>
       </c>
       <c r="I59" s="1">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -8995,7 +8995,7 @@
         <v>76</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9004,7 +9004,7 @@
         <v>44886</v>
       </c>
       <c r="I60" s="1">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J60" s="1">
         <v>1</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C61" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9148,7 +9148,7 @@
         <v>44886</v>
       </c>
       <c r="I61" s="1">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -9167,10 +9167,10 @@
         <v>1</v>
       </c>
       <c r="P61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="1">
         <v>0</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="AP61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ61" s="1">
         <v>0</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C62" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D62" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9292,7 +9292,7 @@
         <v>44886</v>
       </c>
       <c r="I62" s="1">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -9311,10 +9311,10 @@
         <v>1</v>
       </c>
       <c r="P62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z62" s="1">
         <v>0</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9389,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="AP62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ62" s="1">
         <v>0</v>
@@ -9415,19 +9415,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C63" s="1">
-        <v>21812144</v>
+        <v>5486550</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G63" t="s">
         <v>97</v>
@@ -9436,13 +9436,13 @@
         <v>44886</v>
       </c>
       <c r="I63" s="1">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR63" s="1">
         <v>0</v>
@@ -9545,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU63" s="1">
         <v>0</v>
@@ -9559,19 +9559,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C64" s="1">
-        <v>5707</v>
+        <v>62300</v>
       </c>
       <c r="D64" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E64" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F64" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G64" t="s">
         <v>97</v>
@@ -9580,13 +9580,13 @@
         <v>44886</v>
       </c>
       <c r="I64" s="1">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -9605,10 +9605,10 @@
         <v>0</v>
       </c>
       <c r="R64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64" s="1">
         <v>0</v>
@@ -9662,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64" s="1">
         <v>0</v>
@@ -9703,19 +9703,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C65" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E65" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
@@ -9724,13 +9724,13 @@
         <v>44886</v>
       </c>
       <c r="I65" s="1">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -9767,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="X65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y65" s="1">
         <v>0</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9847,19 +9847,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C66" s="1">
-        <v>4914</v>
+        <v>21812144</v>
       </c>
       <c r="D66" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F66" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G66" t="s">
         <v>97</v>
@@ -9868,13 +9868,13 @@
         <v>44886</v>
       </c>
       <c r="I66" s="1">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL66" s="1">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="AP66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ66" s="1">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="AT66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU66" s="1">
         <v>0</v>
@@ -10012,7 +10012,7 @@
         <v>44886</v>
       </c>
       <c r="I67" s="1">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
@@ -10135,19 +10135,19 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C68" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D68" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F68" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G68" t="s">
         <v>97</v>
@@ -10156,13 +10156,13 @@
         <v>44886</v>
       </c>
       <c r="I68" s="1">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
@@ -10175,10 +10175,10 @@
         <v>1</v>
       </c>
       <c r="P68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" s="1">
         <v>0</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -10262,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT68" s="1">
         <v>0</v>
@@ -10291,7 +10291,7 @@
         <v>76</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -10300,7 +10300,7 @@
         <v>44886</v>
       </c>
       <c r="I69" s="1">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J69" s="1">
         <v>1</v>
@@ -10423,19 +10423,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C70" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D70" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E70" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F70" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G70" t="s">
         <v>97</v>
@@ -10444,13 +10444,13 @@
         <v>44886</v>
       </c>
       <c r="I70" s="1">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -10463,10 +10463,10 @@
         <v>1</v>
       </c>
       <c r="P70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" s="1">
         <v>0</v>
@@ -10567,16 +10567,16 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C71" s="1">
-        <v>12107</v>
+        <v>4914</v>
       </c>
       <c r="D71" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E71" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s">
         <v>95</v>
@@ -10588,7 +10588,7 @@
         <v>44886</v>
       </c>
       <c r="I71" s="1">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J71" s="1">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="AP71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ71" s="1">
         <v>0</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="AS71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT71" s="1">
         <v>0</v>
@@ -10711,16 +10711,16 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C72" s="1">
-        <v>5486550</v>
+        <v>446220</v>
       </c>
       <c r="D72" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E72" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F72" t="s">
         <v>95</v>
@@ -10732,7 +10732,7 @@
         <v>44886</v>
       </c>
       <c r="I72" s="1">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J72" s="1">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y72" s="1">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="AQ72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR72" s="1">
         <v>0</v>
@@ -10855,19 +10855,19 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C73" s="1">
-        <v>5462328</v>
+        <v>5707</v>
       </c>
       <c r="D73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G73" t="s">
         <v>97</v>
@@ -10876,7 +10876,7 @@
         <v>44886</v>
       </c>
       <c r="I73" s="1">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J73" s="1">
         <v>1</v>
@@ -10901,10 +10901,10 @@
         <v>0</v>
       </c>
       <c r="R73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73" s="1">
         <v>0</v>
@@ -10958,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73" s="1">
         <v>0</v>
@@ -11005,10 +11005,10 @@
         <v>156346345</v>
       </c>
       <c r="D74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
         <v>95</v>
@@ -11020,7 +11020,7 @@
         <v>44886</v>
       </c>
       <c r="I74" s="1">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J74" s="1">
         <v>0</v>
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C75" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D75" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E75" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11164,13 +11164,13 @@
         <v>44886</v>
       </c>
       <c r="I75" s="1">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y75" s="1">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="AS75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT75" s="1">
         <v>0</v>
@@ -11287,19 +11287,19 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C76" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D76" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E76" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -11308,13 +11308,13 @@
         <v>44886</v>
       </c>
       <c r="I76" s="1">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -11327,10 +11327,10 @@
         <v>1</v>
       </c>
       <c r="P76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R76" s="1">
         <v>0</v>
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y76" s="1">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AK76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL76" s="1">
         <v>0</v>
@@ -11443,7 +11443,7 @@
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11452,7 +11452,7 @@
         <v>44886</v>
       </c>
       <c r="I77" s="1">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J77" s="1">
         <v>1</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C78" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -11596,7 +11596,7 @@
         <v>44886</v>
       </c>
       <c r="I78" s="1">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J78" s="1">
         <v>1</v>
@@ -11615,10 +11615,10 @@
         <v>1</v>
       </c>
       <c r="P78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" s="1">
         <v>0</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="AK78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL78" s="1">
         <v>0</v>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="AS78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT78" s="1">
         <v>0</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,16 +60,25 @@
     <t>substance</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>menthol</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>1-phenyl-1-propanamine</t>
   </si>
   <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
+    <t>nicotine</t>
   </si>
   <si>
     <t>N-phenylpropanamide</t>
@@ -78,31 +87,25 @@
     <t>cocaine</t>
   </si>
   <si>
-    <t>nicotine</t>
-  </si>
-  <si>
-    <t>menthol</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>procaine</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
     <t>xylazine</t>
   </si>
   <si>
-    <t>heroin</t>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
+    <t>levamisole</t>
   </si>
   <si>
     <t>quinine</t>
@@ -111,9 +114,6 @@
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>levamisole</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
@@ -132,12 +132,12 @@
     <t>caffeine</t>
   </si>
   <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -147,16 +147,25 @@
     <t>cas</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>1490-04-6</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t>2941-20-0</t>
   </si>
   <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
+    <t>54-11-5</t>
   </si>
   <si>
     <t>620-71-3</t>
@@ -165,39 +174,30 @@
     <t>50-36-2</t>
   </si>
   <si>
-    <t>54-11-5</t>
-  </si>
-  <si>
-    <t>1490-04-6</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
     <t>59-46-1</t>
   </si>
   <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
     <t>7361-61-7</t>
   </si>
   <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
     <t>90736-23-5</t>
   </si>
   <si>
     <t>537-46-2</t>
   </si>
   <si>
+    <t>14769-73-4</t>
+  </si>
+  <si>
     <t>72402-53-0</t>
   </si>
   <si>
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>14769-73-4</t>
-  </si>
-  <si>
     <t>62-44-2</t>
   </si>
   <si>
@@ -216,22 +216,28 @@
     <t>58-08-2</t>
   </si>
   <si>
+    <t>2784-73-8</t>
+  </si>
+  <si>
     <t>6703-27-1</t>
   </si>
   <si>
-    <t>2784-73-8</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
     <t>unii</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
+    <t>6M3C89ZY6R</t>
   </si>
   <si>
     <t>UYP5ZQI00T</t>
@@ -240,36 +246,30 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
-    <t>6M3C89ZY6R</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
     <t>4Z8Y51M438</t>
   </si>
   <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
     <t>2KFG9TP5V8</t>
   </si>
   <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
     <t>44RAL3456C</t>
   </si>
   <si>
+    <t>2880D3468G</t>
+  </si>
+  <si>
     <t>A7V27PHC7A</t>
   </si>
   <si>
     <t>58C337KP3E</t>
   </si>
   <si>
-    <t>2880D3468G</t>
-  </si>
-  <si>
     <t>ER0CTH01H9</t>
   </si>
   <si>
@@ -288,10 +288,10 @@
     <t>3G6A5W338E</t>
   </si>
   <si>
+    <t>M5E47P1ZCH</t>
+  </si>
+  <si>
     <t>U59401ETXH</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>18054</v>
+        <v>3345</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -655,10 +655,10 @@
         <v>369</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1">
@@ -671,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2" s="1">
         <v>0</v>
@@ -778,16 +778,16 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>165365057</v>
+        <v>1254</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
         <v>97</v>
@@ -799,10 +799,10 @@
         <v>369</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -922,16 +922,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>66924</v>
+        <v>88890</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>3345</v>
+        <v>18054</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1087,10 +1087,10 @@
         <v>369</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1103,10 +1103,10 @@
         <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>12107</v>
+        <v>66924</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -1219,7 +1219,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
         <v>97</v>
@@ -1231,10 +1231,10 @@
         <v>369</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1375,10 +1375,10 @@
         <v>369</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1504,7 +1504,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
         <v>95</v>
@@ -1642,13 +1642,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>1254</v>
+        <v>12107</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
@@ -1795,7 +1795,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
         <v>97</v>
@@ -1807,10 +1807,10 @@
         <v>369</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
         <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1">
         <v>5707</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
         <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
         <v>88890</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2647,19 +2647,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2708,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="1">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2831,10 +2831,10 @@
         <v>1</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="1">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
         <v>88890</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -3079,7 +3079,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1">
         <v>62300</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="P20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -3278,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="1">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
-        <v>10836</v>
+        <v>4914</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3422,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="1">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
-        <v>4914</v>
+        <v>165365057</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="1">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -3655,19 +3655,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>165365057</v>
+        <v>156346345</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3799,19 +3799,19 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
-        <v>446220</v>
+        <v>26879</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
         <v>97</v>
@@ -3823,10 +3823,10 @@
         <v>406</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -3860,10 +3860,10 @@
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="1">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="1">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" s="1">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
         <v>97</v>
@@ -3967,10 +3967,10 @@
         <v>406</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="1">
         <v>0</v>
@@ -4004,10 +4004,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="1">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4087,16 +4087,16 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1">
-        <v>3034034</v>
+        <v>3345</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s">
         <v>95</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="1">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="1">
         <v>0</v>
@@ -4231,16 +4231,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1">
-        <v>5462328</v>
+        <v>3034034</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
         <v>95</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ27" s="1">
         <v>0</v>
@@ -4375,16 +4375,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
-        <v>119478</v>
+        <v>5462328</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>26879</v>
+        <v>119478</v>
       </c>
       <c r="D29" t="s">
         <v>60</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="1">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4663,19 +4663,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1">
         <v>446220</v>
       </c>
       <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" t="s">
         <v>49</v>
-      </c>
-      <c r="E30" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" t="s">
-        <v>45</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4819,7 +4819,7 @@
         <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4951,16 +4951,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C32" s="1">
-        <v>4754</v>
+        <v>5707</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s">
         <v>95</v>
@@ -5000,10 +5000,10 @@
         <v>0</v>
       </c>
       <c r="S32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" s="1">
         <v>0</v>
@@ -5069,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="1">
         <v>0</v>
@@ -5095,19 +5095,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1">
         <v>446220</v>
       </c>
       <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" t="s">
         <v>49</v>
-      </c>
-      <c r="E33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" t="s">
-        <v>95</v>
       </c>
       <c r="G33" t="s">
         <v>97</v>
@@ -5119,10 +5119,10 @@
         <v>495</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="1">
         <v>1</v>
@@ -5239,19 +5239,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C34" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
         <v>97</v>
@@ -5263,10 +5263,10 @@
         <v>495</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5279,19 +5279,19 @@
         <v>1</v>
       </c>
       <c r="P34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="1">
         <v>0</v>
       </c>
       <c r="S34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="1">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="1">
         <v>0</v>
@@ -5383,19 +5383,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="1">
         <v>165365057</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -5527,19 +5527,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1">
-        <v>66924</v>
+        <v>119478</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -5551,10 +5551,10 @@
         <v>495</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -5671,19 +5671,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -5695,10 +5695,10 @@
         <v>495</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -5711,10 +5711,10 @@
         <v>1</v>
       </c>
       <c r="P37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="1">
         <v>0</v>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -5815,19 +5815,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1">
-        <v>448223</v>
+        <v>88890</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -5839,10 +5839,10 @@
         <v>495</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -5942,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT38" s="1">
         <v>0</v>
@@ -5959,19 +5959,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C39" s="1">
-        <v>5462328</v>
+        <v>448223</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -5983,10 +5983,10 @@
         <v>495</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6103,16 +6103,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C40" s="1">
-        <v>88890</v>
+        <v>66924</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s">
         <v>95</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="1">
         <v>0</v>
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C41" s="1">
-        <v>119478</v>
+        <v>5462328</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6271,10 +6271,10 @@
         <v>495</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL41" s="1">
         <v>0</v>
@@ -6391,19 +6391,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C42" s="1">
-        <v>446220</v>
+        <v>4754</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6415,10 +6415,10 @@
         <v>495</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6452,10 +6452,10 @@
         <v>0</v>
       </c>
       <c r="W42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="1">
         <v>0</v>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="AP42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ42" s="1">
         <v>0</v>
@@ -6679,19 +6679,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1">
-        <v>4754</v>
+        <v>3821</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6703,10 +6703,10 @@
         <v>501</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH44" s="1">
         <v>0</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="1">
         <v>0</v>
@@ -6823,19 +6823,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C45" s="1">
-        <v>3821</v>
+        <v>4754</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6847,10 +6847,10 @@
         <v>501</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -6911,10 +6911,10 @@
         <v>0</v>
       </c>
       <c r="AF45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH45" s="1">
         <v>0</v>
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="AP45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ45" s="1">
         <v>0</v>
@@ -6979,7 +6979,7 @@
         <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -7111,7 +7111,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" s="1">
         <v>10836</v>
@@ -7123,7 +7123,7 @@
         <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7255,19 +7255,19 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C48" s="1">
-        <v>2519</v>
+        <v>10836</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s">
         <v>97</v>
@@ -7310,10 +7310,10 @@
         <v>0</v>
       </c>
       <c r="U48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W48" s="1">
         <v>0</v>
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="1">
         <v>0</v>
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="AP48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ48" s="1">
         <v>0</v>
@@ -7399,19 +7399,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C49" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7423,10 +7423,10 @@
         <v>520</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49" s="1">
         <v>0</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ49" s="1">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="AS49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="1">
         <v>0</v>
@@ -7543,19 +7543,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C50" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7567,10 +7567,10 @@
         <v>520</v>
       </c>
       <c r="J50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -7598,10 +7598,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="AS50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT50" s="1">
         <v>0</v>
@@ -7687,16 +7687,16 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C51" s="1">
         <v>3345</v>
       </c>
       <c r="D51" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F51" t="s">
         <v>95</v>
@@ -7843,7 +7843,7 @@
         <v>85</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C53" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E53" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C54" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" t="s">
         <v>49</v>
-      </c>
-      <c r="E54" t="s">
-        <v>74</v>
-      </c>
-      <c r="F54" t="s">
-        <v>95</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8143,10 +8143,10 @@
         <v>532</v>
       </c>
       <c r="J54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
@@ -8159,10 +8159,10 @@
         <v>1</v>
       </c>
       <c r="P54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="1">
         <v>0</v>
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="1">
         <v>0</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1">
-        <v>5486550</v>
+        <v>88890</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
@@ -8384,13 +8384,13 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="1">
         <v>0</v>
       </c>
       <c r="AS55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C56" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8510,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL56" s="1">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT56" s="1">
         <v>0</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C57" s="1">
         <v>12107</v>
       </c>
       <c r="D57" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E57" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F57" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C58" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8719,10 +8719,10 @@
         <v>532</v>
       </c>
       <c r="J58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -8735,10 +8735,10 @@
         <v>1</v>
       </c>
       <c r="P58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -8759,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y58" s="1">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8842,7 +8842,7 @@
         <v>40</v>
       </c>
       <c r="C59" s="1">
-        <v>5462507</v>
+        <v>5486550</v>
       </c>
       <c r="D59" t="s">
         <v>68</v>
@@ -8851,7 +8851,7 @@
         <v>92</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR59" s="1">
         <v>0</v>
@@ -8983,19 +8983,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C60" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E60" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F60" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9023,10 +9023,10 @@
         <v>1</v>
       </c>
       <c r="P60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="1">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C61" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E61" t="s">
         <v>72</v>
       </c>
       <c r="F61" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9167,10 +9167,10 @@
         <v>1</v>
       </c>
       <c r="P61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9283,7 +9283,7 @@
         <v>90</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9415,19 +9415,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C63" s="1">
-        <v>5486550</v>
+        <v>88890</v>
       </c>
       <c r="D63" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E63" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F63" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s">
         <v>97</v>
@@ -9439,10 +9439,10 @@
         <v>541</v>
       </c>
       <c r="J63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="1">
         <v>0</v>
@@ -9536,13 +9536,13 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR63" s="1">
         <v>0</v>
       </c>
       <c r="AS63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT63" s="1">
         <v>0</v>
@@ -9559,19 +9559,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C64" s="1">
-        <v>62300</v>
+        <v>5462328</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G64" t="s">
         <v>97</v>
@@ -9583,10 +9583,10 @@
         <v>541</v>
       </c>
       <c r="J64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -9703,19 +9703,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C65" s="1">
-        <v>5462328</v>
+        <v>4914</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
@@ -9727,10 +9727,10 @@
         <v>541</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9821,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="AP65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ65" s="1">
         <v>0</v>
@@ -9847,19 +9847,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C66" s="1">
-        <v>21812144</v>
+        <v>12107</v>
       </c>
       <c r="D66" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E66" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G66" t="s">
         <v>97</v>
@@ -9871,10 +9871,10 @@
         <v>541</v>
       </c>
       <c r="J66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66" s="1">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="AS66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU66" s="1">
         <v>0</v>
@@ -9991,19 +9991,19 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C67" s="1">
-        <v>5462507</v>
+        <v>21812144</v>
       </c>
       <c r="D67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E67" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F67" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G67" t="s">
         <v>97</v>
@@ -10015,10 +10015,10 @@
         <v>541</v>
       </c>
       <c r="J67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="AT67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU67" s="1">
         <v>0</v>
@@ -10135,16 +10135,16 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C68" s="1">
-        <v>12107</v>
+        <v>5486550</v>
       </c>
       <c r="D68" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E68" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F68" t="s">
         <v>95</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>0</v>
       </c>
       <c r="AQ68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR68" s="1">
         <v>0</v>
       </c>
       <c r="AS68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="1">
         <v>0</v>
@@ -10279,19 +10279,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C69" s="1">
-        <v>88890</v>
+        <v>62300</v>
       </c>
       <c r="D69" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E69" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -10303,10 +10303,10 @@
         <v>541</v>
       </c>
       <c r="J69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="AK69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -10406,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="AS69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT69" s="1">
         <v>0</v>
@@ -10423,19 +10423,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C70" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D70" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E70" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F70" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G70" t="s">
         <v>97</v>
@@ -10463,16 +10463,16 @@
         <v>1</v>
       </c>
       <c r="P70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" s="1">
         <v>0</v>
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C71" s="1">
-        <v>4914</v>
+        <v>3345</v>
       </c>
       <c r="D71" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E71" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10591,10 +10591,10 @@
         <v>541</v>
       </c>
       <c r="J71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -10607,10 +10607,10 @@
         <v>1</v>
       </c>
       <c r="P71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" s="1">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="AP71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ71" s="1">
         <v>0</v>
@@ -10711,16 +10711,16 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C72" s="1">
         <v>446220</v>
       </c>
       <c r="D72" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F72" t="s">
         <v>95</v>
@@ -10855,19 +10855,19 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C73" s="1">
-        <v>5707</v>
+        <v>5462507</v>
       </c>
       <c r="D73" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E73" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G73" t="s">
         <v>97</v>
@@ -10879,10 +10879,10 @@
         <v>541</v>
       </c>
       <c r="J73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -10901,10 +10901,10 @@
         <v>0</v>
       </c>
       <c r="R73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T73" s="1">
         <v>0</v>
@@ -10958,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL73" s="1">
         <v>0</v>
@@ -10999,19 +10999,19 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C74" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F74" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
@@ -11023,10 +11023,10 @@
         <v>542</v>
       </c>
       <c r="J74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C75" s="1">
-        <v>165365057</v>
+        <v>156346345</v>
       </c>
       <c r="D75" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11167,10 +11167,10 @@
         <v>542</v>
       </c>
       <c r="J75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
@@ -11287,16 +11287,16 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C76" s="1">
         <v>446220</v>
       </c>
       <c r="D76" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E76" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F76" t="s">
         <v>95</v>
@@ -11431,19 +11431,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C77" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D77" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E77" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C78" s="1">
         <v>3345</v>
       </c>
       <c r="D78" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,69 +60,69 @@
     <t>substance</t>
   </si>
   <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>1-phenyl-1-propanamine</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>menthol</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>nicotine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>menthol</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>1-phenyl-1-propanamine</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>nicotine</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>cocaine</t>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>xylazine</t>
   </si>
   <si>
     <t>procaine</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
     <t>p-fluorofentanyl</t>
   </si>
   <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
+    <t>quinine</t>
   </si>
   <si>
     <t>levamisole</t>
   </si>
   <si>
-    <t>quinine</t>
-  </si>
-  <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
+    <t>benzoic acid</t>
+  </si>
+  <si>
     <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
-    <t>benzoic acid</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
@@ -132,12 +132,12 @@
     <t>caffeine</t>
   </si>
   <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -147,66 +147,66 @@
     <t>cas</t>
   </si>
   <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>2941-20-0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>1490-04-6</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>54-11-5</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
-    <t>1490-04-6</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>2941-20-0</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>54-11-5</t>
-  </si>
-  <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
   </si>
   <si>
     <t>59-46-1</t>
   </si>
   <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
     <t>90736-23-5</t>
   </si>
   <si>
     <t>537-46-2</t>
   </si>
   <si>
+    <t>43021-26-7</t>
+  </si>
+  <si>
+    <t>72402-53-0</t>
+  </si>
+  <si>
     <t>14769-73-4</t>
   </si>
   <si>
-    <t>72402-53-0</t>
-  </si>
-  <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
     <t>62-44-2</t>
   </si>
   <si>
+    <t>65-85-0</t>
+  </si>
+  <si>
     <t>519-09-5</t>
   </si>
   <si>
-    <t>65-85-0</t>
-  </si>
-  <si>
     <t>6740-88-1</t>
   </si>
   <si>
@@ -216,69 +216,69 @@
     <t>58-08-2</t>
   </si>
   <si>
+    <t>6703-27-1</t>
+  </si>
+  <si>
     <t>2784-73-8</t>
   </si>
   <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
     <t>unii</t>
   </si>
   <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>6M3C89ZY6R</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>6M3C89ZY6R</t>
-  </si>
-  <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
   </si>
   <si>
     <t>4Z8Y51M438</t>
   </si>
   <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
     <t>44RAL3456C</t>
   </si>
   <si>
+    <t>58C337KP3E</t>
+  </si>
+  <si>
+    <t>A7V27PHC7A</t>
+  </si>
+  <si>
     <t>2880D3468G</t>
   </si>
   <si>
-    <t>A7V27PHC7A</t>
-  </si>
-  <si>
-    <t>58C337KP3E</t>
-  </si>
-  <si>
     <t>ER0CTH01H9</t>
   </si>
   <si>
+    <t>8SKN0B0MIM</t>
+  </si>
+  <si>
     <t>5353I8I6YS</t>
   </si>
   <si>
-    <t>8SKN0B0MIM</t>
-  </si>
-  <si>
     <t>690G0D6V8H</t>
   </si>
   <si>
@@ -288,10 +288,10 @@
     <t>3G6A5W338E</t>
   </si>
   <si>
+    <t>U59401ETXH</t>
+  </si>
+  <si>
     <t>M5E47P1ZCH</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -634,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -643,7 +643,7 @@
         <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -655,10 +655,10 @@
         <v>369</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1">
@@ -671,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="P2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="1">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>1254</v>
+        <v>446220</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
         <v>95</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="1">
         <v>0</v>
@@ -922,16 +922,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>88890</v>
+        <v>18054</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -943,10 +943,10 @@
         <v>369</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>18054</v>
+        <v>165365057</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1087,10 +1087,10 @@
         <v>369</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>66924</v>
+        <v>88890</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -1219,7 +1219,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
         <v>97</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>165365057</v>
+        <v>1254</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1375,10 +1375,10 @@
         <v>369</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>89594</v>
+        <v>66924</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
@@ -1507,7 +1507,7 @@
         <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1519,10 +1519,10 @@
         <v>369</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1642,7 +1642,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>12107</v>
+        <v>89594</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
@@ -1795,7 +1795,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
         <v>97</v>
@@ -1807,10 +1807,10 @@
         <v>369</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1823,10 +1823,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" s="1">
         <v>0</v>
@@ -1927,19 +1927,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1">
-        <v>4914</v>
+        <v>3345</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -1967,10 +1967,10 @@
         <v>1</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="1">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="AP11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="1">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2261,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="1">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2399,10 +2399,10 @@
         <v>1</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2549,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -2647,19 +2647,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
-        <v>446220</v>
+        <v>4914</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2708,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="1">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" s="1">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2815,10 +2815,10 @@
         <v>405</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -2831,10 +2831,10 @@
         <v>1</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
         <v>88890</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1">
-        <v>62300</v>
+        <v>156346345</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3103,10 +3103,10 @@
         <v>405</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3223,7 +3223,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1">
         <v>10836</v>
@@ -3235,7 +3235,7 @@
         <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
-        <v>4914</v>
+        <v>165365057</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3551,10 +3551,10 @@
         <v>1</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -3655,19 +3655,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
-        <v>156346345</v>
+        <v>4914</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="AP23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ23" s="1">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="1">
-        <v>26879</v>
+        <v>119478</v>
       </c>
       <c r="D24" t="s">
         <v>58</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="1">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="1">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1">
         <v>446220</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s">
         <v>97</v>
@@ -4087,16 +4087,16 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1">
-        <v>3345</v>
+        <v>3034034</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F26" t="s">
         <v>95</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="1">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26" s="1">
         <v>0</v>
@@ -4231,16 +4231,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1">
-        <v>3034034</v>
+        <v>3345</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F27" t="s">
         <v>95</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="1">
         <v>0</v>
@@ -4375,16 +4375,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1">
         <v>5462328</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
@@ -4522,7 +4522,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>119478</v>
+        <v>26879</v>
       </c>
       <c r="D29" t="s">
         <v>60</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="1">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4663,19 +4663,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1">
         <v>446220</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4819,7 +4819,7 @@
         <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4951,19 +4951,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C32" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s">
         <v>97</v>
@@ -4975,10 +4975,10 @@
         <v>495</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5000,10 +5000,10 @@
         <v>0</v>
       </c>
       <c r="S32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" s="1">
         <v>0</v>
@@ -5012,10 +5012,10 @@
         <v>0</v>
       </c>
       <c r="W32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="1">
         <v>0</v>
@@ -5095,19 +5095,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G33" t="s">
         <v>97</v>
@@ -5119,10 +5119,10 @@
         <v>495</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5144,10 +5144,10 @@
         <v>0</v>
       </c>
       <c r="S33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="1">
         <v>0</v>
@@ -5156,10 +5156,10 @@
         <v>0</v>
       </c>
       <c r="W33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="1">
         <v>0</v>
@@ -5239,19 +5239,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1">
         <v>3345</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G34" t="s">
         <v>97</v>
@@ -5383,19 +5383,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1">
-        <v>165365057</v>
+        <v>243</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -5407,10 +5407,10 @@
         <v>495</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="1">
         <v>0</v>
@@ -5527,19 +5527,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1">
-        <v>119478</v>
+        <v>448223</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -5671,19 +5671,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -5695,10 +5695,10 @@
         <v>495</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -5815,16 +5815,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C38" s="1">
         <v>88890</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
         <v>95</v>
@@ -5959,19 +5959,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1">
-        <v>448223</v>
+        <v>446220</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -5983,10 +5983,10 @@
         <v>495</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" s="1">
         <v>0</v>
@@ -6103,16 +6103,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C40" s="1">
         <v>66924</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s">
         <v>95</v>
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1">
-        <v>5462328</v>
+        <v>119478</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6271,10 +6271,10 @@
         <v>495</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="1">
         <v>0</v>
@@ -6535,16 +6535,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C43" s="1">
-        <v>243</v>
+        <v>5462328</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s">
         <v>95</v>
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6979,7 +6979,7 @@
         <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -7111,7 +7111,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C47" s="1">
         <v>10836</v>
@@ -7123,7 +7123,7 @@
         <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7255,7 +7255,7 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C48" s="1">
         <v>10836</v>
@@ -7267,7 +7267,7 @@
         <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G48" t="s">
         <v>97</v>
@@ -7399,19 +7399,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C49" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7423,10 +7423,10 @@
         <v>520</v>
       </c>
       <c r="J49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -7442,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="1">
         <v>0</v>
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="1">
         <v>0</v>
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL49" s="1">
         <v>0</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ49" s="1">
         <v>0</v>
@@ -7543,16 +7543,16 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C50" s="1">
         <v>88890</v>
       </c>
       <c r="D50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F50" t="s">
         <v>95</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C51" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E51" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F51" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7711,10 +7711,10 @@
         <v>520</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" s="1">
         <v>0</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z51" s="1">
         <v>0</v>
@@ -7790,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51" s="1">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="AP51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ51" s="1">
         <v>0</v>
@@ -7843,7 +7843,7 @@
         <v>85</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C53" s="1">
-        <v>5462507</v>
+        <v>446220</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -7999,10 +7999,10 @@
         <v>532</v>
       </c>
       <c r="J53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y53" s="1">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="1">
         <v>0</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C54" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D54" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8159,10 +8159,10 @@
         <v>1</v>
       </c>
       <c r="P54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54" s="1">
         <v>0</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT54" s="1">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C55" s="1">
-        <v>88890</v>
+        <v>5486550</v>
       </c>
       <c r="D55" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E55" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
@@ -8384,13 +8384,13 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR55" s="1">
         <v>0</v>
       </c>
       <c r="AS55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" s="1">
         <v>5462328</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C57" s="1">
         <v>12107</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E57" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8698,7 +8698,7 @@
         <v>23</v>
       </c>
       <c r="C58" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D58" t="s">
         <v>52</v>
@@ -8707,7 +8707,7 @@
         <v>76</v>
       </c>
       <c r="F58" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8719,10 +8719,10 @@
         <v>532</v>
       </c>
       <c r="J58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -8735,10 +8735,10 @@
         <v>1</v>
       </c>
       <c r="P58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -8759,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="1">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8842,7 +8842,7 @@
         <v>40</v>
       </c>
       <c r="C59" s="1">
-        <v>5486550</v>
+        <v>5462507</v>
       </c>
       <c r="D59" t="s">
         <v>68</v>
@@ -8851,7 +8851,7 @@
         <v>92</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR59" s="1">
         <v>0</v>
@@ -8983,19 +8983,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C60" s="1">
         <v>3345</v>
       </c>
       <c r="D60" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F60" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C61" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D61" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z61" s="1">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="AP61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ61" s="1">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C62" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="1">
         <v>0</v>
@@ -9389,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="AP62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ62" s="1">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -9415,19 +9415,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E63" t="s">
         <v>72</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G63" t="s">
         <v>97</v>
@@ -9439,10 +9439,10 @@
         <v>541</v>
       </c>
       <c r="J63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y63" s="1">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="AS63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT63" s="1">
         <v>0</v>
@@ -9559,19 +9559,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C64" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D64" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G64" t="s">
         <v>97</v>
@@ -9583,10 +9583,10 @@
         <v>541</v>
       </c>
       <c r="J64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -9703,16 +9703,16 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C65" s="1">
         <v>4914</v>
       </c>
       <c r="D65" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E65" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s">
         <v>95</v>
@@ -9847,19 +9847,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C66" s="1">
-        <v>12107</v>
+        <v>88890</v>
       </c>
       <c r="D66" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F66" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G66" t="s">
         <v>97</v>
@@ -9871,10 +9871,10 @@
         <v>541</v>
       </c>
       <c r="J66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -9991,19 +9991,19 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C67" s="1">
-        <v>21812144</v>
+        <v>5462328</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E67" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F67" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G67" t="s">
         <v>97</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="AT67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU67" s="1">
         <v>0</v>
@@ -10135,19 +10135,19 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C68" s="1">
-        <v>5486550</v>
+        <v>21812144</v>
       </c>
       <c r="D68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F68" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G68" t="s">
         <v>97</v>
@@ -10159,10 +10159,10 @@
         <v>541</v>
       </c>
       <c r="J68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
@@ -10256,7 +10256,7 @@
         <v>0</v>
       </c>
       <c r="AQ68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR68" s="1">
         <v>0</v>
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="AT68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU68" s="1">
         <v>0</v>
@@ -10279,19 +10279,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C69" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D69" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F69" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -10303,10 +10303,10 @@
         <v>541</v>
       </c>
       <c r="J69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10325,10 +10325,10 @@
         <v>0</v>
       </c>
       <c r="R69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" s="1">
         <v>0</v>
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="AK69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -10423,19 +10423,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C70" s="1">
-        <v>5707</v>
+        <v>12107</v>
       </c>
       <c r="D70" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E70" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F70" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G70" t="s">
         <v>97</v>
@@ -10447,10 +10447,10 @@
         <v>541</v>
       </c>
       <c r="J70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -10469,10 +10469,10 @@
         <v>0</v>
       </c>
       <c r="R70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T70" s="1">
         <v>0</v>
@@ -10550,7 +10550,7 @@
         <v>0</v>
       </c>
       <c r="AS70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT70" s="1">
         <v>0</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C71" s="1">
         <v>3345</v>
       </c>
       <c r="D71" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E71" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F71" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10711,16 +10711,16 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C72" s="1">
-        <v>446220</v>
+        <v>62300</v>
       </c>
       <c r="D72" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E72" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F72" t="s">
         <v>95</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y72" s="1">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -10858,7 +10858,7 @@
         <v>39</v>
       </c>
       <c r="C73" s="1">
-        <v>5462507</v>
+        <v>5486550</v>
       </c>
       <c r="D73" t="s">
         <v>67</v>
@@ -10976,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="AQ73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR73" s="1">
         <v>0</v>
@@ -10999,19 +10999,19 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C74" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E74" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="F74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C75" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D75" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E75" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F75" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11167,10 +11167,10 @@
         <v>542</v>
       </c>
       <c r="J75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
@@ -11183,10 +11183,10 @@
         <v>1</v>
       </c>
       <c r="P75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" s="1">
         <v>0</v>
@@ -11246,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="AK75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL75" s="1">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="AS75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT75" s="1">
         <v>0</v>
@@ -11287,19 +11287,19 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C76" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D76" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -11311,10 +11311,10 @@
         <v>542</v>
       </c>
       <c r="J76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y76" s="1">
         <v>0</v>
@@ -11414,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="AS76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT76" s="1">
         <v>0</v>
@@ -11431,19 +11431,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C77" s="1">
-        <v>165365057</v>
+        <v>446220</v>
       </c>
       <c r="D77" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E77" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F77" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11455,10 +11455,10 @@
         <v>542</v>
       </c>
       <c r="J77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y77" s="1">
         <v>0</v>
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="AS77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT77" s="1">
         <v>0</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C78" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D78" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E78" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F78" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -11599,10 +11599,10 @@
         <v>542</v>
       </c>
       <c r="J78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
@@ -11615,10 +11615,10 @@
         <v>1</v>
       </c>
       <c r="P78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78" s="1">
         <v>0</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="AK78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL78" s="1">
         <v>0</v>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="AS78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT78" s="1">
         <v>0</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,57 +60,57 @@
     <t>substance</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>cocaine</t>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>nicotine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>menthol</t>
   </si>
   <si>
     <t>1-phenyl-1-propanamine</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>menthol</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>nicotine</t>
-  </si>
-  <si>
     <t>fentanyl</t>
   </si>
   <si>
     <t>heroin</t>
   </si>
   <si>
+    <t>procaine</t>
+  </si>
+  <si>
     <t>xylazine</t>
   </si>
   <si>
-    <t>procaine</t>
+    <t>ethyl-4-ANPP</t>
   </si>
   <si>
     <t>p-fluorofentanyl</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>quinine</t>
+  </si>
+  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>quinine</t>
-  </si>
-  <si>
     <t>levamisole</t>
   </si>
   <si>
@@ -132,12 +132,12 @@
     <t>caffeine</t>
   </si>
   <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -147,54 +147,54 @@
     <t>cas</t>
   </si>
   <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
     <t>620-71-3</t>
   </si>
   <si>
-    <t>50-36-2</t>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>54-11-5</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1490-04-6</t>
   </si>
   <si>
     <t>2941-20-0</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>1490-04-6</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>54-11-5</t>
-  </si>
-  <si>
     <t>437-38-7</t>
   </si>
   <si>
     <t>561-27-3</t>
   </si>
   <si>
+    <t>59-46-1</t>
+  </si>
+  <si>
     <t>7361-61-7</t>
   </si>
   <si>
-    <t>59-46-1</t>
-  </si>
-  <si>
     <t>90736-23-5</t>
   </si>
   <si>
     <t>537-46-2</t>
   </si>
   <si>
+    <t>72402-53-0</t>
+  </si>
+  <si>
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>72402-53-0</t>
-  </si>
-  <si>
     <t>14769-73-4</t>
   </si>
   <si>
@@ -216,57 +216,57 @@
     <t>58-08-2</t>
   </si>
   <si>
+    <t>2784-73-8</t>
+  </si>
+  <si>
     <t>6703-27-1</t>
   </si>
   <si>
-    <t>2784-73-8</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
     <t>unii</t>
   </si>
   <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
-    <t>I5Y540LHVR</t>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>6M3C89ZY6R</t>
   </si>
   <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>6M3C89ZY6R</t>
-  </si>
-  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
     <t>70D95007SX</t>
   </si>
   <si>
+    <t>4Z8Y51M438</t>
+  </si>
+  <si>
     <t>2KFG9TP5V8</t>
   </si>
   <si>
-    <t>4Z8Y51M438</t>
-  </si>
-  <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
     <t>44RAL3456C</t>
   </si>
   <si>
+    <t>A7V27PHC7A</t>
+  </si>
+  <si>
     <t>58C337KP3E</t>
   </si>
   <si>
-    <t>A7V27PHC7A</t>
-  </si>
-  <si>
     <t>2880D3468G</t>
   </si>
   <si>
@@ -288,10 +288,10 @@
     <t>3G6A5W338E</t>
   </si>
   <si>
+    <t>M5E47P1ZCH</t>
+  </si>
+  <si>
     <t>U59401ETXH</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -634,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>12107</v>
+        <v>446220</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>446220</v>
+        <v>12107</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="1">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -922,16 +922,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>18054</v>
+        <v>66924</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -943,10 +943,10 @@
         <v>369</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1066,16 +1066,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>165365057</v>
+        <v>89594</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1087,10 +1087,10 @@
         <v>369</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
         <v>97</v>
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>1254</v>
+        <v>165365057</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1375,10 +1375,10 @@
         <v>369</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1498,16 +1498,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>66924</v>
+        <v>1254</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1519,10 +1519,10 @@
         <v>369</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1642,13 +1642,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>89594</v>
+        <v>18054</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -1795,7 +1795,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
         <v>97</v>
@@ -1939,7 +1939,7 @@
         <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
         <v>446220</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
-        <v>5462328</v>
+        <v>4914</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14" s="1">
         <v>0</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2549,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="R15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="1">
-        <v>4914</v>
+        <v>5707</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
@@ -2659,7 +2659,7 @@
         <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2693,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="1">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>27</v>
       </c>
       <c r="C17" s="1">
-        <v>62300</v>
+        <v>156346345</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2815,10 +2815,10 @@
         <v>405</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="1">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3119,10 +3119,10 @@
         <v>1</v>
       </c>
       <c r="P19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
-        <v>10836</v>
+        <v>62300</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3247,10 +3247,10 @@
         <v>405</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3278,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="1">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1">
-        <v>165365057</v>
+        <v>4914</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3551,10 +3551,10 @@
         <v>1</v>
       </c>
       <c r="P22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -3655,19 +3655,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>4914</v>
+        <v>10836</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3710,10 +3710,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="1">
         <v>0</v>
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="AP23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="1">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="1">
-        <v>119478</v>
+        <v>3034034</v>
       </c>
       <c r="D24" t="s">
         <v>58</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" s="1">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G25" t="s">
         <v>97</v>
@@ -3967,10 +3967,10 @@
         <v>406</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -4004,10 +4004,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="1">
         <v>0</v>
@@ -4087,19 +4087,19 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1">
-        <v>3034034</v>
+        <v>446220</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s">
         <v>97</v>
@@ -4111,10 +4111,10 @@
         <v>406</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="1">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="1">
         <v>0</v>
@@ -4231,16 +4231,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s">
         <v>95</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
@@ -4375,16 +4375,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1">
-        <v>5462328</v>
+        <v>26879</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="1">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="AP28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28" s="1">
         <v>0</v>
@@ -4519,16 +4519,16 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1">
-        <v>26879</v>
+        <v>3345</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s">
         <v>95</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="1">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="1">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4663,19 +4663,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="1">
         <v>446220</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4819,7 +4819,7 @@
         <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4951,19 +4951,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
         <v>97</v>
@@ -5012,10 +5012,10 @@
         <v>0</v>
       </c>
       <c r="W32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="1">
         <v>0</v>
@@ -5095,16 +5095,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1">
-        <v>5707</v>
+        <v>66924</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s">
         <v>95</v>
@@ -5144,10 +5144,10 @@
         <v>0</v>
       </c>
       <c r="S33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="1">
         <v>0</v>
@@ -5239,19 +5239,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1">
-        <v>3345</v>
+        <v>4754</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G34" t="s">
         <v>97</v>
@@ -5263,10 +5263,10 @@
         <v>495</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5279,10 +5279,10 @@
         <v>1</v>
       </c>
       <c r="P34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="1">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="1">
         <v>0</v>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ34" s="1">
         <v>0</v>
@@ -5383,19 +5383,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C35" s="1">
-        <v>243</v>
+        <v>446220</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -5407,10 +5407,10 @@
         <v>495</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5444,10 +5444,10 @@
         <v>0</v>
       </c>
       <c r="W35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" s="1">
         <v>0</v>
@@ -5527,19 +5527,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C36" s="1">
-        <v>448223</v>
+        <v>88890</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -5551,10 +5551,10 @@
         <v>495</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -5654,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="AS36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT36" s="1">
         <v>0</v>
@@ -5671,19 +5671,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
-        <v>165365057</v>
+        <v>243</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -5695,10 +5695,10 @@
         <v>495</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -5815,16 +5815,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C38" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
         <v>95</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" s="1">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="1">
         <v>0</v>
@@ -5959,19 +5959,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -5983,10 +5983,10 @@
         <v>495</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -5999,10 +5999,10 @@
         <v>1</v>
       </c>
       <c r="P39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="1">
         <v>0</v>
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6103,19 +6103,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" s="1">
-        <v>66924</v>
+        <v>165365057</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -6127,10 +6127,10 @@
         <v>495</v>
       </c>
       <c r="J40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT40" s="1">
         <v>0</v>
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1">
-        <v>119478</v>
+        <v>448223</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6391,16 +6391,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C42" s="1">
-        <v>4754</v>
+        <v>5462328</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
         <v>95</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="AP42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ42" s="1">
         <v>0</v>
@@ -6535,16 +6535,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C43" s="1">
-        <v>5462328</v>
+        <v>5707</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
         <v>95</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="S43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" s="1">
         <v>0</v>
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6979,7 +6979,7 @@
         <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -7123,7 +7123,7 @@
         <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7255,19 +7255,19 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C48" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G48" t="s">
         <v>97</v>
@@ -7279,10 +7279,10 @@
         <v>520</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -7298,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -7310,10 +7310,10 @@
         <v>0</v>
       </c>
       <c r="U48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W48" s="1">
         <v>0</v>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -7399,19 +7399,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C49" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E49" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7423,10 +7423,10 @@
         <v>520</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -7442,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" s="1">
         <v>0</v>
@@ -7454,10 +7454,10 @@
         <v>0</v>
       </c>
       <c r="U49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W49" s="1">
         <v>0</v>
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49" s="1">
         <v>0</v>
@@ -7543,19 +7543,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C50" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E50" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="F50" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7567,10 +7567,10 @@
         <v>520</v>
       </c>
       <c r="J50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z50" s="1">
         <v>0</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ50" s="1">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="AS50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT50" s="1">
         <v>0</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C51" s="1">
-        <v>2519</v>
+        <v>4754</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E51" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="1">
         <v>0</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C52" s="1">
-        <v>4754</v>
+        <v>88890</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7855,10 +7855,10 @@
         <v>520</v>
       </c>
       <c r="J52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ52" s="1">
         <v>0</v>
@@ -7958,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT52" s="1">
         <v>0</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C53" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E53" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F53" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -7999,10 +7999,10 @@
         <v>532</v>
       </c>
       <c r="J53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="1">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT53" s="1">
         <v>0</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C54" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C55" s="1">
-        <v>5486550</v>
+        <v>446220</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E55" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F55" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8287,10 +8287,10 @@
         <v>532</v>
       </c>
       <c r="J55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y55" s="1">
         <v>0</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C56" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D56" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E56" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C57" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F57" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8591,10 +8591,10 @@
         <v>1</v>
       </c>
       <c r="P57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="1">
         <v>0</v>
@@ -8654,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57" s="1">
         <v>0</v>
@@ -8678,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C58" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8735,10 +8735,10 @@
         <v>1</v>
       </c>
       <c r="P58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -8842,7 +8842,7 @@
         <v>40</v>
       </c>
       <c r="C59" s="1">
-        <v>5462507</v>
+        <v>5486550</v>
       </c>
       <c r="D59" t="s">
         <v>68</v>
@@ -8851,7 +8851,7 @@
         <v>92</v>
       </c>
       <c r="F59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR59" s="1">
         <v>0</v>
@@ -8983,19 +8983,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C60" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9023,10 +9023,10 @@
         <v>1</v>
       </c>
       <c r="P60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" s="1">
         <v>0</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z60" s="1">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ60" s="1">
         <v>0</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C61" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E61" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="1">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="AP61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ61" s="1">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C62" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9311,10 +9311,10 @@
         <v>1</v>
       </c>
       <c r="P62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -9415,19 +9415,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C63" s="1">
-        <v>446220</v>
+        <v>21812144</v>
       </c>
       <c r="D63" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E63" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F63" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s">
         <v>97</v>
@@ -9439,10 +9439,10 @@
         <v>541</v>
       </c>
       <c r="J63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="1">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL63" s="1">
         <v>0</v>
@@ -9545,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU63" s="1">
         <v>0</v>
@@ -9559,16 +9559,16 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C64" s="1">
-        <v>5462507</v>
+        <v>4914</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E64" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s">
         <v>95</v>
@@ -9662,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64" s="1">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="AP64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ64" s="1">
         <v>0</v>
@@ -9703,16 +9703,16 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C65" s="1">
-        <v>4914</v>
+        <v>5462507</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E65" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F65" t="s">
         <v>95</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9821,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="AP65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ65" s="1">
         <v>0</v>
@@ -9847,19 +9847,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C66" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D66" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F66" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G66" t="s">
         <v>97</v>
@@ -9871,10 +9871,10 @@
         <v>541</v>
       </c>
       <c r="J66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -9991,19 +9991,19 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C67" s="1">
-        <v>5462328</v>
+        <v>5486550</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F67" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G67" t="s">
         <v>97</v>
@@ -10015,10 +10015,10 @@
         <v>541</v>
       </c>
       <c r="J67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="AQ67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR67" s="1">
         <v>0</v>
@@ -10135,19 +10135,19 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C68" s="1">
-        <v>21812144</v>
+        <v>88890</v>
       </c>
       <c r="D68" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G68" t="s">
         <v>97</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -10262,10 +10262,10 @@
         <v>0</v>
       </c>
       <c r="AS68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU68" s="1">
         <v>0</v>
@@ -10279,19 +10279,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C69" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D69" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E69" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F69" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -10303,10 +10303,10 @@
         <v>541</v>
       </c>
       <c r="J69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10325,10 +10325,10 @@
         <v>0</v>
       </c>
       <c r="R69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T69" s="1">
         <v>0</v>
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="X69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y69" s="1">
         <v>0</v>
@@ -10423,16 +10423,16 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C70" s="1">
-        <v>12107</v>
+        <v>62300</v>
       </c>
       <c r="D70" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E70" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F70" t="s">
         <v>95</v>
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -10550,7 +10550,7 @@
         <v>0</v>
       </c>
       <c r="AS70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT70" s="1">
         <v>0</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C71" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D71" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E71" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F71" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10607,16 +10607,16 @@
         <v>1</v>
       </c>
       <c r="P71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71" s="1">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -10711,19 +10711,19 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C72" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D72" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G72" t="s">
         <v>97</v>
@@ -10735,10 +10735,10 @@
         <v>541</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -10751,10 +10751,10 @@
         <v>1</v>
       </c>
       <c r="P72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" s="1">
         <v>0</v>
@@ -10855,19 +10855,19 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C73" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D73" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E73" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F73" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G73" t="s">
         <v>97</v>
@@ -10879,10 +10879,10 @@
         <v>541</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -10976,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="AQ73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR73" s="1">
         <v>0</v>
@@ -10999,19 +10999,19 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C74" s="1">
-        <v>165365057</v>
+        <v>446220</v>
       </c>
       <c r="D74" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E74" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
@@ -11023,10 +11023,10 @@
         <v>542</v>
       </c>
       <c r="J74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y74" s="1">
         <v>0</v>
@@ -11126,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="AS74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT74" s="1">
         <v>0</v>
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C75" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D75" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E75" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11167,10 +11167,10 @@
         <v>542</v>
       </c>
       <c r="J75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
@@ -11183,10 +11183,10 @@
         <v>1</v>
       </c>
       <c r="P75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" s="1">
         <v>0</v>
@@ -11246,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="AK75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL75" s="1">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="AS75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT75" s="1">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -11431,19 +11431,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C77" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D77" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E77" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11455,10 +11455,10 @@
         <v>542</v>
       </c>
       <c r="J77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
@@ -11471,10 +11471,10 @@
         <v>1</v>
       </c>
       <c r="P77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" s="1">
         <v>0</v>
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y77" s="1">
         <v>0</v>
@@ -11534,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="AK77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL77" s="1">
         <v>0</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C78" s="1">
-        <v>156346345</v>
+        <v>165365057</v>
       </c>
       <c r="D78" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E78" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -11599,10 +11599,10 @@
         <v>542</v>
       </c>
       <c r="J78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,84 +60,84 @@
     <t>substance</t>
   </si>
   <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
+    <t>1-phenyl-1-propanamine</t>
+  </si>
+  <si>
+    <t>menthol</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
   </si>
   <si>
     <t>nicotine</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>menthol</t>
-  </si>
-  <si>
-    <t>1-phenyl-1-propanamine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>procaine</t>
   </si>
   <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>procaine</t>
-  </si>
-  <si>
-    <t>xylazine</t>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
+    <t>levamisole</t>
   </si>
   <si>
     <t>quinine</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
-    <t>levamisole</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
+    <t>benzoylecgonine (BZ)</t>
+  </si>
+  <si>
     <t>benzoic acid</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
+    <t>lysergic acid diethylamide (LSD)</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>lysergic acid diethylamide (LSD)</t>
-  </si>
-  <si>
     <t>caffeine</t>
   </si>
   <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -147,151 +147,151 @@
     <t>cas</t>
   </si>
   <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>50-36-2</t>
   </si>
   <si>
     <t>620-71-3</t>
   </si>
   <si>
-    <t>105-70-4</t>
+    <t>2941-20-0</t>
+  </si>
+  <si>
+    <t>1490-04-6</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
   </si>
   <si>
     <t>54-11-5</t>
   </si>
   <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1490-04-6</t>
-  </si>
-  <si>
-    <t>2941-20-0</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>59-46-1</t>
   </si>
   <si>
     <t>561-27-3</t>
   </si>
   <si>
-    <t>59-46-1</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
     <t>90736-23-5</t>
   </si>
   <si>
     <t>537-46-2</t>
   </si>
   <si>
+    <t>43021-26-7</t>
+  </si>
+  <si>
+    <t>14769-73-4</t>
+  </si>
+  <si>
     <t>72402-53-0</t>
   </si>
   <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
-    <t>14769-73-4</t>
-  </si>
-  <si>
     <t>62-44-2</t>
   </si>
   <si>
+    <t>519-09-5</t>
+  </si>
+  <si>
     <t>65-85-0</t>
   </si>
   <si>
-    <t>519-09-5</t>
+    <t>50-37-3</t>
   </si>
   <si>
     <t>6740-88-1</t>
   </si>
   <si>
-    <t>50-37-3</t>
-  </si>
-  <si>
     <t>58-08-2</t>
   </si>
   <si>
+    <t>6703-27-1</t>
+  </si>
+  <si>
     <t>2784-73-8</t>
   </si>
   <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
     <t>unii</t>
   </si>
   <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
   </si>
   <si>
     <t>6M3C89ZY6R</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>4Z8Y51M438</t>
   </si>
   <si>
     <t>70D95007SX</t>
   </si>
   <si>
-    <t>4Z8Y51M438</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
     <t>44RAL3456C</t>
   </si>
   <si>
+    <t>58C337KP3E</t>
+  </si>
+  <si>
+    <t>2880D3468G</t>
+  </si>
+  <si>
     <t>A7V27PHC7A</t>
   </si>
   <si>
-    <t>58C337KP3E</t>
-  </si>
-  <si>
-    <t>2880D3468G</t>
-  </si>
-  <si>
     <t>ER0CTH01H9</t>
   </si>
   <si>
+    <t>5353I8I6YS</t>
+  </si>
+  <si>
     <t>8SKN0B0MIM</t>
   </si>
   <si>
-    <t>5353I8I6YS</t>
+    <t>8NA5SWF92O</t>
   </si>
   <si>
     <t>690G0D6V8H</t>
   </si>
   <si>
-    <t>8NA5SWF92O</t>
-  </si>
-  <si>
     <t>3G6A5W338E</t>
   </si>
   <si>
+    <t>U59401ETXH</t>
+  </si>
+  <si>
     <t>M5E47P1ZCH</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -634,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>446220</v>
+        <v>66924</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -643,7 +643,7 @@
         <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -655,10 +655,10 @@
         <v>369</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1">
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="1">
         <v>0</v>
@@ -778,16 +778,16 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>12107</v>
+        <v>165365057</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>97</v>
@@ -799,10 +799,10 @@
         <v>369</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -922,16 +922,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>66924</v>
+        <v>446220</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -943,10 +943,10 @@
         <v>369</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="1">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>89594</v>
+        <v>12107</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
         <v>95</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>88890</v>
+        <v>18054</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
         <v>97</v>
@@ -1231,10 +1231,10 @@
         <v>369</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>165365057</v>
+        <v>1254</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1375,10 +1375,10 @@
         <v>369</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1498,16 +1498,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>1254</v>
+        <v>88890</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1519,10 +1519,10 @@
         <v>369</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -1642,16 +1642,16 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>18054</v>
+        <v>3345</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
         <v>97</v>
@@ -1663,10 +1663,10 @@
         <v>369</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1679,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" s="1">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>3345</v>
+        <v>89594</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
@@ -1795,7 +1795,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
         <v>97</v>
@@ -1807,10 +1807,10 @@
         <v>369</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1823,10 +1823,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="1">
         <v>0</v>
@@ -1927,19 +1927,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -1967,10 +1967,10 @@
         <v>1</v>
       </c>
       <c r="P11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="1">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2111,10 +2111,10 @@
         <v>1</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2261,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
-        <v>4914</v>
+        <v>446220</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2420,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="1">
         <v>0</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
-        <v>88890</v>
+        <v>4914</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="AP15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15" s="1">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="1">
-        <v>5707</v>
+        <v>5462328</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
@@ -2659,7 +2659,7 @@
         <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2693,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="R16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>27</v>
       </c>
       <c r="C17" s="1">
-        <v>156346345</v>
+        <v>62300</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2815,10 +2815,10 @@
         <v>405</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="1">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1">
         <v>3345</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1">
-        <v>62300</v>
+        <v>4914</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3247,10 +3247,10 @@
         <v>405</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" s="1">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1">
-        <v>4914</v>
+        <v>165365057</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="1">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -3658,16 +3658,16 @@
         <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>10836</v>
+        <v>156346345</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3710,10 +3710,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="1">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="1">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
-        <v>3034034</v>
+        <v>3345</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="1">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="1">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
         <v>119478</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
         <v>95</v>
@@ -4087,19 +4087,19 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1">
         <v>446220</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s">
         <v>97</v>
@@ -4231,16 +4231,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1">
         <v>5462328</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
         <v>95</v>
@@ -4375,16 +4375,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1">
         <v>26879</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
@@ -4519,16 +4519,16 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>3345</v>
+        <v>3034034</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
         <v>95</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="1">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4663,19 +4663,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1">
-        <v>446220</v>
+        <v>4754</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="1">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30" s="1">
         <v>0</v>
@@ -4807,19 +4807,19 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1">
-        <v>4754</v>
+        <v>446220</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4868,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="W31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="1">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="1">
         <v>0</v>
@@ -4951,19 +4951,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s">
         <v>97</v>
@@ -4975,10 +4975,10 @@
         <v>495</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="1">
         <v>0</v>
@@ -5095,19 +5095,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
-        <v>66924</v>
+        <v>448223</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
         <v>97</v>
@@ -5119,10 +5119,10 @@
         <v>495</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5239,16 +5239,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C34" s="1">
-        <v>4754</v>
+        <v>88890</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
         <v>95</v>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="1">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34" s="1">
         <v>0</v>
@@ -5386,7 +5386,7 @@
         <v>15</v>
       </c>
       <c r="C35" s="1">
-        <v>446220</v>
+        <v>66924</v>
       </c>
       <c r="D35" t="s">
         <v>44</v>
@@ -5395,7 +5395,7 @@
         <v>71</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -5407,10 +5407,10 @@
         <v>495</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5444,10 +5444,10 @@
         <v>0</v>
       </c>
       <c r="W35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="1">
         <v>0</v>
@@ -5527,19 +5527,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C36" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E36" t="s">
         <v>75</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -5551,10 +5551,10 @@
         <v>495</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -5567,10 +5567,10 @@
         <v>1</v>
       </c>
       <c r="P36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36" s="1">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="AS36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="1">
         <v>0</v>
@@ -5671,16 +5671,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C37" s="1">
-        <v>243</v>
+        <v>5707</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s">
         <v>95</v>
@@ -5720,10 +5720,10 @@
         <v>0</v>
       </c>
       <c r="S37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" s="1">
         <v>0</v>
@@ -5815,16 +5815,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C38" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s">
         <v>95</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="1">
         <v>0</v>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5959,19 +5959,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C39" s="1">
-        <v>3345</v>
+        <v>4754</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -5983,10 +5983,10 @@
         <v>495</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -5999,10 +5999,10 @@
         <v>1</v>
       </c>
       <c r="P39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6077,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="AP39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ39" s="1">
         <v>0</v>
@@ -6103,19 +6103,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C40" s="1">
-        <v>165365057</v>
+        <v>119478</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="1">
         <v>0</v>
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1">
-        <v>448223</v>
+        <v>446220</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6308,10 +6308,10 @@
         <v>0</v>
       </c>
       <c r="W41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41" s="1">
         <v>0</v>
@@ -6391,19 +6391,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1">
-        <v>5462328</v>
+        <v>165365057</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6415,10 +6415,10 @@
         <v>495</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="AS42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT42" s="1">
         <v>0</v>
@@ -6535,16 +6535,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C43" s="1">
-        <v>5707</v>
+        <v>243</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s">
         <v>95</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="S43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" s="1">
         <v>0</v>
@@ -6679,19 +6679,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C44" s="1">
-        <v>3821</v>
+        <v>4754</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6703,10 +6703,10 @@
         <v>501</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="1">
         <v>0</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ44" s="1">
         <v>0</v>
@@ -6823,19 +6823,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C45" s="1">
-        <v>4754</v>
+        <v>5761</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6847,10 +6847,10 @@
         <v>501</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="AP45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ45" s="1">
         <v>0</v>
@@ -6970,7 +6970,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="1">
-        <v>5761</v>
+        <v>3821</v>
       </c>
       <c r="D46" t="s">
         <v>65</v>
@@ -6979,7 +6979,7 @@
         <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -7055,10 +7055,10 @@
         <v>0</v>
       </c>
       <c r="AF46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH46" s="1">
         <v>0</v>
@@ -7111,7 +7111,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" s="1">
         <v>10836</v>
@@ -7123,7 +7123,7 @@
         <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7255,16 +7255,16 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" s="1">
         <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s">
         <v>95</v>
@@ -7399,19 +7399,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C49" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7423,10 +7423,10 @@
         <v>520</v>
       </c>
       <c r="J49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -7454,10 +7454,10 @@
         <v>0</v>
       </c>
       <c r="U49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49" s="1">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="AS49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT49" s="1">
         <v>0</v>
@@ -7543,19 +7543,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C50" s="1">
-        <v>2519</v>
+        <v>10836</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E50" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7598,10 +7598,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="1">
         <v>0</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ50" s="1">
         <v>0</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C51" s="1">
-        <v>4754</v>
+        <v>2519</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E51" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F51" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z51" s="1">
         <v>0</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C52" s="1">
-        <v>88890</v>
+        <v>4754</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E52" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7855,10 +7855,10 @@
         <v>520</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ52" s="1">
         <v>0</v>
@@ -7958,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT52" s="1">
         <v>0</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C53" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E53" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -7999,10 +7999,10 @@
         <v>532</v>
       </c>
       <c r="J53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y53" s="1">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="1">
         <v>0</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C54" s="1">
-        <v>12107</v>
+        <v>5462328</v>
       </c>
       <c r="D54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" t="s">
         <v>45</v>
-      </c>
-      <c r="E54" t="s">
-        <v>72</v>
-      </c>
-      <c r="F54" t="s">
-        <v>49</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT54" s="1">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C55" s="1">
-        <v>446220</v>
+        <v>5486550</v>
       </c>
       <c r="D55" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E55" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F55" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8287,10 +8287,10 @@
         <v>532</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="1">
         <v>0</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C56" s="1">
         <v>5462507</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F56" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57" s="1">
         <v>3345</v>
       </c>
       <c r="D57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C58" s="1">
-        <v>5462328</v>
+        <v>12107</v>
       </c>
       <c r="D58" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8839,19 +8839,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C59" s="1">
-        <v>5486550</v>
+        <v>88890</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E59" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -8960,13 +8960,13 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR59" s="1">
         <v>0</v>
       </c>
       <c r="AS59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT59" s="1">
         <v>0</v>
@@ -8983,19 +8983,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C60" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E60" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F60" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="1">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ60" s="1">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C61" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D61" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E61" t="s">
         <v>75</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9167,10 +9167,10 @@
         <v>1</v>
       </c>
       <c r="P61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C62" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D62" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F62" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9311,10 +9311,10 @@
         <v>1</v>
       </c>
       <c r="P62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z62" s="1">
         <v>0</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9389,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="AP62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ62" s="1">
         <v>0</v>
@@ -9415,19 +9415,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C63" s="1">
-        <v>21812144</v>
+        <v>3345</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E63" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G63" t="s">
         <v>97</v>
@@ -9455,10 +9455,10 @@
         <v>1</v>
       </c>
       <c r="P63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="1">
         <v>0</v>
@@ -9545,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU63" s="1">
         <v>0</v>
@@ -9703,16 +9703,16 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C65" s="1">
-        <v>5462507</v>
+        <v>12107</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F65" t="s">
         <v>95</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="AS65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT65" s="1">
         <v>0</v>
@@ -9847,16 +9847,16 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C66" s="1">
-        <v>12107</v>
+        <v>5486550</v>
       </c>
       <c r="D66" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F66" t="s">
         <v>95</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL66" s="1">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR66" s="1">
         <v>0</v>
       </c>
       <c r="AS66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT66" s="1">
         <v>0</v>
@@ -9991,19 +9991,19 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C67" s="1">
-        <v>5486550</v>
+        <v>21812144</v>
       </c>
       <c r="D67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E67" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F67" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s">
         <v>97</v>
@@ -10015,10 +10015,10 @@
         <v>541</v>
       </c>
       <c r="J67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="AQ67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR67" s="1">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="AT67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU67" s="1">
         <v>0</v>
@@ -10135,19 +10135,19 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C68" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D68" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E68" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F68" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G68" t="s">
         <v>97</v>
@@ -10159,10 +10159,10 @@
         <v>541</v>
       </c>
       <c r="J68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -10262,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="1">
         <v>0</v>
@@ -10279,19 +10279,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C69" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D69" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E69" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F69" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -10303,10 +10303,10 @@
         <v>541</v>
       </c>
       <c r="J69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="X69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y69" s="1">
         <v>0</v>
@@ -10406,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="AS69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT69" s="1">
         <v>0</v>
@@ -10423,7 +10423,7 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C70" s="1">
         <v>62300</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C71" s="1">
         <v>5707</v>
       </c>
       <c r="D71" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E71" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10711,19 +10711,19 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C72" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D72" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E72" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F72" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G72" t="s">
         <v>97</v>
@@ -10751,10 +10751,10 @@
         <v>1</v>
       </c>
       <c r="P72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R72" s="1">
         <v>0</v>
@@ -10855,19 +10855,19 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C73" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D73" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E73" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G73" t="s">
         <v>97</v>
@@ -10879,10 +10879,10 @@
         <v>541</v>
       </c>
       <c r="J73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="X73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y73" s="1">
         <v>0</v>
@@ -10958,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73" s="1">
         <v>0</v>
@@ -10999,19 +10999,19 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C74" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D74" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E74" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F74" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
@@ -11023,10 +11023,10 @@
         <v>542</v>
       </c>
       <c r="J74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -11039,10 +11039,10 @@
         <v>1</v>
       </c>
       <c r="P74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="1">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y74" s="1">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="AK74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL74" s="1">
         <v>0</v>
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C75" s="1">
-        <v>156346345</v>
+        <v>165365057</v>
       </c>
       <c r="D75" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E75" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11167,10 +11167,10 @@
         <v>542</v>
       </c>
       <c r="J75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
@@ -11287,19 +11287,19 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C76" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D76" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E76" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F76" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -11311,10 +11311,10 @@
         <v>542</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y76" s="1">
         <v>0</v>
@@ -11414,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="AS76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT76" s="1">
         <v>0</v>
@@ -11431,19 +11431,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C77" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D77" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E77" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11455,10 +11455,10 @@
         <v>542</v>
       </c>
       <c r="J77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
@@ -11471,10 +11471,10 @@
         <v>1</v>
       </c>
       <c r="P77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77" s="1">
         <v>0</v>
@@ -11534,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="AK77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL77" s="1">
         <v>0</v>
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="AS77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT77" s="1">
         <v>0</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C78" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E78" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F78" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,40 +60,43 @@
     <t>substance</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>nicotine</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>1-phenyl-1-propanamine</t>
+  </si>
+  <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>1-phenyl-1-propanamine</t>
-  </si>
-  <si>
     <t>menthol</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>nicotine</t>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>procaine</t>
   </si>
   <si>
     <t>xylazine</t>
   </si>
   <si>
-    <t>procaine</t>
-  </si>
-  <si>
-    <t>heroin</t>
+    <t>ethyl-4-ANPP</t>
   </si>
   <si>
     <t>p-fluorofentanyl</t>
@@ -102,27 +105,24 @@
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
+    <t>quinine</t>
+  </si>
+  <si>
     <t>levamisole</t>
   </si>
   <si>
-    <t>quinine</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
+    <t>benzoic acid</t>
+  </si>
+  <si>
     <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
-    <t>benzoic acid</t>
-  </si>
-  <si>
     <t>lysergic acid diethylamide (LSD)</t>
   </si>
   <si>
@@ -147,42 +147,42 @@
     <t>cas</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>54-11-5</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
+    <t>2941-20-0</t>
+  </si>
+  <si>
     <t>105-70-4</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t>2941-20-0</t>
-  </si>
-  <si>
     <t>1490-04-6</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>54-11-5</t>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>59-46-1</t>
   </si>
   <si>
     <t>7361-61-7</t>
   </si>
   <si>
-    <t>59-46-1</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
     <t>90736-23-5</t>
   </si>
   <si>
@@ -192,21 +192,21 @@
     <t>43021-26-7</t>
   </si>
   <si>
+    <t>72402-53-0</t>
+  </si>
+  <si>
     <t>14769-73-4</t>
   </si>
   <si>
-    <t>72402-53-0</t>
-  </si>
-  <si>
     <t>62-44-2</t>
   </si>
   <si>
+    <t>65-85-0</t>
+  </si>
+  <si>
     <t>519-09-5</t>
   </si>
   <si>
-    <t>65-85-0</t>
-  </si>
-  <si>
     <t>50-37-3</t>
   </si>
   <si>
@@ -228,33 +228,33 @@
     <t>unii</t>
   </si>
   <si>
+    <t>6M3C89ZY6R</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>UYP5ZQI00T</t>
+    <t>UF599785JZ</t>
   </si>
   <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>6M3C89ZY6R</t>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>4Z8Y51M438</t>
   </si>
   <si>
     <t>2KFG9TP5V8</t>
   </si>
   <si>
-    <t>4Z8Y51M438</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
@@ -264,19 +264,19 @@
     <t>58C337KP3E</t>
   </si>
   <si>
+    <t>A7V27PHC7A</t>
+  </si>
+  <si>
     <t>2880D3468G</t>
   </si>
   <si>
-    <t>A7V27PHC7A</t>
-  </si>
-  <si>
     <t>ER0CTH01H9</t>
   </si>
   <si>
+    <t>8SKN0B0MIM</t>
+  </si>
+  <si>
     <t>5353I8I6YS</t>
-  </si>
-  <si>
-    <t>8SKN0B0MIM</t>
   </si>
   <si>
     <t>8NA5SWF92O</t>
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>66924</v>
+        <v>165365057</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -778,16 +778,16 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>165365057</v>
+        <v>89594</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
         <v>97</v>
@@ -799,10 +799,10 @@
         <v>369</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
         <v>95</v>
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>1254</v>
+        <v>66924</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1375,10 +1375,10 @@
         <v>369</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1498,16 +1498,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>88890</v>
+        <v>1254</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1519,10 +1519,10 @@
         <v>369</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
         <v>97</v>
@@ -1786,7 +1786,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>89594</v>
+        <v>88890</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
@@ -1795,7 +1795,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
         <v>97</v>
@@ -1807,10 +1807,10 @@
         <v>369</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -1927,19 +1927,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="1">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
-        <v>3345</v>
+        <v>4914</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2111,10 +2111,10 @@
         <v>1</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="AP12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2261,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="1">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2405,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -2420,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="W14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
-        <v>4914</v>
+        <v>88890</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="AP15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="1">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -2647,19 +2647,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2687,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>27</v>
       </c>
       <c r="C17" s="1">
-        <v>62300</v>
+        <v>156346345</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2815,10 +2815,10 @@
         <v>405</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="1">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3119,10 +3119,10 @@
         <v>1</v>
       </c>
       <c r="P19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3407,10 +3407,10 @@
         <v>1</v>
       </c>
       <c r="P21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="1">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>28</v>
       </c>
       <c r="C22" s="1">
-        <v>10836</v>
+        <v>62300</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3535,10 +3535,10 @@
         <v>405</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="1">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -3658,16 +3658,16 @@
         <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>156346345</v>
+        <v>10836</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3710,10 +3710,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="1">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
-        <v>3345</v>
+        <v>119478</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="1">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1">
-        <v>119478</v>
+        <v>5462328</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
         <v>95</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4087,19 +4087,19 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1">
-        <v>446220</v>
+        <v>3034034</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
         <v>97</v>
@@ -4111,10 +4111,10 @@
         <v>406</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26" s="1">
         <v>0</v>
@@ -4231,16 +4231,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1">
-        <v>5462328</v>
+        <v>26879</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
         <v>95</v>
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27" s="1">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ27" s="1">
         <v>0</v>
@@ -4375,16 +4375,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
-        <v>26879</v>
+        <v>3345</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="1">
         <v>0</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="1">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="AP28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="1">
         <v>0</v>
@@ -4519,19 +4519,19 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
-        <v>3034034</v>
+        <v>446220</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s">
         <v>97</v>
@@ -4543,10 +4543,10 @@
         <v>406</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -4580,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="1">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4675,7 +4675,7 @@
         <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4819,7 +4819,7 @@
         <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4951,16 +4951,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1">
-        <v>446220</v>
+        <v>66924</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s">
         <v>95</v>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="1">
         <v>0</v>
@@ -5095,19 +5095,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
-        <v>448223</v>
+        <v>4754</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G33" t="s">
         <v>97</v>
@@ -5119,10 +5119,10 @@
         <v>495</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="AP33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ33" s="1">
         <v>0</v>
@@ -5239,19 +5239,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C34" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
         <v>97</v>
@@ -5263,10 +5263,10 @@
         <v>495</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5300,10 +5300,10 @@
         <v>0</v>
       </c>
       <c r="W34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" s="1">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="1">
         <v>0</v>
@@ -5383,19 +5383,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C35" s="1">
-        <v>66924</v>
+        <v>119478</v>
       </c>
       <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" t="s">
         <v>44</v>
-      </c>
-      <c r="E35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" t="s">
-        <v>95</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -5407,10 +5407,10 @@
         <v>495</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5539,7 +5539,7 @@
         <v>75</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -5671,16 +5671,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s">
         <v>95</v>
@@ -5720,10 +5720,10 @@
         <v>0</v>
       </c>
       <c r="S37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="1">
         <v>0</v>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -5818,7 +5818,7 @@
         <v>26</v>
       </c>
       <c r="C38" s="1">
-        <v>5462328</v>
+        <v>5707</v>
       </c>
       <c r="D38" t="s">
         <v>55</v>
@@ -5864,10 +5864,10 @@
         <v>0</v>
       </c>
       <c r="S38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="1">
         <v>0</v>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5959,16 +5959,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C39" s="1">
-        <v>4754</v>
+        <v>243</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s">
         <v>95</v>
@@ -6077,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="AP39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="1">
         <v>0</v>
@@ -6103,19 +6103,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C40" s="1">
-        <v>119478</v>
+        <v>165365057</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT40" s="1">
         <v>0</v>
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6271,10 +6271,10 @@
         <v>495</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -6308,10 +6308,10 @@
         <v>0</v>
       </c>
       <c r="W41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="1">
         <v>0</v>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL41" s="1">
         <v>0</v>
@@ -6391,19 +6391,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1">
-        <v>165365057</v>
+        <v>448223</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="AS42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="1">
         <v>0</v>
@@ -6535,16 +6535,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1">
-        <v>243</v>
+        <v>446220</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s">
         <v>95</v>
@@ -6599,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43" s="1">
         <v>0</v>
@@ -6835,7 +6835,7 @@
         <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6979,7 +6979,7 @@
         <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -7111,7 +7111,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C47" s="1">
         <v>10836</v>
@@ -7123,7 +7123,7 @@
         <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7255,19 +7255,19 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C48" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s">
         <v>97</v>
@@ -7279,10 +7279,10 @@
         <v>520</v>
       </c>
       <c r="J48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -7298,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -7310,10 +7310,10 @@
         <v>0</v>
       </c>
       <c r="U48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W48" s="1">
         <v>0</v>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -7399,19 +7399,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C49" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7423,10 +7423,10 @@
         <v>520</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49" s="1">
         <v>0</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ49" s="1">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="AS49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="1">
         <v>0</v>
@@ -7543,19 +7543,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C50" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7567,10 +7567,10 @@
         <v>520</v>
       </c>
       <c r="J50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="1">
         <v>0</v>
@@ -7598,10 +7598,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL50" s="1">
         <v>0</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C51" s="1">
-        <v>2519</v>
+        <v>4754</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E51" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="1">
         <v>0</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C52" s="1">
-        <v>4754</v>
+        <v>88890</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7855,10 +7855,10 @@
         <v>520</v>
       </c>
       <c r="J52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ52" s="1">
         <v>0</v>
@@ -7958,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT52" s="1">
         <v>0</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C53" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D53" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F53" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -7999,10 +7999,10 @@
         <v>532</v>
       </c>
       <c r="J53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="1">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT53" s="1">
         <v>0</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C54" s="1">
-        <v>5462328</v>
+        <v>5486550</v>
       </c>
       <c r="D54" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E54" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR54" s="1">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C55" s="1">
-        <v>5486550</v>
+        <v>5462507</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C56" s="1">
-        <v>5462507</v>
+        <v>12107</v>
       </c>
       <c r="D56" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8510,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" s="1">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT56" s="1">
         <v>0</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C57" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F57" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8575,10 +8575,10 @@
         <v>532</v>
       </c>
       <c r="J57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
@@ -8591,10 +8591,10 @@
         <v>1</v>
       </c>
       <c r="P57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" s="1">
         <v>0</v>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y57" s="1">
         <v>0</v>
@@ -8654,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="1">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C58" s="1">
-        <v>12107</v>
+        <v>5462328</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E58" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8839,19 +8839,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C59" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E59" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8879,10 +8879,10 @@
         <v>1</v>
       </c>
       <c r="P59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="1">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT59" s="1">
         <v>0</v>
@@ -8983,19 +8983,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C60" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9023,10 +9023,10 @@
         <v>1</v>
       </c>
       <c r="P60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="1">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C61" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9167,10 +9167,10 @@
         <v>1</v>
       </c>
       <c r="P61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9283,7 +9283,7 @@
         <v>90</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9415,19 +9415,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C63" s="1">
-        <v>3345</v>
+        <v>5486550</v>
       </c>
       <c r="D63" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E63" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G63" t="s">
         <v>97</v>
@@ -9439,10 +9439,10 @@
         <v>541</v>
       </c>
       <c r="J63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -9455,10 +9455,10 @@
         <v>1</v>
       </c>
       <c r="P63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" s="1">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR63" s="1">
         <v>0</v>
@@ -9559,16 +9559,16 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C64" s="1">
-        <v>4914</v>
+        <v>12107</v>
       </c>
       <c r="D64" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F64" t="s">
         <v>95</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="AP64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ64" s="1">
         <v>0</v>
@@ -9686,7 +9686,7 @@
         <v>0</v>
       </c>
       <c r="AS64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT64" s="1">
         <v>0</v>
@@ -9703,16 +9703,16 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C65" s="1">
-        <v>12107</v>
+        <v>5462507</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F65" t="s">
         <v>95</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="AS65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT65" s="1">
         <v>0</v>
@@ -9847,16 +9847,16 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C66" s="1">
-        <v>5486550</v>
+        <v>62300</v>
       </c>
       <c r="D66" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E66" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F66" t="s">
         <v>95</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR66" s="1">
         <v>0</v>
@@ -9991,19 +9991,19 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C67" s="1">
-        <v>21812144</v>
+        <v>4914</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E67" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G67" t="s">
         <v>97</v>
@@ -10015,10 +10015,10 @@
         <v>541</v>
       </c>
       <c r="J67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="AP67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ67" s="1">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="AT67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU67" s="1">
         <v>0</v>
@@ -10135,19 +10135,19 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C68" s="1">
-        <v>5462507</v>
+        <v>21812144</v>
       </c>
       <c r="D68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F68" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G68" t="s">
         <v>97</v>
@@ -10159,10 +10159,10 @@
         <v>541</v>
       </c>
       <c r="J68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="AT68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU68" s="1">
         <v>0</v>
@@ -10279,19 +10279,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C69" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D69" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E69" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="AK69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -10406,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="AS69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT69" s="1">
         <v>0</v>
@@ -10423,19 +10423,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C70" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F70" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s">
         <v>97</v>
@@ -10447,10 +10447,10 @@
         <v>541</v>
       </c>
       <c r="J70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -10469,10 +10469,10 @@
         <v>0</v>
       </c>
       <c r="R70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" s="1">
         <v>0</v>
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C71" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D71" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10607,16 +10607,16 @@
         <v>1</v>
       </c>
       <c r="P71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T71" s="1">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -10711,19 +10711,19 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C72" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E72" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F72" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G72" t="s">
         <v>97</v>
@@ -10735,10 +10735,10 @@
         <v>541</v>
       </c>
       <c r="J72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y72" s="1">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -10855,19 +10855,19 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C73" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D73" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E73" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F73" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G73" t="s">
         <v>97</v>
@@ -10879,10 +10879,10 @@
         <v>541</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="X73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y73" s="1">
         <v>0</v>
@@ -10982,7 +10982,7 @@
         <v>0</v>
       </c>
       <c r="AS73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT73" s="1">
         <v>0</v>
@@ -10999,19 +10999,19 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C74" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D74" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E74" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
@@ -11023,10 +11023,10 @@
         <v>542</v>
       </c>
       <c r="J74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -11039,10 +11039,10 @@
         <v>1</v>
       </c>
       <c r="P74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74" s="1">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="AK74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL74" s="1">
         <v>0</v>
@@ -11126,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="AS74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT74" s="1">
         <v>0</v>
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C75" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D75" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11287,19 +11287,19 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C76" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E76" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -11311,10 +11311,10 @@
         <v>542</v>
       </c>
       <c r="J76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -11327,10 +11327,10 @@
         <v>1</v>
       </c>
       <c r="P76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76" s="1">
         <v>0</v>
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y76" s="1">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AK76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL76" s="1">
         <v>0</v>
@@ -11431,16 +11431,16 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C77" s="1">
-        <v>156346345</v>
+        <v>446220</v>
       </c>
       <c r="D77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F77" t="s">
         <v>95</v>
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y77" s="1">
         <v>0</v>
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="AS77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT77" s="1">
         <v>0</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C78" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D78" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E78" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -63,57 +63,57 @@
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
+    <t>menthol</t>
+  </si>
+  <si>
+    <t>1-phenyl-1-propanamine</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
     <t>nicotine</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>1-phenyl-1-propanamine</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>menthol</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>procaine</t>
   </si>
   <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>procaine</t>
-  </si>
-  <si>
-    <t>xylazine</t>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
+    <t>levamisole</t>
+  </si>
+  <si>
     <t>quinine</t>
   </si>
   <si>
-    <t>levamisole</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
@@ -132,12 +132,12 @@
     <t>caffeine</t>
   </si>
   <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -150,54 +150,54 @@
     <t/>
   </si>
   <si>
+    <t>1490-04-6</t>
+  </si>
+  <si>
+    <t>2941-20-0</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
     <t>54-11-5</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t>50-36-2</t>
   </si>
   <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t>2941-20-0</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>1490-04-6</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>59-46-1</t>
   </si>
   <si>
     <t>561-27-3</t>
   </si>
   <si>
-    <t>59-46-1</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
+    <t>537-46-2</t>
   </si>
   <si>
     <t>90736-23-5</t>
   </si>
   <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
     <t>43021-26-7</t>
   </si>
   <si>
+    <t>14769-73-4</t>
+  </si>
+  <si>
     <t>72402-53-0</t>
   </si>
   <si>
-    <t>14769-73-4</t>
-  </si>
-  <si>
     <t>62-44-2</t>
   </si>
   <si>
@@ -216,60 +216,60 @@
     <t>58-08-2</t>
   </si>
   <si>
+    <t>2784-73-8</t>
+  </si>
+  <si>
     <t>6703-27-1</t>
   </si>
   <si>
-    <t>2784-73-8</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
     <t>unii</t>
   </si>
   <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
     <t>6M3C89ZY6R</t>
   </si>
   <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>4Z8Y51M438</t>
   </si>
   <si>
     <t>70D95007SX</t>
   </si>
   <si>
-    <t>4Z8Y51M438</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
+    <t>44RAL3456C</t>
   </si>
   <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
     <t>58C337KP3E</t>
   </si>
   <si>
+    <t>2880D3468G</t>
+  </si>
+  <si>
     <t>A7V27PHC7A</t>
   </si>
   <si>
-    <t>2880D3468G</t>
-  </si>
-  <si>
     <t>ER0CTH01H9</t>
   </si>
   <si>
@@ -288,10 +288,10 @@
     <t>3G6A5W338E</t>
   </si>
   <si>
+    <t>M5E47P1ZCH</t>
+  </si>
+  <si>
     <t>U59401ETXH</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -778,13 +778,13 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>89594</v>
+        <v>1254</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>95</v>
@@ -922,13 +922,13 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>446220</v>
+        <v>18054</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>95</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="1">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>12107</v>
+        <v>66924</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1087,10 +1087,10 @@
         <v>369</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>18054</v>
+        <v>3345</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
         <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>95</v>
       </c>
       <c r="G6" t="s">
         <v>97</v>
@@ -1231,10 +1231,10 @@
         <v>369</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1247,10 +1247,10 @@
         <v>1</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>66924</v>
+        <v>12107</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1375,10 +1375,10 @@
         <v>369</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1498,13 +1498,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>1254</v>
+        <v>89594</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
         <v>95</v>
@@ -1642,7 +1642,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
@@ -1679,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="1">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
@@ -1795,7 +1795,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
         <v>97</v>
@@ -1807,10 +1807,10 @@
         <v>369</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -1930,7 +1930,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="1">
-        <v>5462328</v>
+        <v>5707</v>
       </c>
       <c r="D11" t="s">
         <v>53</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="1">
         <v>0</v>
@@ -2215,16 +2215,16 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
         <v>44</v>
@@ -2276,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
@@ -2359,16 +2359,16 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
         <v>44</v>
@@ -2399,16 +2399,16 @@
         <v>1</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D15" t="s">
         <v>52</v>
@@ -2564,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -2647,16 +2647,16 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
         <v>44</v>
@@ -2687,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>156346345</v>
+        <v>165365057</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
@@ -2935,16 +2935,16 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
         <v>44</v>
@@ -2975,10 +2975,10 @@
         <v>1</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="1">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1">
-        <v>88890</v>
+        <v>4914</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
         <v>44</v>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="1">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -3223,16 +3223,16 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
-        <v>4914</v>
+        <v>88890</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
         <v>44</v>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="1">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -3367,16 +3367,16 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
         <v>44</v>
@@ -3407,10 +3407,10 @@
         <v>1</v>
       </c>
       <c r="P21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
@@ -3422,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="1">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="1">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>62300</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
         <v>95</v>
@@ -3658,13 +3658,13 @@
         <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>10836</v>
+        <v>156346345</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
         <v>44</v>
@@ -3710,10 +3710,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="1">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="1">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1">
         <v>5462328</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s">
         <v>95</v>
@@ -4087,16 +4087,16 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1">
-        <v>3034034</v>
+        <v>3345</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
         <v>95</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="1">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="1">
         <v>0</v>
@@ -4231,16 +4231,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1">
         <v>26879</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
         <v>95</v>
@@ -4375,19 +4375,19 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s">
         <v>97</v>
@@ -4399,10 +4399,10 @@
         <v>406</v>
       </c>
       <c r="J28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="1">
         <v>0</v>
@@ -4436,10 +4436,10 @@
         <v>0</v>
       </c>
       <c r="W28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="1">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4519,19 +4519,19 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>446220</v>
+        <v>3034034</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G29" t="s">
         <v>97</v>
@@ -4543,10 +4543,10 @@
         <v>406</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -4580,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4663,16 +4663,16 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1">
-        <v>4754</v>
+        <v>446220</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s">
         <v>44</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="1">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="1">
         <v>0</v>
@@ -4807,16 +4807,16 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1">
-        <v>446220</v>
+        <v>4754</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
         <v>44</v>
@@ -4868,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="W31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="1">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ31" s="1">
         <v>0</v>
@@ -4951,16 +4951,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1">
-        <v>66924</v>
+        <v>4754</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s">
         <v>95</v>
@@ -5069,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ32" s="1">
         <v>0</v>
@@ -5095,19 +5095,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C33" s="1">
-        <v>4754</v>
+        <v>165365057</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
         <v>97</v>
@@ -5119,10 +5119,10 @@
         <v>495</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="AP33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="1">
         <v>0</v>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33" s="1">
         <v>0</v>
@@ -5239,19 +5239,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C34" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G34" t="s">
         <v>97</v>
@@ -5263,10 +5263,10 @@
         <v>495</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5300,10 +5300,10 @@
         <v>0</v>
       </c>
       <c r="W34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="1">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="1">
         <v>0</v>
@@ -5383,19 +5383,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1">
-        <v>119478</v>
+        <v>243</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -5407,10 +5407,10 @@
         <v>495</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5527,16 +5527,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s">
         <v>44</v>
@@ -5567,10 +5567,10 @@
         <v>1</v>
       </c>
       <c r="P36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
@@ -5588,10 +5588,10 @@
         <v>0</v>
       </c>
       <c r="W36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="1">
         <v>0</v>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="1">
         <v>0</v>
@@ -5671,16 +5671,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C37" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s">
         <v>95</v>
@@ -5720,10 +5720,10 @@
         <v>0</v>
       </c>
       <c r="S37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" s="1">
         <v>0</v>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -5815,16 +5815,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1">
-        <v>5707</v>
+        <v>66924</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
         <v>95</v>
@@ -5864,10 +5864,10 @@
         <v>0</v>
       </c>
       <c r="S38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="1">
         <v>0</v>
@@ -5959,16 +5959,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1">
-        <v>243</v>
+        <v>446220</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s">
         <v>95</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" s="1">
         <v>0</v>
@@ -6103,16 +6103,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C40" s="1">
-        <v>165365057</v>
+        <v>119478</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="F40" t="s">
         <v>44</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="1">
         <v>0</v>
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C41" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6271,10 +6271,10 @@
         <v>495</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -6287,10 +6287,10 @@
         <v>1</v>
       </c>
       <c r="P41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
@@ -6391,19 +6391,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C42" s="1">
-        <v>448223</v>
+        <v>88890</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6415,10 +6415,10 @@
         <v>495</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="AS42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT42" s="1">
         <v>0</v>
@@ -6535,19 +6535,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C43" s="1">
-        <v>446220</v>
+        <v>448223</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s">
         <v>97</v>
@@ -6559,10 +6559,10 @@
         <v>495</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -6599,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="1">
         <v>0</v>
@@ -7111,16 +7111,16 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C47" s="1">
         <v>10836</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s">
         <v>44</v>
@@ -7255,19 +7255,19 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C48" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G48" t="s">
         <v>97</v>
@@ -7279,10 +7279,10 @@
         <v>520</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -7310,10 +7310,10 @@
         <v>0</v>
       </c>
       <c r="U48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W48" s="1">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="AS48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT48" s="1">
         <v>0</v>
@@ -7543,19 +7543,19 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C50" s="1">
-        <v>3345</v>
+        <v>4754</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E50" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7567,10 +7567,10 @@
         <v>520</v>
       </c>
       <c r="J50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" s="1">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="1">
         <v>0</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ50" s="1">
         <v>0</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C51" s="1">
-        <v>4754</v>
+        <v>3345</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7711,10 +7711,10 @@
         <v>520</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="1">
         <v>0</v>
@@ -7790,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL51" s="1">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="AP51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ51" s="1">
         <v>0</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C52" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D52" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E52" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7855,10 +7855,10 @@
         <v>520</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -7886,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="U52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W52" s="1">
         <v>0</v>
@@ -7958,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT52" s="1">
         <v>0</v>
@@ -7975,16 +7975,16 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C53" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D53" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E53" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F53" t="s">
         <v>44</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="1">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="1">
         <v>0</v>
@@ -8119,16 +8119,16 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C54" s="1">
-        <v>5486550</v>
+        <v>12107</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E54" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F54" t="s">
         <v>44</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -8240,13 +8240,13 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR54" s="1">
         <v>0</v>
       </c>
       <c r="AS54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT54" s="1">
         <v>0</v>
@@ -8266,7 +8266,7 @@
         <v>40</v>
       </c>
       <c r="C55" s="1">
-        <v>5462507</v>
+        <v>5486550</v>
       </c>
       <c r="D55" t="s">
         <v>68</v>
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C56" s="1">
-        <v>12107</v>
+        <v>446220</v>
       </c>
       <c r="D56" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8431,10 +8431,10 @@
         <v>532</v>
       </c>
       <c r="J56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56" s="1">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT56" s="1">
         <v>0</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C57" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E57" t="s">
         <v>72</v>
       </c>
       <c r="F57" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8575,10 +8575,10 @@
         <v>532</v>
       </c>
       <c r="J57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
@@ -8591,10 +8591,10 @@
         <v>1</v>
       </c>
       <c r="P57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="1">
         <v>0</v>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="1">
         <v>0</v>
@@ -8654,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57" s="1">
         <v>0</v>
@@ -8695,16 +8695,16 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C58" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E58" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F58" t="s">
         <v>44</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8839,16 +8839,16 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C59" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D59" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E59" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F59" t="s">
         <v>44</v>
@@ -8879,10 +8879,10 @@
         <v>1</v>
       </c>
       <c r="P59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" s="1">
         <v>0</v>
@@ -8983,16 +8983,16 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C60" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D60" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F60" t="s">
         <v>44</v>
@@ -9023,10 +9023,10 @@
         <v>1</v>
       </c>
       <c r="P60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" s="1">
         <v>0</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z60" s="1">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ60" s="1">
         <v>0</v>
@@ -9127,16 +9127,16 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C61" s="1">
         <v>88890</v>
       </c>
       <c r="D61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s">
         <v>44</v>
@@ -9271,16 +9271,16 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C62" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F62" t="s">
         <v>44</v>
@@ -9311,10 +9311,10 @@
         <v>1</v>
       </c>
       <c r="P62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="1">
         <v>0</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -9389,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="AP62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ62" s="1">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C63" s="1">
         <v>5486550</v>
       </c>
       <c r="D63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F63" t="s">
         <v>95</v>
@@ -9559,16 +9559,16 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C64" s="1">
-        <v>12107</v>
+        <v>4914</v>
       </c>
       <c r="D64" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E64" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s">
         <v>95</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="AP64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ64" s="1">
         <v>0</v>
@@ -9686,7 +9686,7 @@
         <v>0</v>
       </c>
       <c r="AS64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT64" s="1">
         <v>0</v>
@@ -9703,16 +9703,16 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C65" s="1">
-        <v>5462507</v>
+        <v>12107</v>
       </c>
       <c r="D65" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E65" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F65" t="s">
         <v>95</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="AS65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT65" s="1">
         <v>0</v>
@@ -9847,19 +9847,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C66" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D66" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E66" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F66" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s">
         <v>97</v>
@@ -9871,10 +9871,10 @@
         <v>541</v>
       </c>
       <c r="J66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66" s="1">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="AS66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT66" s="1">
         <v>0</v>
@@ -9991,19 +9991,19 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C67" s="1">
-        <v>4914</v>
+        <v>21812144</v>
       </c>
       <c r="D67" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E67" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F67" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G67" t="s">
         <v>97</v>
@@ -10015,10 +10015,10 @@
         <v>541</v>
       </c>
       <c r="J67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="AP67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ67" s="1">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="AT67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU67" s="1">
         <v>0</v>
@@ -10135,19 +10135,19 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C68" s="1">
-        <v>21812144</v>
+        <v>62300</v>
       </c>
       <c r="D68" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E68" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G68" t="s">
         <v>97</v>
@@ -10159,10 +10159,10 @@
         <v>541</v>
       </c>
       <c r="J68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="AT68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU68" s="1">
         <v>0</v>
@@ -10279,19 +10279,19 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C69" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F69" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -10303,10 +10303,10 @@
         <v>541</v>
       </c>
       <c r="J69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="X69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y69" s="1">
         <v>0</v>
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="AK69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -10423,16 +10423,16 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C70" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D70" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F70" t="s">
         <v>44</v>
@@ -10463,16 +10463,16 @@
         <v>1</v>
       </c>
       <c r="P70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T70" s="1">
         <v>0</v>
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -10567,16 +10567,16 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C71" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D71" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E71" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F71" t="s">
         <v>44</v>
@@ -10607,10 +10607,10 @@
         <v>1</v>
       </c>
       <c r="P71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" s="1">
         <v>0</v>
@@ -10711,19 +10711,19 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C72" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D72" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E72" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s">
         <v>97</v>
@@ -10735,10 +10735,10 @@
         <v>541</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -10757,10 +10757,10 @@
         <v>0</v>
       </c>
       <c r="R72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T72" s="1">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y72" s="1">
         <v>0</v>
@@ -10855,19 +10855,19 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C73" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D73" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E73" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F73" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G73" t="s">
         <v>97</v>
@@ -10879,10 +10879,10 @@
         <v>541</v>
       </c>
       <c r="J73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -10958,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL73" s="1">
         <v>0</v>
@@ -10982,7 +10982,7 @@
         <v>0</v>
       </c>
       <c r="AS73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT73" s="1">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C74" s="1">
         <v>156346345</v>
@@ -11143,16 +11143,16 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C75" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D75" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F75" t="s">
         <v>44</v>
@@ -11183,10 +11183,10 @@
         <v>1</v>
       </c>
       <c r="P75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" s="1">
         <v>0</v>
@@ -11246,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="AK75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL75" s="1">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="AS75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT75" s="1">
         <v>0</v>
@@ -11290,7 +11290,7 @@
         <v>22</v>
       </c>
       <c r="C76" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D76" t="s">
         <v>51</v>
@@ -11327,10 +11327,10 @@
         <v>1</v>
       </c>
       <c r="P76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R76" s="1">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AK76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL76" s="1">
         <v>0</v>
@@ -11414,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="AS76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT76" s="1">
         <v>0</v>
@@ -11431,16 +11431,16 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C77" s="1">
         <v>446220</v>
       </c>
       <c r="D77" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E77" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F77" t="s">
         <v>95</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,42 +60,42 @@
     <t>substance</t>
   </si>
   <si>
+    <t>nicotine</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>1-phenyl-1-propanamine</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>menthol</t>
   </si>
   <si>
-    <t>1-phenyl-1-propanamine</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>nicotine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
     <t>xylazine</t>
   </si>
   <si>
     <t>procaine</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>methamphetamine</t>
   </si>
   <si>
@@ -105,24 +105,24 @@
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>levamisole</t>
+  </si>
+  <si>
+    <t>quinine</t>
+  </si>
+  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>levamisole</t>
-  </si>
-  <si>
-    <t>quinine</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
+    <t>benzoylecgonine (BZ)</t>
+  </si>
+  <si>
     <t>benzoic acid</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
-  </si>
-  <si>
     <t>lysergic acid diethylamide (LSD)</t>
   </si>
   <si>
@@ -132,12 +132,12 @@
     <t>caffeine</t>
   </si>
   <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -147,66 +147,66 @@
     <t>cas</t>
   </si>
   <si>
+    <t>54-11-5</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>2941-20-0</t>
+  </si>
+  <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t>1490-04-6</t>
   </si>
   <si>
-    <t>2941-20-0</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t>54-11-5</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
     <t>50-36-2</t>
   </si>
   <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
     <t>7361-61-7</t>
   </si>
   <si>
     <t>59-46-1</t>
   </si>
   <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
     <t>537-46-2</t>
   </si>
   <si>
     <t>90736-23-5</t>
   </si>
   <si>
+    <t>14769-73-4</t>
+  </si>
+  <si>
+    <t>72402-53-0</t>
+  </si>
+  <si>
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>14769-73-4</t>
-  </si>
-  <si>
-    <t>72402-53-0</t>
-  </si>
-  <si>
     <t>62-44-2</t>
   </si>
   <si>
+    <t>519-09-5</t>
+  </si>
+  <si>
     <t>65-85-0</t>
   </si>
   <si>
-    <t>519-09-5</t>
-  </si>
-  <si>
     <t>50-37-3</t>
   </si>
   <si>
@@ -216,69 +216,69 @@
     <t>58-08-2</t>
   </si>
   <si>
+    <t>6703-27-1</t>
+  </si>
+  <si>
     <t>2784-73-8</t>
   </si>
   <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
     <t>unii</t>
   </si>
   <si>
+    <t>6M3C89ZY6R</t>
+  </si>
+  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
-    <t>6M3C89ZY6R</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
     <t>2KFG9TP5V8</t>
   </si>
   <si>
     <t>4Z8Y51M438</t>
   </si>
   <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
     <t>44RAL3456C</t>
   </si>
   <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
+    <t>2880D3468G</t>
+  </si>
+  <si>
+    <t>A7V27PHC7A</t>
+  </si>
+  <si>
     <t>58C337KP3E</t>
   </si>
   <si>
-    <t>2880D3468G</t>
-  </si>
-  <si>
-    <t>A7V27PHC7A</t>
-  </si>
-  <si>
     <t>ER0CTH01H9</t>
   </si>
   <si>
+    <t>5353I8I6YS</t>
+  </si>
+  <si>
     <t>8SKN0B0MIM</t>
   </si>
   <si>
-    <t>5353I8I6YS</t>
-  </si>
-  <si>
     <t>8NA5SWF92O</t>
   </si>
   <si>
@@ -288,10 +288,10 @@
     <t>3G6A5W338E</t>
   </si>
   <si>
+    <t>U59401ETXH</t>
+  </si>
+  <si>
     <t>M5E47P1ZCH</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>165365057</v>
+        <v>89594</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -655,10 +655,10 @@
         <v>369</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -778,16 +778,16 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>1254</v>
+        <v>66924</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
         <v>97</v>
@@ -799,10 +799,10 @@
         <v>369</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -928,7 +928,7 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
         <v>95</v>
@@ -1066,16 +1066,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>66924</v>
+        <v>12107</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1087,10 +1087,10 @@
         <v>369</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
         <v>97</v>
@@ -1247,10 +1247,10 @@
         <v>1</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>12107</v>
+        <v>165365057</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1375,10 +1375,10 @@
         <v>369</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1498,16 +1498,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>89594</v>
+        <v>3345</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1519,10 +1519,10 @@
         <v>369</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1535,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1642,16 +1642,16 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>88890</v>
+        <v>1254</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
         <v>97</v>
@@ -1663,10 +1663,10 @@
         <v>369</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -1927,19 +1927,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -1967,16 +1967,16 @@
         <v>1</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="1">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>4914</v>
+        <v>5462328</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="AP12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2261,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2399,10 +2399,10 @@
         <v>1</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2420,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2564,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="W15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="1">
-        <v>5462328</v>
+        <v>4914</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
@@ -2659,7 +2659,7 @@
         <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" s="1">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
-        <v>165365057</v>
+        <v>10836</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="1">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
-        <v>3345</v>
+        <v>4914</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -2975,10 +2975,10 @@
         <v>1</v>
       </c>
       <c r="P18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="1">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" s="1">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1">
-        <v>4914</v>
+        <v>62300</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3103,10 +3103,10 @@
         <v>405</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="1">
         <v>0</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1">
-        <v>10836</v>
+        <v>156346345</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3422,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="1">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3535,10 +3535,10 @@
         <v>405</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -3655,19 +3655,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3695,10 +3695,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23" s="1">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="1">
-        <v>119478</v>
+        <v>26879</v>
       </c>
       <c r="D24" t="s">
         <v>58</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="1">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" s="1">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1">
-        <v>5462328</v>
+        <v>3034034</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
         <v>95</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="AP25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ25" s="1">
         <v>0</v>
@@ -4087,19 +4087,19 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s">
         <v>97</v>
@@ -4111,10 +4111,10 @@
         <v>406</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="1">
         <v>0</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="1">
         <v>0</v>
@@ -4231,16 +4231,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1">
-        <v>26879</v>
+        <v>3345</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
         <v>95</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="1">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="1">
         <v>0</v>
@@ -4375,19 +4375,19 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G28" t="s">
         <v>97</v>
@@ -4399,10 +4399,10 @@
         <v>406</v>
       </c>
       <c r="J28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
@@ -4436,10 +4436,10 @@
         <v>0</v>
       </c>
       <c r="W28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="1">
         <v>0</v>
@@ -4519,16 +4519,16 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1">
-        <v>3034034</v>
+        <v>5462328</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s">
         <v>95</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -4675,7 +4675,7 @@
         <v>76</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4819,7 +4819,7 @@
         <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4951,16 +4951,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1">
-        <v>4754</v>
+        <v>446220</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s">
         <v>95</v>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="1">
         <v>0</v>
@@ -5069,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="1">
         <v>0</v>
@@ -5095,19 +5095,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C33" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
         <v>97</v>
@@ -5135,10 +5135,10 @@
         <v>1</v>
       </c>
       <c r="P33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="1">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="1">
         <v>0</v>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="1">
         <v>0</v>
@@ -5239,16 +5239,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C34" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
         <v>95</v>
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="1">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34" s="1">
         <v>0</v>
@@ -5383,19 +5383,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1">
-        <v>243</v>
+        <v>119478</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -5407,10 +5407,10 @@
         <v>495</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5527,19 +5527,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C36" s="1">
-        <v>446220</v>
+        <v>66924</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -5551,10 +5551,10 @@
         <v>495</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -5588,10 +5588,10 @@
         <v>0</v>
       </c>
       <c r="W36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="1">
         <v>0</v>
@@ -5671,16 +5671,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C37" s="1">
-        <v>5707</v>
+        <v>4754</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F37" t="s">
         <v>95</v>
@@ -5720,10 +5720,10 @@
         <v>0</v>
       </c>
       <c r="S37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="1">
         <v>0</v>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="AP37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ37" s="1">
         <v>0</v>
@@ -5815,19 +5815,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1">
-        <v>66924</v>
+        <v>446220</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -5839,10 +5839,10 @@
         <v>495</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -5876,10 +5876,10 @@
         <v>0</v>
       </c>
       <c r="W38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" s="1">
         <v>0</v>
@@ -5959,19 +5959,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C39" s="1">
-        <v>446220</v>
+        <v>448223</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -5983,10 +5983,10 @@
         <v>495</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="1">
         <v>0</v>
@@ -6103,19 +6103,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C40" s="1">
-        <v>119478</v>
+        <v>243</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -6127,10 +6127,10 @@
         <v>495</v>
       </c>
       <c r="J40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6271,10 +6271,10 @@
         <v>495</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -6287,10 +6287,10 @@
         <v>1</v>
       </c>
       <c r="P41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
@@ -6391,19 +6391,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C42" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6415,10 +6415,10 @@
         <v>495</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -6535,19 +6535,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C43" s="1">
-        <v>448223</v>
+        <v>5707</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G43" t="s">
         <v>97</v>
@@ -6559,10 +6559,10 @@
         <v>495</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="S43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" s="1">
         <v>0</v>
@@ -6835,7 +6835,7 @@
         <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6979,7 +6979,7 @@
         <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -7123,7 +7123,7 @@
         <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7255,13 +7255,13 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C48" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E48" t="s">
         <v>75</v>
@@ -7298,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="AS48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT48" s="1">
         <v>0</v>
@@ -7399,19 +7399,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C49" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G49" t="s">
         <v>97</v>
@@ -7423,10 +7423,10 @@
         <v>520</v>
       </c>
       <c r="J49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="1">
         <v>0</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ49" s="1">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="AS49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT49" s="1">
         <v>0</v>
@@ -7555,7 +7555,7 @@
         <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -7687,19 +7687,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C51" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E51" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G51" t="s">
         <v>97</v>
@@ -7711,10 +7711,10 @@
         <v>520</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" s="1">
         <v>0</v>
@@ -7742,10 +7742,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -7790,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51" s="1">
         <v>0</v>
@@ -7831,19 +7831,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C52" s="1">
-        <v>10836</v>
+        <v>2519</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s">
         <v>97</v>
@@ -7886,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="U52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52" s="1">
         <v>0</v>
@@ -7898,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z52" s="1">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ52" s="1">
         <v>0</v>
@@ -7975,19 +7975,19 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C53" s="1">
-        <v>5462507</v>
+        <v>446220</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G53" t="s">
         <v>97</v>
@@ -7999,10 +7999,10 @@
         <v>532</v>
       </c>
       <c r="J53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y53" s="1">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="1">
         <v>0</v>
@@ -8119,19 +8119,19 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C54" s="1">
         <v>12107</v>
       </c>
       <c r="D54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E54" t="s">
         <v>73</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -8263,19 +8263,19 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C55" s="1">
-        <v>5486550</v>
+        <v>88890</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
@@ -8384,13 +8384,13 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="1">
         <v>0</v>
       </c>
       <c r="AS55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT55" s="1">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C56" s="1">
-        <v>446220</v>
+        <v>5486550</v>
       </c>
       <c r="D56" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E56" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F56" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G56" t="s">
         <v>97</v>
@@ -8431,10 +8431,10 @@
         <v>532</v>
       </c>
       <c r="J56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="1">
         <v>0</v>
@@ -8510,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL56" s="1">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="AQ56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR56" s="1">
         <v>0</v>
@@ -8551,19 +8551,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C57" s="1">
-        <v>3345</v>
+        <v>5462507</v>
       </c>
       <c r="D57" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E57" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s">
         <v>97</v>
@@ -8591,10 +8591,10 @@
         <v>1</v>
       </c>
       <c r="P57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" s="1">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C58" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E58" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT58" s="1">
         <v>0</v>
@@ -8839,19 +8839,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C59" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E59" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s">
         <v>97</v>
@@ -8879,10 +8879,10 @@
         <v>1</v>
       </c>
       <c r="P59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="1">
         <v>0</v>
@@ -8983,19 +8983,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C60" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E60" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="1">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ60" s="1">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT60" s="1">
         <v>0</v>
@@ -9127,19 +9127,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C61" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F61" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s">
         <v>97</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z61" s="1">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="AP61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ61" s="1">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -9271,19 +9271,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C62" s="1">
         <v>3345</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
@@ -9415,19 +9415,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C63" s="1">
-        <v>5486550</v>
+        <v>21812144</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E63" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F63" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s">
         <v>97</v>
@@ -9439,10 +9439,10 @@
         <v>541</v>
       </c>
       <c r="J63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR63" s="1">
         <v>0</v>
@@ -9545,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU63" s="1">
         <v>0</v>
@@ -9562,7 +9562,7 @@
         <v>25</v>
       </c>
       <c r="C64" s="1">
-        <v>4914</v>
+        <v>5707</v>
       </c>
       <c r="D64" t="s">
         <v>54</v>
@@ -9571,7 +9571,7 @@
         <v>78</v>
       </c>
       <c r="F64" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G64" t="s">
         <v>97</v>
@@ -9583,10 +9583,10 @@
         <v>541</v>
       </c>
       <c r="J64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -9605,10 +9605,10 @@
         <v>0</v>
       </c>
       <c r="R64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" s="1">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="AP64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ64" s="1">
         <v>0</v>
@@ -9703,16 +9703,16 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C65" s="1">
-        <v>12107</v>
+        <v>62300</v>
       </c>
       <c r="D65" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E65" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F65" t="s">
         <v>95</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="AS65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT65" s="1">
         <v>0</v>
@@ -9847,19 +9847,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C66" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D66" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G66" t="s">
         <v>97</v>
@@ -9871,10 +9871,10 @@
         <v>541</v>
       </c>
       <c r="J66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -9991,19 +9991,19 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C67" s="1">
-        <v>21812144</v>
+        <v>5462507</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F67" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G67" t="s">
         <v>97</v>
@@ -10015,10 +10015,10 @@
         <v>541</v>
       </c>
       <c r="J67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="AT67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU67" s="1">
         <v>0</v>
@@ -10135,16 +10135,16 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C68" s="1">
-        <v>62300</v>
+        <v>5486550</v>
       </c>
       <c r="D68" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F68" t="s">
         <v>95</v>
@@ -10256,7 +10256,7 @@
         <v>0</v>
       </c>
       <c r="AQ68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR68" s="1">
         <v>0</v>
@@ -10423,19 +10423,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C70" s="1">
-        <v>3345</v>
+        <v>4914</v>
       </c>
       <c r="D70" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E70" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G70" t="s">
         <v>97</v>
@@ -10447,10 +10447,10 @@
         <v>541</v>
       </c>
       <c r="J70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -10463,10 +10463,10 @@
         <v>1</v>
       </c>
       <c r="P70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" s="1">
         <v>0</v>
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -10541,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="AP70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ70" s="1">
         <v>0</v>
@@ -10567,19 +10567,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C71" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D71" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E71" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F71" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
@@ -10607,10 +10607,10 @@
         <v>1</v>
       </c>
       <c r="P71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" s="1">
         <v>0</v>
@@ -10714,7 +10714,7 @@
         <v>24</v>
       </c>
       <c r="C72" s="1">
-        <v>5707</v>
+        <v>5462328</v>
       </c>
       <c r="D72" t="s">
         <v>53</v>
@@ -10723,7 +10723,7 @@
         <v>77</v>
       </c>
       <c r="F72" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G72" t="s">
         <v>97</v>
@@ -10757,10 +10757,10 @@
         <v>0</v>
       </c>
       <c r="R72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T72" s="1">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -10855,19 +10855,19 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C73" s="1">
-        <v>5462507</v>
+        <v>88890</v>
       </c>
       <c r="D73" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F73" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G73" t="s">
         <v>97</v>
@@ -10879,10 +10879,10 @@
         <v>541</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -10958,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73" s="1">
         <v>0</v>
@@ -10982,7 +10982,7 @@
         <v>0</v>
       </c>
       <c r="AS73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT73" s="1">
         <v>0</v>
@@ -11005,10 +11005,10 @@
         <v>156346345</v>
       </c>
       <c r="D74" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F74" t="s">
         <v>95</v>
@@ -11143,19 +11143,19 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C75" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E75" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
@@ -11183,10 +11183,10 @@
         <v>1</v>
       </c>
       <c r="P75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" s="1">
         <v>0</v>
@@ -11246,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="AK75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL75" s="1">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="AS75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT75" s="1">
         <v>0</v>
@@ -11287,19 +11287,19 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C76" s="1">
         <v>88890</v>
       </c>
       <c r="D76" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
@@ -11431,19 +11431,19 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C77" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D77" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F77" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
@@ -11455,10 +11455,10 @@
         <v>542</v>
       </c>
       <c r="J77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
@@ -11471,10 +11471,10 @@
         <v>1</v>
       </c>
       <c r="P77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" s="1">
         <v>0</v>
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y77" s="1">
         <v>0</v>
@@ -11534,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="AK77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL77" s="1">
         <v>0</v>
@@ -11575,19 +11575,19 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C78" s="1">
-        <v>165365057</v>
+        <v>446220</v>
       </c>
       <c r="D78" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="F78" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
@@ -11599,10 +11599,10 @@
         <v>542</v>
       </c>
       <c r="J78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y78" s="1">
         <v>0</v>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="AS78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT78" s="1">
         <v>0</v>

--- a/datasets/selfservice/nys/lab_detail.xlsx
+++ b/datasets/selfservice/nys/lab_detail.xlsx
@@ -60,51 +60,51 @@
     <t>substance</t>
   </si>
   <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>1-phenyl-1-propanamine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>menthol</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>nicotine</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>1-phenyl-1-propanamine</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>menthol</t>
-  </si>
-  <si>
-    <t>cocaine</t>
+    <t>procaine</t>
+  </si>
+  <si>
+    <t>xylazine</t>
   </si>
   <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>procaine</t>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
   </si>
   <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
     <t>levamisole</t>
   </si>
   <si>
@@ -117,27 +117,27 @@
     <t>phenacetin</t>
   </si>
   <si>
+    <t>benzoic acid</t>
+  </si>
+  <si>
     <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
-    <t>benzoic acid</t>
+    <t>ketamine</t>
   </si>
   <si>
     <t>lysergic acid diethylamide (LSD)</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>caffeine</t>
   </si>
   <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
@@ -147,48 +147,48 @@
     <t>cas</t>
   </si>
   <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
+    <t>2941-20-0</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>1490-04-6</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t>54-11-5</t>
   </si>
   <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>2941-20-0</t>
-  </si>
-  <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>1490-04-6</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
+    <t>59-46-1</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
   </si>
   <si>
     <t>561-27-3</t>
   </si>
   <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>59-46-1</t>
+    <t>90736-23-5</t>
   </si>
   <si>
     <t>537-46-2</t>
   </si>
   <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
     <t>14769-73-4</t>
   </si>
   <si>
@@ -201,66 +201,66 @@
     <t>62-44-2</t>
   </si>
   <si>
+    <t>65-85-0</t>
+  </si>
+  <si>
     <t>519-09-5</t>
   </si>
   <si>
-    <t>65-85-0</t>
+    <t>6740-88-1</t>
   </si>
   <si>
     <t>50-37-3</t>
   </si>
   <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
     <t>58-08-2</t>
   </si>
   <si>
+    <t>2784-73-8</t>
+  </si>
+  <si>
     <t>6703-27-1</t>
   </si>
   <si>
-    <t>2784-73-8</t>
-  </si>
-  <si>
     <t>122861-41-0</t>
   </si>
   <si>
     <t>unii</t>
   </si>
   <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>6M3C89ZY6R</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
+    <t>4Z8Y51M438</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
   </si>
   <si>
     <t>70D95007SX</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>4Z8Y51M438</t>
+    <t>I45R05QM0Z</t>
   </si>
   <si>
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
     <t>2880D3468G</t>
   </si>
   <si>
@@ -273,25 +273,25 @@
     <t>ER0CTH01H9</t>
   </si>
   <si>
+    <t>8SKN0B0MIM</t>
+  </si>
+  <si>
     <t>5353I8I6YS</t>
   </si>
   <si>
-    <t>8SKN0B0MIM</t>
+    <t>690G0D6V8H</t>
   </si>
   <si>
     <t>8NA5SWF92O</t>
   </si>
   <si>
-    <t>690G0D6V8H</t>
-  </si>
-  <si>
     <t>3G6A5W338E</t>
   </si>
   <si>
+    <t>M5E47P1ZCH</t>
+  </si>
+  <si>
     <t>U59401ETXH</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
@@ -634,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>89594</v>
+        <v>12107</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -778,16 +778,16 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>66924</v>
+        <v>18054</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
         <v>97</v>
@@ -799,10 +799,10 @@
         <v>369</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -922,16 +922,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>18054</v>
+        <v>88890</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -943,10 +943,10 @@
         <v>369</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>12107</v>
+        <v>1254</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
         <v>95</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>88890</v>
+        <v>66924</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
         <v>97</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>165365057</v>
+        <v>446220</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -1375,10 +1375,10 @@
         <v>369</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -1642,13 +1642,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>1254</v>
+        <v>89594</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -1786,16 +1786,16 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
         <v>97</v>
@@ -1807,10 +1807,10 @@
         <v>369</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
@@ -1927,19 +1927,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -1967,10 +1967,10 @@
         <v>1</v>
       </c>
       <c r="P11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="1">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="1">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
-        <v>5707</v>
+        <v>4914</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
         <v>97</v>
@@ -2261,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13" s="1">
         <v>0</v>
@@ -2359,19 +2359,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
         <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -2405,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -2420,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="W14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
@@ -2503,19 +2503,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
         <v>97</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="1">
-        <v>4914</v>
+        <v>5462328</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
@@ -2659,7 +2659,7 @@
         <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="1">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
-        <v>10836</v>
+        <v>165365057</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="1">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
@@ -2935,19 +2935,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
-        <v>4914</v>
+        <v>156346345</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
         <v>97</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="1">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="1">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1">
-        <v>62300</v>
+        <v>4914</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -3103,10 +3103,10 @@
         <v>405</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="1">
         <v>0</v>
@@ -3223,19 +3223,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
-        <v>165365057</v>
+        <v>62300</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -3247,10 +3247,10 @@
         <v>405</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3407,10 +3407,10 @@
         <v>1</v>
       </c>
       <c r="P21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="1">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="1">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -3655,19 +3655,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3695,10 +3695,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="1">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="1">
         <v>0</v>
@@ -3799,19 +3799,19 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1">
-        <v>26879</v>
+        <v>446220</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s">
         <v>97</v>
@@ -3823,10 +3823,10 @@
         <v>406</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -3860,10 +3860,10 @@
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="1">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="1">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="1">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C25" s="1">
-        <v>3034034</v>
+        <v>3345</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s">
         <v>95</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="1">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="AP25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="1">
         <v>0</v>
@@ -4087,19 +4087,19 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1">
-        <v>446220</v>
+        <v>26879</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
         <v>97</v>
@@ -4111,10 +4111,10 @@
         <v>406</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1">
         <v>0</v>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26" s="1">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26" s="1">
         <v>0</v>
@@ -4231,16 +4231,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1">
-        <v>3345</v>
+        <v>3034034</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
         <v>95</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ27" s="1">
         <v>0</v>
@@ -4375,16 +4375,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
-        <v>119478</v>
+        <v>5462328</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -4519,16 +4519,16 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>5462328</v>
+        <v>119478</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
         <v>95</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -4663,19 +4663,19 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1">
         <v>446220</v>
       </c>
       <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" t="s">
         <v>52</v>
-      </c>
-      <c r="E30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" t="s">
-        <v>49</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4819,7 +4819,7 @@
         <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -4951,16 +4951,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
         <v>95</v>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="1">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32" s="1">
         <v>0</v>
@@ -5095,19 +5095,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C33" s="1">
-        <v>3345</v>
+        <v>66924</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G33" t="s">
         <v>97</v>
@@ -5119,10 +5119,10 @@
         <v>495</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5135,10 +5135,10 @@
         <v>1</v>
       </c>
       <c r="P33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="1">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="1">
         <v>0</v>
@@ -5239,16 +5239,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
-        <v>88890</v>
+        <v>243</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s">
         <v>95</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="1">
         <v>0</v>
@@ -5383,19 +5383,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1">
-        <v>119478</v>
+        <v>5707</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -5407,10 +5407,10 @@
         <v>495</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -5432,10 +5432,10 @@
         <v>0</v>
       </c>
       <c r="S35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" s="1">
         <v>0</v>
@@ -5527,19 +5527,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1">
-        <v>66924</v>
+        <v>448223</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -5551,10 +5551,10 @@
         <v>495</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -5671,19 +5671,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1">
-        <v>4754</v>
+        <v>446220</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -5695,10 +5695,10 @@
         <v>495</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -5732,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="AP37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="1">
         <v>0</v>
@@ -5815,19 +5815,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" t="s">
         <v>52</v>
-      </c>
-      <c r="E38" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" t="s">
-        <v>49</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -5855,10 +5855,10 @@
         <v>1</v>
       </c>
       <c r="P38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -5876,10 +5876,10 @@
         <v>0</v>
       </c>
       <c r="W38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="1">
         <v>0</v>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -5959,19 +5959,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="1">
-        <v>448223</v>
+        <v>4754</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -5983,10 +5983,10 @@
         <v>495</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6077,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="AP39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ39" s="1">
         <v>0</v>
@@ -6103,16 +6103,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C40" s="1">
-        <v>243</v>
+        <v>446220</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s">
         <v>95</v>
@@ -6167,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40" s="1">
         <v>0</v>
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" s="1">
-        <v>5462328</v>
+        <v>165365057</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -6271,10 +6271,10 @@
         <v>495</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="1">
         <v>0</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="AS41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT41" s="1">
         <v>0</v>
@@ -6391,19 +6391,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C42" s="1">
-        <v>165365057</v>
+        <v>119478</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="AS42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="1">
         <v>0</v>
@@ -6535,16 +6535,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C43" s="1">
-        <v>5707</v>
+        <v>5462328</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
         <v>95</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="S43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" s="1">
         <v>0</v>
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -6679,19 +6679,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1">
-        <v>4754</v>
+        <v>3821</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -6703,10 +6703,10 @@
         <v>501</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH44" s="1">
         <v>0</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="1">
         <v>0</v>
@@ -6823,19 +6823,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1">
         <v>5761</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -6967,19 +6967,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C46" s="1">
-        <v>3821</v>
+        <v>4754</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -6991,10 +6991,10 @@
         <v>501</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7055,10 +7055,10 @@
         <v>0</v>
       </c>
       <c r="AF46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH46" s="1">
         <v>0</v>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="AP46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ46" s="1">
         <v>0</v>
@@ -7111,19 +7111,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C47" s="1">
         <v>10836</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s">
         <v>97</v>
@@ -7255,19 +7255,19 @@
      